--- a/lib/report/benchmark_report/web14/exl/201809/jsliu__bank_test_&_city_(HF)(201809)_Two_Cycles_Comparison.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201809/jsliu__bank_test_&_city_(HF)(201809)_Two_Cycles_Comparison.xlsx
@@ -359,7 +359,7 @@
     <t xml:space="preserve">Bank Name: jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 10/17/18 5:16:06PM</t>
+    <t>Printed on: 10/29/18 4:54:39AM</t>
   </si>
   <si>
     <t xml:space="preserve"> Rate Shock</t>
@@ -766,7 +766,7 @@
     </r>
   </si>
   <si>
-    <t>Printed on: 10/17/18 5:15:46PM</t>
+    <t>Printed on: 10/29/18 4:54:33AM</t>
   </si>
   <si>
     <t xml:space="preserve">Earning/
@@ -3244,7 +3244,7 @@
       <c r="F8" s="91"/>
       <c r="G8" s="91"/>
       <c r="H8" s="91">
-        <v>181.36210084140234</v>
+        <v>181.35223683614731</v>
       </c>
       <c r="I8" s="91"/>
       <c r="J8" s="91"/>
@@ -3256,7 +3256,7 @@
       <c r="N8" s="91"/>
       <c r="O8" s="91"/>
       <c r="P8" s="91">
-        <v>149.24532943634728</v>
+        <v>149.24216226396655</v>
       </c>
       <c r="Q8" s="91"/>
       <c r="R8" s="91"/>
@@ -3290,7 +3290,7 @@
       <c r="AL8" s="91"/>
       <c r="AM8" s="91"/>
       <c r="AN8" s="91">
-        <v>-3697.41168140444</v>
+        <v>-3697.4091858139177</v>
       </c>
       <c r="AO8" s="91"/>
       <c r="AP8" s="91"/>
@@ -3308,7 +3308,7 @@
       <c r="F9" s="91"/>
       <c r="G9" s="91"/>
       <c r="H9" s="91">
-        <v>135.78167572682148</v>
+        <v>135.78167572581373</v>
       </c>
       <c r="I9" s="91"/>
       <c r="J9" s="91"/>
@@ -3320,7 +3320,7 @@
       <c r="N9" s="91"/>
       <c r="O9" s="91"/>
       <c r="P9" s="91">
-        <v>111.53578190775978</v>
+        <v>111.53578190119008</v>
       </c>
       <c r="Q9" s="91"/>
       <c r="R9" s="91"/>
@@ -3354,7 +3354,7 @@
       <c r="AL9" s="91"/>
       <c r="AM9" s="91"/>
       <c r="AN9" s="91">
-        <v>-3685.8808411900222</v>
+        <v>-3685.8808411898331</v>
       </c>
       <c r="AO9" s="91"/>
       <c r="AP9" s="91"/>
@@ -3372,7 +3372,7 @@
       <c r="F10" s="91"/>
       <c r="G10" s="91"/>
       <c r="H10" s="91">
-        <v>90.39598478509096</v>
+        <v>90.395984785004572</v>
       </c>
       <c r="I10" s="91"/>
       <c r="J10" s="91"/>
@@ -3384,7 +3384,7 @@
       <c r="N10" s="91"/>
       <c r="O10" s="91"/>
       <c r="P10" s="91">
-        <v>74.085158467094942</v>
+        <v>74.085158466229885</v>
       </c>
       <c r="Q10" s="91"/>
       <c r="R10" s="91"/>
@@ -3418,7 +3418,7 @@
       <c r="AL10" s="91"/>
       <c r="AM10" s="91"/>
       <c r="AN10" s="91">
-        <v>-3674.399400894376</v>
+        <v>-3674.3994008944396</v>
       </c>
       <c r="AO10" s="91"/>
       <c r="AP10" s="91"/>
@@ -3436,7 +3436,7 @@
       <c r="F11" s="91"/>
       <c r="G11" s="91"/>
       <c r="H11" s="91">
-        <v>45.063238151410793</v>
+        <v>45.0632381515696</v>
       </c>
       <c r="I11" s="91"/>
       <c r="J11" s="91"/>
@@ -3448,7 +3448,7 @@
       <c r="N11" s="91"/>
       <c r="O11" s="91"/>
       <c r="P11" s="91">
-        <v>36.885063839939193</v>
+        <v>36.885063840415278</v>
       </c>
       <c r="Q11" s="91"/>
       <c r="R11" s="91"/>
@@ -3482,7 +3482,7 @@
       <c r="AL11" s="91"/>
       <c r="AM11" s="91"/>
       <c r="AN11" s="91">
-        <v>-3662.9412009695234</v>
+        <v>-3662.9412009695434</v>
       </c>
       <c r="AO11" s="91"/>
       <c r="AP11" s="91"/>
@@ -3564,7 +3564,7 @@
       <c r="F13" s="91"/>
       <c r="G13" s="91"/>
       <c r="H13" s="91">
-        <v>-44.898679283549889</v>
+        <v>-44.873327474867914</v>
       </c>
       <c r="I13" s="91"/>
       <c r="J13" s="91"/>
@@ -3576,7 +3576,7 @@
       <c r="N13" s="91"/>
       <c r="O13" s="91"/>
       <c r="P13" s="91">
-        <v>-36.662763619635641</v>
+        <v>-36.651197008441443</v>
       </c>
       <c r="Q13" s="91"/>
       <c r="R13" s="91"/>
@@ -3610,7 +3610,7 @@
       <c r="AL13" s="91"/>
       <c r="AM13" s="91"/>
       <c r="AN13" s="91">
-        <v>-3640.1944296468228</v>
+        <v>-3640.1967116539522</v>
       </c>
       <c r="AO13" s="91"/>
       <c r="AP13" s="91"/>
@@ -3628,7 +3628,7 @@
       <c r="F14" s="91"/>
       <c r="G14" s="91"/>
       <c r="H14" s="91">
-        <v>-89.76376344741881</v>
+        <v>-89.7383099908362</v>
       </c>
       <c r="I14" s="91"/>
       <c r="J14" s="91"/>
@@ -3640,7 +3640,7 @@
       <c r="N14" s="91"/>
       <c r="O14" s="91"/>
       <c r="P14" s="91">
-        <v>-73.1551828790316</v>
+        <v>-73.143583956736023</v>
       </c>
       <c r="Q14" s="91"/>
       <c r="R14" s="91"/>
@@ -3672,7 +3672,7 @@
       <c r="AL14" s="91"/>
       <c r="AM14" s="91"/>
       <c r="AN14" s="91">
-        <v>-3628.8432143832838</v>
+        <v>-3628.8455221073441</v>
       </c>
       <c r="AO14" s="91"/>
       <c r="AP14" s="91"/>
@@ -3736,7 +3736,7 @@
       <c r="F16" s="91"/>
       <c r="G16" s="91"/>
       <c r="H16" s="91">
-        <v>-56.053465817221571</v>
+        <v>-55.999277239214415</v>
       </c>
       <c r="I16" s="91"/>
       <c r="J16" s="91"/>
@@ -3748,7 +3748,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
       <c r="P16" s="91">
-        <v>-56.010827334439995</v>
+        <v>-55.986191773705372</v>
       </c>
       <c r="Q16" s="91"/>
       <c r="R16" s="91"/>
@@ -3780,7 +3780,7 @@
       <c r="AL16" s="91"/>
       <c r="AM16" s="91"/>
       <c r="AN16" s="91">
-        <v>-3637.3712324518906</v>
+        <v>-3637.3808101627355</v>
       </c>
       <c r="AO16" s="91"/>
       <c r="AP16" s="91"/>
@@ -3798,7 +3798,7 @@
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
       <c r="H17" s="91">
-        <v>136.82078869713334</v>
+        <v>136.82078869754557</v>
       </c>
       <c r="I17" s="91"/>
       <c r="J17" s="91"/>
@@ -3810,7 +3810,7 @@
       <c r="N17" s="91"/>
       <c r="O17" s="91"/>
       <c r="P17" s="91">
-        <v>98.485041377470523</v>
+        <v>98.485041378788708</v>
       </c>
       <c r="Q17" s="91"/>
       <c r="R17" s="91"/>
@@ -3842,7 +3842,7 @@
       <c r="AL17" s="91"/>
       <c r="AM17" s="91"/>
       <c r="AN17" s="91">
-        <v>-3686.1430694709088</v>
+        <v>-3686.1430694710316</v>
       </c>
       <c r="AO17" s="91"/>
       <c r="AP17" s="91"/>
@@ -4058,13 +4058,13 @@
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96">
-        <v>-251.16854287819206</v>
+        <v>-251.16854287819777</v>
       </c>
       <c r="I23" s="96"/>
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
       <c r="L23" s="96">
-        <v>-251.16854287819206</v>
+        <v>-251.16854287819777</v>
       </c>
       <c r="M23" s="96"/>
       <c r="N23" s="96"/>
@@ -4098,7 +4098,7 @@
       <c r="AL23" s="96"/>
       <c r="AM23" s="96"/>
       <c r="AN23" s="96">
-        <v>-222.66929363061985</v>
+        <v>-222.66929363062556</v>
       </c>
       <c r="AO23" s="96"/>
       <c r="AP23" s="96"/>
@@ -4116,13 +4116,13 @@
       <c r="F24" s="96"/>
       <c r="G24" s="96"/>
       <c r="H24" s="96">
-        <v>-1294.4906961688903</v>
+        <v>-1294.4906961688982</v>
       </c>
       <c r="I24" s="96"/>
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
       <c r="L24" s="96">
-        <v>-1294.4906961688903</v>
+        <v>-1294.4906961688982</v>
       </c>
       <c r="M24" s="96"/>
       <c r="N24" s="96"/>
@@ -4156,7 +4156,7 @@
       <c r="AL24" s="96"/>
       <c r="AM24" s="96"/>
       <c r="AN24" s="96">
-        <v>-1237.4921976737458</v>
+        <v>-1237.4921976737537</v>
       </c>
       <c r="AO24" s="96"/>
       <c r="AP24" s="96"/>
@@ -4238,13 +4238,13 @@
       <c r="F26" s="96"/>
       <c r="G26" s="96"/>
       <c r="H26" s="96">
-        <v>-51306.143487318222</v>
+        <v>-51306.14348731823</v>
       </c>
       <c r="I26" s="96"/>
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
       <c r="L26" s="96">
-        <v>-51306.143487318222</v>
+        <v>-51306.14348731823</v>
       </c>
       <c r="M26" s="96"/>
       <c r="N26" s="96"/>
@@ -4278,13 +4278,13 @@
       <c r="AH26" s="96"/>
       <c r="AI26" s="96"/>
       <c r="AJ26" s="96">
-        <v>21988.347208850664</v>
+        <v>21988.347208850671</v>
       </c>
       <c r="AK26" s="96"/>
       <c r="AL26" s="96"/>
       <c r="AM26" s="96"/>
       <c r="AN26" s="96">
-        <v>-1237.4921976737439</v>
+        <v>-1237.4921976737589</v>
       </c>
       <c r="AO26" s="96"/>
       <c r="AP26" s="96"/>
@@ -10776,55 +10776,55 @@
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="96">
-        <v>-25.710206194683042</v>
+        <v>-25.774137270694322</v>
       </c>
       <c r="E116" s="96"/>
       <c r="F116" s="96"/>
       <c r="G116" s="96"/>
       <c r="H116" s="96">
-        <v>-138.39718435014711</v>
+        <v>-138.46086011861004</v>
       </c>
       <c r="I116" s="96"/>
       <c r="J116" s="96"/>
       <c r="K116" s="96"/>
       <c r="L116" s="96">
-        <v>-251.16854287819206</v>
+        <v>-251.16854287819777</v>
       </c>
       <c r="M116" s="96"/>
       <c r="N116" s="96"/>
       <c r="O116" s="96"/>
       <c r="P116" s="96">
-        <v>-364.3532215168201</v>
+        <v>-364.35322151722727</v>
       </c>
       <c r="Q116" s="96"/>
       <c r="R116" s="96"/>
       <c r="S116" s="96"/>
       <c r="T116" s="96">
-        <v>-478.21482068329726</v>
+        <v>-478.21482068309115</v>
       </c>
       <c r="U116" s="96"/>
       <c r="V116" s="96"/>
       <c r="W116" s="96"/>
       <c r="X116" s="96">
-        <v>-592.2093992968413</v>
+        <v>-592.20939929432359</v>
       </c>
       <c r="Y116" s="96"/>
       <c r="Z116" s="96"/>
       <c r="AA116" s="96"/>
       <c r="AB116" s="96">
-        <v>-706.69308889481965</v>
+        <v>-706.66831361656716</v>
       </c>
       <c r="AC116" s="96"/>
       <c r="AD116" s="96"/>
       <c r="AE116" s="96"/>
       <c r="AF116" s="96">
-        <v>-594.819324203232</v>
+        <v>-594.81932420428086</v>
       </c>
       <c r="AG116" s="96"/>
       <c r="AH116" s="96"/>
       <c r="AI116" s="96"/>
       <c r="AJ116" s="98">
-        <v>45.063238151410793</v>
+        <v>45.0632381515696</v>
       </c>
       <c r="AK116" s="98"/>
       <c r="AL116" s="98"/>
@@ -11553,7 +11553,7 @@
       <c r="AL132" s="112"/>
       <c r="AM132" s="112"/>
       <c r="AN132" s="112">
-        <v>-30.720646533438803</v>
+        <v>-30.7206465334391</v>
       </c>
       <c r="AO132" s="112"/>
       <c r="AP132" s="112"/>
@@ -11679,7 +11679,7 @@
       <c r="AL134" s="115"/>
       <c r="AM134" s="115"/>
       <c r="AN134" s="115">
-        <v>-33.147447268983804</v>
+        <v>-33.147447268983996</v>
       </c>
       <c r="AO134" s="115"/>
       <c r="AP134" s="115"/>
@@ -12054,12 +12054,12 @@
       <c r="AI140" s="115"/>
       <c r="AJ140" s="115"/>
       <c r="AK140" s="115">
-        <v>-16344.3936913718</v>
+        <v>-16344.393691371999</v>
       </c>
       <c r="AL140" s="115"/>
       <c r="AM140" s="115"/>
       <c r="AN140" s="115">
-        <v>-18467.592598914198</v>
+        <v>-18467.5925989139</v>
       </c>
       <c r="AO140" s="115"/>
       <c r="AP140" s="115"/>
@@ -12634,13 +12634,13 @@
       <c r="F158" s="154"/>
       <c r="G158" s="154"/>
       <c r="H158" s="154">
-        <v>-25874.068285571502</v>
+        <v>-25874.0682855788</v>
       </c>
       <c r="I158" s="154"/>
       <c r="J158" s="154"/>
       <c r="K158" s="154"/>
       <c r="L158" s="154">
-        <v>-25874.068285571502</v>
+        <v>-25874.0682855788</v>
       </c>
       <c r="M158" s="154"/>
       <c r="N158" s="154"/>
@@ -12650,13 +12650,13 @@
       <c r="R158" s="154"/>
       <c r="S158" s="154"/>
       <c r="T158" s="154">
-        <v>-51804.3429595241</v>
+        <v>-51804.3429595209</v>
       </c>
       <c r="U158" s="154"/>
       <c r="V158" s="154"/>
       <c r="W158" s="154"/>
       <c r="X158" s="154">
-        <v>-51804.3429595241</v>
+        <v>-51804.3429595209</v>
       </c>
       <c r="Y158" s="154"/>
       <c r="Z158" s="154"/>
@@ -12672,13 +12672,13 @@
       <c r="F159" s="154"/>
       <c r="G159" s="154"/>
       <c r="H159" s="156">
-        <v>-25102.9682855715</v>
+        <v>-25102.968285578798</v>
       </c>
       <c r="I159" s="156"/>
       <c r="J159" s="156"/>
       <c r="K159" s="156"/>
       <c r="L159" s="156">
-        <v>-25102.9682855715</v>
+        <v>-25102.968285578798</v>
       </c>
       <c r="M159" s="156"/>
       <c r="N159" s="156"/>
@@ -12688,13 +12688,13 @@
       <c r="R159" s="154"/>
       <c r="S159" s="154"/>
       <c r="T159" s="156">
-        <v>-51033.242959524105</v>
+        <v>-51033.242959520896</v>
       </c>
       <c r="U159" s="156"/>
       <c r="V159" s="156"/>
       <c r="W159" s="156"/>
       <c r="X159" s="156">
-        <v>-51033.242959524105</v>
+        <v>-51033.242959520896</v>
       </c>
       <c r="Y159" s="156"/>
       <c r="Z159" s="156"/>
@@ -13204,13 +13204,13 @@
       <c r="F173" s="154"/>
       <c r="G173" s="154"/>
       <c r="H173" s="156">
-        <v>-23942.1672855715</v>
+        <v>-23942.1672855788</v>
       </c>
       <c r="I173" s="156"/>
       <c r="J173" s="156"/>
       <c r="K173" s="156"/>
       <c r="L173" s="156">
-        <v>-23942.1672855715</v>
+        <v>-23942.1672855788</v>
       </c>
       <c r="M173" s="156"/>
       <c r="N173" s="156"/>
@@ -13220,13 +13220,13 @@
       <c r="R173" s="154"/>
       <c r="S173" s="154"/>
       <c r="T173" s="156">
-        <v>-49872.441959524105</v>
+        <v>-49872.4419595209</v>
       </c>
       <c r="U173" s="156"/>
       <c r="V173" s="156"/>
       <c r="W173" s="156"/>
       <c r="X173" s="156">
-        <v>-49872.441959524105</v>
+        <v>-49872.4419595209</v>
       </c>
       <c r="Y173" s="156"/>
       <c r="Z173" s="156"/>
@@ -14040,13 +14040,13 @@
       <c r="F198" s="154"/>
       <c r="G198" s="154"/>
       <c r="H198" s="156">
-        <v>-24862.1672855715</v>
+        <v>-24862.1672855788</v>
       </c>
       <c r="I198" s="156"/>
       <c r="J198" s="156"/>
       <c r="K198" s="156"/>
       <c r="L198" s="156">
-        <v>-24862.1672855715</v>
+        <v>-24862.1672855788</v>
       </c>
       <c r="M198" s="156"/>
       <c r="N198" s="156"/>
@@ -14056,13 +14056,13 @@
       <c r="R198" s="154"/>
       <c r="S198" s="154"/>
       <c r="T198" s="156">
-        <v>-50792.441959524105</v>
+        <v>-50792.4419595209</v>
       </c>
       <c r="U198" s="156"/>
       <c r="V198" s="156"/>
       <c r="W198" s="156"/>
       <c r="X198" s="156">
-        <v>-50792.441959524105</v>
+        <v>-50792.4419595209</v>
       </c>
       <c r="Y198" s="156"/>
       <c r="Z198" s="156"/>
@@ -14238,13 +14238,13 @@
       <c r="F204" s="154"/>
       <c r="G204" s="154"/>
       <c r="H204" s="154">
-        <v>2672.6408010795822</v>
+        <v>2672.6408010795526</v>
       </c>
       <c r="I204" s="154"/>
       <c r="J204" s="154"/>
       <c r="K204" s="154"/>
       <c r="L204" s="154">
-        <v>2672.6408010795822</v>
+        <v>2672.6408010795526</v>
       </c>
       <c r="M204" s="154"/>
       <c r="N204" s="154"/>
@@ -14254,13 +14254,13 @@
       <c r="R204" s="154"/>
       <c r="S204" s="154"/>
       <c r="T204" s="154">
-        <v>2619.0573221212089</v>
+        <v>2619.0573221196864</v>
       </c>
       <c r="U204" s="154"/>
       <c r="V204" s="154"/>
       <c r="W204" s="154"/>
       <c r="X204" s="154">
-        <v>2619.0573221212089</v>
+        <v>2619.0573221196864</v>
       </c>
       <c r="Y204" s="154"/>
       <c r="Z204" s="154"/>
@@ -14276,13 +14276,13 @@
       <c r="F205" s="154"/>
       <c r="G205" s="154"/>
       <c r="H205" s="154">
-        <v>17934.38809529119</v>
+        <v>17934.388095290244</v>
       </c>
       <c r="I205" s="154"/>
       <c r="J205" s="154"/>
       <c r="K205" s="154"/>
       <c r="L205" s="154">
-        <v>17934.38809529119</v>
+        <v>17934.388095290244</v>
       </c>
       <c r="M205" s="154"/>
       <c r="N205" s="154"/>
@@ -14292,13 +14292,13 @@
       <c r="R205" s="154"/>
       <c r="S205" s="154"/>
       <c r="T205" s="154">
-        <v>16054.24456585625</v>
+        <v>16054.244565860548</v>
       </c>
       <c r="U205" s="154"/>
       <c r="V205" s="154"/>
       <c r="W205" s="154"/>
       <c r="X205" s="154">
-        <v>16054.24456585625</v>
+        <v>16054.244565860548</v>
       </c>
       <c r="Y205" s="154"/>
       <c r="Z205" s="154"/>
@@ -14314,13 +14314,13 @@
       <c r="F206" s="154"/>
       <c r="G206" s="154"/>
       <c r="H206" s="154">
-        <v>3258.7113366510648</v>
+        <v>3258.7113366512417</v>
       </c>
       <c r="I206" s="154"/>
       <c r="J206" s="154"/>
       <c r="K206" s="154"/>
       <c r="L206" s="154">
-        <v>3258.7113366510648</v>
+        <v>3258.7113366512417</v>
       </c>
       <c r="M206" s="154"/>
       <c r="N206" s="154"/>
@@ -14330,13 +14330,13 @@
       <c r="R206" s="154"/>
       <c r="S206" s="154"/>
       <c r="T206" s="154">
-        <v>3021.2652579774276</v>
+        <v>3021.2652579762789</v>
       </c>
       <c r="U206" s="154"/>
       <c r="V206" s="154"/>
       <c r="W206" s="154"/>
       <c r="X206" s="154">
-        <v>3021.2652579774276</v>
+        <v>3021.2652579762789</v>
       </c>
       <c r="Y206" s="154"/>
       <c r="Z206" s="154"/>
@@ -14352,13 +14352,13 @@
       <c r="F207" s="154"/>
       <c r="G207" s="154"/>
       <c r="H207" s="154">
-        <v>885.03579728424324</v>
+        <v>885.03579728407772</v>
       </c>
       <c r="I207" s="154"/>
       <c r="J207" s="154"/>
       <c r="K207" s="154"/>
       <c r="L207" s="154">
-        <v>885.03579728424324</v>
+        <v>885.03579728407772</v>
       </c>
       <c r="M207" s="154"/>
       <c r="N207" s="154"/>
@@ -14368,13 +14368,13 @@
       <c r="R207" s="154"/>
       <c r="S207" s="154"/>
       <c r="T207" s="154">
-        <v>839.4759006336551</v>
+        <v>839.47590063297037</v>
       </c>
       <c r="U207" s="154"/>
       <c r="V207" s="154"/>
       <c r="W207" s="154"/>
       <c r="X207" s="154">
-        <v>839.4759006336551</v>
+        <v>839.47590063297037</v>
       </c>
       <c r="Y207" s="154"/>
       <c r="Z207" s="154"/>
@@ -14390,13 +14390,13 @@
       <c r="F208" s="154"/>
       <c r="G208" s="154"/>
       <c r="H208" s="154">
-        <v>11437.707423795027</v>
+        <v>11437.707423792186</v>
       </c>
       <c r="I208" s="154"/>
       <c r="J208" s="154"/>
       <c r="K208" s="154"/>
       <c r="L208" s="154">
-        <v>11437.707423795027</v>
+        <v>11437.707423792186</v>
       </c>
       <c r="M208" s="154"/>
       <c r="N208" s="154"/>
@@ -14406,13 +14406,13 @@
       <c r="R208" s="154"/>
       <c r="S208" s="154"/>
       <c r="T208" s="154">
-        <v>10812.787694925437</v>
+        <v>10812.787694924286</v>
       </c>
       <c r="U208" s="154"/>
       <c r="V208" s="154"/>
       <c r="W208" s="154"/>
       <c r="X208" s="154">
-        <v>10812.787694925437</v>
+        <v>10812.787694924286</v>
       </c>
       <c r="Y208" s="154"/>
       <c r="Z208" s="154"/>
@@ -14428,13 +14428,13 @@
       <c r="F209" s="154"/>
       <c r="G209" s="154"/>
       <c r="H209" s="154">
-        <v>4346.8686023897317</v>
+        <v>4346.8686023895625</v>
       </c>
       <c r="I209" s="154"/>
       <c r="J209" s="154"/>
       <c r="K209" s="154"/>
       <c r="L209" s="154">
-        <v>4346.8686023897317</v>
+        <v>4346.8686023895625</v>
       </c>
       <c r="M209" s="154"/>
       <c r="N209" s="154"/>
@@ -14444,13 +14444,13 @@
       <c r="R209" s="154"/>
       <c r="S209" s="154"/>
       <c r="T209" s="154">
-        <v>4358.1683680401638</v>
+        <v>4358.1683680398482</v>
       </c>
       <c r="U209" s="154"/>
       <c r="V209" s="154"/>
       <c r="W209" s="154"/>
       <c r="X209" s="154">
-        <v>4358.1683680401638</v>
+        <v>4358.1683680398482</v>
       </c>
       <c r="Y209" s="154"/>
       <c r="Z209" s="154"/>
@@ -14466,13 +14466,13 @@
       <c r="F210" s="154"/>
       <c r="G210" s="154"/>
       <c r="H210" s="154">
-        <v>600.77590817868838</v>
+        <v>600.77590817870077</v>
       </c>
       <c r="I210" s="154"/>
       <c r="J210" s="154"/>
       <c r="K210" s="154"/>
       <c r="L210" s="154">
-        <v>600.77590817868838</v>
+        <v>600.77590817870077</v>
       </c>
       <c r="M210" s="154"/>
       <c r="N210" s="154"/>
@@ -14482,13 +14482,13 @@
       <c r="R210" s="154"/>
       <c r="S210" s="154"/>
       <c r="T210" s="154">
-        <v>603.57962909016624</v>
+        <v>603.579629090174</v>
       </c>
       <c r="U210" s="154"/>
       <c r="V210" s="154"/>
       <c r="W210" s="154"/>
       <c r="X210" s="154">
-        <v>603.57962909016624</v>
+        <v>603.579629090174</v>
       </c>
       <c r="Y210" s="154"/>
       <c r="Z210" s="154"/>
@@ -14504,13 +14504,13 @@
       <c r="F211" s="154"/>
       <c r="G211" s="154"/>
       <c r="H211" s="154">
-        <v>606.36928956049269</v>
+        <v>606.369289560504</v>
       </c>
       <c r="I211" s="154"/>
       <c r="J211" s="154"/>
       <c r="K211" s="154"/>
       <c r="L211" s="154">
-        <v>606.36928956049269</v>
+        <v>606.369289560504</v>
       </c>
       <c r="M211" s="154"/>
       <c r="N211" s="154"/>
@@ -14520,13 +14520,13 @@
       <c r="R211" s="154"/>
       <c r="S211" s="154"/>
       <c r="T211" s="154">
-        <v>527.22599464792836</v>
+        <v>527.225994647936</v>
       </c>
       <c r="U211" s="154"/>
       <c r="V211" s="154"/>
       <c r="W211" s="154"/>
       <c r="X211" s="154">
-        <v>527.22599464792836</v>
+        <v>527.225994647936</v>
       </c>
       <c r="Y211" s="154"/>
       <c r="Z211" s="154"/>
@@ -14542,13 +14542,13 @@
       <c r="F212" s="154"/>
       <c r="G212" s="154"/>
       <c r="H212" s="154">
-        <v>4.4793467814616452</v>
+        <v>4.4793467814617225</v>
       </c>
       <c r="I212" s="154"/>
       <c r="J212" s="154"/>
       <c r="K212" s="154"/>
       <c r="L212" s="154">
-        <v>4.4793467814616452</v>
+        <v>4.4793467814617225</v>
       </c>
       <c r="M212" s="154"/>
       <c r="N212" s="154"/>
@@ -14558,13 +14558,13 @@
       <c r="R212" s="154"/>
       <c r="S212" s="154"/>
       <c r="T212" s="154">
-        <v>5.3310667080543581</v>
+        <v>5.3310667080595406</v>
       </c>
       <c r="U212" s="154"/>
       <c r="V212" s="154"/>
       <c r="W212" s="154"/>
       <c r="X212" s="154">
-        <v>5.3310667080543581</v>
+        <v>5.3310667080595406</v>
       </c>
       <c r="Y212" s="154"/>
       <c r="Z212" s="154"/>
@@ -14580,13 +14580,13 @@
       <c r="F213" s="154"/>
       <c r="G213" s="154"/>
       <c r="H213" s="154">
-        <v>1124.6883680014087</v>
+        <v>1124.6883680013218</v>
       </c>
       <c r="I213" s="154"/>
       <c r="J213" s="154"/>
       <c r="K213" s="154"/>
       <c r="L213" s="154">
-        <v>1124.6883680014087</v>
+        <v>1124.6883680013218</v>
       </c>
       <c r="M213" s="154"/>
       <c r="N213" s="154"/>
@@ -14596,13 +14596,13 @@
       <c r="R213" s="154"/>
       <c r="S213" s="154"/>
       <c r="T213" s="154">
-        <v>1240.8251383853003</v>
+        <v>1240.8251383850904</v>
       </c>
       <c r="U213" s="154"/>
       <c r="V213" s="154"/>
       <c r="W213" s="154"/>
       <c r="X213" s="154">
-        <v>1240.8251383853003</v>
+        <v>1240.8251383850904</v>
       </c>
       <c r="Y213" s="154"/>
       <c r="Z213" s="154"/>
@@ -14618,13 +14618,13 @@
       <c r="F214" s="154"/>
       <c r="G214" s="154"/>
       <c r="H214" s="154">
-        <v>611.28388416110386</v>
+        <v>611.28388416089729</v>
       </c>
       <c r="I214" s="154"/>
       <c r="J214" s="154"/>
       <c r="K214" s="154"/>
       <c r="L214" s="154">
-        <v>611.28388416110386</v>
+        <v>611.28388416089729</v>
       </c>
       <c r="M214" s="154"/>
       <c r="N214" s="154"/>
@@ -14634,13 +14634,13 @@
       <c r="R214" s="154"/>
       <c r="S214" s="154"/>
       <c r="T214" s="154">
-        <v>639.897131882064</v>
+        <v>639.89713188277449</v>
       </c>
       <c r="U214" s="154"/>
       <c r="V214" s="154"/>
       <c r="W214" s="154"/>
       <c r="X214" s="154">
-        <v>639.897131882064</v>
+        <v>639.89713188277449</v>
       </c>
       <c r="Y214" s="154"/>
       <c r="Z214" s="154"/>
@@ -14656,13 +14656,13 @@
       <c r="F215" s="154"/>
       <c r="G215" s="154"/>
       <c r="H215" s="154">
-        <v>626.74308508154627</v>
+        <v>626.74308508115064</v>
       </c>
       <c r="I215" s="154"/>
       <c r="J215" s="154"/>
       <c r="K215" s="154"/>
       <c r="L215" s="154">
-        <v>626.74308508154627</v>
+        <v>626.74308508115064</v>
       </c>
       <c r="M215" s="154"/>
       <c r="N215" s="154"/>
@@ -14672,13 +14672,13 @@
       <c r="R215" s="154"/>
       <c r="S215" s="154"/>
       <c r="T215" s="154">
-        <v>661.871100498292</v>
+        <v>661.8711004985023</v>
       </c>
       <c r="U215" s="154"/>
       <c r="V215" s="154"/>
       <c r="W215" s="154"/>
       <c r="X215" s="154">
-        <v>661.871100498292</v>
+        <v>661.8711004985023</v>
       </c>
       <c r="Y215" s="154"/>
       <c r="Z215" s="154"/>
@@ -14694,13 +14694,13 @@
       <c r="F216" s="154"/>
       <c r="G216" s="154"/>
       <c r="H216" s="154">
-        <v>-326589.31273080653</v>
+        <v>-326589.3127308035</v>
       </c>
       <c r="I216" s="154"/>
       <c r="J216" s="154"/>
       <c r="K216" s="154"/>
       <c r="L216" s="154">
-        <v>-326589.31273080653</v>
+        <v>-326589.3127308035</v>
       </c>
       <c r="M216" s="154"/>
       <c r="N216" s="154"/>
@@ -14710,13 +14710,13 @@
       <c r="R216" s="154"/>
       <c r="S216" s="154"/>
       <c r="T216" s="154">
-        <v>-1121778.64645752</v>
+        <v>-1121778.6464575192</v>
       </c>
       <c r="U216" s="154"/>
       <c r="V216" s="154"/>
       <c r="W216" s="154"/>
       <c r="X216" s="154">
-        <v>-1121778.64645752</v>
+        <v>-1121778.6464575192</v>
       </c>
       <c r="Y216" s="154"/>
       <c r="Z216" s="154"/>
@@ -14732,13 +14732,13 @@
       <c r="F217" s="154"/>
       <c r="G217" s="154"/>
       <c r="H217" s="156">
-        <v>-282479.62079255068</v>
+        <v>-282479.62079255248</v>
       </c>
       <c r="I217" s="156"/>
       <c r="J217" s="156"/>
       <c r="K217" s="156"/>
       <c r="L217" s="156">
-        <v>-282479.62079255068</v>
+        <v>-282479.62079255248</v>
       </c>
       <c r="M217" s="156"/>
       <c r="N217" s="156"/>
@@ -14748,13 +14748,13 @@
       <c r="R217" s="154"/>
       <c r="S217" s="154"/>
       <c r="T217" s="156">
-        <v>-1080394.9172867532</v>
+        <v>-1080394.9172867534</v>
       </c>
       <c r="U217" s="156"/>
       <c r="V217" s="156"/>
       <c r="W217" s="156"/>
       <c r="X217" s="156">
-        <v>-1080394.9172867532</v>
+        <v>-1080394.9172867534</v>
       </c>
       <c r="Y217" s="156"/>
       <c r="Z217" s="156"/>
@@ -14770,13 +14770,13 @@
       <c r="F218" s="154"/>
       <c r="G218" s="154"/>
       <c r="H218" s="154">
-        <v>384.04917404945473</v>
+        <v>384.04917404945593</v>
       </c>
       <c r="I218" s="154"/>
       <c r="J218" s="154"/>
       <c r="K218" s="154"/>
       <c r="L218" s="154">
-        <v>384.04917404945473</v>
+        <v>384.04917404945593</v>
       </c>
       <c r="M218" s="154"/>
       <c r="N218" s="154"/>
@@ -14786,13 +14786,13 @@
       <c r="R218" s="154"/>
       <c r="S218" s="154"/>
       <c r="T218" s="154">
-        <v>461.2171822627887</v>
+        <v>461.21718226163318</v>
       </c>
       <c r="U218" s="154"/>
       <c r="V218" s="154"/>
       <c r="W218" s="154"/>
       <c r="X218" s="154">
-        <v>461.2171822627887</v>
+        <v>461.21718226163318</v>
       </c>
       <c r="Y218" s="154"/>
       <c r="Z218" s="154"/>
@@ -14808,13 +14808,13 @@
       <c r="F219" s="154"/>
       <c r="G219" s="154"/>
       <c r="H219" s="154">
-        <v>21160.521789701081</v>
+        <v>21160.521789696897</v>
       </c>
       <c r="I219" s="154"/>
       <c r="J219" s="154"/>
       <c r="K219" s="154"/>
       <c r="L219" s="154">
-        <v>21160.521789701081</v>
+        <v>21160.521789696897</v>
       </c>
       <c r="M219" s="154"/>
       <c r="N219" s="154"/>
@@ -14824,13 +14824,13 @@
       <c r="R219" s="154"/>
       <c r="S219" s="154"/>
       <c r="T219" s="154">
-        <v>25876.506944759989</v>
+        <v>25876.50694475304</v>
       </c>
       <c r="U219" s="154"/>
       <c r="V219" s="154"/>
       <c r="W219" s="154"/>
       <c r="X219" s="154">
-        <v>25876.506944759989</v>
+        <v>25876.50694475304</v>
       </c>
       <c r="Y219" s="154"/>
       <c r="Z219" s="154"/>
@@ -14846,13 +14846,13 @@
       <c r="F220" s="154"/>
       <c r="G220" s="154"/>
       <c r="H220" s="154">
-        <v>954.793592633103</v>
+        <v>954.79359263291315</v>
       </c>
       <c r="I220" s="154"/>
       <c r="J220" s="154"/>
       <c r="K220" s="154"/>
       <c r="L220" s="154">
-        <v>954.793592633103</v>
+        <v>954.79359263291315</v>
       </c>
       <c r="M220" s="154"/>
       <c r="N220" s="154"/>
@@ -14862,13 +14862,13 @@
       <c r="R220" s="154"/>
       <c r="S220" s="154"/>
       <c r="T220" s="154">
-        <v>1103.9394911172112</v>
+        <v>1103.9394911176648</v>
       </c>
       <c r="U220" s="154"/>
       <c r="V220" s="154"/>
       <c r="W220" s="154"/>
       <c r="X220" s="154">
-        <v>1103.9394911172112</v>
+        <v>1103.9394911176648</v>
       </c>
       <c r="Y220" s="154"/>
       <c r="Z220" s="154"/>
@@ -14884,13 +14884,13 @@
       <c r="F221" s="154"/>
       <c r="G221" s="154"/>
       <c r="H221" s="156">
-        <v>22499.364556383644</v>
+        <v>22499.364556379267</v>
       </c>
       <c r="I221" s="156"/>
       <c r="J221" s="156"/>
       <c r="K221" s="156"/>
       <c r="L221" s="156">
-        <v>22499.364556383644</v>
+        <v>22499.364556379267</v>
       </c>
       <c r="M221" s="156"/>
       <c r="N221" s="156"/>
@@ -14900,13 +14900,13 @@
       <c r="R221" s="154"/>
       <c r="S221" s="154"/>
       <c r="T221" s="156">
-        <v>27441.663618140006</v>
+        <v>27441.663618132341</v>
       </c>
       <c r="U221" s="156"/>
       <c r="V221" s="156"/>
       <c r="W221" s="156"/>
       <c r="X221" s="156">
-        <v>27441.663618140006</v>
+        <v>27441.663618132341</v>
       </c>
       <c r="Y221" s="156"/>
       <c r="Z221" s="156"/>
@@ -14922,13 +14922,13 @@
       <c r="F222" s="154"/>
       <c r="G222" s="154"/>
       <c r="H222" s="154">
-        <v>581.52677759663106</v>
+        <v>581.52677759668813</v>
       </c>
       <c r="I222" s="154"/>
       <c r="J222" s="154"/>
       <c r="K222" s="154"/>
       <c r="L222" s="154">
-        <v>581.52677759663106</v>
+        <v>581.52677759668813</v>
       </c>
       <c r="M222" s="154"/>
       <c r="N222" s="154"/>
@@ -14938,13 +14938,13 @@
       <c r="R222" s="154"/>
       <c r="S222" s="154"/>
       <c r="T222" s="154">
-        <v>545.61324160972413</v>
+        <v>545.61324160948561</v>
       </c>
       <c r="U222" s="154"/>
       <c r="V222" s="154"/>
       <c r="W222" s="154"/>
       <c r="X222" s="154">
-        <v>545.61324160972413</v>
+        <v>545.61324160948561</v>
       </c>
       <c r="Y222" s="154"/>
       <c r="Z222" s="154"/>
@@ -14960,13 +14960,13 @@
       <c r="F223" s="154"/>
       <c r="G223" s="154"/>
       <c r="H223" s="154">
-        <v>380.56875470501922</v>
+        <v>380.56875470507964</v>
       </c>
       <c r="I223" s="154"/>
       <c r="J223" s="154"/>
       <c r="K223" s="154"/>
       <c r="L223" s="154">
-        <v>380.56875470501922</v>
+        <v>380.56875470507964</v>
       </c>
       <c r="M223" s="154"/>
       <c r="N223" s="154"/>
@@ -14976,13 +14976,13 @@
       <c r="R223" s="154"/>
       <c r="S223" s="154"/>
       <c r="T223" s="154">
-        <v>391.6939068201811</v>
+        <v>391.69390681992746</v>
       </c>
       <c r="U223" s="154"/>
       <c r="V223" s="154"/>
       <c r="W223" s="154"/>
       <c r="X223" s="154">
-        <v>391.6939068201811</v>
+        <v>391.69390681992746</v>
       </c>
       <c r="Y223" s="154"/>
       <c r="Z223" s="154"/>
@@ -14998,13 +14998,13 @@
       <c r="F224" s="154"/>
       <c r="G224" s="154"/>
       <c r="H224" s="154">
-        <v>13379.07181985358</v>
+        <v>13379.071819853889</v>
       </c>
       <c r="I224" s="154"/>
       <c r="J224" s="154"/>
       <c r="K224" s="154"/>
       <c r="L224" s="154">
-        <v>13379.07181985358</v>
+        <v>13379.071819853889</v>
       </c>
       <c r="M224" s="154"/>
       <c r="N224" s="154"/>
@@ -15014,13 +15014,13 @@
       <c r="R224" s="154"/>
       <c r="S224" s="154"/>
       <c r="T224" s="154">
-        <v>13216.172984562898</v>
+        <v>13216.172984568761</v>
       </c>
       <c r="U224" s="154"/>
       <c r="V224" s="154"/>
       <c r="W224" s="154"/>
       <c r="X224" s="154">
-        <v>13216.172984562898</v>
+        <v>13216.172984568761</v>
       </c>
       <c r="Y224" s="154"/>
       <c r="Z224" s="154"/>
@@ -15036,13 +15036,13 @@
       <c r="F225" s="154"/>
       <c r="G225" s="154"/>
       <c r="H225" s="154">
-        <v>701.08742656102993</v>
+        <v>701.08742656105119</v>
       </c>
       <c r="I225" s="154"/>
       <c r="J225" s="154"/>
       <c r="K225" s="154"/>
       <c r="L225" s="154">
-        <v>701.08742656102993</v>
+        <v>701.08742656105119</v>
       </c>
       <c r="M225" s="154"/>
       <c r="N225" s="154"/>
@@ -15052,13 +15052,13 @@
       <c r="R225" s="154"/>
       <c r="S225" s="154"/>
       <c r="T225" s="154">
-        <v>606.671756475921</v>
+        <v>606.67175647631007</v>
       </c>
       <c r="U225" s="154"/>
       <c r="V225" s="154"/>
       <c r="W225" s="154"/>
       <c r="X225" s="154">
-        <v>606.671756475921</v>
+        <v>606.67175647631007</v>
       </c>
       <c r="Y225" s="154"/>
       <c r="Z225" s="154"/>
@@ -15074,13 +15074,13 @@
       <c r="F226" s="154"/>
       <c r="G226" s="154"/>
       <c r="H226" s="156">
-        <v>15042.25477871626</v>
+        <v>15042.25477871671</v>
       </c>
       <c r="I226" s="156"/>
       <c r="J226" s="156"/>
       <c r="K226" s="156"/>
       <c r="L226" s="156">
-        <v>15042.25477871626</v>
+        <v>15042.25477871671</v>
       </c>
       <c r="M226" s="156"/>
       <c r="N226" s="156"/>
@@ -15090,13 +15090,13 @@
       <c r="R226" s="154"/>
       <c r="S226" s="154"/>
       <c r="T226" s="156">
-        <v>14760.151889468711</v>
+        <v>14760.15188947448</v>
       </c>
       <c r="U226" s="156"/>
       <c r="V226" s="156"/>
       <c r="W226" s="156"/>
       <c r="X226" s="156">
-        <v>14760.151889468711</v>
+        <v>14760.15188947448</v>
       </c>
       <c r="Y226" s="156"/>
       <c r="Z226" s="156"/>
@@ -15264,13 +15264,13 @@
       <c r="F231" s="154"/>
       <c r="G231" s="154"/>
       <c r="H231" s="156">
-        <v>-222480.468558921</v>
+        <v>-222480.46855892669</v>
       </c>
       <c r="I231" s="156"/>
       <c r="J231" s="156"/>
       <c r="K231" s="156"/>
       <c r="L231" s="156">
-        <v>-222480.468558921</v>
+        <v>-222480.46855892669</v>
       </c>
       <c r="M231" s="156"/>
       <c r="N231" s="156"/>
@@ -15318,13 +15318,13 @@
       <c r="R233" s="154"/>
       <c r="S233" s="154"/>
       <c r="T233" s="154">
-        <v>652.45545056489664</v>
+        <v>652.45545056611275</v>
       </c>
       <c r="U233" s="154"/>
       <c r="V233" s="154"/>
       <c r="W233" s="154"/>
       <c r="X233" s="154">
-        <v>652.45545056489664</v>
+        <v>652.45545056611275</v>
       </c>
       <c r="Y233" s="154"/>
       <c r="Z233" s="154"/>
@@ -15546,13 +15546,13 @@
       <c r="R239" s="154"/>
       <c r="S239" s="154"/>
       <c r="T239" s="156">
-        <v>4430.6218783164968</v>
+        <v>4430.6218783177137</v>
       </c>
       <c r="U239" s="156"/>
       <c r="V239" s="156"/>
       <c r="W239" s="156"/>
       <c r="X239" s="156">
-        <v>4430.6218783164968</v>
+        <v>4430.6218783177137</v>
       </c>
       <c r="Y239" s="156"/>
       <c r="Z239" s="156"/>
@@ -15660,13 +15660,13 @@
       <c r="R242" s="154"/>
       <c r="S242" s="154"/>
       <c r="T242" s="156">
-        <v>29537.964618371592</v>
+        <v>29537.964618372815</v>
       </c>
       <c r="U242" s="156"/>
       <c r="V242" s="156"/>
       <c r="W242" s="156"/>
       <c r="X242" s="156">
-        <v>29537.964618371592</v>
+        <v>29537.964618372815</v>
       </c>
       <c r="Y242" s="156"/>
       <c r="Z242" s="156"/>
@@ -16100,13 +16100,13 @@
       <c r="F256" s="154"/>
       <c r="G256" s="154"/>
       <c r="H256" s="156">
-        <v>-251168.54287819206</v>
+        <v>-251168.54287819777</v>
       </c>
       <c r="I256" s="156"/>
       <c r="J256" s="156"/>
       <c r="K256" s="156"/>
       <c r="L256" s="156">
-        <v>-251168.54287819206</v>
+        <v>-251168.54287819777</v>
       </c>
       <c r="M256" s="156"/>
       <c r="N256" s="156"/>
@@ -16116,13 +16116,13 @@
       <c r="R256" s="154"/>
       <c r="S256" s="154"/>
       <c r="T256" s="156">
-        <v>-1043322.1532906983</v>
+        <v>-1043322.1532907003</v>
       </c>
       <c r="U256" s="156"/>
       <c r="V256" s="156"/>
       <c r="W256" s="156"/>
       <c r="X256" s="156">
-        <v>-1043322.1532906983</v>
+        <v>-1043322.1532907003</v>
       </c>
       <c r="Y256" s="156"/>
       <c r="Z256" s="156"/>
@@ -16302,13 +16302,13 @@
       <c r="F262" s="150"/>
       <c r="G262" s="150"/>
       <c r="H262" s="150">
-        <v>5.6351314505475356</v>
+        <v>5.63513145054747</v>
       </c>
       <c r="I262" s="150"/>
       <c r="J262" s="150"/>
       <c r="K262" s="150"/>
       <c r="L262" s="150">
-        <v>5.6351314505475356</v>
+        <v>5.63513145054747</v>
       </c>
       <c r="M262" s="150"/>
       <c r="N262" s="150"/>
@@ -16318,13 +16318,13 @@
       <c r="R262" s="150"/>
       <c r="S262" s="150"/>
       <c r="T262" s="150">
-        <v>5.4167046124828921</v>
+        <v>5.4167046124796654</v>
       </c>
       <c r="U262" s="150"/>
       <c r="V262" s="150"/>
       <c r="W262" s="150"/>
       <c r="X262" s="150">
-        <v>5.4167046124828921</v>
+        <v>5.4167046124796654</v>
       </c>
       <c r="Y262" s="150"/>
       <c r="Z262" s="150"/>
@@ -16340,13 +16340,13 @@
       <c r="F263" s="150"/>
       <c r="G263" s="150"/>
       <c r="H263" s="150">
-        <v>5.3732064371570658</v>
+        <v>5.3732064371568127</v>
       </c>
       <c r="I263" s="150"/>
       <c r="J263" s="150"/>
       <c r="K263" s="150"/>
       <c r="L263" s="150">
-        <v>5.3732064371570658</v>
+        <v>5.3732064371568127</v>
       </c>
       <c r="M263" s="150"/>
       <c r="N263" s="150"/>
@@ -16356,13 +16356,13 @@
       <c r="R263" s="150"/>
       <c r="S263" s="150"/>
       <c r="T263" s="150">
-        <v>4.6564562351072558</v>
+        <v>4.6564562351084886</v>
       </c>
       <c r="U263" s="150"/>
       <c r="V263" s="150"/>
       <c r="W263" s="150"/>
       <c r="X263" s="150">
-        <v>4.6564562351072558</v>
+        <v>4.6564562351084886</v>
       </c>
       <c r="Y263" s="150"/>
       <c r="Z263" s="150"/>
@@ -16378,13 +16378,13 @@
       <c r="F264" s="150"/>
       <c r="G264" s="150"/>
       <c r="H264" s="150">
-        <v>5.1393916619201212</v>
+        <v>5.1393916619203877</v>
       </c>
       <c r="I264" s="150"/>
       <c r="J264" s="150"/>
       <c r="K264" s="150"/>
       <c r="L264" s="150">
-        <v>5.1393916619201212</v>
+        <v>5.1393916619203877</v>
       </c>
       <c r="M264" s="150"/>
       <c r="N264" s="150"/>
@@ -16394,13 +16394,13 @@
       <c r="R264" s="150"/>
       <c r="S264" s="150"/>
       <c r="T264" s="150">
-        <v>4.61049712182519</v>
+        <v>4.6104971218234949</v>
       </c>
       <c r="U264" s="150"/>
       <c r="V264" s="150"/>
       <c r="W264" s="150"/>
       <c r="X264" s="150">
-        <v>4.61049712182519</v>
+        <v>4.6104971218234949</v>
       </c>
       <c r="Y264" s="150"/>
       <c r="Z264" s="150"/>
@@ -16416,13 +16416,13 @@
       <c r="F265" s="150"/>
       <c r="G265" s="150"/>
       <c r="H265" s="150">
-        <v>5.65209367794312</v>
+        <v>5.6520936779420659</v>
       </c>
       <c r="I265" s="150"/>
       <c r="J265" s="150"/>
       <c r="K265" s="150"/>
       <c r="L265" s="150">
-        <v>5.65209367794312</v>
+        <v>5.6520936779420659</v>
       </c>
       <c r="M265" s="150"/>
       <c r="N265" s="150"/>
@@ -16432,13 +16432,13 @@
       <c r="R265" s="150"/>
       <c r="S265" s="150"/>
       <c r="T265" s="150">
-        <v>5.3591169605842923</v>
+        <v>5.35911696057994</v>
       </c>
       <c r="U265" s="150"/>
       <c r="V265" s="150"/>
       <c r="W265" s="150"/>
       <c r="X265" s="150">
-        <v>5.3591169605842923</v>
+        <v>5.35911696057994</v>
       </c>
       <c r="Y265" s="150"/>
       <c r="Z265" s="150"/>
@@ -16454,13 +16454,13 @@
       <c r="F266" s="150"/>
       <c r="G266" s="150"/>
       <c r="H266" s="150">
-        <v>5.5602670875316162</v>
+        <v>5.5602670875302573</v>
       </c>
       <c r="I266" s="150"/>
       <c r="J266" s="150"/>
       <c r="K266" s="150"/>
       <c r="L266" s="150">
-        <v>5.5602670875316162</v>
+        <v>5.5602670875302573</v>
       </c>
       <c r="M266" s="150"/>
       <c r="N266" s="150"/>
@@ -16470,13 +16470,13 @@
       <c r="R266" s="150"/>
       <c r="S266" s="150"/>
       <c r="T266" s="150">
-        <v>5.2395816631704442</v>
+        <v>5.2395816631698846</v>
       </c>
       <c r="U266" s="150"/>
       <c r="V266" s="150"/>
       <c r="W266" s="150"/>
       <c r="X266" s="150">
-        <v>5.2395816631704442</v>
+        <v>5.2395816631698846</v>
       </c>
       <c r="Y266" s="150"/>
       <c r="Z266" s="150"/>
@@ -16492,13 +16492,13 @@
       <c r="F267" s="150"/>
       <c r="G267" s="150"/>
       <c r="H267" s="150">
-        <v>5.65474720421518</v>
+        <v>5.65474720421497</v>
       </c>
       <c r="I267" s="150"/>
       <c r="J267" s="150"/>
       <c r="K267" s="150"/>
       <c r="L267" s="150">
-        <v>5.65474720421518</v>
+        <v>5.65474720421497</v>
       </c>
       <c r="M267" s="150"/>
       <c r="N267" s="150"/>
@@ -16508,13 +16508,13 @@
       <c r="R267" s="150"/>
       <c r="S267" s="150"/>
       <c r="T267" s="150">
-        <v>5.6236539852302867</v>
+        <v>5.623653985229887</v>
       </c>
       <c r="U267" s="150"/>
       <c r="V267" s="150"/>
       <c r="W267" s="150"/>
       <c r="X267" s="150">
-        <v>5.6236539852302867</v>
+        <v>5.623653985229887</v>
       </c>
       <c r="Y267" s="150"/>
       <c r="Z267" s="150"/>
@@ -16530,13 +16530,13 @@
       <c r="F268" s="150"/>
       <c r="G268" s="150"/>
       <c r="H268" s="150">
-        <v>5.5219643598740129</v>
+        <v>5.5219643598741328</v>
       </c>
       <c r="I268" s="150"/>
       <c r="J268" s="150"/>
       <c r="K268" s="150"/>
       <c r="L268" s="150">
-        <v>5.5219643598740129</v>
+        <v>5.5219643598741328</v>
       </c>
       <c r="M268" s="150"/>
       <c r="N268" s="150"/>
@@ -16546,13 +16546,13 @@
       <c r="R268" s="150"/>
       <c r="S268" s="150"/>
       <c r="T268" s="150">
-        <v>5.5525978566780454</v>
+        <v>5.5525978566781182</v>
       </c>
       <c r="U268" s="150"/>
       <c r="V268" s="150"/>
       <c r="W268" s="150"/>
       <c r="X268" s="150">
-        <v>5.5525978566780454</v>
+        <v>5.5525978566781182</v>
       </c>
       <c r="Y268" s="150"/>
       <c r="Z268" s="150"/>
@@ -16568,13 +16568,13 @@
       <c r="F269" s="150"/>
       <c r="G269" s="150"/>
       <c r="H269" s="150">
-        <v>5.51786161037122</v>
+        <v>5.5178616103713276</v>
       </c>
       <c r="I269" s="150"/>
       <c r="J269" s="150"/>
       <c r="K269" s="150"/>
       <c r="L269" s="150">
-        <v>5.51786161037122</v>
+        <v>5.5178616103713276</v>
       </c>
       <c r="M269" s="150"/>
       <c r="N269" s="150"/>
@@ -16584,13 +16584,13 @@
       <c r="R269" s="150"/>
       <c r="S269" s="150"/>
       <c r="T269" s="150">
-        <v>4.7368609187294561</v>
+        <v>4.7368609187295263</v>
       </c>
       <c r="U269" s="150"/>
       <c r="V269" s="150"/>
       <c r="W269" s="150"/>
       <c r="X269" s="150">
-        <v>4.7368609187294561</v>
+        <v>4.7368609187295263</v>
       </c>
       <c r="Y269" s="150"/>
       <c r="Z269" s="150"/>
@@ -16606,13 +16606,13 @@
       <c r="F270" s="150"/>
       <c r="G270" s="150"/>
       <c r="H270" s="150">
-        <v>4.197641275412348</v>
+        <v>4.19764127541242</v>
       </c>
       <c r="I270" s="150"/>
       <c r="J270" s="150"/>
       <c r="K270" s="150"/>
       <c r="L270" s="150">
-        <v>4.197641275412348</v>
+        <v>4.19764127541242</v>
       </c>
       <c r="M270" s="150"/>
       <c r="N270" s="150"/>
@@ -16622,13 +16622,13 @@
       <c r="R270" s="150"/>
       <c r="S270" s="150"/>
       <c r="T270" s="150">
-        <v>5.0237516104344975</v>
+        <v>5.0237516104393336</v>
       </c>
       <c r="U270" s="150"/>
       <c r="V270" s="150"/>
       <c r="W270" s="150"/>
       <c r="X270" s="150">
-        <v>5.0237516104344975</v>
+        <v>5.0237516104393336</v>
       </c>
       <c r="Y270" s="150"/>
       <c r="Z270" s="150"/>
@@ -16644,13 +16644,13 @@
       <c r="F271" s="150"/>
       <c r="G271" s="150"/>
       <c r="H271" s="150">
-        <v>4.898458089656649</v>
+        <v>4.8984580896562715</v>
       </c>
       <c r="I271" s="150"/>
       <c r="J271" s="150"/>
       <c r="K271" s="150"/>
       <c r="L271" s="150">
-        <v>4.898458089656649</v>
+        <v>4.8984580896562715</v>
       </c>
       <c r="M271" s="150"/>
       <c r="N271" s="150"/>
@@ -16660,13 +16660,13 @@
       <c r="R271" s="150"/>
       <c r="S271" s="150"/>
       <c r="T271" s="150">
-        <v>5.4128887466571607</v>
+        <v>5.4128887466562574</v>
       </c>
       <c r="U271" s="150"/>
       <c r="V271" s="150"/>
       <c r="W271" s="150"/>
       <c r="X271" s="150">
-        <v>5.4128887466571607</v>
+        <v>5.4128887466562574</v>
       </c>
       <c r="Y271" s="150"/>
       <c r="Z271" s="150"/>
@@ -16682,13 +16682,13 @@
       <c r="F272" s="150"/>
       <c r="G272" s="150"/>
       <c r="H272" s="150">
-        <v>5.8181694192087505</v>
+        <v>5.8181694192067859</v>
       </c>
       <c r="I272" s="150"/>
       <c r="J272" s="150"/>
       <c r="K272" s="150"/>
       <c r="L272" s="150">
-        <v>5.8181694192087505</v>
+        <v>5.8181694192067859</v>
       </c>
       <c r="M272" s="150"/>
       <c r="N272" s="150"/>
@@ -16698,13 +16698,13 @@
       <c r="R272" s="150"/>
       <c r="S272" s="150"/>
       <c r="T272" s="150">
-        <v>6.0775137672075248</v>
+        <v>6.0775137672142518</v>
       </c>
       <c r="U272" s="150"/>
       <c r="V272" s="150"/>
       <c r="W272" s="150"/>
       <c r="X272" s="150">
-        <v>6.0775137672075248</v>
+        <v>6.0775137672142518</v>
       </c>
       <c r="Y272" s="150"/>
       <c r="Z272" s="150"/>
@@ -16720,13 +16720,13 @@
       <c r="F273" s="150"/>
       <c r="G273" s="150"/>
       <c r="H273" s="150">
-        <v>5.9727614284027153</v>
+        <v>5.972761428398953</v>
       </c>
       <c r="I273" s="150"/>
       <c r="J273" s="150"/>
       <c r="K273" s="150"/>
       <c r="L273" s="150">
-        <v>5.9727614284027153</v>
+        <v>5.972761428398953</v>
       </c>
       <c r="M273" s="150"/>
       <c r="N273" s="150"/>
@@ -16736,13 +16736,13 @@
       <c r="R273" s="150"/>
       <c r="S273" s="150"/>
       <c r="T273" s="150">
-        <v>6.2972534532204314</v>
+        <v>6.2972534532224413</v>
       </c>
       <c r="U273" s="150"/>
       <c r="V273" s="150"/>
       <c r="W273" s="150"/>
       <c r="X273" s="150">
-        <v>6.2972534532204314</v>
+        <v>6.2972534532224413</v>
       </c>
       <c r="Y273" s="150"/>
       <c r="Z273" s="150"/>
@@ -16796,13 +16796,13 @@
       <c r="F275" s="150"/>
       <c r="G275" s="150"/>
       <c r="H275" s="157">
-        <v>2.5569661898518272</v>
+        <v>2.5569661898518459</v>
       </c>
       <c r="I275" s="157"/>
       <c r="J275" s="157"/>
       <c r="K275" s="157"/>
       <c r="L275" s="157">
-        <v>2.5569661898518272</v>
+        <v>2.5569661898518459</v>
       </c>
       <c r="M275" s="157"/>
       <c r="N275" s="157"/>
@@ -16812,13 +16812,13 @@
       <c r="R275" s="150"/>
       <c r="S275" s="150"/>
       <c r="T275" s="157">
-        <v>2.9074066039744491</v>
+        <v>2.9074066039744473</v>
       </c>
       <c r="U275" s="157"/>
       <c r="V275" s="157"/>
       <c r="W275" s="157"/>
       <c r="X275" s="157">
-        <v>2.9074066039744491</v>
+        <v>2.9074066039744473</v>
       </c>
       <c r="Y275" s="157"/>
       <c r="Z275" s="157"/>
@@ -16834,13 +16834,13 @@
       <c r="F276" s="150"/>
       <c r="G276" s="150"/>
       <c r="H276" s="150">
-        <v>3.6135629243638316</v>
+        <v>3.6135629243638405</v>
       </c>
       <c r="I276" s="150"/>
       <c r="J276" s="150"/>
       <c r="K276" s="150"/>
       <c r="L276" s="150">
-        <v>3.6135629243638316</v>
+        <v>3.6135629243638405</v>
       </c>
       <c r="M276" s="150"/>
       <c r="N276" s="150"/>
@@ -16850,13 +16850,13 @@
       <c r="R276" s="150"/>
       <c r="S276" s="150"/>
       <c r="T276" s="150">
-        <v>4.3603880878645036</v>
+        <v>4.3603880878535444</v>
       </c>
       <c r="U276" s="150"/>
       <c r="V276" s="150"/>
       <c r="W276" s="150"/>
       <c r="X276" s="150">
-        <v>4.3603880878645036</v>
+        <v>4.3603880878535444</v>
       </c>
       <c r="Y276" s="150"/>
       <c r="Z276" s="150"/>
@@ -16872,13 +16872,13 @@
       <c r="F277" s="150"/>
       <c r="G277" s="150"/>
       <c r="H277" s="150">
-        <v>4.3127532586933555</v>
+        <v>4.3127532586925028</v>
       </c>
       <c r="I277" s="150"/>
       <c r="J277" s="150"/>
       <c r="K277" s="150"/>
       <c r="L277" s="150">
-        <v>4.3127532586933555</v>
+        <v>4.3127532586925028</v>
       </c>
       <c r="M277" s="150"/>
       <c r="N277" s="150"/>
@@ -16888,13 +16888,13 @@
       <c r="R277" s="150"/>
       <c r="S277" s="150"/>
       <c r="T277" s="150">
-        <v>5.298802029224718</v>
+        <v>5.2988020292233182</v>
       </c>
       <c r="U277" s="150"/>
       <c r="V277" s="150"/>
       <c r="W277" s="150"/>
       <c r="X277" s="150">
-        <v>5.298802029224718</v>
+        <v>5.2988020292233182</v>
       </c>
       <c r="Y277" s="150"/>
       <c r="Z277" s="150"/>
@@ -16910,13 +16910,13 @@
       <c r="F278" s="150"/>
       <c r="G278" s="150"/>
       <c r="H278" s="150">
-        <v>4.5388513598062756</v>
+        <v>4.5388513598053679</v>
       </c>
       <c r="I278" s="150"/>
       <c r="J278" s="150"/>
       <c r="K278" s="150"/>
       <c r="L278" s="150">
-        <v>4.5388513598062756</v>
+        <v>4.5388513598053679</v>
       </c>
       <c r="M278" s="150"/>
       <c r="N278" s="150"/>
@@ -16926,13 +16926,13 @@
       <c r="R278" s="150"/>
       <c r="S278" s="150"/>
       <c r="T278" s="150">
-        <v>5.2632066153743073</v>
+        <v>5.2632066153764088</v>
       </c>
       <c r="U278" s="150"/>
       <c r="V278" s="150"/>
       <c r="W278" s="150"/>
       <c r="X278" s="150">
-        <v>5.2632066153743073</v>
+        <v>5.2632066153764088</v>
       </c>
       <c r="Y278" s="150"/>
       <c r="Z278" s="150"/>
@@ -16948,13 +16948,13 @@
       <c r="F279" s="150"/>
       <c r="G279" s="150"/>
       <c r="H279" s="157">
-        <v>4.307674181392823</v>
+        <v>4.3076741813919845</v>
       </c>
       <c r="I279" s="157"/>
       <c r="J279" s="157"/>
       <c r="K279" s="157"/>
       <c r="L279" s="157">
-        <v>4.307674181392823</v>
+        <v>4.3076741813919845</v>
       </c>
       <c r="M279" s="157"/>
       <c r="N279" s="157"/>
@@ -16964,13 +16964,13 @@
       <c r="R279" s="150"/>
       <c r="S279" s="150"/>
       <c r="T279" s="157">
-        <v>5.2784285643602162</v>
+        <v>5.2784285643587658</v>
       </c>
       <c r="U279" s="157"/>
       <c r="V279" s="157"/>
       <c r="W279" s="157"/>
       <c r="X279" s="157">
-        <v>5.2784285643602162</v>
+        <v>5.2784285643587658</v>
       </c>
       <c r="Y279" s="157"/>
       <c r="Z279" s="157"/>
@@ -16986,13 +16986,13 @@
       <c r="F280" s="150"/>
       <c r="G280" s="150"/>
       <c r="H280" s="150">
-        <v>5.7010692528254241</v>
+        <v>5.7010692528258451</v>
       </c>
       <c r="I280" s="150"/>
       <c r="J280" s="150"/>
       <c r="K280" s="150"/>
       <c r="L280" s="150">
-        <v>5.7010692528254241</v>
+        <v>5.7010692528258451</v>
       </c>
       <c r="M280" s="150"/>
       <c r="N280" s="150"/>
@@ -17002,13 +17002,13 @@
       <c r="R280" s="150"/>
       <c r="S280" s="150"/>
       <c r="T280" s="150">
-        <v>5.1926688407394126</v>
+        <v>5.1926688407376487</v>
       </c>
       <c r="U280" s="150"/>
       <c r="V280" s="150"/>
       <c r="W280" s="150"/>
       <c r="X280" s="150">
-        <v>5.1926688407394126</v>
+        <v>5.1926688407376487</v>
       </c>
       <c r="Y280" s="150"/>
       <c r="Z280" s="150"/>
@@ -17024,13 +17024,13 @@
       <c r="F281" s="150"/>
       <c r="G281" s="150"/>
       <c r="H281" s="150">
-        <v>3.6504172485808684</v>
+        <v>3.6504172485813107</v>
       </c>
       <c r="I281" s="150"/>
       <c r="J281" s="150"/>
       <c r="K281" s="150"/>
       <c r="L281" s="150">
-        <v>3.6504172485808684</v>
+        <v>3.6504172485813107</v>
       </c>
       <c r="M281" s="150"/>
       <c r="N281" s="150"/>
@@ -17040,13 +17040,13 @@
       <c r="R281" s="150"/>
       <c r="S281" s="150"/>
       <c r="T281" s="150">
-        <v>3.60519626053356</v>
+        <v>3.6051962605316987</v>
       </c>
       <c r="U281" s="150"/>
       <c r="V281" s="150"/>
       <c r="W281" s="150"/>
       <c r="X281" s="150">
-        <v>3.60519626053356</v>
+        <v>3.6051962605316987</v>
       </c>
       <c r="Y281" s="150"/>
       <c r="Z281" s="150"/>
@@ -17062,13 +17062,13 @@
       <c r="F282" s="150"/>
       <c r="G282" s="150"/>
       <c r="H282" s="150">
-        <v>6.3582290881182866</v>
+        <v>6.3582290881184278</v>
       </c>
       <c r="I282" s="150"/>
       <c r="J282" s="150"/>
       <c r="K282" s="150"/>
       <c r="L282" s="150">
-        <v>6.3582290881182866</v>
+        <v>6.3582290881184278</v>
       </c>
       <c r="M282" s="150"/>
       <c r="N282" s="150"/>
@@ -17078,13 +17078,13 @@
       <c r="R282" s="150"/>
       <c r="S282" s="150"/>
       <c r="T282" s="150">
-        <v>6.2603021619826009</v>
+        <v>6.2603021619851917</v>
       </c>
       <c r="U282" s="150"/>
       <c r="V282" s="150"/>
       <c r="W282" s="150"/>
       <c r="X282" s="150">
-        <v>6.2603021619826009</v>
+        <v>6.2603021619851917</v>
       </c>
       <c r="Y282" s="150"/>
       <c r="Z282" s="150"/>
@@ -17100,13 +17100,13 @@
       <c r="F283" s="150"/>
       <c r="G283" s="150"/>
       <c r="H283" s="150">
-        <v>6.9995972662442592</v>
+        <v>6.99959726624446</v>
       </c>
       <c r="I283" s="150"/>
       <c r="J283" s="150"/>
       <c r="K283" s="150"/>
       <c r="L283" s="150">
-        <v>6.9995972662442592</v>
+        <v>6.99959726624446</v>
       </c>
       <c r="M283" s="150"/>
       <c r="N283" s="150"/>
@@ -17116,13 +17116,13 @@
       <c r="R283" s="150"/>
       <c r="S283" s="150"/>
       <c r="T283" s="150">
-        <v>6.0319437876296353</v>
+        <v>6.0319437876332955</v>
       </c>
       <c r="U283" s="150"/>
       <c r="V283" s="150"/>
       <c r="W283" s="150"/>
       <c r="X283" s="150">
-        <v>6.0319437876296353</v>
+        <v>6.0319437876332955</v>
       </c>
       <c r="Y283" s="150"/>
       <c r="Z283" s="150"/>
@@ -17138,13 +17138,13 @@
       <c r="F284" s="150"/>
       <c r="G284" s="150"/>
       <c r="H284" s="157">
-        <v>6.2437127844088955</v>
+        <v>6.2437127844090616</v>
       </c>
       <c r="I284" s="157"/>
       <c r="J284" s="157"/>
       <c r="K284" s="157"/>
       <c r="L284" s="157">
-        <v>6.2437127844088955</v>
+        <v>6.2437127844090616</v>
       </c>
       <c r="M284" s="157"/>
       <c r="N284" s="157"/>
@@ -17154,13 +17154,13 @@
       <c r="R284" s="150"/>
       <c r="S284" s="150"/>
       <c r="T284" s="157">
-        <v>6.0947047991158358</v>
+        <v>6.0947047991181025</v>
       </c>
       <c r="U284" s="157"/>
       <c r="V284" s="157"/>
       <c r="W284" s="157"/>
       <c r="X284" s="157">
-        <v>6.0947047991158358</v>
+        <v>6.0947047991181025</v>
       </c>
       <c r="Y284" s="157"/>
       <c r="Z284" s="157"/>
@@ -17328,13 +17328,13 @@
       <c r="F289" s="150"/>
       <c r="G289" s="150"/>
       <c r="H289" s="157">
-        <v>1.4268157546835842</v>
+        <v>1.4268157546836253</v>
       </c>
       <c r="I289" s="157"/>
       <c r="J289" s="157"/>
       <c r="K289" s="157"/>
       <c r="L289" s="157">
-        <v>1.4268157546835842</v>
+        <v>1.4268157546836253</v>
       </c>
       <c r="M289" s="157"/>
       <c r="N289" s="157"/>
@@ -17382,13 +17382,13 @@
       <c r="R291" s="150"/>
       <c r="S291" s="150"/>
       <c r="T291" s="150">
-        <v>2.1748515018829884</v>
+        <v>2.1748515018870429</v>
       </c>
       <c r="U291" s="150"/>
       <c r="V291" s="150"/>
       <c r="W291" s="150"/>
       <c r="X291" s="150">
-        <v>2.1748515018829884</v>
+        <v>2.1748515018870429</v>
       </c>
       <c r="Y291" s="150"/>
       <c r="Z291" s="150"/>
@@ -17610,13 +17610,13 @@
       <c r="R297" s="150"/>
       <c r="S297" s="150"/>
       <c r="T297" s="157">
-        <v>1.2307282995323599</v>
+        <v>1.2307282995326976</v>
       </c>
       <c r="U297" s="157"/>
       <c r="V297" s="157"/>
       <c r="W297" s="157"/>
       <c r="X297" s="157">
-        <v>1.2307282995323599</v>
+        <v>1.2307282995326976</v>
       </c>
       <c r="Y297" s="157"/>
       <c r="Z297" s="157"/>
@@ -17724,13 +17724,13 @@
       <c r="R300" s="150"/>
       <c r="S300" s="150"/>
       <c r="T300" s="157">
-        <v>3.2106483280838685</v>
+        <v>3.210648328084</v>
       </c>
       <c r="U300" s="157"/>
       <c r="V300" s="157"/>
       <c r="W300" s="157"/>
       <c r="X300" s="157">
-        <v>3.2106483280838685</v>
+        <v>3.210648328084</v>
       </c>
       <c r="Y300" s="157"/>
       <c r="Z300" s="157"/>
@@ -18324,13 +18324,13 @@
       <c r="F318" s="154"/>
       <c r="G318" s="154"/>
       <c r="H318" s="154">
-        <v>12.388979300777324</v>
+        <v>12.388979300696366</v>
       </c>
       <c r="I318" s="154"/>
       <c r="J318" s="154"/>
       <c r="K318" s="154"/>
       <c r="L318" s="154">
-        <v>12.388979300777324</v>
+        <v>12.388979300696366</v>
       </c>
       <c r="M318" s="154"/>
       <c r="N318" s="154"/>
@@ -18340,13 +18340,13 @@
       <c r="R318" s="154"/>
       <c r="S318" s="154"/>
       <c r="T318" s="154">
-        <v>19.5565993249762</v>
+        <v>19.556599325145413</v>
       </c>
       <c r="U318" s="154"/>
       <c r="V318" s="154"/>
       <c r="W318" s="154"/>
       <c r="X318" s="154">
-        <v>19.5565993249762</v>
+        <v>19.556599325145413</v>
       </c>
       <c r="Y318" s="154"/>
       <c r="Z318" s="154"/>
@@ -18362,13 +18362,13 @@
       <c r="F319" s="154"/>
       <c r="G319" s="154"/>
       <c r="H319" s="154">
-        <v>95.530347352401179</v>
+        <v>95.530347352167325</v>
       </c>
       <c r="I319" s="154"/>
       <c r="J319" s="154"/>
       <c r="K319" s="154"/>
       <c r="L319" s="154">
-        <v>95.530347352401179</v>
+        <v>95.530347352167325</v>
       </c>
       <c r="M319" s="154"/>
       <c r="N319" s="154"/>
@@ -18378,13 +18378,13 @@
       <c r="R319" s="154"/>
       <c r="S319" s="154"/>
       <c r="T319" s="154">
-        <v>112.01318705954311</v>
+        <v>112.01318705964879</v>
       </c>
       <c r="U319" s="154"/>
       <c r="V319" s="154"/>
       <c r="W319" s="154"/>
       <c r="X319" s="154">
-        <v>112.01318705954311</v>
+        <v>112.01318705964879</v>
       </c>
       <c r="Y319" s="154"/>
       <c r="Z319" s="154"/>
@@ -18400,13 +18400,13 @@
       <c r="F320" s="154"/>
       <c r="G320" s="154"/>
       <c r="H320" s="154">
-        <v>15.333373561398981</v>
+        <v>15.333373561162002</v>
       </c>
       <c r="I320" s="154"/>
       <c r="J320" s="154"/>
       <c r="K320" s="154"/>
       <c r="L320" s="154">
-        <v>15.333373561398981</v>
+        <v>15.333373561162002</v>
       </c>
       <c r="M320" s="154"/>
       <c r="N320" s="154"/>
@@ -18416,13 +18416,13 @@
       <c r="R320" s="154"/>
       <c r="S320" s="154"/>
       <c r="T320" s="154">
-        <v>13.766680821730541</v>
+        <v>13.766680821801602</v>
       </c>
       <c r="U320" s="154"/>
       <c r="V320" s="154"/>
       <c r="W320" s="154"/>
       <c r="X320" s="154">
-        <v>13.766680821730541</v>
+        <v>13.766680821801602</v>
       </c>
       <c r="Y320" s="154"/>
       <c r="Z320" s="154"/>
@@ -18438,13 +18438,13 @@
       <c r="F321" s="154"/>
       <c r="G321" s="154"/>
       <c r="H321" s="154">
-        <v>3.5804782571897582</v>
+        <v>3.5804782571815958</v>
       </c>
       <c r="I321" s="154"/>
       <c r="J321" s="154"/>
       <c r="K321" s="154"/>
       <c r="L321" s="154">
-        <v>3.5804782571897582</v>
+        <v>3.5804782571815958</v>
       </c>
       <c r="M321" s="154"/>
       <c r="N321" s="154"/>
@@ -18454,13 +18454,13 @@
       <c r="R321" s="154"/>
       <c r="S321" s="154"/>
       <c r="T321" s="154">
-        <v>7.9276710549790517</v>
+        <v>7.9276710551069254</v>
       </c>
       <c r="U321" s="154"/>
       <c r="V321" s="154"/>
       <c r="W321" s="154"/>
       <c r="X321" s="154">
-        <v>7.9276710549790517</v>
+        <v>7.9276710551069254</v>
       </c>
       <c r="Y321" s="154"/>
       <c r="Z321" s="154"/>
@@ -18476,13 +18476,13 @@
       <c r="F322" s="154"/>
       <c r="G322" s="154"/>
       <c r="H322" s="154">
-        <v>93.655273464272355</v>
+        <v>93.65527346573225</v>
       </c>
       <c r="I322" s="154"/>
       <c r="J322" s="154"/>
       <c r="K322" s="154"/>
       <c r="L322" s="154">
-        <v>93.655273464272355</v>
+        <v>93.65527346573225</v>
       </c>
       <c r="M322" s="154"/>
       <c r="N322" s="154"/>
@@ -18492,13 +18492,13 @@
       <c r="R322" s="154"/>
       <c r="S322" s="154"/>
       <c r="T322" s="154">
-        <v>140.88528158717219</v>
+        <v>140.88528158608872</v>
       </c>
       <c r="U322" s="154"/>
       <c r="V322" s="154"/>
       <c r="W322" s="154"/>
       <c r="X322" s="154">
-        <v>140.88528158717219</v>
+        <v>140.88528158608872</v>
       </c>
       <c r="Y322" s="154"/>
       <c r="Z322" s="154"/>
@@ -18514,13 +18514,13 @@
       <c r="F323" s="154"/>
       <c r="G323" s="154"/>
       <c r="H323" s="154">
-        <v>27.964910618924005</v>
+        <v>27.964910618887178</v>
       </c>
       <c r="I323" s="154"/>
       <c r="J323" s="154"/>
       <c r="K323" s="154"/>
       <c r="L323" s="154">
-        <v>27.964910618924005</v>
+        <v>27.964910618887178</v>
       </c>
       <c r="M323" s="154"/>
       <c r="N323" s="154"/>
@@ -18530,13 +18530,13 @@
       <c r="R323" s="154"/>
       <c r="S323" s="154"/>
       <c r="T323" s="154">
-        <v>8.0576554210206375</v>
+        <v>8.0576554210692724</v>
       </c>
       <c r="U323" s="154"/>
       <c r="V323" s="154"/>
       <c r="W323" s="154"/>
       <c r="X323" s="154">
-        <v>8.0576554210206375</v>
+        <v>8.0576554210692724</v>
       </c>
       <c r="Y323" s="154"/>
       <c r="Z323" s="154"/>
@@ -18552,13 +18552,13 @@
       <c r="F324" s="154"/>
       <c r="G324" s="154"/>
       <c r="H324" s="154">
-        <v>0.16233236095454232</v>
+        <v>0.1623323609556683</v>
       </c>
       <c r="I324" s="154"/>
       <c r="J324" s="154"/>
       <c r="K324" s="154"/>
       <c r="L324" s="154">
-        <v>0.16233236095454232</v>
+        <v>0.1623323609556683</v>
       </c>
       <c r="M324" s="154"/>
       <c r="N324" s="154"/>
@@ -18568,13 +18568,13 @@
       <c r="R324" s="154"/>
       <c r="S324" s="154"/>
       <c r="T324" s="154">
-        <v>0.16233236095778381</v>
+        <v>0.16233236095553913</v>
       </c>
       <c r="U324" s="154"/>
       <c r="V324" s="154"/>
       <c r="W324" s="154"/>
       <c r="X324" s="154">
-        <v>0.16233236095778381</v>
+        <v>0.16233236095553913</v>
       </c>
       <c r="Y324" s="154"/>
       <c r="Z324" s="154"/>
@@ -18590,13 +18590,13 @@
       <c r="F325" s="154"/>
       <c r="G325" s="154"/>
       <c r="H325" s="154">
-        <v>0.163955684564089</v>
+        <v>0.16395568456522408</v>
       </c>
       <c r="I325" s="154"/>
       <c r="J325" s="154"/>
       <c r="K325" s="154"/>
       <c r="L325" s="154">
-        <v>0.163955684564089</v>
+        <v>0.16395568456522408</v>
       </c>
       <c r="M325" s="154"/>
       <c r="N325" s="154"/>
@@ -18606,13 +18606,13 @@
       <c r="R325" s="154"/>
       <c r="S325" s="154"/>
       <c r="T325" s="154">
-        <v>0.16395568456736509</v>
+        <v>0.16395568456509679</v>
       </c>
       <c r="U325" s="154"/>
       <c r="V325" s="154"/>
       <c r="W325" s="154"/>
       <c r="X325" s="154">
-        <v>0.16395568456736509</v>
+        <v>0.16395568456509679</v>
       </c>
       <c r="Y325" s="154"/>
       <c r="Z325" s="154"/>
@@ -18628,13 +18628,13 @@
       <c r="F326" s="154"/>
       <c r="G326" s="154"/>
       <c r="H326" s="154">
-        <v>0.11856986930245196</v>
+        <v>0.11856986930266396</v>
       </c>
       <c r="I326" s="154"/>
       <c r="J326" s="154"/>
       <c r="K326" s="154"/>
       <c r="L326" s="154">
-        <v>0.11856986930245196</v>
+        <v>0.11856986930266396</v>
       </c>
       <c r="M326" s="154"/>
       <c r="N326" s="154"/>
@@ -18644,13 +18644,13 @@
       <c r="R326" s="154"/>
       <c r="S326" s="154"/>
       <c r="T326" s="154">
-        <v>0.027683203515786896</v>
+        <v>0.027683203515670073</v>
       </c>
       <c r="U326" s="154"/>
       <c r="V326" s="154"/>
       <c r="W326" s="154"/>
       <c r="X326" s="154">
-        <v>0.027683203515786896</v>
+        <v>0.027683203515670073</v>
       </c>
       <c r="Y326" s="154"/>
       <c r="Z326" s="154"/>
@@ -18666,13 +18666,13 @@
       <c r="F327" s="154"/>
       <c r="G327" s="154"/>
       <c r="H327" s="154">
-        <v>21.621539623476515</v>
+        <v>21.621539623478512</v>
       </c>
       <c r="I327" s="154"/>
       <c r="J327" s="154"/>
       <c r="K327" s="154"/>
       <c r="L327" s="154">
-        <v>21.621539623476515</v>
+        <v>21.621539623478512</v>
       </c>
       <c r="M327" s="154"/>
       <c r="N327" s="154"/>
@@ -18682,13 +18682,13 @@
       <c r="R327" s="154"/>
       <c r="S327" s="154"/>
       <c r="T327" s="154">
-        <v>1.6978744691674239</v>
+        <v>1.6978744691681382</v>
       </c>
       <c r="U327" s="154"/>
       <c r="V327" s="154"/>
       <c r="W327" s="154"/>
       <c r="X327" s="154">
-        <v>1.6978744691674239</v>
+        <v>1.6978744691681382</v>
       </c>
       <c r="Y327" s="154"/>
       <c r="Z327" s="154"/>
@@ -18704,13 +18704,13 @@
       <c r="F328" s="154"/>
       <c r="G328" s="154"/>
       <c r="H328" s="154">
-        <v>14.956769885426045</v>
+        <v>14.956769885452113</v>
       </c>
       <c r="I328" s="154"/>
       <c r="J328" s="154"/>
       <c r="K328" s="154"/>
       <c r="L328" s="154">
-        <v>14.956769885426045</v>
+        <v>14.956769885452113</v>
       </c>
       <c r="M328" s="154"/>
       <c r="N328" s="154"/>
@@ -18720,13 +18720,13 @@
       <c r="R328" s="154"/>
       <c r="S328" s="154"/>
       <c r="T328" s="154">
-        <v>5.9518791506195683</v>
+        <v>5.9518791506834745</v>
       </c>
       <c r="U328" s="154"/>
       <c r="V328" s="154"/>
       <c r="W328" s="154"/>
       <c r="X328" s="154">
-        <v>5.9518791506195683</v>
+        <v>5.9518791506834745</v>
       </c>
       <c r="Y328" s="154"/>
       <c r="Z328" s="154"/>
@@ -18742,13 +18742,13 @@
       <c r="F329" s="154"/>
       <c r="G329" s="154"/>
       <c r="H329" s="154">
-        <v>14.950000679044781</v>
+        <v>14.950000679004999</v>
       </c>
       <c r="I329" s="154"/>
       <c r="J329" s="154"/>
       <c r="K329" s="154"/>
       <c r="L329" s="154">
-        <v>14.950000679044781</v>
+        <v>14.950000679004999</v>
       </c>
       <c r="M329" s="154"/>
       <c r="N329" s="154"/>
@@ -18758,13 +18758,13 @@
       <c r="R329" s="154"/>
       <c r="S329" s="154"/>
       <c r="T329" s="154">
-        <v>5.9431114504813447</v>
+        <v>5.9431114505656915</v>
       </c>
       <c r="U329" s="154"/>
       <c r="V329" s="154"/>
       <c r="W329" s="154"/>
       <c r="X329" s="154">
-        <v>5.9431114504813447</v>
+        <v>5.9431114505656915</v>
       </c>
       <c r="Y329" s="154"/>
       <c r="Z329" s="154"/>
@@ -18780,13 +18780,13 @@
       <c r="F330" s="154"/>
       <c r="G330" s="154"/>
       <c r="H330" s="154">
-        <v>-170410.74011139936</v>
+        <v>-170410.74011140532</v>
       </c>
       <c r="I330" s="154"/>
       <c r="J330" s="154"/>
       <c r="K330" s="154"/>
       <c r="L330" s="154">
-        <v>-170410.74011139936</v>
+        <v>-170410.74011140532</v>
       </c>
       <c r="M330" s="154"/>
       <c r="N330" s="154"/>
@@ -18796,13 +18796,13 @@
       <c r="R330" s="154"/>
       <c r="S330" s="154"/>
       <c r="T330" s="154">
-        <v>-478404.93582654954</v>
+        <v>-478404.93582653924</v>
       </c>
       <c r="U330" s="154"/>
       <c r="V330" s="154"/>
       <c r="W330" s="154"/>
       <c r="X330" s="154">
-        <v>-478404.93582654954</v>
+        <v>-478404.93582653924</v>
       </c>
       <c r="Y330" s="154"/>
       <c r="Z330" s="154"/>
@@ -18818,13 +18818,13 @@
       <c r="F331" s="154"/>
       <c r="G331" s="154"/>
       <c r="H331" s="156">
-        <v>-170110.3135807415</v>
+        <v>-170110.3135807467</v>
       </c>
       <c r="I331" s="156"/>
       <c r="J331" s="156"/>
       <c r="K331" s="156"/>
       <c r="L331" s="156">
-        <v>-170110.3135807415</v>
+        <v>-170110.3135807467</v>
       </c>
       <c r="M331" s="156"/>
       <c r="N331" s="156"/>
@@ -18834,13 +18834,13 @@
       <c r="R331" s="154"/>
       <c r="S331" s="154"/>
       <c r="T331" s="156">
-        <v>-478088.78191496083</v>
+        <v>-478088.78191495046</v>
       </c>
       <c r="U331" s="156"/>
       <c r="V331" s="156"/>
       <c r="W331" s="156"/>
       <c r="X331" s="156">
-        <v>-478088.78191496083</v>
+        <v>-478088.78191495046</v>
       </c>
       <c r="Y331" s="156"/>
       <c r="Z331" s="156"/>
@@ -18856,13 +18856,13 @@
       <c r="F332" s="154"/>
       <c r="G332" s="154"/>
       <c r="H332" s="154">
-        <v>13.071691234873939</v>
+        <v>13.071691234883344</v>
       </c>
       <c r="I332" s="154"/>
       <c r="J332" s="154"/>
       <c r="K332" s="154"/>
       <c r="L332" s="154">
-        <v>13.071691234873939</v>
+        <v>13.071691234883344</v>
       </c>
       <c r="M332" s="154"/>
       <c r="N332" s="154"/>
@@ -18872,13 +18872,13 @@
       <c r="R332" s="154"/>
       <c r="S332" s="154"/>
       <c r="T332" s="154">
-        <v>7.0808745101698145</v>
+        <v>7.0808745100206218</v>
       </c>
       <c r="U332" s="154"/>
       <c r="V332" s="154"/>
       <c r="W332" s="154"/>
       <c r="X332" s="154">
-        <v>7.0808745101698145</v>
+        <v>7.0808745100206218</v>
       </c>
       <c r="Y332" s="154"/>
       <c r="Z332" s="154"/>
@@ -18894,13 +18894,13 @@
       <c r="F333" s="154"/>
       <c r="G333" s="154"/>
       <c r="H333" s="154">
-        <v>663.24722744248913</v>
+        <v>663.24722744339283</v>
       </c>
       <c r="I333" s="154"/>
       <c r="J333" s="154"/>
       <c r="K333" s="154"/>
       <c r="L333" s="154">
-        <v>663.24722744248913</v>
+        <v>663.24722744339283</v>
       </c>
       <c r="M333" s="154"/>
       <c r="N333" s="154"/>
@@ -18910,13 +18910,13 @@
       <c r="R333" s="154"/>
       <c r="S333" s="154"/>
       <c r="T333" s="154">
-        <v>308.99634116347073</v>
+        <v>308.99634116347971</v>
       </c>
       <c r="U333" s="154"/>
       <c r="V333" s="154"/>
       <c r="W333" s="154"/>
       <c r="X333" s="154">
-        <v>308.99634116347073</v>
+        <v>308.99634116347971</v>
       </c>
       <c r="Y333" s="154"/>
       <c r="Z333" s="154"/>
@@ -18932,13 +18932,13 @@
       <c r="F334" s="154"/>
       <c r="G334" s="154"/>
       <c r="H334" s="154">
-        <v>27.164850486072289</v>
+        <v>27.164850486186491</v>
       </c>
       <c r="I334" s="154"/>
       <c r="J334" s="154"/>
       <c r="K334" s="154"/>
       <c r="L334" s="154">
-        <v>27.164850486072289</v>
+        <v>27.164850486186491</v>
       </c>
       <c r="M334" s="154"/>
       <c r="N334" s="154"/>
@@ -18948,13 +18948,13 @@
       <c r="R334" s="154"/>
       <c r="S334" s="154"/>
       <c r="T334" s="154">
-        <v>11.038479340322374</v>
+        <v>11.038479340237421</v>
       </c>
       <c r="U334" s="154"/>
       <c r="V334" s="154"/>
       <c r="W334" s="154"/>
       <c r="X334" s="154">
-        <v>11.038479340322374</v>
+        <v>11.038479340237421</v>
       </c>
       <c r="Y334" s="154"/>
       <c r="Z334" s="154"/>
@@ -18970,13 +18970,13 @@
       <c r="F335" s="154"/>
       <c r="G335" s="154"/>
       <c r="H335" s="156">
-        <v>703.48376916343545</v>
+        <v>703.48376916446273</v>
       </c>
       <c r="I335" s="156"/>
       <c r="J335" s="156"/>
       <c r="K335" s="156"/>
       <c r="L335" s="156">
-        <v>703.48376916343545</v>
+        <v>703.48376916446273</v>
       </c>
       <c r="M335" s="156"/>
       <c r="N335" s="156"/>
@@ -18986,13 +18986,13 @@
       <c r="R335" s="154"/>
       <c r="S335" s="154"/>
       <c r="T335" s="156">
-        <v>327.11569501396275</v>
+        <v>327.11569501373793</v>
       </c>
       <c r="U335" s="156"/>
       <c r="V335" s="156"/>
       <c r="W335" s="156"/>
       <c r="X335" s="156">
-        <v>327.11569501396275</v>
+        <v>327.11569501373793</v>
       </c>
       <c r="Y335" s="156"/>
       <c r="Z335" s="156"/>
@@ -19008,13 +19008,13 @@
       <c r="F336" s="154"/>
       <c r="G336" s="154"/>
       <c r="H336" s="154">
-        <v>2.6082686135129971</v>
+        <v>2.6082686135000159</v>
       </c>
       <c r="I336" s="154"/>
       <c r="J336" s="154"/>
       <c r="K336" s="154"/>
       <c r="L336" s="154">
-        <v>2.6082686135129971</v>
+        <v>2.6082686135000159</v>
       </c>
       <c r="M336" s="154"/>
       <c r="N336" s="154"/>
@@ -19024,13 +19024,13 @@
       <c r="R336" s="154"/>
       <c r="S336" s="154"/>
       <c r="T336" s="154">
-        <v>4.4685587513064169</v>
+        <v>4.4685587512653688</v>
       </c>
       <c r="U336" s="154"/>
       <c r="V336" s="154"/>
       <c r="W336" s="154"/>
       <c r="X336" s="154">
-        <v>4.4685587513064169</v>
+        <v>4.4685587512653688</v>
       </c>
       <c r="Y336" s="154"/>
       <c r="Z336" s="154"/>
@@ -19046,13 +19046,13 @@
       <c r="F337" s="154"/>
       <c r="G337" s="154"/>
       <c r="H337" s="154">
-        <v>2.7554516132375868</v>
+        <v>2.7554516132238058</v>
       </c>
       <c r="I337" s="154"/>
       <c r="J337" s="154"/>
       <c r="K337" s="154"/>
       <c r="L337" s="154">
-        <v>2.7554516132375868</v>
+        <v>2.7554516132238058</v>
       </c>
       <c r="M337" s="154"/>
       <c r="N337" s="154"/>
@@ -19062,13 +19062,13 @@
       <c r="R337" s="154"/>
       <c r="S337" s="154"/>
       <c r="T337" s="154">
-        <v>4.6878932290549216</v>
+        <v>4.6878932290116753</v>
       </c>
       <c r="U337" s="154"/>
       <c r="V337" s="154"/>
       <c r="W337" s="154"/>
       <c r="X337" s="154">
-        <v>4.6878932290549216</v>
+        <v>4.6878932290116753</v>
       </c>
       <c r="Y337" s="154"/>
       <c r="Z337" s="154"/>
@@ -19084,13 +19084,13 @@
       <c r="F338" s="154"/>
       <c r="G338" s="154"/>
       <c r="H338" s="154">
-        <v>12.80816252880185</v>
+        <v>12.808162528784621</v>
       </c>
       <c r="I338" s="154"/>
       <c r="J338" s="154"/>
       <c r="K338" s="154"/>
       <c r="L338" s="154">
-        <v>12.80816252880185</v>
+        <v>12.808162528784621</v>
       </c>
       <c r="M338" s="154"/>
       <c r="N338" s="154"/>
@@ -19100,13 +19100,13 @@
       <c r="R338" s="154"/>
       <c r="S338" s="154"/>
       <c r="T338" s="154">
-        <v>12.253030711019688</v>
+        <v>12.253030711249728</v>
       </c>
       <c r="U338" s="154"/>
       <c r="V338" s="154"/>
       <c r="W338" s="154"/>
       <c r="X338" s="154">
-        <v>12.253030711019688</v>
+        <v>12.253030711249728</v>
       </c>
       <c r="Y338" s="154"/>
       <c r="Z338" s="154"/>
@@ -19122,13 +19122,13 @@
       <c r="F339" s="154"/>
       <c r="G339" s="154"/>
       <c r="H339" s="154">
-        <v>0.70563849969497827</v>
+        <v>0.70563849969402692</v>
       </c>
       <c r="I339" s="154"/>
       <c r="J339" s="154"/>
       <c r="K339" s="154"/>
       <c r="L339" s="154">
-        <v>0.70563849969497827</v>
+        <v>0.70563849969402692</v>
       </c>
       <c r="M339" s="154"/>
       <c r="N339" s="154"/>
@@ -19138,13 +19138,13 @@
       <c r="R339" s="154"/>
       <c r="S339" s="154"/>
       <c r="T339" s="154">
-        <v>0.66838688855551487</v>
+        <v>0.66838688856811845</v>
       </c>
       <c r="U339" s="154"/>
       <c r="V339" s="154"/>
       <c r="W339" s="154"/>
       <c r="X339" s="154">
-        <v>0.66838688855551487</v>
+        <v>0.66838688856811845</v>
       </c>
       <c r="Y339" s="154"/>
       <c r="Z339" s="154"/>
@@ -19160,13 +19160,13 @@
       <c r="F340" s="154"/>
       <c r="G340" s="154"/>
       <c r="H340" s="156">
-        <v>18.877521255247412</v>
+        <v>18.877521255202478</v>
       </c>
       <c r="I340" s="156"/>
       <c r="J340" s="156"/>
       <c r="K340" s="156"/>
       <c r="L340" s="156">
-        <v>18.877521255247412</v>
+        <v>18.877521255202478</v>
       </c>
       <c r="M340" s="156"/>
       <c r="N340" s="156"/>
@@ -19176,13 +19176,13 @@
       <c r="R340" s="154"/>
       <c r="S340" s="154"/>
       <c r="T340" s="156">
-        <v>22.077869579936561</v>
+        <v>22.077869580094898</v>
       </c>
       <c r="U340" s="156"/>
       <c r="V340" s="156"/>
       <c r="W340" s="156"/>
       <c r="X340" s="156">
-        <v>22.077869579936561</v>
+        <v>22.077869580094898</v>
       </c>
       <c r="Y340" s="156"/>
       <c r="Z340" s="156"/>
@@ -19350,13 +19350,13 @@
       <c r="F345" s="154"/>
       <c r="G345" s="154"/>
       <c r="H345" s="156">
-        <v>-169389.95229032286</v>
+        <v>-169389.95229032714</v>
       </c>
       <c r="I345" s="156"/>
       <c r="J345" s="156"/>
       <c r="K345" s="156"/>
       <c r="L345" s="156">
-        <v>-169389.95229032286</v>
+        <v>-169389.95229032714</v>
       </c>
       <c r="M345" s="156"/>
       <c r="N345" s="156"/>
@@ -19366,13 +19366,13 @@
       <c r="R345" s="154"/>
       <c r="S345" s="154"/>
       <c r="T345" s="156">
-        <v>-477739.58835036686</v>
+        <v>-477739.58835035679</v>
       </c>
       <c r="U345" s="156"/>
       <c r="V345" s="156"/>
       <c r="W345" s="156"/>
       <c r="X345" s="156">
-        <v>-477739.58835036686</v>
+        <v>-477739.58835035679</v>
       </c>
       <c r="Y345" s="156"/>
       <c r="Z345" s="156"/>
@@ -19388,13 +19388,13 @@
       <c r="F347" s="154"/>
       <c r="G347" s="154"/>
       <c r="H347" s="154">
-        <v>9.4379941643829213</v>
+        <v>9.4379941596807</v>
       </c>
       <c r="I347" s="154"/>
       <c r="J347" s="154"/>
       <c r="K347" s="154"/>
       <c r="L347" s="154">
-        <v>9.4379941643829213</v>
+        <v>9.4379941596807</v>
       </c>
       <c r="M347" s="154"/>
       <c r="N347" s="154"/>
@@ -19404,13 +19404,13 @@
       <c r="R347" s="154"/>
       <c r="S347" s="154"/>
       <c r="T347" s="154">
-        <v>-0.59491081302721627</v>
+        <v>-0.59491080466835045</v>
       </c>
       <c r="U347" s="154"/>
       <c r="V347" s="154"/>
       <c r="W347" s="154"/>
       <c r="X347" s="154">
-        <v>-0.59491081302721627</v>
+        <v>-0.59491080466835045</v>
       </c>
       <c r="Y347" s="154"/>
       <c r="Z347" s="154"/>
@@ -19616,13 +19616,13 @@
       <c r="F353" s="154"/>
       <c r="G353" s="154"/>
       <c r="H353" s="156">
-        <v>59.077419491175334</v>
+        <v>59.077419486473119</v>
       </c>
       <c r="I353" s="156"/>
       <c r="J353" s="156"/>
       <c r="K353" s="156"/>
       <c r="L353" s="156">
-        <v>59.077419491175334</v>
+        <v>59.077419486473119</v>
       </c>
       <c r="M353" s="156"/>
       <c r="N353" s="156"/>
@@ -19632,13 +19632,13 @@
       <c r="R353" s="154"/>
       <c r="S353" s="154"/>
       <c r="T353" s="156">
-        <v>40.056723031650577</v>
+        <v>40.056723040009437</v>
       </c>
       <c r="U353" s="156"/>
       <c r="V353" s="156"/>
       <c r="W353" s="156"/>
       <c r="X353" s="156">
-        <v>40.056723031650577</v>
+        <v>40.056723040009437</v>
       </c>
       <c r="Y353" s="156"/>
       <c r="Z353" s="156"/>
@@ -19730,13 +19730,13 @@
       <c r="F356" s="154"/>
       <c r="G356" s="154"/>
       <c r="H356" s="156">
-        <v>59.077419491175334</v>
+        <v>59.077419486473119</v>
       </c>
       <c r="I356" s="156"/>
       <c r="J356" s="156"/>
       <c r="K356" s="156"/>
       <c r="L356" s="156">
-        <v>59.077419491175334</v>
+        <v>59.077419486473119</v>
       </c>
       <c r="M356" s="156"/>
       <c r="N356" s="156"/>
@@ -19746,13 +19746,13 @@
       <c r="R356" s="154"/>
       <c r="S356" s="154"/>
       <c r="T356" s="156">
-        <v>40.056723031650577</v>
+        <v>40.056723040009437</v>
       </c>
       <c r="U356" s="156"/>
       <c r="V356" s="156"/>
       <c r="W356" s="156"/>
       <c r="X356" s="156">
-        <v>40.056723031650577</v>
+        <v>40.056723040009437</v>
       </c>
       <c r="Y356" s="156"/>
       <c r="Z356" s="156"/>
@@ -20388,13 +20388,13 @@
       <c r="F375" s="150"/>
       <c r="G375" s="150"/>
       <c r="H375" s="150">
-        <v>3.5481178823736776</v>
+        <v>3.5481178823746955</v>
       </c>
       <c r="I375" s="150"/>
       <c r="J375" s="150"/>
       <c r="K375" s="150"/>
       <c r="L375" s="150">
-        <v>3.5481178823736776</v>
+        <v>3.5481178823746955</v>
       </c>
       <c r="M375" s="150"/>
       <c r="N375" s="150"/>
@@ -20404,13 +20404,13 @@
       <c r="R375" s="150"/>
       <c r="S375" s="150"/>
       <c r="T375" s="150">
-        <v>4.0202323669182851</v>
+        <v>4.02023236691701</v>
       </c>
       <c r="U375" s="150"/>
       <c r="V375" s="150"/>
       <c r="W375" s="150"/>
       <c r="X375" s="150">
-        <v>4.0202323669182851</v>
+        <v>4.02023236691701</v>
       </c>
       <c r="Y375" s="150"/>
       <c r="Z375" s="150"/>
@@ -20540,13 +20540,13 @@
       <c r="F379" s="150"/>
       <c r="G379" s="150"/>
       <c r="H379" s="150">
-        <v>6.208570662467463</v>
+        <v>6.2085706624667969</v>
       </c>
       <c r="I379" s="150"/>
       <c r="J379" s="150"/>
       <c r="K379" s="150"/>
       <c r="L379" s="150">
-        <v>6.208570662467463</v>
+        <v>6.2085706624667969</v>
       </c>
       <c r="M379" s="150"/>
       <c r="N379" s="150"/>
@@ -20556,13 +20556,13 @@
       <c r="R379" s="150"/>
       <c r="S379" s="150"/>
       <c r="T379" s="150">
-        <v>6.2748417301317447</v>
+        <v>6.2748417301351056</v>
       </c>
       <c r="U379" s="150"/>
       <c r="V379" s="150"/>
       <c r="W379" s="150"/>
       <c r="X379" s="150">
-        <v>6.2748417301317447</v>
+        <v>6.2748417301351056</v>
       </c>
       <c r="Y379" s="150"/>
       <c r="Z379" s="150"/>
@@ -20844,13 +20844,13 @@
       <c r="F387" s="150"/>
       <c r="G387" s="150"/>
       <c r="H387" s="157">
-        <v>2.6303605244691655</v>
+        <v>2.6303605244691752</v>
       </c>
       <c r="I387" s="157"/>
       <c r="J387" s="157"/>
       <c r="K387" s="157"/>
       <c r="L387" s="157">
-        <v>2.6303605244691655</v>
+        <v>2.6303605244691752</v>
       </c>
       <c r="M387" s="157"/>
       <c r="N387" s="157"/>
@@ -20860,13 +20860,13 @@
       <c r="R387" s="150"/>
       <c r="S387" s="150"/>
       <c r="T387" s="157">
-        <v>2.9622796273461769</v>
+        <v>2.9622796273461725</v>
       </c>
       <c r="U387" s="157"/>
       <c r="V387" s="157"/>
       <c r="W387" s="157"/>
       <c r="X387" s="157">
-        <v>2.9622796273461769</v>
+        <v>2.9622796273461725</v>
       </c>
       <c r="Y387" s="157"/>
       <c r="Z387" s="157"/>
@@ -20920,13 +20920,13 @@
       <c r="F389" s="150"/>
       <c r="G389" s="150"/>
       <c r="H389" s="150">
-        <v>5.0280832300193685</v>
+        <v>5.02808323001807</v>
       </c>
       <c r="I389" s="150"/>
       <c r="J389" s="150"/>
       <c r="K389" s="150"/>
       <c r="L389" s="150">
-        <v>5.0280832300193685</v>
+        <v>5.02808323001807</v>
       </c>
       <c r="M389" s="150"/>
       <c r="N389" s="150"/>
@@ -20936,13 +20936,13 @@
       <c r="R389" s="150"/>
       <c r="S389" s="150"/>
       <c r="T389" s="150">
-        <v>5.4120790455818266</v>
+        <v>5.412079045583611</v>
       </c>
       <c r="U389" s="150"/>
       <c r="V389" s="150"/>
       <c r="W389" s="150"/>
       <c r="X389" s="150">
-        <v>5.4120790455818266</v>
+        <v>5.412079045583611</v>
       </c>
       <c r="Y389" s="150"/>
       <c r="Z389" s="150"/>
@@ -20958,13 +20958,13 @@
       <c r="F390" s="150"/>
       <c r="G390" s="150"/>
       <c r="H390" s="150">
-        <v>4.859349284676342</v>
+        <v>4.8593492846760471</v>
       </c>
       <c r="I390" s="150"/>
       <c r="J390" s="150"/>
       <c r="K390" s="150"/>
       <c r="L390" s="150">
-        <v>4.859349284676342</v>
+        <v>4.8593492846760471</v>
       </c>
       <c r="M390" s="150"/>
       <c r="N390" s="150"/>
@@ -20974,13 +20974,13 @@
       <c r="R390" s="150"/>
       <c r="S390" s="150"/>
       <c r="T390" s="150">
-        <v>5.0828291881540695</v>
+        <v>5.0828291881544372</v>
       </c>
       <c r="U390" s="150"/>
       <c r="V390" s="150"/>
       <c r="W390" s="150"/>
       <c r="X390" s="150">
-        <v>5.0828291881540695</v>
+        <v>5.0828291881544372</v>
       </c>
       <c r="Y390" s="150"/>
       <c r="Z390" s="150"/>
@@ -20996,13 +20996,13 @@
       <c r="F391" s="150"/>
       <c r="G391" s="150"/>
       <c r="H391" s="157">
-        <v>5.012124440098261</v>
+        <v>5.0121244400969864</v>
       </c>
       <c r="I391" s="157"/>
       <c r="J391" s="157"/>
       <c r="K391" s="157"/>
       <c r="L391" s="157">
-        <v>5.012124440098261</v>
+        <v>5.0121244400969864</v>
       </c>
       <c r="M391" s="157"/>
       <c r="N391" s="157"/>
@@ -21012,13 +21012,13 @@
       <c r="R391" s="150"/>
       <c r="S391" s="150"/>
       <c r="T391" s="157">
-        <v>5.3829150317539636</v>
+        <v>5.3829150317562631</v>
       </c>
       <c r="U391" s="157"/>
       <c r="V391" s="157"/>
       <c r="W391" s="157"/>
       <c r="X391" s="157">
-        <v>5.3829150317539636</v>
+        <v>5.3829150317562631</v>
       </c>
       <c r="Y391" s="157"/>
       <c r="Z391" s="157"/>
@@ -21186,13 +21186,13 @@
       <c r="F396" s="150"/>
       <c r="G396" s="150"/>
       <c r="H396" s="157">
-        <v>4.512459088330913</v>
+        <v>4.5124590883314655</v>
       </c>
       <c r="I396" s="157"/>
       <c r="J396" s="157"/>
       <c r="K396" s="157"/>
       <c r="L396" s="157">
-        <v>4.512459088330913</v>
+        <v>4.5124590883314655</v>
       </c>
       <c r="M396" s="157"/>
       <c r="N396" s="157"/>
@@ -21202,13 +21202,13 @@
       <c r="R396" s="150"/>
       <c r="S396" s="150"/>
       <c r="T396" s="157">
-        <v>4.4304186202622651</v>
+        <v>4.4304186202696165</v>
       </c>
       <c r="U396" s="157"/>
       <c r="V396" s="157"/>
       <c r="W396" s="157"/>
       <c r="X396" s="157">
-        <v>4.4304186202622651</v>
+        <v>4.4304186202696165</v>
       </c>
       <c r="Y396" s="157"/>
       <c r="Z396" s="157"/>
@@ -21224,13 +21224,13 @@
       <c r="F397" s="150"/>
       <c r="G397" s="150"/>
       <c r="H397" s="150">
-        <v>5.5378752276000007</v>
+        <v>4.1925464779</v>
       </c>
       <c r="I397" s="150"/>
       <c r="J397" s="150"/>
       <c r="K397" s="150"/>
       <c r="L397" s="150">
-        <v>5.5378752276000007</v>
+        <v>4.1925464779</v>
       </c>
       <c r="M397" s="150"/>
       <c r="N397" s="150"/>
@@ -21240,13 +21240,13 @@
       <c r="R397" s="150"/>
       <c r="S397" s="150"/>
       <c r="T397" s="150">
-        <v>5.876661177</v>
+        <v>4.36089564715</v>
       </c>
       <c r="U397" s="150"/>
       <c r="V397" s="150"/>
       <c r="W397" s="150"/>
       <c r="X397" s="150">
-        <v>5.876661177</v>
+        <v>4.36089564715</v>
       </c>
       <c r="Y397" s="150"/>
       <c r="Z397" s="150"/>
@@ -21338,13 +21338,13 @@
       <c r="F400" s="150"/>
       <c r="G400" s="150"/>
       <c r="H400" s="157">
-        <v>4.6459628936666677</v>
+        <v>4.0156624070416678</v>
       </c>
       <c r="I400" s="157"/>
       <c r="J400" s="157"/>
       <c r="K400" s="157"/>
       <c r="L400" s="157">
-        <v>4.6459628936666677</v>
+        <v>4.0156624070416678</v>
       </c>
       <c r="M400" s="157"/>
       <c r="N400" s="157"/>
@@ -21354,13 +21354,13 @@
       <c r="R400" s="150"/>
       <c r="S400" s="150"/>
       <c r="T400" s="157">
-        <v>5.2104831339499995</v>
+        <v>4.4526003690249993</v>
       </c>
       <c r="U400" s="157"/>
       <c r="V400" s="157"/>
       <c r="W400" s="157"/>
       <c r="X400" s="157">
-        <v>5.2104831339499995</v>
+        <v>4.4526003690249993</v>
       </c>
       <c r="Y400" s="157"/>
       <c r="Z400" s="157"/>
@@ -21376,13 +21376,13 @@
       <c r="F401" s="150"/>
       <c r="G401" s="150"/>
       <c r="H401" s="157">
-        <v>2.6652559711022668</v>
+        <v>2.6652559711022783</v>
       </c>
       <c r="I401" s="157"/>
       <c r="J401" s="157"/>
       <c r="K401" s="157"/>
       <c r="L401" s="157">
-        <v>2.6652559711022668</v>
+        <v>2.6652559711022783</v>
       </c>
       <c r="M401" s="157"/>
       <c r="N401" s="157"/>
@@ -21392,13 +21392,13 @@
       <c r="R401" s="150"/>
       <c r="S401" s="150"/>
       <c r="T401" s="157">
-        <v>2.9640556246665244</v>
+        <v>2.9640556246665182</v>
       </c>
       <c r="U401" s="157"/>
       <c r="V401" s="157"/>
       <c r="W401" s="157"/>
       <c r="X401" s="157">
-        <v>2.9640556246665244</v>
+        <v>2.9640556246665182</v>
       </c>
       <c r="Y401" s="157"/>
       <c r="Z401" s="157"/>
@@ -21414,13 +21414,13 @@
       <c r="F403" s="150"/>
       <c r="G403" s="150"/>
       <c r="H403" s="150">
-        <v>2.029990094004297</v>
+        <v>2.0299900940042854</v>
       </c>
       <c r="I403" s="150"/>
       <c r="J403" s="150"/>
       <c r="K403" s="150"/>
       <c r="L403" s="150">
-        <v>2.029990094004297</v>
+        <v>2.0299900940042854</v>
       </c>
       <c r="M403" s="150"/>
       <c r="N403" s="150"/>
@@ -21430,13 +21430,13 @@
       <c r="R403" s="150"/>
       <c r="S403" s="150"/>
       <c r="T403" s="150">
-        <v>1.2269572712091699</v>
+        <v>1.2269572753712958</v>
       </c>
       <c r="U403" s="150"/>
       <c r="V403" s="150"/>
       <c r="W403" s="150"/>
       <c r="X403" s="150">
-        <v>1.2269572712091699</v>
+        <v>1.2269572753712958</v>
       </c>
       <c r="Y403" s="150"/>
       <c r="Z403" s="150"/>
@@ -21642,13 +21642,13 @@
       <c r="F409" s="150"/>
       <c r="G409" s="150"/>
       <c r="H409" s="157">
-        <v>1.1010948156305462</v>
+        <v>1.1010948156438563</v>
       </c>
       <c r="I409" s="157"/>
       <c r="J409" s="157"/>
       <c r="K409" s="157"/>
       <c r="L409" s="157">
-        <v>1.1010948156305462</v>
+        <v>1.1010948156438563</v>
       </c>
       <c r="M409" s="157"/>
       <c r="N409" s="157"/>
@@ -21658,13 +21658,13 @@
       <c r="R409" s="150"/>
       <c r="S409" s="150"/>
       <c r="T409" s="157">
-        <v>1.08770898554383</v>
+        <v>1.0877089856295126</v>
       </c>
       <c r="U409" s="157"/>
       <c r="V409" s="157"/>
       <c r="W409" s="157"/>
       <c r="X409" s="157">
-        <v>1.08770898554383</v>
+        <v>1.0877089856295126</v>
       </c>
       <c r="Y409" s="157"/>
       <c r="Z409" s="157"/>
@@ -21756,13 +21756,13 @@
       <c r="F412" s="150"/>
       <c r="G412" s="150"/>
       <c r="H412" s="157">
-        <v>1.1010948156305462</v>
+        <v>1.1010948156438563</v>
       </c>
       <c r="I412" s="157"/>
       <c r="J412" s="157"/>
       <c r="K412" s="157"/>
       <c r="L412" s="157">
-        <v>1.1010948156305462</v>
+        <v>1.1010948156438563</v>
       </c>
       <c r="M412" s="157"/>
       <c r="N412" s="157"/>
@@ -21772,13 +21772,13 @@
       <c r="R412" s="150"/>
       <c r="S412" s="150"/>
       <c r="T412" s="157">
-        <v>1.08770898554383</v>
+        <v>1.0877089856295126</v>
       </c>
       <c r="U412" s="157"/>
       <c r="V412" s="157"/>
       <c r="W412" s="157"/>
       <c r="X412" s="157">
-        <v>1.08770898554383</v>
+        <v>1.0877089856295126</v>
       </c>
       <c r="Y412" s="157"/>
       <c r="Z412" s="157"/>
@@ -22644,10 +22644,10 @@
         <v>3.2220663299859797</v>
       </c>
       <c r="F444" s="2">
-        <v>-82.226842632725209</v>
+        <v>-82.2268426327254</v>
       </c>
       <c r="G444" s="2">
-        <v>-135.12494919029729</v>
+        <v>-135.1249491903028</v>
       </c>
     </row>
     <row r="459" ht="14.25" customHeight="1">
@@ -22752,7 +22752,7 @@
       <c r="K462" s="128"/>
       <c r="L462" s="128"/>
       <c r="M462" s="128">
-        <v>20.059182779298013</v>
+        <v>14.68747645641171</v>
       </c>
       <c r="N462" s="128"/>
       <c r="O462" s="128"/>
@@ -22781,7 +22781,7 @@
       <c r="K463" s="128"/>
       <c r="L463" s="128"/>
       <c r="M463" s="128">
-        <v>4.59503007735725</v>
+        <v>9.96673640024355</v>
       </c>
       <c r="N463" s="128"/>
       <c r="O463" s="128"/>
@@ -22810,7 +22810,7 @@
       <c r="K464" s="128"/>
       <c r="L464" s="128"/>
       <c r="M464" s="128">
-        <v>-13.882999439569197</v>
+        <v>-13.882999439569195</v>
       </c>
       <c r="N464" s="128"/>
       <c r="O464" s="128"/>
@@ -23181,7 +23181,7 @@
       <c r="K477" s="128"/>
       <c r="L477" s="128"/>
       <c r="M477" s="128">
-        <v>-222.48046855892102</v>
+        <v>-222.48046855892659</v>
       </c>
       <c r="N477" s="128"/>
       <c r="O477" s="128"/>
@@ -23210,7 +23210,7 @@
       <c r="K478" s="128"/>
       <c r="L478" s="128"/>
       <c r="M478" s="128">
-        <v>86.464894824627038</v>
+        <v>64.015463830331029</v>
       </c>
       <c r="N478" s="128"/>
       <c r="O478" s="128"/>
@@ -23239,7 +23239,7 @@
       <c r="K479" s="128"/>
       <c r="L479" s="128"/>
       <c r="M479" s="128">
-        <v>17.64394934725831</v>
+        <v>40.093380341545775</v>
       </c>
       <c r="N479" s="128"/>
       <c r="O479" s="128"/>
@@ -23268,7 +23268,7 @@
       <c r="K480" s="128"/>
       <c r="L480" s="128"/>
       <c r="M480" s="128">
-        <v>-326.58931273080634</v>
+        <v>-326.58931273080339</v>
       </c>
       <c r="N480" s="128"/>
       <c r="O480" s="128"/>
@@ -23326,7 +23326,7 @@
       <c r="K482" s="128"/>
       <c r="L482" s="128"/>
       <c r="M482" s="128">
-        <v>-251.26617850776293</v>
+        <v>-251.2661785077685</v>
       </c>
       <c r="N482" s="128"/>
       <c r="O482" s="128"/>
@@ -27794,13 +27794,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>181.36210084140234</v>
+        <v>181.35223683614731</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>149.24532943634728</v>
+        <v>149.24216226396655</v>
       </c>
       <c r="G8" s="18">
         <v>47.649023686136495</v>
@@ -27816,7 +27816,7 @@
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="5">
-        <v>-3697.41168140444</v>
+        <v>-3697.4091858139177</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -27827,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="5">
-        <v>135.78167572682148</v>
+        <v>135.78167572581373</v>
       </c>
       <c r="E9" s="18">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>111.53578190775978</v>
+        <v>111.53578190119008</v>
       </c>
       <c r="G9" s="18">
         <v>38.222108083011079</v>
@@ -27849,7 +27849,7 @@
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="5">
-        <v>-3685.8808411900222</v>
+        <v>-3685.8808411898331</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -27860,13 +27860,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="5">
-        <v>90.39598478509096</v>
+        <v>90.395984785004572</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>74.085158467094942</v>
+        <v>74.085158466229885</v>
       </c>
       <c r="G10" s="18">
         <v>26.243043637417397</v>
@@ -27882,7 +27882,7 @@
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="5">
-        <v>-3674.399400894376</v>
+        <v>-3674.3994008944396</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -27893,13 +27893,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5">
-        <v>45.063238151410793</v>
+        <v>45.0632381515696</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>36.885063839939193</v>
+        <v>36.885063840415278</v>
       </c>
       <c r="G11" s="18">
         <v>12.687422636131775</v>
@@ -27915,7 +27915,7 @@
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="5">
-        <v>-3662.9412009695234</v>
+        <v>-3662.9412009695434</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -27959,13 +27959,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>-44.898679283549889</v>
+        <v>-44.873327474867914</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>-36.662763619635641</v>
+        <v>-36.651197008441443</v>
       </c>
       <c r="G13" s="18">
         <v>-6.3739235765473676</v>
@@ -27981,7 +27981,7 @@
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="5">
-        <v>-3640.1944296468228</v>
+        <v>-3640.1967116539522</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="5">
-        <v>-89.76376344741881</v>
+        <v>-89.7383099908362</v>
       </c>
       <c r="E14" s="18">
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>-73.1551828790316</v>
+        <v>-73.143583956736023</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="5">
@@ -28012,7 +28012,7 @@
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="5">
-        <v>-3628.8432143832838</v>
+        <v>-3628.8455221073441</v>
       </c>
     </row>
     <row r="15" hidden="1" ht="14.25" customHeight="1">
@@ -28038,13 +28038,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>-56.053465817221571</v>
+        <v>-55.999277239214415</v>
       </c>
       <c r="E16" s="18">
         <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>-56.010827334439995</v>
+        <v>-55.986191773705372</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="5">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="5">
-        <v>-3637.3712324518906</v>
+        <v>-3637.3808101627355</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -28069,13 +28069,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="5">
-        <v>136.82078869713334</v>
+        <v>136.82078869754557</v>
       </c>
       <c r="E17" s="18">
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>98.485041377470523</v>
+        <v>98.485041378788708</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="5">
@@ -28089,7 +28089,7 @@
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="5">
-        <v>-3686.1430694709088</v>
+        <v>-3686.1430694710316</v>
       </c>
     </row>
     <row r="18" hidden="1" ht="14.25" customHeight="1">
@@ -28159,10 +28159,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="49">
-        <v>-251.16854287819206</v>
+        <v>-251.16854287819777</v>
       </c>
       <c r="E22" s="49">
-        <v>-251.16854287819206</v>
+        <v>-251.16854287819777</v>
       </c>
       <c r="F22" s="49">
         <v>-36.360017458163455</v>
@@ -28174,7 +28174,7 @@
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
       <c r="K22" s="49">
-        <v>-222.66929363061985</v>
+        <v>-222.66929363062556</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -28185,10 +28185,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="49">
-        <v>-1294.4906961688903</v>
+        <v>-1294.4906961688982</v>
       </c>
       <c r="E23" s="49">
-        <v>-1294.4906961688903</v>
+        <v>-1294.4906961688982</v>
       </c>
       <c r="F23" s="49">
         <v>-72.72003491632691</v>
@@ -28200,7 +28200,7 @@
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
       <c r="K23" s="49">
-        <v>-1237.4921976737458</v>
+        <v>-1237.4921976737537</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -28243,10 +28243,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="49">
-        <v>-51306.143487318222</v>
+        <v>-51306.14348731823</v>
       </c>
       <c r="E25" s="49">
-        <v>-51306.143487318222</v>
+        <v>-51306.14348731823</v>
       </c>
       <c r="F25" s="49">
         <v>-72.72003491632691</v>
@@ -28261,10 +28261,10 @@
         <v>-24000</v>
       </c>
       <c r="J25" s="49">
-        <v>21988.347208850664</v>
+        <v>21988.347208850671</v>
       </c>
       <c r="K25" s="49">
-        <v>-1237.4921976737439</v>
+        <v>-1237.4921976737589</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -28394,31 +28394,31 @@
         <v>154</v>
       </c>
       <c r="C36" s="49">
-        <v>-25.710206194683042</v>
+        <v>-25.774137270694322</v>
       </c>
       <c r="D36" s="49">
-        <v>-138.39718435014711</v>
+        <v>-138.46086011861004</v>
       </c>
       <c r="E36" s="49">
-        <v>-251.16854287819206</v>
+        <v>-251.16854287819777</v>
       </c>
       <c r="F36" s="49">
-        <v>-364.3532215168201</v>
+        <v>-364.35322151722727</v>
       </c>
       <c r="G36" s="49">
-        <v>-478.21482068329726</v>
+        <v>-478.21482068309115</v>
       </c>
       <c r="H36" s="49">
-        <v>-592.2093992968413</v>
+        <v>-592.20939929432359</v>
       </c>
       <c r="I36" s="49">
-        <v>-706.69308889481965</v>
+        <v>-706.66831361656716</v>
       </c>
       <c r="J36" s="49">
-        <v>-594.819324203232</v>
+        <v>-594.81932420428086</v>
       </c>
       <c r="K36" s="50">
-        <v>45.063238151410793</v>
+        <v>45.0632381515696</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -28764,7 +28764,7 @@
         <v>-24.994548500483898</v>
       </c>
       <c r="O52" s="49">
-        <v>-30.720646533438803</v>
+        <v>-30.7206465334391</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -28836,7 +28836,7 @@
         <v>-27.3495865457978</v>
       </c>
       <c r="O54" s="49">
-        <v>-33.147447268983804</v>
+        <v>-33.147447268983996</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
@@ -29051,10 +29051,10 @@
         <v>-14225.253147461</v>
       </c>
       <c r="N60" s="49">
-        <v>-16344.3936913718</v>
+        <v>-16344.393691371999</v>
       </c>
       <c r="O60" s="49">
-        <v>-18467.592598914198</v>
+        <v>-18467.5925989139</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
@@ -29423,8 +29423,12 @@
       <c r="E76" s="49">
         <f t="shared" si="13"/>
       </c>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
+      <c r="F76" s="49">
+        <v>0</v>
+      </c>
+      <c r="G76" s="49">
+        <v>0</v>
+      </c>
       <c r="H76" s="49">
         <f t="shared" si="14"/>
       </c>
@@ -29864,8 +29868,12 @@
       <c r="E93" s="49">
         <f t="shared" si="21"/>
       </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
+      <c r="F93" s="49">
+        <v>0</v>
+      </c>
+      <c r="G93" s="49">
+        <v>0</v>
+      </c>
       <c r="H93" s="49">
         <f t="shared" si="22"/>
       </c>
@@ -30305,8 +30313,12 @@
       <c r="E110" s="49">
         <f t="shared" si="29"/>
       </c>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
+      <c r="F110" s="49">
+        <v>0</v>
+      </c>
+      <c r="G110" s="49">
+        <v>0</v>
+      </c>
       <c r="H110" s="49">
         <f t="shared" si="30"/>
       </c>
@@ -30746,8 +30758,12 @@
       <c r="E127" s="49">
         <f t="shared" si="37"/>
       </c>
-      <c r="F127" s="49"/>
-      <c r="G127" s="49"/>
+      <c r="F127" s="49">
+        <v>0</v>
+      </c>
+      <c r="G127" s="49">
+        <v>0</v>
+      </c>
       <c r="H127" s="49">
         <f t="shared" si="38"/>
       </c>
@@ -31187,8 +31203,12 @@
       <c r="E144" s="49">
         <f t="shared" si="45"/>
       </c>
-      <c r="F144" s="49"/>
-      <c r="G144" s="49"/>
+      <c r="F144" s="49">
+        <v>0</v>
+      </c>
+      <c r="G144" s="49">
+        <v>0</v>
+      </c>
       <c r="H144" s="49">
         <f t="shared" si="46"/>
       </c>
@@ -31628,8 +31648,12 @@
       <c r="E161" s="49">
         <f t="shared" si="53"/>
       </c>
-      <c r="F161" s="49"/>
-      <c r="G161" s="49"/>
+      <c r="F161" s="49">
+        <v>0</v>
+      </c>
+      <c r="G161" s="49">
+        <v>0</v>
+      </c>
       <c r="H161" s="49">
         <f t="shared" si="54"/>
       </c>
@@ -36345,17 +36369,17 @@
       </c>
       <c r="C27" s="162"/>
       <c r="D27" s="162">
-        <v>-25874.068285571502</v>
+        <v>-25874.0682855788</v>
       </c>
       <c r="E27" s="162">
-        <v>-25874.068285571502</v>
+        <v>-25874.0682855788</v>
       </c>
       <c r="F27" s="162"/>
       <c r="G27" s="162">
-        <v>-51804.3429595241</v>
+        <v>-51804.3429595209</v>
       </c>
       <c r="H27" s="162">
-        <v>-51804.3429595241</v>
+        <v>-51804.3429595209</v>
       </c>
     </row>
     <row r="28">
@@ -36364,17 +36388,17 @@
       </c>
       <c r="C28" s="162"/>
       <c r="D28" s="176">
-        <v>-25102.9682855715</v>
+        <v>-25102.968285578798</v>
       </c>
       <c r="E28" s="176">
-        <v>-25102.9682855715</v>
+        <v>-25102.968285578798</v>
       </c>
       <c r="F28" s="162"/>
       <c r="G28" s="176">
-        <v>-51033.242959524105</v>
+        <v>-51033.242959520896</v>
       </c>
       <c r="H28" s="176">
-        <v>-51033.242959524105</v>
+        <v>-51033.242959520896</v>
       </c>
     </row>
     <row r="29">
@@ -36630,17 +36654,17 @@
       </c>
       <c r="C42" s="162"/>
       <c r="D42" s="176">
-        <v>-23942.1672855715</v>
+        <v>-23942.1672855788</v>
       </c>
       <c r="E42" s="176">
-        <v>-23942.1672855715</v>
+        <v>-23942.1672855788</v>
       </c>
       <c r="F42" s="162"/>
       <c r="G42" s="176">
-        <v>-49872.441959524105</v>
+        <v>-49872.4419595209</v>
       </c>
       <c r="H42" s="176">
-        <v>-49872.441959524105</v>
+        <v>-49872.4419595209</v>
       </c>
     </row>
     <row r="43"/>
@@ -37051,17 +37075,17 @@
       </c>
       <c r="C67" s="162"/>
       <c r="D67" s="176">
-        <v>-24862.1672855715</v>
+        <v>-24862.1672855788</v>
       </c>
       <c r="E67" s="176">
-        <v>-24862.1672855715</v>
+        <v>-24862.1672855788</v>
       </c>
       <c r="F67" s="162"/>
       <c r="G67" s="176">
-        <v>-50792.441959524105</v>
+        <v>-50792.4419595209</v>
       </c>
       <c r="H67" s="176">
-        <v>-50792.441959524105</v>
+        <v>-50792.4419595209</v>
       </c>
     </row>
     <row r="68">
@@ -37133,17 +37157,17 @@
       </c>
       <c r="C73" s="162"/>
       <c r="D73" s="162">
-        <v>2672.6408010795822</v>
+        <v>2672.6408010795526</v>
       </c>
       <c r="E73" s="162">
-        <v>2672.6408010795822</v>
+        <v>2672.6408010795526</v>
       </c>
       <c r="F73" s="162"/>
       <c r="G73" s="162">
-        <v>2619.0573221212089</v>
+        <v>2619.0573221196864</v>
       </c>
       <c r="H73" s="162">
-        <v>2619.0573221212089</v>
+        <v>2619.0573221196864</v>
       </c>
     </row>
     <row r="74">
@@ -37152,17 +37176,17 @@
       </c>
       <c r="C74" s="162"/>
       <c r="D74" s="162">
-        <v>17934.38809529119</v>
+        <v>17934.388095290244</v>
       </c>
       <c r="E74" s="162">
-        <v>17934.38809529119</v>
+        <v>17934.388095290244</v>
       </c>
       <c r="F74" s="162"/>
       <c r="G74" s="162">
-        <v>16054.24456585625</v>
+        <v>16054.244565860548</v>
       </c>
       <c r="H74" s="162">
-        <v>16054.24456585625</v>
+        <v>16054.244565860548</v>
       </c>
     </row>
     <row r="75">
@@ -37171,17 +37195,17 @@
       </c>
       <c r="C75" s="162"/>
       <c r="D75" s="162">
-        <v>3258.7113366510648</v>
+        <v>3258.7113366512417</v>
       </c>
       <c r="E75" s="162">
-        <v>3258.7113366510648</v>
+        <v>3258.7113366512417</v>
       </c>
       <c r="F75" s="162"/>
       <c r="G75" s="162">
-        <v>3021.2652579774276</v>
+        <v>3021.2652579762789</v>
       </c>
       <c r="H75" s="162">
-        <v>3021.2652579774276</v>
+        <v>3021.2652579762789</v>
       </c>
     </row>
     <row r="76">
@@ -37190,17 +37214,17 @@
       </c>
       <c r="C76" s="162"/>
       <c r="D76" s="162">
-        <v>885.03579728424324</v>
+        <v>885.03579728407772</v>
       </c>
       <c r="E76" s="162">
-        <v>885.03579728424324</v>
+        <v>885.03579728407772</v>
       </c>
       <c r="F76" s="162"/>
       <c r="G76" s="162">
-        <v>839.4759006336551</v>
+        <v>839.47590063297037</v>
       </c>
       <c r="H76" s="162">
-        <v>839.4759006336551</v>
+        <v>839.47590063297037</v>
       </c>
     </row>
     <row r="77">
@@ -37209,17 +37233,17 @@
       </c>
       <c r="C77" s="162"/>
       <c r="D77" s="162">
-        <v>11437.707423795027</v>
+        <v>11437.707423792186</v>
       </c>
       <c r="E77" s="162">
-        <v>11437.707423795027</v>
+        <v>11437.707423792186</v>
       </c>
       <c r="F77" s="162"/>
       <c r="G77" s="162">
-        <v>10812.787694925437</v>
+        <v>10812.787694924286</v>
       </c>
       <c r="H77" s="162">
-        <v>10812.787694925437</v>
+        <v>10812.787694924286</v>
       </c>
     </row>
     <row r="78">
@@ -37228,17 +37252,17 @@
       </c>
       <c r="C78" s="162"/>
       <c r="D78" s="162">
-        <v>4346.8686023897317</v>
+        <v>4346.8686023895625</v>
       </c>
       <c r="E78" s="162">
-        <v>4346.8686023897317</v>
+        <v>4346.8686023895625</v>
       </c>
       <c r="F78" s="162"/>
       <c r="G78" s="162">
-        <v>4358.1683680401638</v>
+        <v>4358.1683680398482</v>
       </c>
       <c r="H78" s="162">
-        <v>4358.1683680401638</v>
+        <v>4358.1683680398482</v>
       </c>
     </row>
     <row r="79">
@@ -37247,17 +37271,17 @@
       </c>
       <c r="C79" s="162"/>
       <c r="D79" s="162">
-        <v>600.77590817868838</v>
+        <v>600.77590817870077</v>
       </c>
       <c r="E79" s="162">
-        <v>600.77590817868838</v>
+        <v>600.77590817870077</v>
       </c>
       <c r="F79" s="162"/>
       <c r="G79" s="162">
-        <v>603.57962909016624</v>
+        <v>603.579629090174</v>
       </c>
       <c r="H79" s="162">
-        <v>603.57962909016624</v>
+        <v>603.579629090174</v>
       </c>
     </row>
     <row r="80">
@@ -37266,17 +37290,17 @@
       </c>
       <c r="C80" s="162"/>
       <c r="D80" s="162">
-        <v>606.36928956049269</v>
+        <v>606.369289560504</v>
       </c>
       <c r="E80" s="162">
-        <v>606.36928956049269</v>
+        <v>606.369289560504</v>
       </c>
       <c r="F80" s="162"/>
       <c r="G80" s="162">
-        <v>527.22599464792836</v>
+        <v>527.225994647936</v>
       </c>
       <c r="H80" s="162">
-        <v>527.22599464792836</v>
+        <v>527.225994647936</v>
       </c>
     </row>
     <row r="81">
@@ -37285,17 +37309,17 @@
       </c>
       <c r="C81" s="162"/>
       <c r="D81" s="162">
-        <v>4.4793467814616452</v>
+        <v>4.4793467814617225</v>
       </c>
       <c r="E81" s="162">
-        <v>4.4793467814616452</v>
+        <v>4.4793467814617225</v>
       </c>
       <c r="F81" s="162"/>
       <c r="G81" s="162">
-        <v>5.3310667080543581</v>
+        <v>5.3310667080595406</v>
       </c>
       <c r="H81" s="162">
-        <v>5.3310667080543581</v>
+        <v>5.3310667080595406</v>
       </c>
     </row>
     <row r="82">
@@ -37304,17 +37328,17 @@
       </c>
       <c r="C82" s="162"/>
       <c r="D82" s="162">
-        <v>1124.6883680014087</v>
+        <v>1124.6883680013218</v>
       </c>
       <c r="E82" s="162">
-        <v>1124.6883680014087</v>
+        <v>1124.6883680013218</v>
       </c>
       <c r="F82" s="162"/>
       <c r="G82" s="162">
-        <v>1240.8251383853003</v>
+        <v>1240.8251383850904</v>
       </c>
       <c r="H82" s="162">
-        <v>1240.8251383853003</v>
+        <v>1240.8251383850904</v>
       </c>
     </row>
     <row r="83">
@@ -37323,17 +37347,17 @@
       </c>
       <c r="C83" s="162"/>
       <c r="D83" s="162">
-        <v>611.28388416110386</v>
+        <v>611.28388416089729</v>
       </c>
       <c r="E83" s="162">
-        <v>611.28388416110386</v>
+        <v>611.28388416089729</v>
       </c>
       <c r="F83" s="162"/>
       <c r="G83" s="162">
-        <v>639.897131882064</v>
+        <v>639.89713188277449</v>
       </c>
       <c r="H83" s="162">
-        <v>639.897131882064</v>
+        <v>639.89713188277449</v>
       </c>
     </row>
     <row r="84">
@@ -37342,17 +37366,17 @@
       </c>
       <c r="C84" s="162"/>
       <c r="D84" s="162">
-        <v>626.74308508154627</v>
+        <v>626.74308508115064</v>
       </c>
       <c r="E84" s="162">
-        <v>626.74308508154627</v>
+        <v>626.74308508115064</v>
       </c>
       <c r="F84" s="162"/>
       <c r="G84" s="162">
-        <v>661.871100498292</v>
+        <v>661.8711004985023</v>
       </c>
       <c r="H84" s="162">
-        <v>661.871100498292</v>
+        <v>661.8711004985023</v>
       </c>
     </row>
     <row r="85">
@@ -37361,17 +37385,17 @@
       </c>
       <c r="C85" s="162"/>
       <c r="D85" s="162">
-        <v>-326589.31273080653</v>
+        <v>-326589.3127308035</v>
       </c>
       <c r="E85" s="162">
-        <v>-326589.31273080653</v>
+        <v>-326589.3127308035</v>
       </c>
       <c r="F85" s="162"/>
       <c r="G85" s="162">
-        <v>-1121778.64645752</v>
+        <v>-1121778.6464575192</v>
       </c>
       <c r="H85" s="162">
-        <v>-1121778.64645752</v>
+        <v>-1121778.6464575192</v>
       </c>
     </row>
     <row r="86">
@@ -37380,17 +37404,17 @@
       </c>
       <c r="C86" s="162"/>
       <c r="D86" s="176">
-        <v>-282479.62079255068</v>
+        <v>-282479.62079255248</v>
       </c>
       <c r="E86" s="176">
-        <v>-282479.62079255068</v>
+        <v>-282479.62079255248</v>
       </c>
       <c r="F86" s="162"/>
       <c r="G86" s="176">
-        <v>-1080394.9172867532</v>
+        <v>-1080394.9172867534</v>
       </c>
       <c r="H86" s="176">
-        <v>-1080394.9172867532</v>
+        <v>-1080394.9172867534</v>
       </c>
     </row>
     <row r="87">
@@ -37399,17 +37423,17 @@
       </c>
       <c r="C87" s="162"/>
       <c r="D87" s="162">
-        <v>384.04917404945473</v>
+        <v>384.04917404945593</v>
       </c>
       <c r="E87" s="162">
-        <v>384.04917404945473</v>
+        <v>384.04917404945593</v>
       </c>
       <c r="F87" s="162"/>
       <c r="G87" s="162">
-        <v>461.2171822627887</v>
+        <v>461.21718226163318</v>
       </c>
       <c r="H87" s="162">
-        <v>461.2171822627887</v>
+        <v>461.21718226163318</v>
       </c>
     </row>
     <row r="88">
@@ -37418,17 +37442,17 @@
       </c>
       <c r="C88" s="162"/>
       <c r="D88" s="162">
-        <v>21160.521789701081</v>
+        <v>21160.521789696897</v>
       </c>
       <c r="E88" s="162">
-        <v>21160.521789701081</v>
+        <v>21160.521789696897</v>
       </c>
       <c r="F88" s="162"/>
       <c r="G88" s="162">
-        <v>25876.506944759989</v>
+        <v>25876.50694475304</v>
       </c>
       <c r="H88" s="162">
-        <v>25876.506944759989</v>
+        <v>25876.50694475304</v>
       </c>
     </row>
     <row r="89">
@@ -37437,17 +37461,17 @@
       </c>
       <c r="C89" s="162"/>
       <c r="D89" s="162">
-        <v>954.793592633103</v>
+        <v>954.79359263291315</v>
       </c>
       <c r="E89" s="162">
-        <v>954.793592633103</v>
+        <v>954.79359263291315</v>
       </c>
       <c r="F89" s="162"/>
       <c r="G89" s="162">
-        <v>1103.9394911172112</v>
+        <v>1103.9394911176648</v>
       </c>
       <c r="H89" s="162">
-        <v>1103.9394911172112</v>
+        <v>1103.9394911176648</v>
       </c>
     </row>
     <row r="90">
@@ -37456,17 +37480,17 @@
       </c>
       <c r="C90" s="162"/>
       <c r="D90" s="176">
-        <v>22499.364556383644</v>
+        <v>22499.364556379267</v>
       </c>
       <c r="E90" s="176">
-        <v>22499.364556383644</v>
+        <v>22499.364556379267</v>
       </c>
       <c r="F90" s="162"/>
       <c r="G90" s="176">
-        <v>27441.663618140006</v>
+        <v>27441.663618132341</v>
       </c>
       <c r="H90" s="176">
-        <v>27441.663618140006</v>
+        <v>27441.663618132341</v>
       </c>
     </row>
     <row r="91">
@@ -37475,17 +37499,17 @@
       </c>
       <c r="C91" s="162"/>
       <c r="D91" s="162">
-        <v>581.52677759663106</v>
+        <v>581.52677759668813</v>
       </c>
       <c r="E91" s="162">
-        <v>581.52677759663106</v>
+        <v>581.52677759668813</v>
       </c>
       <c r="F91" s="162"/>
       <c r="G91" s="162">
-        <v>545.61324160972413</v>
+        <v>545.61324160948561</v>
       </c>
       <c r="H91" s="162">
-        <v>545.61324160972413</v>
+        <v>545.61324160948561</v>
       </c>
     </row>
     <row r="92">
@@ -37494,17 +37518,17 @@
       </c>
       <c r="C92" s="162"/>
       <c r="D92" s="162">
-        <v>380.56875470501922</v>
+        <v>380.56875470507964</v>
       </c>
       <c r="E92" s="162">
-        <v>380.56875470501922</v>
+        <v>380.56875470507964</v>
       </c>
       <c r="F92" s="162"/>
       <c r="G92" s="162">
-        <v>391.6939068201811</v>
+        <v>391.69390681992746</v>
       </c>
       <c r="H92" s="162">
-        <v>391.6939068201811</v>
+        <v>391.69390681992746</v>
       </c>
     </row>
     <row r="93">
@@ -37513,17 +37537,17 @@
       </c>
       <c r="C93" s="162"/>
       <c r="D93" s="162">
-        <v>13379.07181985358</v>
+        <v>13379.071819853889</v>
       </c>
       <c r="E93" s="162">
-        <v>13379.07181985358</v>
+        <v>13379.071819853889</v>
       </c>
       <c r="F93" s="162"/>
       <c r="G93" s="162">
-        <v>13216.172984562898</v>
+        <v>13216.172984568761</v>
       </c>
       <c r="H93" s="162">
-        <v>13216.172984562898</v>
+        <v>13216.172984568761</v>
       </c>
     </row>
     <row r="94">
@@ -37532,17 +37556,17 @@
       </c>
       <c r="C94" s="162"/>
       <c r="D94" s="162">
-        <v>701.08742656102993</v>
+        <v>701.08742656105119</v>
       </c>
       <c r="E94" s="162">
-        <v>701.08742656102993</v>
+        <v>701.08742656105119</v>
       </c>
       <c r="F94" s="162"/>
       <c r="G94" s="162">
-        <v>606.671756475921</v>
+        <v>606.67175647631007</v>
       </c>
       <c r="H94" s="162">
-        <v>606.671756475921</v>
+        <v>606.67175647631007</v>
       </c>
     </row>
     <row r="95">
@@ -37551,17 +37575,17 @@
       </c>
       <c r="C95" s="162"/>
       <c r="D95" s="176">
-        <v>15042.25477871626</v>
+        <v>15042.25477871671</v>
       </c>
       <c r="E95" s="176">
-        <v>15042.25477871626</v>
+        <v>15042.25477871671</v>
       </c>
       <c r="F95" s="162"/>
       <c r="G95" s="176">
-        <v>14760.151889468711</v>
+        <v>14760.15188947448</v>
       </c>
       <c r="H95" s="176">
-        <v>14760.151889468711</v>
+        <v>14760.15188947448</v>
       </c>
     </row>
     <row r="96">
@@ -37646,10 +37670,10 @@
       </c>
       <c r="C100" s="162"/>
       <c r="D100" s="176">
-        <v>-222480.468558921</v>
+        <v>-222480.46855892669</v>
       </c>
       <c r="E100" s="176">
-        <v>-222480.468558921</v>
+        <v>-222480.46855892669</v>
       </c>
       <c r="F100" s="162"/>
       <c r="G100" s="176">
@@ -37673,10 +37697,10 @@
       </c>
       <c r="F102" s="162"/>
       <c r="G102" s="162">
-        <v>652.45545056489664</v>
+        <v>652.45545056611275</v>
       </c>
       <c r="H102" s="162">
-        <v>652.45545056489664</v>
+        <v>652.45545056611275</v>
       </c>
     </row>
     <row r="103">
@@ -37787,10 +37811,10 @@
       </c>
       <c r="F108" s="162"/>
       <c r="G108" s="176">
-        <v>4430.6218783164968</v>
+        <v>4430.6218783177137</v>
       </c>
       <c r="H108" s="176">
-        <v>4430.6218783164968</v>
+        <v>4430.6218783177137</v>
       </c>
     </row>
     <row r="109">
@@ -37844,10 +37868,10 @@
       </c>
       <c r="F111" s="162"/>
       <c r="G111" s="176">
-        <v>29537.964618371592</v>
+        <v>29537.964618372815</v>
       </c>
       <c r="H111" s="176">
-        <v>29537.964618371592</v>
+        <v>29537.964618372815</v>
       </c>
     </row>
     <row r="112"/>
@@ -38067,17 +38091,17 @@
       </c>
       <c r="C125" s="162"/>
       <c r="D125" s="176">
-        <v>-251168.54287819206</v>
+        <v>-251168.54287819777</v>
       </c>
       <c r="E125" s="176">
-        <v>-251168.54287819206</v>
+        <v>-251168.54287819777</v>
       </c>
       <c r="F125" s="162"/>
       <c r="G125" s="176">
-        <v>-1043322.1532906983</v>
+        <v>-1043322.1532907003</v>
       </c>
       <c r="H125" s="176">
-        <v>-1043322.1532906983</v>
+        <v>-1043322.1532907003</v>
       </c>
     </row>
     <row r="126">
@@ -38153,17 +38177,17 @@
       </c>
       <c r="C131" s="161"/>
       <c r="D131" s="161">
-        <v>5.6351314505475356</v>
+        <v>5.63513145054747</v>
       </c>
       <c r="E131" s="161">
-        <v>5.6351314505475356</v>
+        <v>5.63513145054747</v>
       </c>
       <c r="F131" s="161"/>
       <c r="G131" s="161">
-        <v>5.4167046124828921</v>
+        <v>5.4167046124796654</v>
       </c>
       <c r="H131" s="161">
-        <v>5.4167046124828921</v>
+        <v>5.4167046124796654</v>
       </c>
     </row>
     <row r="132">
@@ -38172,17 +38196,17 @@
       </c>
       <c r="C132" s="161"/>
       <c r="D132" s="161">
-        <v>5.3732064371570658</v>
+        <v>5.3732064371568127</v>
       </c>
       <c r="E132" s="161">
-        <v>5.3732064371570658</v>
+        <v>5.3732064371568127</v>
       </c>
       <c r="F132" s="161"/>
       <c r="G132" s="161">
-        <v>4.6564562351072558</v>
+        <v>4.6564562351084886</v>
       </c>
       <c r="H132" s="161">
-        <v>4.6564562351072558</v>
+        <v>4.6564562351084886</v>
       </c>
     </row>
     <row r="133">
@@ -38191,17 +38215,17 @@
       </c>
       <c r="C133" s="161"/>
       <c r="D133" s="161">
-        <v>5.1393916619201212</v>
+        <v>5.1393916619203877</v>
       </c>
       <c r="E133" s="161">
-        <v>5.1393916619201212</v>
+        <v>5.1393916619203877</v>
       </c>
       <c r="F133" s="161"/>
       <c r="G133" s="161">
-        <v>4.61049712182519</v>
+        <v>4.6104971218234949</v>
       </c>
       <c r="H133" s="161">
-        <v>4.61049712182519</v>
+        <v>4.6104971218234949</v>
       </c>
     </row>
     <row r="134">
@@ -38210,17 +38234,17 @@
       </c>
       <c r="C134" s="161"/>
       <c r="D134" s="161">
-        <v>5.65209367794312</v>
+        <v>5.6520936779420659</v>
       </c>
       <c r="E134" s="161">
-        <v>5.65209367794312</v>
+        <v>5.6520936779420659</v>
       </c>
       <c r="F134" s="161"/>
       <c r="G134" s="161">
-        <v>5.3591169605842923</v>
+        <v>5.35911696057994</v>
       </c>
       <c r="H134" s="161">
-        <v>5.3591169605842923</v>
+        <v>5.35911696057994</v>
       </c>
     </row>
     <row r="135">
@@ -38229,17 +38253,17 @@
       </c>
       <c r="C135" s="161"/>
       <c r="D135" s="161">
-        <v>5.5602670875316162</v>
+        <v>5.5602670875302573</v>
       </c>
       <c r="E135" s="161">
-        <v>5.5602670875316162</v>
+        <v>5.5602670875302573</v>
       </c>
       <c r="F135" s="161"/>
       <c r="G135" s="161">
-        <v>5.2395816631704442</v>
+        <v>5.2395816631698846</v>
       </c>
       <c r="H135" s="161">
-        <v>5.2395816631704442</v>
+        <v>5.2395816631698846</v>
       </c>
     </row>
     <row r="136">
@@ -38248,17 +38272,17 @@
       </c>
       <c r="C136" s="161"/>
       <c r="D136" s="161">
-        <v>5.65474720421518</v>
+        <v>5.65474720421497</v>
       </c>
       <c r="E136" s="161">
-        <v>5.65474720421518</v>
+        <v>5.65474720421497</v>
       </c>
       <c r="F136" s="161"/>
       <c r="G136" s="161">
-        <v>5.6236539852302867</v>
+        <v>5.623653985229887</v>
       </c>
       <c r="H136" s="161">
-        <v>5.6236539852302867</v>
+        <v>5.623653985229887</v>
       </c>
     </row>
     <row r="137">
@@ -38267,17 +38291,17 @@
       </c>
       <c r="C137" s="161"/>
       <c r="D137" s="161">
-        <v>5.5219643598740129</v>
+        <v>5.5219643598741328</v>
       </c>
       <c r="E137" s="161">
-        <v>5.5219643598740129</v>
+        <v>5.5219643598741328</v>
       </c>
       <c r="F137" s="161"/>
       <c r="G137" s="161">
-        <v>5.5525978566780454</v>
+        <v>5.5525978566781182</v>
       </c>
       <c r="H137" s="161">
-        <v>5.5525978566780454</v>
+        <v>5.5525978566781182</v>
       </c>
     </row>
     <row r="138">
@@ -38286,17 +38310,17 @@
       </c>
       <c r="C138" s="161"/>
       <c r="D138" s="161">
-        <v>5.51786161037122</v>
+        <v>5.5178616103713276</v>
       </c>
       <c r="E138" s="161">
-        <v>5.51786161037122</v>
+        <v>5.5178616103713276</v>
       </c>
       <c r="F138" s="161"/>
       <c r="G138" s="161">
-        <v>4.7368609187294561</v>
+        <v>4.7368609187295263</v>
       </c>
       <c r="H138" s="161">
-        <v>4.7368609187294561</v>
+        <v>4.7368609187295263</v>
       </c>
     </row>
     <row r="139">
@@ -38305,17 +38329,17 @@
       </c>
       <c r="C139" s="161"/>
       <c r="D139" s="161">
-        <v>4.197641275412348</v>
+        <v>4.19764127541242</v>
       </c>
       <c r="E139" s="161">
-        <v>4.197641275412348</v>
+        <v>4.19764127541242</v>
       </c>
       <c r="F139" s="161"/>
       <c r="G139" s="161">
-        <v>5.0237516104344975</v>
+        <v>5.0237516104393336</v>
       </c>
       <c r="H139" s="161">
-        <v>5.0237516104344975</v>
+        <v>5.0237516104393336</v>
       </c>
     </row>
     <row r="140">
@@ -38324,17 +38348,17 @@
       </c>
       <c r="C140" s="161"/>
       <c r="D140" s="161">
-        <v>4.898458089656649</v>
+        <v>4.8984580896562715</v>
       </c>
       <c r="E140" s="161">
-        <v>4.898458089656649</v>
+        <v>4.8984580896562715</v>
       </c>
       <c r="F140" s="161"/>
       <c r="G140" s="161">
-        <v>5.4128887466571607</v>
+        <v>5.4128887466562574</v>
       </c>
       <c r="H140" s="161">
-        <v>5.4128887466571607</v>
+        <v>5.4128887466562574</v>
       </c>
     </row>
     <row r="141">
@@ -38343,17 +38367,17 @@
       </c>
       <c r="C141" s="161"/>
       <c r="D141" s="161">
-        <v>5.8181694192087505</v>
+        <v>5.8181694192067859</v>
       </c>
       <c r="E141" s="161">
-        <v>5.8181694192087505</v>
+        <v>5.8181694192067859</v>
       </c>
       <c r="F141" s="161"/>
       <c r="G141" s="161">
-        <v>6.0775137672075248</v>
+        <v>6.0775137672142518</v>
       </c>
       <c r="H141" s="161">
-        <v>6.0775137672075248</v>
+        <v>6.0775137672142518</v>
       </c>
     </row>
     <row r="142">
@@ -38362,17 +38386,17 @@
       </c>
       <c r="C142" s="161"/>
       <c r="D142" s="161">
-        <v>5.9727614284027153</v>
+        <v>5.972761428398953</v>
       </c>
       <c r="E142" s="161">
-        <v>5.9727614284027153</v>
+        <v>5.972761428398953</v>
       </c>
       <c r="F142" s="161"/>
       <c r="G142" s="161">
-        <v>6.2972534532204314</v>
+        <v>6.2972534532224413</v>
       </c>
       <c r="H142" s="161">
-        <v>6.2972534532204314</v>
+        <v>6.2972534532224413</v>
       </c>
     </row>
     <row r="143">
@@ -38400,17 +38424,17 @@
       </c>
       <c r="C144" s="161"/>
       <c r="D144" s="177">
-        <v>2.5569661898518272</v>
+        <v>2.5569661898518459</v>
       </c>
       <c r="E144" s="177">
-        <v>2.5569661898518272</v>
+        <v>2.5569661898518459</v>
       </c>
       <c r="F144" s="161"/>
       <c r="G144" s="177">
-        <v>2.9074066039744491</v>
+        <v>2.9074066039744473</v>
       </c>
       <c r="H144" s="177">
-        <v>2.9074066039744491</v>
+        <v>2.9074066039744473</v>
       </c>
     </row>
     <row r="145">
@@ -38419,17 +38443,17 @@
       </c>
       <c r="C145" s="161"/>
       <c r="D145" s="161">
-        <v>3.6135629243638316</v>
+        <v>3.6135629243638405</v>
       </c>
       <c r="E145" s="161">
-        <v>3.6135629243638316</v>
+        <v>3.6135629243638405</v>
       </c>
       <c r="F145" s="161"/>
       <c r="G145" s="161">
-        <v>4.3603880878645036</v>
+        <v>4.3603880878535444</v>
       </c>
       <c r="H145" s="161">
-        <v>4.3603880878645036</v>
+        <v>4.3603880878535444</v>
       </c>
     </row>
     <row r="146">
@@ -38438,17 +38462,17 @@
       </c>
       <c r="C146" s="161"/>
       <c r="D146" s="161">
-        <v>4.3127532586933555</v>
+        <v>4.3127532586925028</v>
       </c>
       <c r="E146" s="161">
-        <v>4.3127532586933555</v>
+        <v>4.3127532586925028</v>
       </c>
       <c r="F146" s="161"/>
       <c r="G146" s="161">
-        <v>5.298802029224718</v>
+        <v>5.2988020292233182</v>
       </c>
       <c r="H146" s="161">
-        <v>5.298802029224718</v>
+        <v>5.2988020292233182</v>
       </c>
     </row>
     <row r="147">
@@ -38457,17 +38481,17 @@
       </c>
       <c r="C147" s="161"/>
       <c r="D147" s="161">
-        <v>4.5388513598062756</v>
+        <v>4.5388513598053679</v>
       </c>
       <c r="E147" s="161">
-        <v>4.5388513598062756</v>
+        <v>4.5388513598053679</v>
       </c>
       <c r="F147" s="161"/>
       <c r="G147" s="161">
-        <v>5.2632066153743073</v>
+        <v>5.2632066153764088</v>
       </c>
       <c r="H147" s="161">
-        <v>5.2632066153743073</v>
+        <v>5.2632066153764088</v>
       </c>
     </row>
     <row r="148">
@@ -38476,17 +38500,17 @@
       </c>
       <c r="C148" s="161"/>
       <c r="D148" s="177">
-        <v>4.307674181392823</v>
+        <v>4.3076741813919845</v>
       </c>
       <c r="E148" s="177">
-        <v>4.307674181392823</v>
+        <v>4.3076741813919845</v>
       </c>
       <c r="F148" s="161"/>
       <c r="G148" s="177">
-        <v>5.2784285643602162</v>
+        <v>5.2784285643587658</v>
       </c>
       <c r="H148" s="177">
-        <v>5.2784285643602162</v>
+        <v>5.2784285643587658</v>
       </c>
     </row>
     <row r="149">
@@ -38495,17 +38519,17 @@
       </c>
       <c r="C149" s="161"/>
       <c r="D149" s="161">
-        <v>5.7010692528254241</v>
+        <v>5.7010692528258451</v>
       </c>
       <c r="E149" s="161">
-        <v>5.7010692528254241</v>
+        <v>5.7010692528258451</v>
       </c>
       <c r="F149" s="161"/>
       <c r="G149" s="161">
-        <v>5.1926688407394126</v>
+        <v>5.1926688407376487</v>
       </c>
       <c r="H149" s="161">
-        <v>5.1926688407394126</v>
+        <v>5.1926688407376487</v>
       </c>
     </row>
     <row r="150">
@@ -38514,17 +38538,17 @@
       </c>
       <c r="C150" s="161"/>
       <c r="D150" s="161">
-        <v>3.6504172485808684</v>
+        <v>3.6504172485813107</v>
       </c>
       <c r="E150" s="161">
-        <v>3.6504172485808684</v>
+        <v>3.6504172485813107</v>
       </c>
       <c r="F150" s="161"/>
       <c r="G150" s="161">
-        <v>3.60519626053356</v>
+        <v>3.6051962605316987</v>
       </c>
       <c r="H150" s="161">
-        <v>3.60519626053356</v>
+        <v>3.6051962605316987</v>
       </c>
     </row>
     <row r="151">
@@ -38533,17 +38557,17 @@
       </c>
       <c r="C151" s="161"/>
       <c r="D151" s="161">
-        <v>6.3582290881182866</v>
+        <v>6.3582290881184278</v>
       </c>
       <c r="E151" s="161">
-        <v>6.3582290881182866</v>
+        <v>6.3582290881184278</v>
       </c>
       <c r="F151" s="161"/>
       <c r="G151" s="161">
-        <v>6.2603021619826009</v>
+        <v>6.2603021619851917</v>
       </c>
       <c r="H151" s="161">
-        <v>6.2603021619826009</v>
+        <v>6.2603021619851917</v>
       </c>
     </row>
     <row r="152">
@@ -38552,17 +38576,17 @@
       </c>
       <c r="C152" s="161"/>
       <c r="D152" s="161">
-        <v>6.9995972662442592</v>
+        <v>6.99959726624446</v>
       </c>
       <c r="E152" s="161">
-        <v>6.9995972662442592</v>
+        <v>6.99959726624446</v>
       </c>
       <c r="F152" s="161"/>
       <c r="G152" s="161">
-        <v>6.0319437876296353</v>
+        <v>6.0319437876332955</v>
       </c>
       <c r="H152" s="161">
-        <v>6.0319437876296353</v>
+        <v>6.0319437876332955</v>
       </c>
     </row>
     <row r="153">
@@ -38571,17 +38595,17 @@
       </c>
       <c r="C153" s="161"/>
       <c r="D153" s="177">
-        <v>6.2437127844088955</v>
+        <v>6.2437127844090616</v>
       </c>
       <c r="E153" s="177">
-        <v>6.2437127844088955</v>
+        <v>6.2437127844090616</v>
       </c>
       <c r="F153" s="161"/>
       <c r="G153" s="177">
-        <v>6.0947047991158358</v>
+        <v>6.0947047991181025</v>
       </c>
       <c r="H153" s="177">
-        <v>6.0947047991158358</v>
+        <v>6.0947047991181025</v>
       </c>
     </row>
     <row r="154">
@@ -38666,10 +38690,10 @@
       </c>
       <c r="C158" s="161"/>
       <c r="D158" s="177">
-        <v>1.4268157546835842</v>
+        <v>1.4268157546836253</v>
       </c>
       <c r="E158" s="177">
-        <v>1.4268157546835842</v>
+        <v>1.4268157546836253</v>
       </c>
       <c r="F158" s="161"/>
       <c r="G158" s="177">
@@ -38693,10 +38717,10 @@
       </c>
       <c r="F160" s="161"/>
       <c r="G160" s="161">
-        <v>2.1748515018829884</v>
+        <v>2.1748515018870429</v>
       </c>
       <c r="H160" s="161">
-        <v>2.1748515018829884</v>
+        <v>2.1748515018870429</v>
       </c>
     </row>
     <row r="161">
@@ -38807,10 +38831,10 @@
       </c>
       <c r="F166" s="161"/>
       <c r="G166" s="177">
-        <v>1.2307282995323599</v>
+        <v>1.2307282995326976</v>
       </c>
       <c r="H166" s="177">
-        <v>1.2307282995323599</v>
+        <v>1.2307282995326976</v>
       </c>
     </row>
     <row r="167">
@@ -38864,10 +38888,10 @@
       </c>
       <c r="F169" s="161"/>
       <c r="G169" s="177">
-        <v>3.2106483280838685</v>
+        <v>3.210648328084</v>
       </c>
       <c r="H169" s="177">
-        <v>3.2106483280838685</v>
+        <v>3.210648328084</v>
       </c>
     </row>
     <row r="170"/>
@@ -39149,17 +39173,17 @@
       </c>
       <c r="C187" s="162"/>
       <c r="D187" s="162">
-        <v>12.388979300777324</v>
+        <v>12.388979300696366</v>
       </c>
       <c r="E187" s="162">
-        <v>12.388979300777324</v>
+        <v>12.388979300696366</v>
       </c>
       <c r="F187" s="162"/>
       <c r="G187" s="162">
-        <v>19.5565993249762</v>
+        <v>19.556599325145413</v>
       </c>
       <c r="H187" s="162">
-        <v>19.5565993249762</v>
+        <v>19.556599325145413</v>
       </c>
     </row>
     <row r="188">
@@ -39168,17 +39192,17 @@
       </c>
       <c r="C188" s="162"/>
       <c r="D188" s="162">
-        <v>95.530347352401179</v>
+        <v>95.530347352167325</v>
       </c>
       <c r="E188" s="162">
-        <v>95.530347352401179</v>
+        <v>95.530347352167325</v>
       </c>
       <c r="F188" s="162"/>
       <c r="G188" s="162">
-        <v>112.01318705954311</v>
+        <v>112.01318705964879</v>
       </c>
       <c r="H188" s="162">
-        <v>112.01318705954311</v>
+        <v>112.01318705964879</v>
       </c>
     </row>
     <row r="189">
@@ -39187,17 +39211,17 @@
       </c>
       <c r="C189" s="162"/>
       <c r="D189" s="162">
-        <v>15.333373561398981</v>
+        <v>15.333373561162002</v>
       </c>
       <c r="E189" s="162">
-        <v>15.333373561398981</v>
+        <v>15.333373561162002</v>
       </c>
       <c r="F189" s="162"/>
       <c r="G189" s="162">
-        <v>13.766680821730541</v>
+        <v>13.766680821801602</v>
       </c>
       <c r="H189" s="162">
-        <v>13.766680821730541</v>
+        <v>13.766680821801602</v>
       </c>
     </row>
     <row r="190">
@@ -39206,17 +39230,17 @@
       </c>
       <c r="C190" s="162"/>
       <c r="D190" s="162">
-        <v>3.5804782571897582</v>
+        <v>3.5804782571815958</v>
       </c>
       <c r="E190" s="162">
-        <v>3.5804782571897582</v>
+        <v>3.5804782571815958</v>
       </c>
       <c r="F190" s="162"/>
       <c r="G190" s="162">
-        <v>7.9276710549790517</v>
+        <v>7.9276710551069254</v>
       </c>
       <c r="H190" s="162">
-        <v>7.9276710549790517</v>
+        <v>7.9276710551069254</v>
       </c>
     </row>
     <row r="191">
@@ -39225,17 +39249,17 @@
       </c>
       <c r="C191" s="162"/>
       <c r="D191" s="162">
-        <v>93.655273464272355</v>
+        <v>93.65527346573225</v>
       </c>
       <c r="E191" s="162">
-        <v>93.655273464272355</v>
+        <v>93.65527346573225</v>
       </c>
       <c r="F191" s="162"/>
       <c r="G191" s="162">
-        <v>140.88528158717219</v>
+        <v>140.88528158608872</v>
       </c>
       <c r="H191" s="162">
-        <v>140.88528158717219</v>
+        <v>140.88528158608872</v>
       </c>
     </row>
     <row r="192">
@@ -39244,17 +39268,17 @@
       </c>
       <c r="C192" s="162"/>
       <c r="D192" s="162">
-        <v>27.964910618924005</v>
+        <v>27.964910618887178</v>
       </c>
       <c r="E192" s="162">
-        <v>27.964910618924005</v>
+        <v>27.964910618887178</v>
       </c>
       <c r="F192" s="162"/>
       <c r="G192" s="162">
-        <v>8.0576554210206375</v>
+        <v>8.0576554210692724</v>
       </c>
       <c r="H192" s="162">
-        <v>8.0576554210206375</v>
+        <v>8.0576554210692724</v>
       </c>
     </row>
     <row r="193">
@@ -39263,17 +39287,17 @@
       </c>
       <c r="C193" s="162"/>
       <c r="D193" s="162">
-        <v>0.16233236095454232</v>
+        <v>0.1623323609556683</v>
       </c>
       <c r="E193" s="162">
-        <v>0.16233236095454232</v>
+        <v>0.1623323609556683</v>
       </c>
       <c r="F193" s="162"/>
       <c r="G193" s="162">
-        <v>0.16233236095778381</v>
+        <v>0.16233236095553913</v>
       </c>
       <c r="H193" s="162">
-        <v>0.16233236095778381</v>
+        <v>0.16233236095553913</v>
       </c>
     </row>
     <row r="194">
@@ -39282,17 +39306,17 @@
       </c>
       <c r="C194" s="162"/>
       <c r="D194" s="162">
-        <v>0.163955684564089</v>
+        <v>0.16395568456522408</v>
       </c>
       <c r="E194" s="162">
-        <v>0.163955684564089</v>
+        <v>0.16395568456522408</v>
       </c>
       <c r="F194" s="162"/>
       <c r="G194" s="162">
-        <v>0.16395568456736509</v>
+        <v>0.16395568456509679</v>
       </c>
       <c r="H194" s="162">
-        <v>0.16395568456736509</v>
+        <v>0.16395568456509679</v>
       </c>
     </row>
     <row r="195">
@@ -39301,17 +39325,17 @@
       </c>
       <c r="C195" s="162"/>
       <c r="D195" s="162">
-        <v>0.11856986930245196</v>
+        <v>0.11856986930266396</v>
       </c>
       <c r="E195" s="162">
-        <v>0.11856986930245196</v>
+        <v>0.11856986930266396</v>
       </c>
       <c r="F195" s="162"/>
       <c r="G195" s="162">
-        <v>0.027683203515786896</v>
+        <v>0.027683203515670073</v>
       </c>
       <c r="H195" s="162">
-        <v>0.027683203515786896</v>
+        <v>0.027683203515670073</v>
       </c>
     </row>
     <row r="196">
@@ -39320,17 +39344,17 @@
       </c>
       <c r="C196" s="162"/>
       <c r="D196" s="162">
-        <v>21.621539623476515</v>
+        <v>21.621539623478512</v>
       </c>
       <c r="E196" s="162">
-        <v>21.621539623476515</v>
+        <v>21.621539623478512</v>
       </c>
       <c r="F196" s="162"/>
       <c r="G196" s="162">
-        <v>1.6978744691674239</v>
+        <v>1.6978744691681382</v>
       </c>
       <c r="H196" s="162">
-        <v>1.6978744691674239</v>
+        <v>1.6978744691681382</v>
       </c>
     </row>
     <row r="197">
@@ -39339,17 +39363,17 @@
       </c>
       <c r="C197" s="162"/>
       <c r="D197" s="162">
-        <v>14.956769885426045</v>
+        <v>14.956769885452113</v>
       </c>
       <c r="E197" s="162">
-        <v>14.956769885426045</v>
+        <v>14.956769885452113</v>
       </c>
       <c r="F197" s="162"/>
       <c r="G197" s="162">
-        <v>5.9518791506195683</v>
+        <v>5.9518791506834745</v>
       </c>
       <c r="H197" s="162">
-        <v>5.9518791506195683</v>
+        <v>5.9518791506834745</v>
       </c>
     </row>
     <row r="198">
@@ -39358,17 +39382,17 @@
       </c>
       <c r="C198" s="162"/>
       <c r="D198" s="162">
-        <v>14.950000679044781</v>
+        <v>14.950000679004999</v>
       </c>
       <c r="E198" s="162">
-        <v>14.950000679044781</v>
+        <v>14.950000679004999</v>
       </c>
       <c r="F198" s="162"/>
       <c r="G198" s="162">
-        <v>5.9431114504813447</v>
+        <v>5.9431114505656915</v>
       </c>
       <c r="H198" s="162">
-        <v>5.9431114504813447</v>
+        <v>5.9431114505656915</v>
       </c>
     </row>
     <row r="199">
@@ -39377,17 +39401,17 @@
       </c>
       <c r="C199" s="162"/>
       <c r="D199" s="162">
-        <v>-170410.74011139936</v>
+        <v>-170410.74011140532</v>
       </c>
       <c r="E199" s="162">
-        <v>-170410.74011139936</v>
+        <v>-170410.74011140532</v>
       </c>
       <c r="F199" s="162"/>
       <c r="G199" s="162">
-        <v>-478404.93582654954</v>
+        <v>-478404.93582653924</v>
       </c>
       <c r="H199" s="162">
-        <v>-478404.93582654954</v>
+        <v>-478404.93582653924</v>
       </c>
     </row>
     <row r="200">
@@ -39396,17 +39420,17 @@
       </c>
       <c r="C200" s="162"/>
       <c r="D200" s="176">
-        <v>-170110.3135807415</v>
+        <v>-170110.3135807467</v>
       </c>
       <c r="E200" s="176">
-        <v>-170110.3135807415</v>
+        <v>-170110.3135807467</v>
       </c>
       <c r="F200" s="162"/>
       <c r="G200" s="176">
-        <v>-478088.78191496083</v>
+        <v>-478088.78191495046</v>
       </c>
       <c r="H200" s="176">
-        <v>-478088.78191496083</v>
+        <v>-478088.78191495046</v>
       </c>
     </row>
     <row r="201">
@@ -39415,17 +39439,17 @@
       </c>
       <c r="C201" s="162"/>
       <c r="D201" s="162">
-        <v>13.071691234873939</v>
+        <v>13.071691234883344</v>
       </c>
       <c r="E201" s="162">
-        <v>13.071691234873939</v>
+        <v>13.071691234883344</v>
       </c>
       <c r="F201" s="162"/>
       <c r="G201" s="162">
-        <v>7.0808745101698145</v>
+        <v>7.0808745100206218</v>
       </c>
       <c r="H201" s="162">
-        <v>7.0808745101698145</v>
+        <v>7.0808745100206218</v>
       </c>
     </row>
     <row r="202">
@@ -39434,17 +39458,17 @@
       </c>
       <c r="C202" s="162"/>
       <c r="D202" s="162">
-        <v>663.24722744248913</v>
+        <v>663.24722744339283</v>
       </c>
       <c r="E202" s="162">
-        <v>663.24722744248913</v>
+        <v>663.24722744339283</v>
       </c>
       <c r="F202" s="162"/>
       <c r="G202" s="162">
-        <v>308.99634116347073</v>
+        <v>308.99634116347971</v>
       </c>
       <c r="H202" s="162">
-        <v>308.99634116347073</v>
+        <v>308.99634116347971</v>
       </c>
     </row>
     <row r="203">
@@ -39453,17 +39477,17 @@
       </c>
       <c r="C203" s="162"/>
       <c r="D203" s="162">
-        <v>27.164850486072289</v>
+        <v>27.164850486186491</v>
       </c>
       <c r="E203" s="162">
-        <v>27.164850486072289</v>
+        <v>27.164850486186491</v>
       </c>
       <c r="F203" s="162"/>
       <c r="G203" s="162">
-        <v>11.038479340322374</v>
+        <v>11.038479340237421</v>
       </c>
       <c r="H203" s="162">
-        <v>11.038479340322374</v>
+        <v>11.038479340237421</v>
       </c>
     </row>
     <row r="204">
@@ -39472,17 +39496,17 @@
       </c>
       <c r="C204" s="162"/>
       <c r="D204" s="176">
-        <v>703.48376916343545</v>
+        <v>703.48376916446273</v>
       </c>
       <c r="E204" s="176">
-        <v>703.48376916343545</v>
+        <v>703.48376916446273</v>
       </c>
       <c r="F204" s="162"/>
       <c r="G204" s="176">
-        <v>327.11569501396275</v>
+        <v>327.11569501373793</v>
       </c>
       <c r="H204" s="176">
-        <v>327.11569501396275</v>
+        <v>327.11569501373793</v>
       </c>
     </row>
     <row r="205">
@@ -39491,17 +39515,17 @@
       </c>
       <c r="C205" s="162"/>
       <c r="D205" s="162">
-        <v>2.6082686135129971</v>
+        <v>2.6082686135000159</v>
       </c>
       <c r="E205" s="162">
-        <v>2.6082686135129971</v>
+        <v>2.6082686135000159</v>
       </c>
       <c r="F205" s="162"/>
       <c r="G205" s="162">
-        <v>4.4685587513064169</v>
+        <v>4.4685587512653688</v>
       </c>
       <c r="H205" s="162">
-        <v>4.4685587513064169</v>
+        <v>4.4685587512653688</v>
       </c>
     </row>
     <row r="206">
@@ -39510,17 +39534,17 @@
       </c>
       <c r="C206" s="162"/>
       <c r="D206" s="162">
-        <v>2.7554516132375868</v>
+        <v>2.7554516132238058</v>
       </c>
       <c r="E206" s="162">
-        <v>2.7554516132375868</v>
+        <v>2.7554516132238058</v>
       </c>
       <c r="F206" s="162"/>
       <c r="G206" s="162">
-        <v>4.6878932290549216</v>
+        <v>4.6878932290116753</v>
       </c>
       <c r="H206" s="162">
-        <v>4.6878932290549216</v>
+        <v>4.6878932290116753</v>
       </c>
     </row>
     <row r="207">
@@ -39529,17 +39553,17 @@
       </c>
       <c r="C207" s="162"/>
       <c r="D207" s="162">
-        <v>12.80816252880185</v>
+        <v>12.808162528784621</v>
       </c>
       <c r="E207" s="162">
-        <v>12.80816252880185</v>
+        <v>12.808162528784621</v>
       </c>
       <c r="F207" s="162"/>
       <c r="G207" s="162">
-        <v>12.253030711019688</v>
+        <v>12.253030711249728</v>
       </c>
       <c r="H207" s="162">
-        <v>12.253030711019688</v>
+        <v>12.253030711249728</v>
       </c>
     </row>
     <row r="208">
@@ -39548,17 +39572,17 @@
       </c>
       <c r="C208" s="162"/>
       <c r="D208" s="162">
-        <v>0.70563849969497827</v>
+        <v>0.70563849969402692</v>
       </c>
       <c r="E208" s="162">
-        <v>0.70563849969497827</v>
+        <v>0.70563849969402692</v>
       </c>
       <c r="F208" s="162"/>
       <c r="G208" s="162">
-        <v>0.66838688855551487</v>
+        <v>0.66838688856811845</v>
       </c>
       <c r="H208" s="162">
-        <v>0.66838688855551487</v>
+        <v>0.66838688856811845</v>
       </c>
     </row>
     <row r="209">
@@ -39567,17 +39591,17 @@
       </c>
       <c r="C209" s="162"/>
       <c r="D209" s="176">
-        <v>18.877521255247412</v>
+        <v>18.877521255202478</v>
       </c>
       <c r="E209" s="176">
-        <v>18.877521255247412</v>
+        <v>18.877521255202478</v>
       </c>
       <c r="F209" s="162"/>
       <c r="G209" s="176">
-        <v>22.077869579936561</v>
+        <v>22.077869580094898</v>
       </c>
       <c r="H209" s="176">
-        <v>22.077869579936561</v>
+        <v>22.077869580094898</v>
       </c>
     </row>
     <row r="210">
@@ -39662,17 +39686,17 @@
       </c>
       <c r="C214" s="162"/>
       <c r="D214" s="176">
-        <v>-169389.95229032286</v>
+        <v>-169389.95229032714</v>
       </c>
       <c r="E214" s="176">
-        <v>-169389.95229032286</v>
+        <v>-169389.95229032714</v>
       </c>
       <c r="F214" s="162"/>
       <c r="G214" s="176">
-        <v>-477739.58835036686</v>
+        <v>-477739.58835035679</v>
       </c>
       <c r="H214" s="176">
-        <v>-477739.58835036686</v>
+        <v>-477739.58835035679</v>
       </c>
     </row>
     <row r="215"/>
@@ -39682,17 +39706,17 @@
       </c>
       <c r="C216" s="162"/>
       <c r="D216" s="162">
-        <v>9.4379941643829213</v>
+        <v>9.4379941596807</v>
       </c>
       <c r="E216" s="162">
-        <v>9.4379941643829213</v>
+        <v>9.4379941596807</v>
       </c>
       <c r="F216" s="162"/>
       <c r="G216" s="162">
-        <v>-0.59491081302721627</v>
+        <v>-0.59491080466835045</v>
       </c>
       <c r="H216" s="162">
-        <v>-0.59491081302721627</v>
+        <v>-0.59491080466835045</v>
       </c>
     </row>
     <row r="217">
@@ -39796,17 +39820,17 @@
       </c>
       <c r="C222" s="162"/>
       <c r="D222" s="176">
-        <v>59.077419491175334</v>
+        <v>59.077419486473119</v>
       </c>
       <c r="E222" s="176">
-        <v>59.077419491175334</v>
+        <v>59.077419486473119</v>
       </c>
       <c r="F222" s="162"/>
       <c r="G222" s="176">
-        <v>40.056723031650577</v>
+        <v>40.056723040009437</v>
       </c>
       <c r="H222" s="176">
-        <v>40.056723031650577</v>
+        <v>40.056723040009437</v>
       </c>
     </row>
     <row r="223">
@@ -39853,17 +39877,17 @@
       </c>
       <c r="C225" s="162"/>
       <c r="D225" s="176">
-        <v>59.077419491175334</v>
+        <v>59.077419486473119</v>
       </c>
       <c r="E225" s="176">
-        <v>59.077419491175334</v>
+        <v>59.077419486473119</v>
       </c>
       <c r="F225" s="162"/>
       <c r="G225" s="176">
-        <v>40.056723031650577</v>
+        <v>40.056723040009437</v>
       </c>
       <c r="H225" s="176">
-        <v>40.056723031650577</v>
+        <v>40.056723040009437</v>
       </c>
     </row>
     <row r="226"/>
@@ -40168,17 +40192,17 @@
       </c>
       <c r="C244" s="161"/>
       <c r="D244" s="161">
-        <v>3.5481178823736776</v>
+        <v>3.5481178823746955</v>
       </c>
       <c r="E244" s="161">
-        <v>3.5481178823736776</v>
+        <v>3.5481178823746955</v>
       </c>
       <c r="F244" s="161"/>
       <c r="G244" s="161">
-        <v>4.0202323669182851</v>
+        <v>4.02023236691701</v>
       </c>
       <c r="H244" s="161">
-        <v>4.0202323669182851</v>
+        <v>4.02023236691701</v>
       </c>
     </row>
     <row r="245">
@@ -40244,17 +40268,17 @@
       </c>
       <c r="C248" s="161"/>
       <c r="D248" s="161">
-        <v>6.208570662467463</v>
+        <v>6.2085706624667969</v>
       </c>
       <c r="E248" s="161">
-        <v>6.208570662467463</v>
+        <v>6.2085706624667969</v>
       </c>
       <c r="F248" s="161"/>
       <c r="G248" s="161">
-        <v>6.2748417301317447</v>
+        <v>6.2748417301351056</v>
       </c>
       <c r="H248" s="161">
-        <v>6.2748417301317447</v>
+        <v>6.2748417301351056</v>
       </c>
     </row>
     <row r="249">
@@ -40396,17 +40420,17 @@
       </c>
       <c r="C256" s="161"/>
       <c r="D256" s="177">
-        <v>2.6303605244691655</v>
+        <v>2.6303605244691752</v>
       </c>
       <c r="E256" s="177">
-        <v>2.6303605244691655</v>
+        <v>2.6303605244691752</v>
       </c>
       <c r="F256" s="161"/>
       <c r="G256" s="177">
-        <v>2.9622796273461769</v>
+        <v>2.9622796273461725</v>
       </c>
       <c r="H256" s="177">
-        <v>2.9622796273461769</v>
+        <v>2.9622796273461725</v>
       </c>
     </row>
     <row r="257">
@@ -40434,17 +40458,17 @@
       </c>
       <c r="C258" s="161"/>
       <c r="D258" s="161">
-        <v>5.0280832300193685</v>
+        <v>5.02808323001807</v>
       </c>
       <c r="E258" s="161">
-        <v>5.0280832300193685</v>
+        <v>5.02808323001807</v>
       </c>
       <c r="F258" s="161"/>
       <c r="G258" s="161">
-        <v>5.4120790455818266</v>
+        <v>5.412079045583611</v>
       </c>
       <c r="H258" s="161">
-        <v>5.4120790455818266</v>
+        <v>5.412079045583611</v>
       </c>
     </row>
     <row r="259">
@@ -40453,17 +40477,17 @@
       </c>
       <c r="C259" s="161"/>
       <c r="D259" s="161">
-        <v>4.859349284676342</v>
+        <v>4.8593492846760471</v>
       </c>
       <c r="E259" s="161">
-        <v>4.859349284676342</v>
+        <v>4.8593492846760471</v>
       </c>
       <c r="F259" s="161"/>
       <c r="G259" s="161">
-        <v>5.0828291881540695</v>
+        <v>5.0828291881544372</v>
       </c>
       <c r="H259" s="161">
-        <v>5.0828291881540695</v>
+        <v>5.0828291881544372</v>
       </c>
     </row>
     <row r="260">
@@ -40472,17 +40496,17 @@
       </c>
       <c r="C260" s="161"/>
       <c r="D260" s="177">
-        <v>5.012124440098261</v>
+        <v>5.0121244400969864</v>
       </c>
       <c r="E260" s="177">
-        <v>5.012124440098261</v>
+        <v>5.0121244400969864</v>
       </c>
       <c r="F260" s="161"/>
       <c r="G260" s="177">
-        <v>5.3829150317539636</v>
+        <v>5.3829150317562631</v>
       </c>
       <c r="H260" s="177">
-        <v>5.3829150317539636</v>
+        <v>5.3829150317562631</v>
       </c>
     </row>
     <row r="261">
@@ -40567,17 +40591,17 @@
       </c>
       <c r="C265" s="161"/>
       <c r="D265" s="177">
-        <v>4.512459088330913</v>
+        <v>4.5124590883314655</v>
       </c>
       <c r="E265" s="177">
-        <v>4.512459088330913</v>
+        <v>4.5124590883314655</v>
       </c>
       <c r="F265" s="161"/>
       <c r="G265" s="177">
-        <v>4.4304186202622651</v>
+        <v>4.4304186202696165</v>
       </c>
       <c r="H265" s="177">
-        <v>4.4304186202622651</v>
+        <v>4.4304186202696165</v>
       </c>
     </row>
     <row r="266">
@@ -40586,17 +40610,17 @@
       </c>
       <c r="C266" s="161"/>
       <c r="D266" s="161">
-        <v>5.5378752276000007</v>
+        <v>4.1925464779</v>
       </c>
       <c r="E266" s="161">
-        <v>5.5378752276000007</v>
+        <v>4.1925464779</v>
       </c>
       <c r="F266" s="161"/>
       <c r="G266" s="161">
-        <v>5.876661177</v>
+        <v>4.36089564715</v>
       </c>
       <c r="H266" s="161">
-        <v>5.876661177</v>
+        <v>4.36089564715</v>
       </c>
     </row>
     <row r="267">
@@ -40643,17 +40667,17 @@
       </c>
       <c r="C269" s="161"/>
       <c r="D269" s="177">
-        <v>4.6459628936666677</v>
+        <v>4.0156624070416678</v>
       </c>
       <c r="E269" s="177">
-        <v>4.6459628936666677</v>
+        <v>4.0156624070416678</v>
       </c>
       <c r="F269" s="161"/>
       <c r="G269" s="177">
-        <v>5.2104831339499995</v>
+        <v>4.4526003690249993</v>
       </c>
       <c r="H269" s="177">
-        <v>5.2104831339499995</v>
+        <v>4.4526003690249993</v>
       </c>
     </row>
     <row r="270">
@@ -40662,17 +40686,17 @@
       </c>
       <c r="C270" s="161"/>
       <c r="D270" s="177">
-        <v>2.6652559711022668</v>
+        <v>2.6652559711022783</v>
       </c>
       <c r="E270" s="177">
-        <v>2.6652559711022668</v>
+        <v>2.6652559711022783</v>
       </c>
       <c r="F270" s="161"/>
       <c r="G270" s="177">
-        <v>2.9640556246665244</v>
+        <v>2.9640556246665182</v>
       </c>
       <c r="H270" s="177">
-        <v>2.9640556246665244</v>
+        <v>2.9640556246665182</v>
       </c>
     </row>
     <row r="271"/>
@@ -40682,17 +40706,17 @@
       </c>
       <c r="C272" s="161"/>
       <c r="D272" s="161">
-        <v>2.029990094004297</v>
+        <v>2.0299900940042854</v>
       </c>
       <c r="E272" s="161">
-        <v>2.029990094004297</v>
+        <v>2.0299900940042854</v>
       </c>
       <c r="F272" s="161"/>
       <c r="G272" s="161">
-        <v>1.2269572712091699</v>
+        <v>1.2269572753712958</v>
       </c>
       <c r="H272" s="161">
-        <v>1.2269572712091699</v>
+        <v>1.2269572753712958</v>
       </c>
     </row>
     <row r="273">
@@ -40796,17 +40820,17 @@
       </c>
       <c r="C278" s="161"/>
       <c r="D278" s="177">
-        <v>1.1010948156305462</v>
+        <v>1.1010948156438563</v>
       </c>
       <c r="E278" s="177">
-        <v>1.1010948156305462</v>
+        <v>1.1010948156438563</v>
       </c>
       <c r="F278" s="161"/>
       <c r="G278" s="177">
-        <v>1.08770898554383</v>
+        <v>1.0877089856295126</v>
       </c>
       <c r="H278" s="177">
-        <v>1.08770898554383</v>
+        <v>1.0877089856295126</v>
       </c>
     </row>
     <row r="279">
@@ -40853,17 +40877,17 @@
       </c>
       <c r="C281" s="161"/>
       <c r="D281" s="177">
-        <v>1.1010948156305462</v>
+        <v>1.1010948156438563</v>
       </c>
       <c r="E281" s="177">
-        <v>1.1010948156305462</v>
+        <v>1.1010948156438563</v>
       </c>
       <c r="F281" s="161"/>
       <c r="G281" s="177">
-        <v>1.08770898554383</v>
+        <v>1.0877089856295126</v>
       </c>
       <c r="H281" s="177">
-        <v>1.08770898554383</v>
+        <v>1.0877089856295126</v>
       </c>
     </row>
     <row r="282"/>
@@ -41307,10 +41331,10 @@
         <v>3.2220663299859797</v>
       </c>
       <c r="F313" s="59">
-        <v>-82.226842632725209</v>
+        <v>-82.2268426327254</v>
       </c>
       <c r="G313" s="59">
-        <v>-135.12494919029729</v>
+        <v>-135.1249491903028</v>
       </c>
       <c r="H313" s="59"/>
       <c r="I313" s="59"/>
@@ -41408,7 +41432,7 @@
       </c>
       <c r="C331" s="56"/>
       <c r="D331" s="56">
-        <v>20.059182779298013</v>
+        <v>14.68747645641171</v>
       </c>
       <c r="E331" s="57"/>
     </row>
@@ -41418,7 +41442,7 @@
       </c>
       <c r="C332" s="56"/>
       <c r="D332" s="56">
-        <v>4.59503007735725</v>
+        <v>9.96673640024355</v>
       </c>
       <c r="E332" s="57"/>
     </row>
@@ -41428,7 +41452,7 @@
       </c>
       <c r="C333" s="56"/>
       <c r="D333" s="56">
-        <v>-13.882999439569197</v>
+        <v>-13.882999439569195</v>
       </c>
       <c r="E333" s="57"/>
     </row>
@@ -41548,7 +41572,7 @@
       </c>
       <c r="C346" s="56"/>
       <c r="D346" s="56">
-        <v>-222.48046855892102</v>
+        <v>-222.48046855892659</v>
       </c>
       <c r="E346" s="57"/>
     </row>
@@ -41558,7 +41582,7 @@
       </c>
       <c r="C347" s="56"/>
       <c r="D347" s="56">
-        <v>86.464894824627038</v>
+        <v>64.015463830331029</v>
       </c>
       <c r="E347" s="57"/>
     </row>
@@ -41568,7 +41592,7 @@
       </c>
       <c r="C348" s="56"/>
       <c r="D348" s="56">
-        <v>17.64394934725831</v>
+        <v>40.093380341545775</v>
       </c>
       <c r="E348" s="57"/>
     </row>
@@ -41578,7 +41602,7 @@
       </c>
       <c r="C349" s="56"/>
       <c r="D349" s="56">
-        <v>-326.58931273080634</v>
+        <v>-326.58931273080339</v>
       </c>
       <c r="E349" s="57"/>
     </row>
@@ -41598,7 +41622,7 @@
       </c>
       <c r="C351" s="56"/>
       <c r="D351" s="56">
-        <v>-251.26617850776293</v>
+        <v>-251.2661785077685</v>
       </c>
       <c r="E351" s="57"/>
     </row>

--- a/lib/report/benchmark_report/web14/exl/201809/jsliu__bank_test_&_city_(HF)(201809)_Two_Cycles_Comparison.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201809/jsliu__bank_test_&_city_(HF)(201809)_Two_Cycles_Comparison.xlsx
@@ -359,7 +359,7 @@
     <t xml:space="preserve">Bank Name: jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 10/29/18 4:54:39AM</t>
+    <t>Printed on: 12/05/18 4:56:22AM</t>
   </si>
   <si>
     <t xml:space="preserve"> Rate Shock</t>
@@ -766,7 +766,7 @@
     </r>
   </si>
   <si>
-    <t>Printed on: 10/29/18 4:54:33AM</t>
+    <t>Printed on: 12/05/18 4:56:17AM</t>
   </si>
   <si>
     <t xml:space="preserve">Earning/
@@ -3244,7 +3244,7 @@
       <c r="F8" s="91"/>
       <c r="G8" s="91"/>
       <c r="H8" s="91">
-        <v>181.35223683614731</v>
+        <v>167.4957973099319</v>
       </c>
       <c r="I8" s="91"/>
       <c r="J8" s="91"/>
@@ -3256,7 +3256,7 @@
       <c r="N8" s="91"/>
       <c r="O8" s="91"/>
       <c r="P8" s="91">
-        <v>149.24216226396655</v>
+        <v>140.10453905162649</v>
       </c>
       <c r="Q8" s="91"/>
       <c r="R8" s="91"/>
@@ -3290,7 +3290,7 @@
       <c r="AL8" s="91"/>
       <c r="AM8" s="91"/>
       <c r="AN8" s="91">
-        <v>-3697.4091858139177</v>
+        <v>-3699.5277833734476</v>
       </c>
       <c r="AO8" s="91"/>
       <c r="AP8" s="91"/>
@@ -3308,7 +3308,7 @@
       <c r="F9" s="91"/>
       <c r="G9" s="91"/>
       <c r="H9" s="91">
-        <v>135.78167572581373</v>
+        <v>125.39897780720831</v>
       </c>
       <c r="I9" s="91"/>
       <c r="J9" s="91"/>
@@ -3320,7 +3320,7 @@
       <c r="N9" s="91"/>
       <c r="O9" s="91"/>
       <c r="P9" s="91">
-        <v>111.53578190119008</v>
+        <v>104.7047841786391</v>
       </c>
       <c r="Q9" s="91"/>
       <c r="R9" s="91"/>
@@ -3354,7 +3354,7 @@
       <c r="AL9" s="91"/>
       <c r="AM9" s="91"/>
       <c r="AN9" s="91">
-        <v>-3685.8808411898331</v>
+        <v>-3687.9918467357975</v>
       </c>
       <c r="AO9" s="91"/>
       <c r="AP9" s="91"/>
@@ -3372,7 +3372,7 @@
       <c r="F10" s="91"/>
       <c r="G10" s="91"/>
       <c r="H10" s="91">
-        <v>90.395984785004572</v>
+        <v>83.472951979665964</v>
       </c>
       <c r="I10" s="91"/>
       <c r="J10" s="91"/>
@@ -3384,7 +3384,7 @@
       <c r="N10" s="91"/>
       <c r="O10" s="91"/>
       <c r="P10" s="91">
-        <v>74.085158466229885</v>
+        <v>69.545156858661443</v>
       </c>
       <c r="Q10" s="91"/>
       <c r="R10" s="91"/>
@@ -3418,7 +3418,7 @@
       <c r="AL10" s="91"/>
       <c r="AM10" s="91"/>
       <c r="AN10" s="91">
-        <v>-3674.3994008944396</v>
+        <v>-3676.5032367122235</v>
       </c>
       <c r="AO10" s="91"/>
       <c r="AP10" s="91"/>
@@ -3436,7 +3436,7 @@
       <c r="F11" s="91"/>
       <c r="G11" s="91"/>
       <c r="H11" s="91">
-        <v>45.0632381515696</v>
+        <v>41.6202346699886</v>
       </c>
       <c r="I11" s="91"/>
       <c r="J11" s="91"/>
@@ -3448,7 +3448,7 @@
       <c r="N11" s="91"/>
       <c r="O11" s="91"/>
       <c r="P11" s="91">
-        <v>36.885063840415278</v>
+        <v>34.625708704115624</v>
       </c>
       <c r="Q11" s="91"/>
       <c r="R11" s="91"/>
@@ -3482,7 +3482,7 @@
       <c r="AL11" s="91"/>
       <c r="AM11" s="91"/>
       <c r="AN11" s="91">
-        <v>-3662.9412009695434</v>
+        <v>-3665.0487940721946</v>
       </c>
       <c r="AO11" s="91"/>
       <c r="AP11" s="91"/>
@@ -3546,7 +3546,7 @@
       <c r="AL12" s="91"/>
       <c r="AM12" s="91"/>
       <c r="AN12" s="91">
-        <v>-3651.5508181889954</v>
+        <v>-3653.6572778495488</v>
       </c>
       <c r="AO12" s="91"/>
       <c r="AP12" s="91"/>
@@ -3564,7 +3564,7 @@
       <c r="F13" s="91"/>
       <c r="G13" s="91"/>
       <c r="H13" s="91">
-        <v>-44.873327474867914</v>
+        <v>-41.453239395000281</v>
       </c>
       <c r="I13" s="91"/>
       <c r="J13" s="91"/>
@@ -3576,7 +3576,7 @@
       <c r="N13" s="91"/>
       <c r="O13" s="91"/>
       <c r="P13" s="91">
-        <v>-36.651197008441443</v>
+        <v>-34.409495805375805</v>
       </c>
       <c r="Q13" s="91"/>
       <c r="R13" s="91"/>
@@ -3610,7 +3610,7 @@
       <c r="AL13" s="91"/>
       <c r="AM13" s="91"/>
       <c r="AN13" s="91">
-        <v>-3640.1967116539522</v>
+        <v>-3642.2954665831867</v>
       </c>
       <c r="AO13" s="91"/>
       <c r="AP13" s="91"/>
@@ -3628,7 +3628,7 @@
       <c r="F14" s="91"/>
       <c r="G14" s="91"/>
       <c r="H14" s="91">
-        <v>-89.7383099908362</v>
+        <v>-82.899098243455455</v>
       </c>
       <c r="I14" s="91"/>
       <c r="J14" s="91"/>
@@ -3640,7 +3640,7 @@
       <c r="N14" s="91"/>
       <c r="O14" s="91"/>
       <c r="P14" s="91">
-        <v>-73.143583956736023</v>
+        <v>-68.6699280659898</v>
       </c>
       <c r="Q14" s="91"/>
       <c r="R14" s="91"/>
@@ -3672,7 +3672,7 @@
       <c r="AL14" s="91"/>
       <c r="AM14" s="91"/>
       <c r="AN14" s="91">
-        <v>-3628.8455221073441</v>
+        <v>-3630.9363890832233</v>
       </c>
       <c r="AO14" s="91"/>
       <c r="AP14" s="91"/>
@@ -3736,7 +3736,7 @@
       <c r="F16" s="91"/>
       <c r="G16" s="91"/>
       <c r="H16" s="91">
-        <v>-55.999277239214415</v>
+        <v>-51.731291331370706</v>
       </c>
       <c r="I16" s="91"/>
       <c r="J16" s="91"/>
@@ -3748,7 +3748,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
       <c r="P16" s="91">
-        <v>-55.986191773705372</v>
+        <v>-52.560478167570629</v>
       </c>
       <c r="Q16" s="91"/>
       <c r="R16" s="91"/>
@@ -3780,7 +3780,7 @@
       <c r="AL16" s="91"/>
       <c r="AM16" s="91"/>
       <c r="AN16" s="91">
-        <v>-3637.3808101627355</v>
+        <v>-3639.4775671530715</v>
       </c>
       <c r="AO16" s="91"/>
       <c r="AP16" s="91"/>
@@ -3798,7 +3798,7 @@
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
       <c r="H17" s="91">
-        <v>136.82078869754557</v>
+        <v>126.35882858578974</v>
       </c>
       <c r="I17" s="91"/>
       <c r="J17" s="91"/>
@@ -3810,7 +3810,7 @@
       <c r="N17" s="91"/>
       <c r="O17" s="91"/>
       <c r="P17" s="91">
-        <v>98.485041378788708</v>
+        <v>92.454372222859746</v>
       </c>
       <c r="Q17" s="91"/>
       <c r="R17" s="91"/>
@@ -3842,7 +3842,7 @@
       <c r="AL17" s="91"/>
       <c r="AM17" s="91"/>
       <c r="AN17" s="91">
-        <v>-3686.1430694710316</v>
+        <v>-3688.2547230214768</v>
       </c>
       <c r="AO17" s="91"/>
       <c r="AP17" s="91"/>
@@ -4058,13 +4058,13 @@
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96">
-        <v>-251.16854287819777</v>
+        <v>-272.08065063338881</v>
       </c>
       <c r="I23" s="96"/>
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
       <c r="L23" s="96">
-        <v>-251.16854287819777</v>
+        <v>-272.08065063338881</v>
       </c>
       <c r="M23" s="96"/>
       <c r="N23" s="96"/>
@@ -4098,7 +4098,7 @@
       <c r="AL23" s="96"/>
       <c r="AM23" s="96"/>
       <c r="AN23" s="96">
-        <v>-222.66929363062556</v>
+        <v>-243.58140138581663</v>
       </c>
       <c r="AO23" s="96"/>
       <c r="AP23" s="96"/>
@@ -4116,13 +4116,13 @@
       <c r="F24" s="96"/>
       <c r="G24" s="96"/>
       <c r="H24" s="96">
-        <v>-1294.4906961688982</v>
+        <v>-1380.8922636888804</v>
       </c>
       <c r="I24" s="96"/>
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
       <c r="L24" s="96">
-        <v>-1294.4906961688982</v>
+        <v>-1380.8922636888804</v>
       </c>
       <c r="M24" s="96"/>
       <c r="N24" s="96"/>
@@ -4156,7 +4156,7 @@
       <c r="AL24" s="96"/>
       <c r="AM24" s="96"/>
       <c r="AN24" s="96">
-        <v>-1237.4921976737537</v>
+        <v>-1323.8937651937358</v>
       </c>
       <c r="AO24" s="96"/>
       <c r="AP24" s="96"/>
@@ -4174,13 +4174,13 @@
       <c r="F25" s="96"/>
       <c r="G25" s="96"/>
       <c r="H25" s="96">
-        <v>-25375.817980014737</v>
+        <v>-25390.456455443364</v>
       </c>
       <c r="I25" s="96"/>
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
       <c r="L25" s="96">
-        <v>-25375.817980014737</v>
+        <v>-25390.456455443364</v>
       </c>
       <c r="M25" s="96"/>
       <c r="N25" s="96"/>
@@ -4214,13 +4214,13 @@
       <c r="AH25" s="96"/>
       <c r="AI25" s="96"/>
       <c r="AJ25" s="96">
-        <v>10875.350562863458</v>
+        <v>10881.624195190016</v>
       </c>
       <c r="AK25" s="96"/>
       <c r="AL25" s="96"/>
       <c r="AM25" s="96"/>
       <c r="AN25" s="96">
-        <v>-222.66929363062343</v>
+        <v>-243.5814013858076</v>
       </c>
       <c r="AO25" s="96"/>
       <c r="AP25" s="96"/>
@@ -4238,13 +4238,13 @@
       <c r="F26" s="96"/>
       <c r="G26" s="96"/>
       <c r="H26" s="96">
-        <v>-51306.14348731823</v>
+        <v>-51366.62458458222</v>
       </c>
       <c r="I26" s="96"/>
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
       <c r="L26" s="96">
-        <v>-51306.14348731823</v>
+        <v>-51366.62458458222</v>
       </c>
       <c r="M26" s="96"/>
       <c r="N26" s="96"/>
@@ -4278,13 +4278,13 @@
       <c r="AH26" s="96"/>
       <c r="AI26" s="96"/>
       <c r="AJ26" s="96">
-        <v>21988.347208850671</v>
+        <v>22014.267679106659</v>
       </c>
       <c r="AK26" s="96"/>
       <c r="AL26" s="96"/>
       <c r="AM26" s="96"/>
       <c r="AN26" s="96">
-        <v>-1237.4921976737589</v>
+        <v>-1323.8937651937329</v>
       </c>
       <c r="AO26" s="96"/>
       <c r="AP26" s="96"/>
@@ -10776,55 +10776,55 @@
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="96">
-        <v>-25.774137270694322</v>
+        <v>-46.528244763383</v>
       </c>
       <c r="E116" s="96"/>
       <c r="F116" s="96"/>
       <c r="G116" s="96"/>
       <c r="H116" s="96">
-        <v>-138.46086011861004</v>
+        <v>-159.29440717885584</v>
       </c>
       <c r="I116" s="96"/>
       <c r="J116" s="96"/>
       <c r="K116" s="96"/>
       <c r="L116" s="96">
-        <v>-251.16854287819777</v>
+        <v>-272.08065063338881</v>
       </c>
       <c r="M116" s="96"/>
       <c r="N116" s="96"/>
       <c r="O116" s="96"/>
       <c r="P116" s="96">
-        <v>-364.35322151722727</v>
+        <v>-385.32125591863712</v>
       </c>
       <c r="Q116" s="96"/>
       <c r="R116" s="96"/>
       <c r="S116" s="96"/>
       <c r="T116" s="96">
-        <v>-478.21482068309115</v>
+        <v>-499.19440148256018</v>
       </c>
       <c r="U116" s="96"/>
       <c r="V116" s="96"/>
       <c r="W116" s="96"/>
       <c r="X116" s="96">
-        <v>-592.20939929432359</v>
+        <v>-613.26700533886014</v>
       </c>
       <c r="Y116" s="96"/>
       <c r="Z116" s="96"/>
       <c r="AA116" s="96"/>
       <c r="AB116" s="96">
-        <v>-706.66831361656716</v>
+        <v>-727.80430573783372</v>
       </c>
       <c r="AC116" s="96"/>
       <c r="AD116" s="96"/>
       <c r="AE116" s="96"/>
       <c r="AF116" s="96">
-        <v>-594.81932420428086</v>
+        <v>-615.87857358233407</v>
       </c>
       <c r="AG116" s="96"/>
       <c r="AH116" s="96"/>
       <c r="AI116" s="96"/>
       <c r="AJ116" s="98">
-        <v>45.0632381515696</v>
+        <v>41.6202346699886</v>
       </c>
       <c r="AK116" s="98"/>
       <c r="AL116" s="98"/>
@@ -11518,42 +11518,42 @@
       <c r="Q132" s="112"/>
       <c r="R132" s="112"/>
       <c r="S132" s="112">
-        <v>4.13022963004525</v>
+        <v>3.73429095724869</v>
       </c>
       <c r="T132" s="112"/>
       <c r="U132" s="112"/>
       <c r="V132" s="112">
-        <v>-0.30020240336228604</v>
+        <v>-0.994066174931921</v>
       </c>
       <c r="W132" s="112"/>
       <c r="X132" s="112"/>
       <c r="Y132" s="112">
-        <v>-4.8638102479843</v>
+        <v>-5.85653296127849</v>
       </c>
       <c r="Z132" s="112"/>
       <c r="AA132" s="112"/>
       <c r="AB132" s="112">
-        <v>-9.89828899702458</v>
+        <v>-11.1908948205122</v>
       </c>
       <c r="AC132" s="112"/>
       <c r="AD132" s="112"/>
       <c r="AE132" s="112">
-        <v>-15.3645989699538</v>
+        <v>-16.9581885850546</v>
       </c>
       <c r="AF132" s="112"/>
       <c r="AG132" s="112"/>
       <c r="AH132" s="112">
-        <v>-19.4849980872738</v>
+        <v>-21.380377047716703</v>
       </c>
       <c r="AI132" s="112"/>
       <c r="AJ132" s="112"/>
       <c r="AK132" s="112">
-        <v>-24.994548500483898</v>
+        <v>-27.1929815877307</v>
       </c>
       <c r="AL132" s="112"/>
       <c r="AM132" s="112"/>
       <c r="AN132" s="112">
-        <v>-30.7206465334391</v>
+        <v>-33.223405008223494</v>
       </c>
       <c r="AO132" s="112"/>
       <c r="AP132" s="112"/>
@@ -11644,42 +11644,42 @@
       <c r="Q134" s="115"/>
       <c r="R134" s="115"/>
       <c r="S134" s="115">
-        <v>1.8175012816945</v>
+        <v>1.42156260889794</v>
       </c>
       <c r="T134" s="115"/>
       <c r="U134" s="115"/>
       <c r="V134" s="115">
-        <v>-2.58521573639502</v>
+        <v>-3.27907950796466</v>
       </c>
       <c r="W134" s="115"/>
       <c r="X134" s="115"/>
       <c r="Y134" s="115">
-        <v>-7.22736358354966</v>
+        <v>-8.2200862968438511</v>
       </c>
       <c r="Z134" s="115"/>
       <c r="AA134" s="115"/>
       <c r="AB134" s="115">
-        <v>-12.2744448635864</v>
+        <v>-13.567050687074</v>
       </c>
       <c r="AC134" s="115"/>
       <c r="AD134" s="115"/>
       <c r="AE134" s="115">
-        <v>-17.537008938019497</v>
+        <v>-19.1305985531203</v>
       </c>
       <c r="AF134" s="115"/>
       <c r="AG134" s="115"/>
       <c r="AH134" s="115">
-        <v>-21.729808817943603</v>
+        <v>-23.625187778386497</v>
       </c>
       <c r="AI134" s="115"/>
       <c r="AJ134" s="115"/>
       <c r="AK134" s="115">
-        <v>-27.3495865457978</v>
+        <v>-29.5480196330447</v>
       </c>
       <c r="AL134" s="115"/>
       <c r="AM134" s="115"/>
       <c r="AN134" s="115">
-        <v>-33.147447268983996</v>
+        <v>-35.650205743768396</v>
       </c>
       <c r="AO134" s="115"/>
       <c r="AP134" s="115"/>
@@ -11833,42 +11833,42 @@
       <c r="Q137" s="115"/>
       <c r="R137" s="115"/>
       <c r="S137" s="115">
-        <v>-2998.18249871831</v>
+        <v>-2998.5784373911</v>
       </c>
       <c r="T137" s="115"/>
       <c r="U137" s="115"/>
       <c r="V137" s="115">
-        <v>-3002.58521573639</v>
+        <v>-3003.27907950796</v>
       </c>
       <c r="W137" s="115"/>
       <c r="X137" s="115"/>
       <c r="Y137" s="115">
-        <v>-3007.22736358355</v>
+        <v>-3008.2200862968402</v>
       </c>
       <c r="Z137" s="115"/>
       <c r="AA137" s="115"/>
       <c r="AB137" s="115">
-        <v>-3012.27444486359</v>
+        <v>-3013.56705068707</v>
       </c>
       <c r="AC137" s="115"/>
       <c r="AD137" s="115"/>
       <c r="AE137" s="115">
-        <v>-3017.53700893802</v>
+        <v>-3019.1305985531203</v>
       </c>
       <c r="AF137" s="115"/>
       <c r="AG137" s="115"/>
       <c r="AH137" s="115">
-        <v>-3021.72980881794</v>
+        <v>-3023.6251877783902</v>
       </c>
       <c r="AI137" s="115"/>
       <c r="AJ137" s="115"/>
       <c r="AK137" s="115">
-        <v>-3027.3495865458</v>
+        <v>-3029.54801963304</v>
       </c>
       <c r="AL137" s="115"/>
       <c r="AM137" s="115"/>
       <c r="AN137" s="115">
-        <v>-3033.14744726898</v>
+        <v>-3035.65020574377</v>
       </c>
       <c r="AO137" s="115"/>
       <c r="AP137" s="115"/>
@@ -11896,42 +11896,42 @@
       <c r="Q138" s="115"/>
       <c r="R138" s="115"/>
       <c r="S138" s="115">
-        <v>-899.454749615492</v>
+        <v>-899.57353121733092</v>
       </c>
       <c r="T138" s="115"/>
       <c r="U138" s="115"/>
       <c r="V138" s="115">
-        <v>-900.77556472091794</v>
+        <v>-900.98372385238906</v>
       </c>
       <c r="W138" s="115"/>
       <c r="X138" s="115"/>
       <c r="Y138" s="115">
-        <v>-902.168209075065</v>
+        <v>-902.466025889053</v>
       </c>
       <c r="Z138" s="115"/>
       <c r="AA138" s="115"/>
       <c r="AB138" s="115">
-        <v>-903.68233345907606</v>
+        <v>-904.07011520612207</v>
       </c>
       <c r="AC138" s="115"/>
       <c r="AD138" s="115"/>
       <c r="AE138" s="115">
-        <v>-905.261102681406</v>
+        <v>-905.739179565936</v>
       </c>
       <c r="AF138" s="115"/>
       <c r="AG138" s="115"/>
       <c r="AH138" s="115">
-        <v>-906.51894264538294</v>
+        <v>-907.087556333516</v>
       </c>
       <c r="AI138" s="115"/>
       <c r="AJ138" s="115"/>
       <c r="AK138" s="115">
-        <v>-908.204875963739</v>
+        <v>-908.864405889913</v>
       </c>
       <c r="AL138" s="115"/>
       <c r="AM138" s="115"/>
       <c r="AN138" s="115">
-        <v>-909.944234180695</v>
+        <v>-910.69506172313</v>
       </c>
       <c r="AO138" s="115"/>
       <c r="AP138" s="115"/>
@@ -11959,42 +11959,42 @@
       <c r="Q139" s="115"/>
       <c r="R139" s="115"/>
       <c r="S139" s="115">
-        <v>-2098.72774910281</v>
+        <v>-2099.00490617377</v>
       </c>
       <c r="T139" s="115"/>
       <c r="U139" s="115"/>
       <c r="V139" s="115">
-        <v>-2101.80965101548</v>
+        <v>-2102.29535565558</v>
       </c>
       <c r="W139" s="115"/>
       <c r="X139" s="115"/>
       <c r="Y139" s="115">
-        <v>-2105.0591545084903</v>
+        <v>-2105.75406040779</v>
       </c>
       <c r="Z139" s="115"/>
       <c r="AA139" s="115"/>
       <c r="AB139" s="115">
-        <v>-2108.5921114045104</v>
+        <v>-2109.49693548095</v>
       </c>
       <c r="AC139" s="115"/>
       <c r="AD139" s="115"/>
       <c r="AE139" s="115">
-        <v>-2112.27590625661</v>
+        <v>-2113.3914189871803</v>
       </c>
       <c r="AF139" s="115"/>
       <c r="AG139" s="115"/>
       <c r="AH139" s="115">
-        <v>-2115.21086617256</v>
+        <v>-2116.53763144487</v>
       </c>
       <c r="AI139" s="115"/>
       <c r="AJ139" s="115"/>
       <c r="AK139" s="115">
-        <v>-2119.14471058206</v>
+        <v>-2120.68361374313</v>
       </c>
       <c r="AL139" s="115"/>
       <c r="AM139" s="115"/>
       <c r="AN139" s="115">
-        <v>-2123.20321308829</v>
+        <v>-2124.9551440206396</v>
       </c>
       <c r="AO139" s="115"/>
       <c r="AP139" s="115"/>
@@ -12024,42 +12024,42 @@
       <c r="Q140" s="115"/>
       <c r="R140" s="115"/>
       <c r="S140" s="115">
-        <v>-3682.32643034079</v>
+        <v>-3682.60358740552</v>
       </c>
       <c r="T140" s="115"/>
       <c r="U140" s="115"/>
       <c r="V140" s="115">
-        <v>-5784.1319146734295</v>
+        <v>-5784.89477639047</v>
       </c>
       <c r="W140" s="115"/>
       <c r="X140" s="115"/>
       <c r="Y140" s="115">
-        <v>-7889.18676363038</v>
+        <v>-7890.64453124516</v>
       </c>
       <c r="Z140" s="115"/>
       <c r="AA140" s="115"/>
       <c r="AB140" s="115">
-        <v>-9997.7748472647</v>
+        <v>-10000.1374389461</v>
       </c>
       <c r="AC140" s="115"/>
       <c r="AD140" s="115"/>
       <c r="AE140" s="115">
-        <v>-12110.0465868381</v>
+        <v>-12113.524691256202</v>
       </c>
       <c r="AF140" s="115"/>
       <c r="AG140" s="115"/>
       <c r="AH140" s="115">
-        <v>-14225.253147461</v>
+        <v>-14230.05801715</v>
       </c>
       <c r="AI140" s="115"/>
       <c r="AJ140" s="115"/>
       <c r="AK140" s="115">
-        <v>-16344.393691371999</v>
+        <v>-16350.737464223299</v>
       </c>
       <c r="AL140" s="115"/>
       <c r="AM140" s="115"/>
       <c r="AN140" s="115">
-        <v>-18467.5925989139</v>
+        <v>-18475.6883027018</v>
       </c>
       <c r="AO140" s="115"/>
       <c r="AP140" s="115"/>
@@ -12634,13 +12634,13 @@
       <c r="F158" s="154"/>
       <c r="G158" s="154"/>
       <c r="H158" s="154">
-        <v>-25874.0682855788</v>
+        <v>-25888.706761012403</v>
       </c>
       <c r="I158" s="154"/>
       <c r="J158" s="154"/>
       <c r="K158" s="154"/>
       <c r="L158" s="154">
-        <v>-25874.0682855788</v>
+        <v>-25888.706761012403</v>
       </c>
       <c r="M158" s="154"/>
       <c r="N158" s="154"/>
@@ -12650,13 +12650,13 @@
       <c r="R158" s="154"/>
       <c r="S158" s="154"/>
       <c r="T158" s="154">
-        <v>-51804.3429595209</v>
+        <v>-51864.8240567767</v>
       </c>
       <c r="U158" s="154"/>
       <c r="V158" s="154"/>
       <c r="W158" s="154"/>
       <c r="X158" s="154">
-        <v>-51804.3429595209</v>
+        <v>-51864.8240567767</v>
       </c>
       <c r="Y158" s="154"/>
       <c r="Z158" s="154"/>
@@ -12672,13 +12672,13 @@
       <c r="F159" s="154"/>
       <c r="G159" s="154"/>
       <c r="H159" s="156">
-        <v>-25102.968285578798</v>
+        <v>-25117.6067610124</v>
       </c>
       <c r="I159" s="156"/>
       <c r="J159" s="156"/>
       <c r="K159" s="156"/>
       <c r="L159" s="156">
-        <v>-25102.968285578798</v>
+        <v>-25117.6067610124</v>
       </c>
       <c r="M159" s="156"/>
       <c r="N159" s="156"/>
@@ -12688,13 +12688,13 @@
       <c r="R159" s="154"/>
       <c r="S159" s="154"/>
       <c r="T159" s="156">
-        <v>-51033.242959520896</v>
+        <v>-51093.7240567767</v>
       </c>
       <c r="U159" s="156"/>
       <c r="V159" s="156"/>
       <c r="W159" s="156"/>
       <c r="X159" s="156">
-        <v>-51033.242959520896</v>
+        <v>-51093.7240567767</v>
       </c>
       <c r="Y159" s="156"/>
       <c r="Z159" s="156"/>
@@ -13204,13 +13204,13 @@
       <c r="F173" s="154"/>
       <c r="G173" s="154"/>
       <c r="H173" s="156">
-        <v>-23942.1672855788</v>
+        <v>-23956.8057610124</v>
       </c>
       <c r="I173" s="156"/>
       <c r="J173" s="156"/>
       <c r="K173" s="156"/>
       <c r="L173" s="156">
-        <v>-23942.1672855788</v>
+        <v>-23956.8057610124</v>
       </c>
       <c r="M173" s="156"/>
       <c r="N173" s="156"/>
@@ -13220,13 +13220,13 @@
       <c r="R173" s="154"/>
       <c r="S173" s="154"/>
       <c r="T173" s="156">
-        <v>-49872.4419595209</v>
+        <v>-49932.9230567767</v>
       </c>
       <c r="U173" s="156"/>
       <c r="V173" s="156"/>
       <c r="W173" s="156"/>
       <c r="X173" s="156">
-        <v>-49872.4419595209</v>
+        <v>-49932.9230567767</v>
       </c>
       <c r="Y173" s="156"/>
       <c r="Z173" s="156"/>
@@ -14040,13 +14040,13 @@
       <c r="F198" s="154"/>
       <c r="G198" s="154"/>
       <c r="H198" s="156">
-        <v>-24862.1672855788</v>
+        <v>-24876.8057610124</v>
       </c>
       <c r="I198" s="156"/>
       <c r="J198" s="156"/>
       <c r="K198" s="156"/>
       <c r="L198" s="156">
-        <v>-24862.1672855788</v>
+        <v>-24876.8057610124</v>
       </c>
       <c r="M198" s="156"/>
       <c r="N198" s="156"/>
@@ -14056,13 +14056,13 @@
       <c r="R198" s="154"/>
       <c r="S198" s="154"/>
       <c r="T198" s="156">
-        <v>-50792.4419595209</v>
+        <v>-50852.9230567767</v>
       </c>
       <c r="U198" s="156"/>
       <c r="V198" s="156"/>
       <c r="W198" s="156"/>
       <c r="X198" s="156">
-        <v>-50792.4419595209</v>
+        <v>-50852.9230567767</v>
       </c>
       <c r="Y198" s="156"/>
       <c r="Z198" s="156"/>
@@ -14238,13 +14238,13 @@
       <c r="F204" s="154"/>
       <c r="G204" s="154"/>
       <c r="H204" s="154">
-        <v>2672.6408010795526</v>
+        <v>2672.6261665240622</v>
       </c>
       <c r="I204" s="154"/>
       <c r="J204" s="154"/>
       <c r="K204" s="154"/>
       <c r="L204" s="154">
-        <v>2672.6408010795526</v>
+        <v>2672.6261665240622</v>
       </c>
       <c r="M204" s="154"/>
       <c r="N204" s="154"/>
@@ -14254,13 +14254,13 @@
       <c r="R204" s="154"/>
       <c r="S204" s="154"/>
       <c r="T204" s="154">
-        <v>2619.0573221196864</v>
+        <v>2619.0016443716668</v>
       </c>
       <c r="U204" s="154"/>
       <c r="V204" s="154"/>
       <c r="W204" s="154"/>
       <c r="X204" s="154">
-        <v>2619.0573221196864</v>
+        <v>2619.0016443716668</v>
       </c>
       <c r="Y204" s="154"/>
       <c r="Z204" s="154"/>
@@ -14276,13 +14276,13 @@
       <c r="F205" s="154"/>
       <c r="G205" s="154"/>
       <c r="H205" s="154">
-        <v>17934.388095290244</v>
+        <v>17934.663468693048</v>
       </c>
       <c r="I205" s="154"/>
       <c r="J205" s="154"/>
       <c r="K205" s="154"/>
       <c r="L205" s="154">
-        <v>17934.388095290244</v>
+        <v>17934.663468693048</v>
       </c>
       <c r="M205" s="154"/>
       <c r="N205" s="154"/>
@@ -14292,13 +14292,13 @@
       <c r="R205" s="154"/>
       <c r="S205" s="154"/>
       <c r="T205" s="154">
-        <v>16054.244565860548</v>
+        <v>16055.835706278533</v>
       </c>
       <c r="U205" s="154"/>
       <c r="V205" s="154"/>
       <c r="W205" s="154"/>
       <c r="X205" s="154">
-        <v>16054.244565860548</v>
+        <v>16055.835706278533</v>
       </c>
       <c r="Y205" s="154"/>
       <c r="Z205" s="154"/>
@@ -14352,13 +14352,13 @@
       <c r="F207" s="154"/>
       <c r="G207" s="154"/>
       <c r="H207" s="154">
-        <v>885.03579728407772</v>
+        <v>885.03236373411</v>
       </c>
       <c r="I207" s="154"/>
       <c r="J207" s="154"/>
       <c r="K207" s="154"/>
       <c r="L207" s="154">
-        <v>885.03579728407772</v>
+        <v>885.03236373411</v>
       </c>
       <c r="M207" s="154"/>
       <c r="N207" s="154"/>
@@ -14368,13 +14368,13 @@
       <c r="R207" s="154"/>
       <c r="S207" s="154"/>
       <c r="T207" s="154">
-        <v>839.47590063297037</v>
+        <v>839.4597996312267</v>
       </c>
       <c r="U207" s="154"/>
       <c r="V207" s="154"/>
       <c r="W207" s="154"/>
       <c r="X207" s="154">
-        <v>839.47590063297037</v>
+        <v>839.4597996312267</v>
       </c>
       <c r="Y207" s="154"/>
       <c r="Z207" s="154"/>
@@ -14390,13 +14390,13 @@
       <c r="F208" s="154"/>
       <c r="G208" s="154"/>
       <c r="H208" s="154">
-        <v>11437.707423792186</v>
+        <v>11437.608663619703</v>
       </c>
       <c r="I208" s="154"/>
       <c r="J208" s="154"/>
       <c r="K208" s="154"/>
       <c r="L208" s="154">
-        <v>11437.707423792186</v>
+        <v>11437.608663619703</v>
       </c>
       <c r="M208" s="154"/>
       <c r="N208" s="154"/>
@@ -14406,13 +14406,13 @@
       <c r="R208" s="154"/>
       <c r="S208" s="154"/>
       <c r="T208" s="154">
-        <v>10812.787694924286</v>
+        <v>10812.407269733218</v>
       </c>
       <c r="U208" s="154"/>
       <c r="V208" s="154"/>
       <c r="W208" s="154"/>
       <c r="X208" s="154">
-        <v>10812.787694924286</v>
+        <v>10812.407269733218</v>
       </c>
       <c r="Y208" s="154"/>
       <c r="Z208" s="154"/>
@@ -14466,13 +14466,13 @@
       <c r="F210" s="154"/>
       <c r="G210" s="154"/>
       <c r="H210" s="154">
-        <v>600.77590817870077</v>
+        <v>600.03479119356723</v>
       </c>
       <c r="I210" s="154"/>
       <c r="J210" s="154"/>
       <c r="K210" s="154"/>
       <c r="L210" s="154">
-        <v>600.77590817870077</v>
+        <v>600.03479119356723</v>
       </c>
       <c r="M210" s="154"/>
       <c r="N210" s="154"/>
@@ -14482,13 +14482,13 @@
       <c r="R210" s="154"/>
       <c r="S210" s="154"/>
       <c r="T210" s="154">
-        <v>603.579629090174</v>
+        <v>601.23811838043594</v>
       </c>
       <c r="U210" s="154"/>
       <c r="V210" s="154"/>
       <c r="W210" s="154"/>
       <c r="X210" s="154">
-        <v>603.579629090174</v>
+        <v>601.23811838043594</v>
       </c>
       <c r="Y210" s="154"/>
       <c r="Z210" s="154"/>
@@ -14504,13 +14504,13 @@
       <c r="F211" s="154"/>
       <c r="G211" s="154"/>
       <c r="H211" s="154">
-        <v>606.369289560504</v>
+        <v>606.383554836861</v>
       </c>
       <c r="I211" s="154"/>
       <c r="J211" s="154"/>
       <c r="K211" s="154"/>
       <c r="L211" s="154">
-        <v>606.369289560504</v>
+        <v>606.383554836861</v>
       </c>
       <c r="M211" s="154"/>
       <c r="N211" s="154"/>
@@ -14520,13 +14520,13 @@
       <c r="R211" s="154"/>
       <c r="S211" s="154"/>
       <c r="T211" s="154">
-        <v>527.225994647936</v>
+        <v>527.27100750358989</v>
       </c>
       <c r="U211" s="154"/>
       <c r="V211" s="154"/>
       <c r="W211" s="154"/>
       <c r="X211" s="154">
-        <v>527.225994647936</v>
+        <v>527.27100750358989</v>
       </c>
       <c r="Y211" s="154"/>
       <c r="Z211" s="154"/>
@@ -14542,13 +14542,13 @@
       <c r="F212" s="154"/>
       <c r="G212" s="154"/>
       <c r="H212" s="154">
-        <v>4.4793467814617225</v>
+        <v>4.2216084440740218</v>
       </c>
       <c r="I212" s="154"/>
       <c r="J212" s="154"/>
       <c r="K212" s="154"/>
       <c r="L212" s="154">
-        <v>4.4793467814617225</v>
+        <v>4.2216084440740218</v>
       </c>
       <c r="M212" s="154"/>
       <c r="N212" s="154"/>
@@ -14558,13 +14558,13 @@
       <c r="R212" s="154"/>
       <c r="S212" s="154"/>
       <c r="T212" s="154">
-        <v>5.3310667080595406</v>
+        <v>5.05129976830432</v>
       </c>
       <c r="U212" s="154"/>
       <c r="V212" s="154"/>
       <c r="W212" s="154"/>
       <c r="X212" s="154">
-        <v>5.3310667080595406</v>
+        <v>5.05129976830432</v>
       </c>
       <c r="Y212" s="154"/>
       <c r="Z212" s="154"/>
@@ -14580,13 +14580,13 @@
       <c r="F213" s="154"/>
       <c r="G213" s="154"/>
       <c r="H213" s="154">
-        <v>1124.6883680013218</v>
+        <v>1078.6840923344262</v>
       </c>
       <c r="I213" s="154"/>
       <c r="J213" s="154"/>
       <c r="K213" s="154"/>
       <c r="L213" s="154">
-        <v>1124.6883680013218</v>
+        <v>1078.6840923344262</v>
       </c>
       <c r="M213" s="154"/>
       <c r="N213" s="154"/>
@@ -14596,13 +14596,13 @@
       <c r="R213" s="154"/>
       <c r="S213" s="154"/>
       <c r="T213" s="154">
-        <v>1240.8251383850904</v>
+        <v>1190.6293379376384</v>
       </c>
       <c r="U213" s="154"/>
       <c r="V213" s="154"/>
       <c r="W213" s="154"/>
       <c r="X213" s="154">
-        <v>1240.8251383850904</v>
+        <v>1190.6293379376384</v>
       </c>
       <c r="Y213" s="154"/>
       <c r="Z213" s="154"/>
@@ -14618,13 +14618,13 @@
       <c r="F214" s="154"/>
       <c r="G214" s="154"/>
       <c r="H214" s="154">
-        <v>611.28388416089729</v>
+        <v>588.18040317027794</v>
       </c>
       <c r="I214" s="154"/>
       <c r="J214" s="154"/>
       <c r="K214" s="154"/>
       <c r="L214" s="154">
-        <v>611.28388416089729</v>
+        <v>588.18040317027794</v>
       </c>
       <c r="M214" s="154"/>
       <c r="N214" s="154"/>
@@ -14634,13 +14634,13 @@
       <c r="R214" s="154"/>
       <c r="S214" s="154"/>
       <c r="T214" s="154">
-        <v>639.89713188277449</v>
+        <v>614.71761681289627</v>
       </c>
       <c r="U214" s="154"/>
       <c r="V214" s="154"/>
       <c r="W214" s="154"/>
       <c r="X214" s="154">
-        <v>639.89713188277449</v>
+        <v>614.71761681289627</v>
       </c>
       <c r="Y214" s="154"/>
       <c r="Z214" s="154"/>
@@ -14656,13 +14656,13 @@
       <c r="F215" s="154"/>
       <c r="G215" s="154"/>
       <c r="H215" s="154">
-        <v>626.74308508115064</v>
+        <v>603.61915376663353</v>
       </c>
       <c r="I215" s="154"/>
       <c r="J215" s="154"/>
       <c r="K215" s="154"/>
       <c r="L215" s="154">
-        <v>626.74308508115064</v>
+        <v>603.61915376663353</v>
       </c>
       <c r="M215" s="154"/>
       <c r="N215" s="154"/>
@@ -14672,13 +14672,13 @@
       <c r="R215" s="154"/>
       <c r="S215" s="154"/>
       <c r="T215" s="154">
-        <v>661.8711004985023</v>
+        <v>636.63166247155709</v>
       </c>
       <c r="U215" s="154"/>
       <c r="V215" s="154"/>
       <c r="W215" s="154"/>
       <c r="X215" s="154">
-        <v>661.8711004985023</v>
+        <v>636.63166247155709</v>
       </c>
       <c r="Y215" s="154"/>
       <c r="Z215" s="154"/>
@@ -14694,13 +14694,13 @@
       <c r="F216" s="154"/>
       <c r="G216" s="154"/>
       <c r="H216" s="154">
-        <v>-326589.3127308035</v>
+        <v>-347187.84082519775</v>
       </c>
       <c r="I216" s="154"/>
       <c r="J216" s="154"/>
       <c r="K216" s="154"/>
       <c r="L216" s="154">
-        <v>-326589.3127308035</v>
+        <v>-347187.84082519775</v>
       </c>
       <c r="M216" s="154"/>
       <c r="N216" s="154"/>
@@ -14710,13 +14710,13 @@
       <c r="R216" s="154"/>
       <c r="S216" s="154"/>
       <c r="T216" s="154">
-        <v>-1121778.6464575192</v>
+        <v>-1186924.289841173</v>
       </c>
       <c r="U216" s="154"/>
       <c r="V216" s="154"/>
       <c r="W216" s="154"/>
       <c r="X216" s="154">
-        <v>-1121778.6464575192</v>
+        <v>-1186924.289841173</v>
       </c>
       <c r="Y216" s="154"/>
       <c r="Z216" s="154"/>
@@ -14732,13 +14732,13 @@
       <c r="F217" s="154"/>
       <c r="G217" s="154"/>
       <c r="H217" s="156">
-        <v>-282479.62079255248</v>
+        <v>-303171.20661984023</v>
       </c>
       <c r="I217" s="156"/>
       <c r="J217" s="156"/>
       <c r="K217" s="156"/>
       <c r="L217" s="156">
-        <v>-282479.62079255248</v>
+        <v>-303171.20661984023</v>
       </c>
       <c r="M217" s="156"/>
       <c r="N217" s="156"/>
@@ -14748,13 +14748,13 @@
       <c r="R217" s="154"/>
       <c r="S217" s="154"/>
       <c r="T217" s="156">
-        <v>-1080394.9172867534</v>
+        <v>-1145642.6127522676</v>
       </c>
       <c r="U217" s="156"/>
       <c r="V217" s="156"/>
       <c r="W217" s="156"/>
       <c r="X217" s="156">
-        <v>-1080394.9172867534</v>
+        <v>-1145642.6127522676</v>
       </c>
       <c r="Y217" s="156"/>
       <c r="Z217" s="156"/>
@@ -14770,13 +14770,13 @@
       <c r="F218" s="154"/>
       <c r="G218" s="154"/>
       <c r="H218" s="154">
-        <v>384.04917404945593</v>
+        <v>385.96891343616392</v>
       </c>
       <c r="I218" s="154"/>
       <c r="J218" s="154"/>
       <c r="K218" s="154"/>
       <c r="L218" s="154">
-        <v>384.04917404945593</v>
+        <v>385.96891343616392</v>
       </c>
       <c r="M218" s="154"/>
       <c r="N218" s="154"/>
@@ -14786,13 +14786,13 @@
       <c r="R218" s="154"/>
       <c r="S218" s="154"/>
       <c r="T218" s="154">
-        <v>461.21718226163318</v>
+        <v>463.1204943992413</v>
       </c>
       <c r="U218" s="154"/>
       <c r="V218" s="154"/>
       <c r="W218" s="154"/>
       <c r="X218" s="154">
-        <v>461.21718226163318</v>
+        <v>463.1204943992413</v>
       </c>
       <c r="Y218" s="154"/>
       <c r="Z218" s="154"/>
@@ -14808,13 +14808,13 @@
       <c r="F219" s="154"/>
       <c r="G219" s="154"/>
       <c r="H219" s="154">
-        <v>21160.521789696897</v>
+        <v>20964.832047251744</v>
       </c>
       <c r="I219" s="154"/>
       <c r="J219" s="154"/>
       <c r="K219" s="154"/>
       <c r="L219" s="154">
-        <v>21160.521789696897</v>
+        <v>20964.832047251744</v>
       </c>
       <c r="M219" s="154"/>
       <c r="N219" s="154"/>
@@ -14824,13 +14824,13 @@
       <c r="R219" s="154"/>
       <c r="S219" s="154"/>
       <c r="T219" s="154">
-        <v>25876.50694475304</v>
+        <v>25663.767600997802</v>
       </c>
       <c r="U219" s="154"/>
       <c r="V219" s="154"/>
       <c r="W219" s="154"/>
       <c r="X219" s="154">
-        <v>25876.50694475304</v>
+        <v>25663.767600997802</v>
       </c>
       <c r="Y219" s="154"/>
       <c r="Z219" s="154"/>
@@ -14846,13 +14846,13 @@
       <c r="F220" s="154"/>
       <c r="G220" s="154"/>
       <c r="H220" s="154">
-        <v>954.79359263291315</v>
+        <v>928.98813936833869</v>
       </c>
       <c r="I220" s="154"/>
       <c r="J220" s="154"/>
       <c r="K220" s="154"/>
       <c r="L220" s="154">
-        <v>954.79359263291315</v>
+        <v>928.98813936833869</v>
       </c>
       <c r="M220" s="154"/>
       <c r="N220" s="154"/>
@@ -14862,13 +14862,13 @@
       <c r="R220" s="154"/>
       <c r="S220" s="154"/>
       <c r="T220" s="154">
-        <v>1103.9394911176648</v>
+        <v>1075.9252232246913</v>
       </c>
       <c r="U220" s="154"/>
       <c r="V220" s="154"/>
       <c r="W220" s="154"/>
       <c r="X220" s="154">
-        <v>1103.9394911176648</v>
+        <v>1075.9252232246913</v>
       </c>
       <c r="Y220" s="154"/>
       <c r="Z220" s="154"/>
@@ -14884,13 +14884,13 @@
       <c r="F221" s="154"/>
       <c r="G221" s="154"/>
       <c r="H221" s="156">
-        <v>22499.364556379267</v>
+        <v>22279.789100056223</v>
       </c>
       <c r="I221" s="156"/>
       <c r="J221" s="156"/>
       <c r="K221" s="156"/>
       <c r="L221" s="156">
-        <v>22499.364556379267</v>
+        <v>22279.789100056223</v>
       </c>
       <c r="M221" s="156"/>
       <c r="N221" s="156"/>
@@ -14900,13 +14900,13 @@
       <c r="R221" s="154"/>
       <c r="S221" s="154"/>
       <c r="T221" s="156">
-        <v>27441.663618132341</v>
+        <v>27202.813318621727</v>
       </c>
       <c r="U221" s="156"/>
       <c r="V221" s="156"/>
       <c r="W221" s="156"/>
       <c r="X221" s="156">
-        <v>27441.663618132341</v>
+        <v>27202.813318621727</v>
       </c>
       <c r="Y221" s="156"/>
       <c r="Z221" s="156"/>
@@ -14922,13 +14922,13 @@
       <c r="F222" s="154"/>
       <c r="G222" s="154"/>
       <c r="H222" s="154">
-        <v>581.52677759668813</v>
+        <v>581.46155529768055</v>
       </c>
       <c r="I222" s="154"/>
       <c r="J222" s="154"/>
       <c r="K222" s="154"/>
       <c r="L222" s="154">
-        <v>581.52677759668813</v>
+        <v>581.46155529768055</v>
       </c>
       <c r="M222" s="154"/>
       <c r="N222" s="154"/>
@@ -14938,13 +14938,13 @@
       <c r="R222" s="154"/>
       <c r="S222" s="154"/>
       <c r="T222" s="154">
-        <v>545.61324160948561</v>
+        <v>545.41400658701946</v>
       </c>
       <c r="U222" s="154"/>
       <c r="V222" s="154"/>
       <c r="W222" s="154"/>
       <c r="X222" s="154">
-        <v>545.61324160948561</v>
+        <v>545.41400658701946</v>
       </c>
       <c r="Y222" s="154"/>
       <c r="Z222" s="154"/>
@@ -14960,13 +14960,13 @@
       <c r="F223" s="154"/>
       <c r="G223" s="154"/>
       <c r="H223" s="154">
-        <v>380.56875470507964</v>
+        <v>380.49986262242305</v>
       </c>
       <c r="I223" s="154"/>
       <c r="J223" s="154"/>
       <c r="K223" s="154"/>
       <c r="L223" s="154">
-        <v>380.56875470507964</v>
+        <v>380.49986262242305</v>
       </c>
       <c r="M223" s="154"/>
       <c r="N223" s="154"/>
@@ -14976,13 +14976,13 @@
       <c r="R223" s="154"/>
       <c r="S223" s="154"/>
       <c r="T223" s="154">
-        <v>391.69390681992746</v>
+        <v>391.4841283089869</v>
       </c>
       <c r="U223" s="154"/>
       <c r="V223" s="154"/>
       <c r="W223" s="154"/>
       <c r="X223" s="154">
-        <v>391.69390681992746</v>
+        <v>391.4841283089869</v>
       </c>
       <c r="Y223" s="154"/>
       <c r="Z223" s="154"/>
@@ -15036,13 +15036,13 @@
       <c r="F225" s="154"/>
       <c r="G225" s="154"/>
       <c r="H225" s="154">
-        <v>701.08742656105119</v>
+        <v>700.27506936239729</v>
       </c>
       <c r="I225" s="154"/>
       <c r="J225" s="154"/>
       <c r="K225" s="154"/>
       <c r="L225" s="154">
-        <v>701.08742656105119</v>
+        <v>700.27506936239729</v>
       </c>
       <c r="M225" s="154"/>
       <c r="N225" s="154"/>
@@ -15052,13 +15052,13 @@
       <c r="R225" s="154"/>
       <c r="S225" s="154"/>
       <c r="T225" s="154">
-        <v>606.67175647631007</v>
+        <v>604.16677024366209</v>
       </c>
       <c r="U225" s="154"/>
       <c r="V225" s="154"/>
       <c r="W225" s="154"/>
       <c r="X225" s="154">
-        <v>606.67175647631007</v>
+        <v>604.16677024366209</v>
       </c>
       <c r="Y225" s="154"/>
       <c r="Z225" s="154"/>
@@ -15074,13 +15074,13 @@
       <c r="F226" s="154"/>
       <c r="G226" s="154"/>
       <c r="H226" s="156">
-        <v>15042.25477871671</v>
+        <v>15041.308307136402</v>
       </c>
       <c r="I226" s="156"/>
       <c r="J226" s="156"/>
       <c r="K226" s="156"/>
       <c r="L226" s="156">
-        <v>15042.25477871671</v>
+        <v>15041.308307136402</v>
       </c>
       <c r="M226" s="156"/>
       <c r="N226" s="156"/>
@@ -15090,13 +15090,13 @@
       <c r="R226" s="154"/>
       <c r="S226" s="154"/>
       <c r="T226" s="156">
-        <v>14760.15188947448</v>
+        <v>14757.237889708429</v>
       </c>
       <c r="U226" s="156"/>
       <c r="V226" s="156"/>
       <c r="W226" s="156"/>
       <c r="X226" s="156">
-        <v>14760.15188947448</v>
+        <v>14757.237889708429</v>
       </c>
       <c r="Y226" s="156"/>
       <c r="Z226" s="156"/>
@@ -15264,13 +15264,13 @@
       <c r="F231" s="154"/>
       <c r="G231" s="154"/>
       <c r="H231" s="156">
-        <v>-222480.46855892669</v>
+        <v>-243392.57631411761</v>
       </c>
       <c r="I231" s="156"/>
       <c r="J231" s="156"/>
       <c r="K231" s="156"/>
       <c r="L231" s="156">
-        <v>-222480.46855892669</v>
+        <v>-243392.57631411761</v>
       </c>
       <c r="M231" s="156"/>
       <c r="N231" s="156"/>
@@ -15280,13 +15280,13 @@
       <c r="R231" s="154"/>
       <c r="S231" s="154"/>
       <c r="T231" s="156">
-        <v>-1014441.8959056288</v>
+        <v>-1079931.3556704198</v>
       </c>
       <c r="U231" s="156"/>
       <c r="V231" s="156"/>
       <c r="W231" s="156"/>
       <c r="X231" s="156">
-        <v>-1014441.8959056288</v>
+        <v>-1079931.3556704198</v>
       </c>
       <c r="Y231" s="156"/>
       <c r="Z231" s="156"/>
@@ -16100,13 +16100,13 @@
       <c r="F256" s="154"/>
       <c r="G256" s="154"/>
       <c r="H256" s="156">
-        <v>-251168.54287819777</v>
+        <v>-272080.65063338884</v>
       </c>
       <c r="I256" s="156"/>
       <c r="J256" s="156"/>
       <c r="K256" s="156"/>
       <c r="L256" s="156">
-        <v>-251168.54287819777</v>
+        <v>-272080.65063338884</v>
       </c>
       <c r="M256" s="156"/>
       <c r="N256" s="156"/>
@@ -16116,13 +16116,13 @@
       <c r="R256" s="154"/>
       <c r="S256" s="154"/>
       <c r="T256" s="156">
-        <v>-1043322.1532907003</v>
+        <v>-1108811.6130554914</v>
       </c>
       <c r="U256" s="156"/>
       <c r="V256" s="156"/>
       <c r="W256" s="156"/>
       <c r="X256" s="156">
-        <v>-1043322.1532907003</v>
+        <v>-1108811.6130554914</v>
       </c>
       <c r="Y256" s="156"/>
       <c r="Z256" s="156"/>
@@ -16302,13 +16302,13 @@
       <c r="F262" s="150"/>
       <c r="G262" s="150"/>
       <c r="H262" s="150">
-        <v>5.63513145054747</v>
+        <v>5.6276957939250307</v>
       </c>
       <c r="I262" s="150"/>
       <c r="J262" s="150"/>
       <c r="K262" s="150"/>
       <c r="L262" s="150">
-        <v>5.63513145054747</v>
+        <v>5.6276957939250307</v>
       </c>
       <c r="M262" s="150"/>
       <c r="N262" s="150"/>
@@ -16318,13 +16318,13 @@
       <c r="R262" s="150"/>
       <c r="S262" s="150"/>
       <c r="T262" s="150">
-        <v>5.4167046124796654</v>
+        <v>5.3891382174537652</v>
       </c>
       <c r="U262" s="150"/>
       <c r="V262" s="150"/>
       <c r="W262" s="150"/>
       <c r="X262" s="150">
-        <v>5.4167046124796654</v>
+        <v>5.3891382174537652</v>
       </c>
       <c r="Y262" s="150"/>
       <c r="Z262" s="150"/>
@@ -16340,13 +16340,13 @@
       <c r="F263" s="150"/>
       <c r="G263" s="150"/>
       <c r="H263" s="150">
-        <v>5.3732064371568127</v>
+        <v>5.3724839372728637</v>
       </c>
       <c r="I263" s="150"/>
       <c r="J263" s="150"/>
       <c r="K263" s="150"/>
       <c r="L263" s="150">
-        <v>5.3732064371568127</v>
+        <v>5.3724839372728637</v>
       </c>
       <c r="M263" s="150"/>
       <c r="N263" s="150"/>
@@ -16356,13 +16356,13 @@
       <c r="R263" s="150"/>
       <c r="S263" s="150"/>
       <c r="T263" s="150">
-        <v>4.6564562351084886</v>
+        <v>4.6523863559318714</v>
       </c>
       <c r="U263" s="150"/>
       <c r="V263" s="150"/>
       <c r="W263" s="150"/>
       <c r="X263" s="150">
-        <v>4.6564562351084886</v>
+        <v>4.6523863559318714</v>
       </c>
       <c r="Y263" s="150"/>
       <c r="Z263" s="150"/>
@@ -16416,13 +16416,13 @@
       <c r="F265" s="150"/>
       <c r="G265" s="150"/>
       <c r="H265" s="150">
-        <v>5.6520936779420659</v>
+        <v>5.6459987555749374</v>
       </c>
       <c r="I265" s="150"/>
       <c r="J265" s="150"/>
       <c r="K265" s="150"/>
       <c r="L265" s="150">
-        <v>5.6520936779420659</v>
+        <v>5.6459987555749374</v>
       </c>
       <c r="M265" s="150"/>
       <c r="N265" s="150"/>
@@ -16432,13 +16432,13 @@
       <c r="R265" s="150"/>
       <c r="S265" s="150"/>
       <c r="T265" s="150">
-        <v>5.35911696057994</v>
+        <v>5.3314410339752953</v>
       </c>
       <c r="U265" s="150"/>
       <c r="V265" s="150"/>
       <c r="W265" s="150"/>
       <c r="X265" s="150">
-        <v>5.35911696057994</v>
+        <v>5.3314410339752953</v>
       </c>
       <c r="Y265" s="150"/>
       <c r="Z265" s="150"/>
@@ -16454,13 +16454,13 @@
       <c r="F266" s="150"/>
       <c r="G266" s="150"/>
       <c r="H266" s="150">
-        <v>5.5602670875302573</v>
+        <v>5.5476859896088468</v>
       </c>
       <c r="I266" s="150"/>
       <c r="J266" s="150"/>
       <c r="K266" s="150"/>
       <c r="L266" s="150">
-        <v>5.5602670875302573</v>
+        <v>5.5476859896088468</v>
       </c>
       <c r="M266" s="150"/>
       <c r="N266" s="150"/>
@@ -16470,13 +16470,13 @@
       <c r="R266" s="150"/>
       <c r="S266" s="150"/>
       <c r="T266" s="150">
-        <v>5.2395816631698846</v>
+        <v>5.1932724976030817</v>
       </c>
       <c r="U266" s="150"/>
       <c r="V266" s="150"/>
       <c r="W266" s="150"/>
       <c r="X266" s="150">
-        <v>5.2395816631698846</v>
+        <v>5.1932724976030817</v>
       </c>
       <c r="Y266" s="150"/>
       <c r="Z266" s="150"/>
@@ -16530,13 +16530,13 @@
       <c r="F268" s="150"/>
       <c r="G268" s="150"/>
       <c r="H268" s="150">
-        <v>5.5219643598741328</v>
+        <v>5.5133508290680764</v>
       </c>
       <c r="I268" s="150"/>
       <c r="J268" s="150"/>
       <c r="K268" s="150"/>
       <c r="L268" s="150">
-        <v>5.5219643598741328</v>
+        <v>5.5133508290680764</v>
       </c>
       <c r="M268" s="150"/>
       <c r="N268" s="150"/>
@@ -16546,13 +16546,13 @@
       <c r="R268" s="150"/>
       <c r="S268" s="150"/>
       <c r="T268" s="150">
-        <v>5.5525978566781182</v>
+        <v>5.5253841009366846</v>
       </c>
       <c r="U268" s="150"/>
       <c r="V268" s="150"/>
       <c r="W268" s="150"/>
       <c r="X268" s="150">
-        <v>5.5525978566781182</v>
+        <v>5.5253841009366846</v>
       </c>
       <c r="Y268" s="150"/>
       <c r="Z268" s="150"/>
@@ -16568,13 +16568,13 @@
       <c r="F269" s="150"/>
       <c r="G269" s="150"/>
       <c r="H269" s="150">
-        <v>5.5178616103713276</v>
+        <v>5.5168004897765774</v>
       </c>
       <c r="I269" s="150"/>
       <c r="J269" s="150"/>
       <c r="K269" s="150"/>
       <c r="L269" s="150">
-        <v>5.5178616103713276</v>
+        <v>5.5168004897765774</v>
       </c>
       <c r="M269" s="150"/>
       <c r="N269" s="150"/>
@@ -16584,13 +16584,13 @@
       <c r="R269" s="150"/>
       <c r="S269" s="150"/>
       <c r="T269" s="150">
-        <v>4.7368609187295263</v>
+        <v>4.7335079419236328</v>
       </c>
       <c r="U269" s="150"/>
       <c r="V269" s="150"/>
       <c r="W269" s="150"/>
       <c r="X269" s="150">
-        <v>4.7368609187295263</v>
+        <v>4.7335079419236328</v>
       </c>
       <c r="Y269" s="150"/>
       <c r="Z269" s="150"/>
@@ -16606,13 +16606,13 @@
       <c r="F270" s="150"/>
       <c r="G270" s="150"/>
       <c r="H270" s="150">
-        <v>4.19764127541242</v>
+        <v>3.8153017753899832</v>
       </c>
       <c r="I270" s="150"/>
       <c r="J270" s="150"/>
       <c r="K270" s="150"/>
       <c r="L270" s="150">
-        <v>4.19764127541242</v>
+        <v>3.8153017753899832</v>
       </c>
       <c r="M270" s="150"/>
       <c r="N270" s="150"/>
@@ -16622,13 +16622,13 @@
       <c r="R270" s="150"/>
       <c r="S270" s="150"/>
       <c r="T270" s="150">
-        <v>5.0237516104393336</v>
+        <v>4.6080561299214535</v>
       </c>
       <c r="U270" s="150"/>
       <c r="V270" s="150"/>
       <c r="W270" s="150"/>
       <c r="X270" s="150">
-        <v>5.0237516104393336</v>
+        <v>4.6080561299214535</v>
       </c>
       <c r="Y270" s="150"/>
       <c r="Z270" s="150"/>
@@ -16644,13 +16644,13 @@
       <c r="F271" s="150"/>
       <c r="G271" s="150"/>
       <c r="H271" s="150">
-        <v>4.8984580896562715</v>
+        <v>4.669581096355488</v>
       </c>
       <c r="I271" s="150"/>
       <c r="J271" s="150"/>
       <c r="K271" s="150"/>
       <c r="L271" s="150">
-        <v>4.8984580896562715</v>
+        <v>4.669581096355488</v>
       </c>
       <c r="M271" s="150"/>
       <c r="N271" s="150"/>
@@ -16660,13 +16660,13 @@
       <c r="R271" s="150"/>
       <c r="S271" s="150"/>
       <c r="T271" s="150">
-        <v>5.4128887466562574</v>
+        <v>5.16315839620377</v>
       </c>
       <c r="U271" s="150"/>
       <c r="V271" s="150"/>
       <c r="W271" s="150"/>
       <c r="X271" s="150">
-        <v>5.4128887466562574</v>
+        <v>5.16315839620377</v>
       </c>
       <c r="Y271" s="150"/>
       <c r="Z271" s="150"/>
@@ -16682,13 +16682,13 @@
       <c r="F272" s="150"/>
       <c r="G272" s="150"/>
       <c r="H272" s="150">
-        <v>5.8181694192067859</v>
+        <v>5.1621299545705517</v>
       </c>
       <c r="I272" s="150"/>
       <c r="J272" s="150"/>
       <c r="K272" s="150"/>
       <c r="L272" s="150">
-        <v>5.8181694192067859</v>
+        <v>5.1621299545705517</v>
       </c>
       <c r="M272" s="150"/>
       <c r="N272" s="150"/>
@@ -16698,13 +16698,13 @@
       <c r="R272" s="150"/>
       <c r="S272" s="150"/>
       <c r="T272" s="150">
-        <v>6.0775137672142518</v>
+        <v>5.3620771749070917</v>
       </c>
       <c r="U272" s="150"/>
       <c r="V272" s="150"/>
       <c r="W272" s="150"/>
       <c r="X272" s="150">
-        <v>6.0775137672142518</v>
+        <v>5.3620771749070917</v>
       </c>
       <c r="Y272" s="150"/>
       <c r="Z272" s="150"/>
@@ -16720,13 +16720,13 @@
       <c r="F273" s="150"/>
       <c r="G273" s="150"/>
       <c r="H273" s="150">
-        <v>5.972761428398953</v>
+        <v>5.3165174606077619</v>
       </c>
       <c r="I273" s="150"/>
       <c r="J273" s="150"/>
       <c r="K273" s="150"/>
       <c r="L273" s="150">
-        <v>5.972761428398953</v>
+        <v>5.3165174606077619</v>
       </c>
       <c r="M273" s="150"/>
       <c r="N273" s="150"/>
@@ -16736,13 +16736,13 @@
       <c r="R273" s="150"/>
       <c r="S273" s="150"/>
       <c r="T273" s="150">
-        <v>6.2972534532224413</v>
+        <v>5.5812176314295527</v>
       </c>
       <c r="U273" s="150"/>
       <c r="V273" s="150"/>
       <c r="W273" s="150"/>
       <c r="X273" s="150">
-        <v>6.2972534532224413</v>
+        <v>5.5812176314295527</v>
       </c>
       <c r="Y273" s="150"/>
       <c r="Z273" s="150"/>
@@ -16758,13 +16758,13 @@
       <c r="F274" s="150"/>
       <c r="G274" s="150"/>
       <c r="H274" s="150">
-        <v>2.3891921492000003</v>
+        <v>2.5450254823</v>
       </c>
       <c r="I274" s="150"/>
       <c r="J274" s="150"/>
       <c r="K274" s="150"/>
       <c r="L274" s="150">
-        <v>2.3891921492000003</v>
+        <v>2.5450254823</v>
       </c>
       <c r="M274" s="150"/>
       <c r="N274" s="150"/>
@@ -16774,13 +16774,13 @@
       <c r="R274" s="150"/>
       <c r="S274" s="150"/>
       <c r="T274" s="150">
-        <v>2.953317795</v>
+        <v>3.1233177951000006</v>
       </c>
       <c r="U274" s="150"/>
       <c r="V274" s="150"/>
       <c r="W274" s="150"/>
       <c r="X274" s="150">
-        <v>2.953317795</v>
+        <v>3.1233177951000006</v>
       </c>
       <c r="Y274" s="150"/>
       <c r="Z274" s="150"/>
@@ -16796,13 +16796,13 @@
       <c r="F275" s="150"/>
       <c r="G275" s="150"/>
       <c r="H275" s="157">
-        <v>2.5569661898518459</v>
+        <v>2.7324475444521483</v>
       </c>
       <c r="I275" s="157"/>
       <c r="J275" s="157"/>
       <c r="K275" s="157"/>
       <c r="L275" s="157">
-        <v>2.5569661898518459</v>
+        <v>2.7324475444521483</v>
       </c>
       <c r="M275" s="157"/>
       <c r="N275" s="157"/>
@@ -16812,13 +16812,13 @@
       <c r="R275" s="150"/>
       <c r="S275" s="150"/>
       <c r="T275" s="157">
-        <v>2.9074066039744473</v>
+        <v>3.0820332536977659</v>
       </c>
       <c r="U275" s="157"/>
       <c r="V275" s="157"/>
       <c r="W275" s="157"/>
       <c r="X275" s="157">
-        <v>2.9074066039744473</v>
+        <v>3.0820332536977659</v>
       </c>
       <c r="Y275" s="157"/>
       <c r="Z275" s="157"/>
@@ -16834,13 +16834,13 @@
       <c r="F276" s="150"/>
       <c r="G276" s="150"/>
       <c r="H276" s="150">
-        <v>3.6135629243638405</v>
+        <v>3.5491806760054314</v>
       </c>
       <c r="I276" s="150"/>
       <c r="J276" s="150"/>
       <c r="K276" s="150"/>
       <c r="L276" s="150">
-        <v>3.6135629243638405</v>
+        <v>3.5491806760054314</v>
       </c>
       <c r="M276" s="150"/>
       <c r="N276" s="150"/>
@@ -16850,13 +16850,13 @@
       <c r="R276" s="150"/>
       <c r="S276" s="150"/>
       <c r="T276" s="150">
-        <v>4.3603880878535444</v>
+        <v>4.2882625107066366</v>
       </c>
       <c r="U276" s="150"/>
       <c r="V276" s="150"/>
       <c r="W276" s="150"/>
       <c r="X276" s="150">
-        <v>4.3603880878535444</v>
+        <v>4.2882625107066366</v>
       </c>
       <c r="Y276" s="150"/>
       <c r="Z276" s="150"/>
@@ -16872,13 +16872,13 @@
       <c r="F277" s="150"/>
       <c r="G277" s="150"/>
       <c r="H277" s="150">
-        <v>4.3127532586925028</v>
+        <v>4.1877383127981256</v>
       </c>
       <c r="I277" s="150"/>
       <c r="J277" s="150"/>
       <c r="K277" s="150"/>
       <c r="L277" s="150">
-        <v>4.3127532586925028</v>
+        <v>4.1877383127981256</v>
       </c>
       <c r="M277" s="150"/>
       <c r="N277" s="150"/>
@@ -16888,13 +16888,13 @@
       <c r="R277" s="150"/>
       <c r="S277" s="150"/>
       <c r="T277" s="150">
-        <v>5.2988020292233182</v>
+        <v>5.1625795814870328</v>
       </c>
       <c r="U277" s="150"/>
       <c r="V277" s="150"/>
       <c r="W277" s="150"/>
       <c r="X277" s="150">
-        <v>5.2988020292233182</v>
+        <v>5.1625795814870328</v>
       </c>
       <c r="Y277" s="150"/>
       <c r="Z277" s="150"/>
@@ -16910,13 +16910,13 @@
       <c r="F278" s="150"/>
       <c r="G278" s="150"/>
       <c r="H278" s="150">
-        <v>4.5388513598053679</v>
+        <v>4.3058296684873909</v>
       </c>
       <c r="I278" s="150"/>
       <c r="J278" s="150"/>
       <c r="K278" s="150"/>
       <c r="L278" s="150">
-        <v>4.5388513598053679</v>
+        <v>4.3058296684873909</v>
       </c>
       <c r="M278" s="150"/>
       <c r="N278" s="150"/>
@@ -16926,13 +16926,13 @@
       <c r="R278" s="150"/>
       <c r="S278" s="150"/>
       <c r="T278" s="150">
-        <v>5.2632066153764088</v>
+        <v>5.0096868126281171</v>
       </c>
       <c r="U278" s="150"/>
       <c r="V278" s="150"/>
       <c r="W278" s="150"/>
       <c r="X278" s="150">
-        <v>5.2632066153764088</v>
+        <v>5.0096868126281171</v>
       </c>
       <c r="Y278" s="150"/>
       <c r="Z278" s="150"/>
@@ -16948,13 +16948,13 @@
       <c r="F279" s="150"/>
       <c r="G279" s="150"/>
       <c r="H279" s="157">
-        <v>4.3076741813919845</v>
+        <v>4.1795651112742211</v>
       </c>
       <c r="I279" s="157"/>
       <c r="J279" s="157"/>
       <c r="K279" s="157"/>
       <c r="L279" s="157">
-        <v>4.3076741813919845</v>
+        <v>4.1795651112742211</v>
       </c>
       <c r="M279" s="157"/>
       <c r="N279" s="157"/>
@@ -16964,13 +16964,13 @@
       <c r="R279" s="150"/>
       <c r="S279" s="150"/>
       <c r="T279" s="157">
-        <v>5.2784285643587658</v>
+        <v>5.1388104724506052</v>
       </c>
       <c r="U279" s="157"/>
       <c r="V279" s="157"/>
       <c r="W279" s="157"/>
       <c r="X279" s="157">
-        <v>5.2784285643587658</v>
+        <v>5.1388104724506052</v>
       </c>
       <c r="Y279" s="157"/>
       <c r="Z279" s="157"/>
@@ -16986,13 +16986,13 @@
       <c r="F280" s="150"/>
       <c r="G280" s="150"/>
       <c r="H280" s="150">
-        <v>5.7010692528258451</v>
+        <v>5.487725800441055</v>
       </c>
       <c r="I280" s="150"/>
       <c r="J280" s="150"/>
       <c r="K280" s="150"/>
       <c r="L280" s="150">
-        <v>5.7010692528258451</v>
+        <v>5.487725800441055</v>
       </c>
       <c r="M280" s="150"/>
       <c r="N280" s="150"/>
@@ -17002,13 +17002,13 @@
       <c r="R280" s="150"/>
       <c r="S280" s="150"/>
       <c r="T280" s="150">
-        <v>5.1926688407376487</v>
+        <v>4.54990283360867</v>
       </c>
       <c r="U280" s="150"/>
       <c r="V280" s="150"/>
       <c r="W280" s="150"/>
       <c r="X280" s="150">
-        <v>5.1926688407376487</v>
+        <v>4.54990283360867</v>
       </c>
       <c r="Y280" s="150"/>
       <c r="Z280" s="150"/>
@@ -17024,13 +17024,13 @@
       <c r="F281" s="150"/>
       <c r="G281" s="150"/>
       <c r="H281" s="150">
-        <v>3.6504172485813107</v>
+        <v>3.4273167433925766</v>
       </c>
       <c r="I281" s="150"/>
       <c r="J281" s="150"/>
       <c r="K281" s="150"/>
       <c r="L281" s="150">
-        <v>3.6504172485813107</v>
+        <v>3.4273167433925766</v>
       </c>
       <c r="M281" s="150"/>
       <c r="N281" s="150"/>
@@ -17040,13 +17040,13 @@
       <c r="R281" s="150"/>
       <c r="S281" s="150"/>
       <c r="T281" s="150">
-        <v>3.6051962605316987</v>
+        <v>2.9351069272015331</v>
       </c>
       <c r="U281" s="150"/>
       <c r="V281" s="150"/>
       <c r="W281" s="150"/>
       <c r="X281" s="150">
-        <v>3.6051962605316987</v>
+        <v>2.9351069272015331</v>
       </c>
       <c r="Y281" s="150"/>
       <c r="Z281" s="150"/>
@@ -17100,13 +17100,13 @@
       <c r="F283" s="150"/>
       <c r="G283" s="150"/>
       <c r="H283" s="150">
-        <v>6.99959726624446</v>
+        <v>6.9914736942579188</v>
       </c>
       <c r="I283" s="150"/>
       <c r="J283" s="150"/>
       <c r="K283" s="150"/>
       <c r="L283" s="150">
-        <v>6.99959726624446</v>
+        <v>6.9914736942579188</v>
       </c>
       <c r="M283" s="150"/>
       <c r="N283" s="150"/>
@@ -17116,13 +17116,13 @@
       <c r="R283" s="150"/>
       <c r="S283" s="150"/>
       <c r="T283" s="150">
-        <v>6.0319437876332955</v>
+        <v>6.0068939253068159</v>
       </c>
       <c r="U283" s="150"/>
       <c r="V283" s="150"/>
       <c r="W283" s="150"/>
       <c r="X283" s="150">
-        <v>6.0319437876332955</v>
+        <v>6.0068939253068159</v>
       </c>
       <c r="Y283" s="150"/>
       <c r="Z283" s="150"/>
@@ -17138,13 +17138,13 @@
       <c r="F284" s="150"/>
       <c r="G284" s="150"/>
       <c r="H284" s="157">
-        <v>6.2437127844090616</v>
+        <v>6.2251116797208015</v>
       </c>
       <c r="I284" s="157"/>
       <c r="J284" s="157"/>
       <c r="K284" s="157"/>
       <c r="L284" s="157">
-        <v>6.2437127844090616</v>
+        <v>6.2251116797208015</v>
       </c>
       <c r="M284" s="157"/>
       <c r="N284" s="157"/>
@@ -17154,13 +17154,13 @@
       <c r="R284" s="150"/>
       <c r="S284" s="150"/>
       <c r="T284" s="157">
-        <v>6.0947047991181025</v>
+        <v>6.0387261939507875</v>
       </c>
       <c r="U284" s="157"/>
       <c r="V284" s="157"/>
       <c r="W284" s="157"/>
       <c r="X284" s="157">
-        <v>6.0947047991181025</v>
+        <v>6.0387261939507875</v>
       </c>
       <c r="Y284" s="157"/>
       <c r="Z284" s="157"/>
@@ -17328,13 +17328,13 @@
       <c r="F289" s="150"/>
       <c r="G289" s="150"/>
       <c r="H289" s="157">
-        <v>1.4268157546836253</v>
+        <v>1.6778799469423642</v>
       </c>
       <c r="I289" s="157"/>
       <c r="J289" s="157"/>
       <c r="K289" s="157"/>
       <c r="L289" s="157">
-        <v>1.4268157546836253</v>
+        <v>1.6778799469423642</v>
       </c>
       <c r="M289" s="157"/>
       <c r="N289" s="157"/>
@@ -17344,13 +17344,13 @@
       <c r="R289" s="150"/>
       <c r="S289" s="150"/>
       <c r="T289" s="157">
-        <v>2.8161297113465693</v>
+        <v>2.9991875348780934</v>
       </c>
       <c r="U289" s="157"/>
       <c r="V289" s="157"/>
       <c r="W289" s="157"/>
       <c r="X289" s="157">
-        <v>2.8161297113465693</v>
+        <v>2.9991875348780934</v>
       </c>
       <c r="Y289" s="157"/>
       <c r="Z289" s="157"/>
@@ -18362,13 +18362,13 @@
       <c r="F319" s="154"/>
       <c r="G319" s="154"/>
       <c r="H319" s="154">
-        <v>95.530347352167325</v>
+        <v>95.534919252808379</v>
       </c>
       <c r="I319" s="154"/>
       <c r="J319" s="154"/>
       <c r="K319" s="154"/>
       <c r="L319" s="154">
-        <v>95.530347352167325</v>
+        <v>95.534919252808379</v>
       </c>
       <c r="M319" s="154"/>
       <c r="N319" s="154"/>
@@ -18378,13 +18378,13 @@
       <c r="R319" s="154"/>
       <c r="S319" s="154"/>
       <c r="T319" s="154">
-        <v>112.01318705964879</v>
+        <v>112.09603661978866</v>
       </c>
       <c r="U319" s="154"/>
       <c r="V319" s="154"/>
       <c r="W319" s="154"/>
       <c r="X319" s="154">
-        <v>112.01318705964879</v>
+        <v>112.09603661978866</v>
       </c>
       <c r="Y319" s="154"/>
       <c r="Z319" s="154"/>
@@ -18628,13 +18628,13 @@
       <c r="F326" s="154"/>
       <c r="G326" s="154"/>
       <c r="H326" s="154">
-        <v>0.11856986930266396</v>
+        <v>0.11749638838329624</v>
       </c>
       <c r="I326" s="154"/>
       <c r="J326" s="154"/>
       <c r="K326" s="154"/>
       <c r="L326" s="154">
-        <v>0.11856986930266396</v>
+        <v>0.11749638838329624</v>
       </c>
       <c r="M326" s="154"/>
       <c r="N326" s="154"/>
@@ -18644,13 +18644,13 @@
       <c r="R326" s="154"/>
       <c r="S326" s="154"/>
       <c r="T326" s="154">
-        <v>0.027683203515670073</v>
+        <v>0.02613885227825281</v>
       </c>
       <c r="U326" s="154"/>
       <c r="V326" s="154"/>
       <c r="W326" s="154"/>
       <c r="X326" s="154">
-        <v>0.027683203515670073</v>
+        <v>0.02613885227825281</v>
       </c>
       <c r="Y326" s="154"/>
       <c r="Z326" s="154"/>
@@ -18666,13 +18666,13 @@
       <c r="F327" s="154"/>
       <c r="G327" s="154"/>
       <c r="H327" s="154">
-        <v>21.621539623478512</v>
+        <v>21.638446280545189</v>
       </c>
       <c r="I327" s="154"/>
       <c r="J327" s="154"/>
       <c r="K327" s="154"/>
       <c r="L327" s="154">
-        <v>21.621539623478512</v>
+        <v>21.638446280545189</v>
       </c>
       <c r="M327" s="154"/>
       <c r="N327" s="154"/>
@@ -18682,13 +18682,13 @@
       <c r="R327" s="154"/>
       <c r="S327" s="154"/>
       <c r="T327" s="154">
-        <v>1.6978744691681382</v>
+        <v>1.7159300008925882</v>
       </c>
       <c r="U327" s="154"/>
       <c r="V327" s="154"/>
       <c r="W327" s="154"/>
       <c r="X327" s="154">
-        <v>1.6978744691681382</v>
+        <v>1.7159300008925882</v>
       </c>
       <c r="Y327" s="154"/>
       <c r="Z327" s="154"/>
@@ -18704,13 +18704,13 @@
       <c r="F328" s="154"/>
       <c r="G328" s="154"/>
       <c r="H328" s="154">
-        <v>14.956769885452113</v>
+        <v>14.966783104087609</v>
       </c>
       <c r="I328" s="154"/>
       <c r="J328" s="154"/>
       <c r="K328" s="154"/>
       <c r="L328" s="154">
-        <v>14.956769885452113</v>
+        <v>14.966783104087609</v>
       </c>
       <c r="M328" s="154"/>
       <c r="N328" s="154"/>
@@ -18720,13 +18720,13 @@
       <c r="R328" s="154"/>
       <c r="S328" s="154"/>
       <c r="T328" s="154">
-        <v>5.9518791506834745</v>
+        <v>5.9622083179571534</v>
       </c>
       <c r="U328" s="154"/>
       <c r="V328" s="154"/>
       <c r="W328" s="154"/>
       <c r="X328" s="154">
-        <v>5.9518791506834745</v>
+        <v>5.9622083179571534</v>
       </c>
       <c r="Y328" s="154"/>
       <c r="Z328" s="154"/>
@@ -18742,13 +18742,13 @@
       <c r="F329" s="154"/>
       <c r="G329" s="154"/>
       <c r="H329" s="154">
-        <v>14.950000679004999</v>
+        <v>14.960000517913581</v>
       </c>
       <c r="I329" s="154"/>
       <c r="J329" s="154"/>
       <c r="K329" s="154"/>
       <c r="L329" s="154">
-        <v>14.950000679004999</v>
+        <v>14.960000517913581</v>
       </c>
       <c r="M329" s="154"/>
       <c r="N329" s="154"/>
@@ -18758,13 +18758,13 @@
       <c r="R329" s="154"/>
       <c r="S329" s="154"/>
       <c r="T329" s="154">
-        <v>5.9431114505656915</v>
+        <v>5.9534446038101629</v>
       </c>
       <c r="U329" s="154"/>
       <c r="V329" s="154"/>
       <c r="W329" s="154"/>
       <c r="X329" s="154">
-        <v>5.9431114505656915</v>
+        <v>5.9534446038101629</v>
       </c>
       <c r="Y329" s="154"/>
       <c r="Z329" s="154"/>
@@ -18780,13 +18780,13 @@
       <c r="F330" s="154"/>
       <c r="G330" s="154"/>
       <c r="H330" s="154">
-        <v>-170410.74011140532</v>
+        <v>-170475.26516152121</v>
       </c>
       <c r="I330" s="154"/>
       <c r="J330" s="154"/>
       <c r="K330" s="154"/>
       <c r="L330" s="154">
-        <v>-170410.74011140532</v>
+        <v>-170475.26516152121</v>
       </c>
       <c r="M330" s="154"/>
       <c r="N330" s="154"/>
@@ -18796,13 +18796,13 @@
       <c r="R330" s="154"/>
       <c r="S330" s="154"/>
       <c r="T330" s="154">
-        <v>-478404.93582653924</v>
+        <v>-478846.90633053757</v>
       </c>
       <c r="U330" s="154"/>
       <c r="V330" s="154"/>
       <c r="W330" s="154"/>
       <c r="X330" s="154">
-        <v>-478404.93582653924</v>
+        <v>-478846.90633053757</v>
       </c>
       <c r="Y330" s="154"/>
       <c r="Z330" s="154"/>
@@ -18818,13 +18818,13 @@
       <c r="F331" s="154"/>
       <c r="G331" s="154"/>
       <c r="H331" s="156">
-        <v>-170110.3135807467</v>
+        <v>-170174.79821272849</v>
       </c>
       <c r="I331" s="156"/>
       <c r="J331" s="156"/>
       <c r="K331" s="156"/>
       <c r="L331" s="156">
-        <v>-170110.3135807467</v>
+        <v>-170174.79821272849</v>
       </c>
       <c r="M331" s="156"/>
       <c r="N331" s="156"/>
@@ -18834,13 +18834,13 @@
       <c r="R331" s="154"/>
       <c r="S331" s="154"/>
       <c r="T331" s="156">
-        <v>-478088.78191495046</v>
+        <v>-478530.63239588786</v>
       </c>
       <c r="U331" s="156"/>
       <c r="V331" s="156"/>
       <c r="W331" s="156"/>
       <c r="X331" s="156">
-        <v>-478088.78191495046</v>
+        <v>-478530.63239588786</v>
       </c>
       <c r="Y331" s="156"/>
       <c r="Z331" s="156"/>
@@ -18856,13 +18856,13 @@
       <c r="F332" s="154"/>
       <c r="G332" s="154"/>
       <c r="H332" s="154">
-        <v>13.071691234883344</v>
+        <v>13.231980465070762</v>
       </c>
       <c r="I332" s="154"/>
       <c r="J332" s="154"/>
       <c r="K332" s="154"/>
       <c r="L332" s="154">
-        <v>13.071691234883344</v>
+        <v>13.231980465070762</v>
       </c>
       <c r="M332" s="154"/>
       <c r="N332" s="154"/>
@@ -18872,13 +18872,13 @@
       <c r="R332" s="154"/>
       <c r="S332" s="154"/>
       <c r="T332" s="154">
-        <v>7.0808745100206218</v>
+        <v>7.2505576998979189</v>
       </c>
       <c r="U332" s="154"/>
       <c r="V332" s="154"/>
       <c r="W332" s="154"/>
       <c r="X332" s="154">
-        <v>7.0808745100206218</v>
+        <v>7.2505576998979189</v>
       </c>
       <c r="Y332" s="154"/>
       <c r="Z332" s="154"/>
@@ -18894,13 +18894,13 @@
       <c r="F333" s="154"/>
       <c r="G333" s="154"/>
       <c r="H333" s="154">
-        <v>663.24722744339283</v>
+        <v>662.53930261910409</v>
       </c>
       <c r="I333" s="154"/>
       <c r="J333" s="154"/>
       <c r="K333" s="154"/>
       <c r="L333" s="154">
-        <v>663.24722744339283</v>
+        <v>662.53930261910409</v>
       </c>
       <c r="M333" s="154"/>
       <c r="N333" s="154"/>
@@ -18910,13 +18910,13 @@
       <c r="R333" s="154"/>
       <c r="S333" s="154"/>
       <c r="T333" s="154">
-        <v>308.99634116347971</v>
+        <v>307.99866365024531</v>
       </c>
       <c r="U333" s="154"/>
       <c r="V333" s="154"/>
       <c r="W333" s="154"/>
       <c r="X333" s="154">
-        <v>308.99634116347971</v>
+        <v>307.99866365024531</v>
       </c>
       <c r="Y333" s="154"/>
       <c r="Z333" s="154"/>
@@ -18932,13 +18932,13 @@
       <c r="F334" s="154"/>
       <c r="G334" s="154"/>
       <c r="H334" s="154">
-        <v>27.164850486186491</v>
+        <v>27.057502394249724</v>
       </c>
       <c r="I334" s="154"/>
       <c r="J334" s="154"/>
       <c r="K334" s="154"/>
       <c r="L334" s="154">
-        <v>27.164850486186491</v>
+        <v>27.057502394249724</v>
       </c>
       <c r="M334" s="154"/>
       <c r="N334" s="154"/>
@@ -18948,13 +18948,13 @@
       <c r="R334" s="154"/>
       <c r="S334" s="154"/>
       <c r="T334" s="154">
-        <v>11.038479340237421</v>
+        <v>10.8840442164957</v>
       </c>
       <c r="U334" s="154"/>
       <c r="V334" s="154"/>
       <c r="W334" s="154"/>
       <c r="X334" s="154">
-        <v>11.038479340237421</v>
+        <v>10.8840442164957</v>
       </c>
       <c r="Y334" s="154"/>
       <c r="Z334" s="154"/>
@@ -18970,13 +18970,13 @@
       <c r="F335" s="154"/>
       <c r="G335" s="154"/>
       <c r="H335" s="156">
-        <v>703.48376916446273</v>
+        <v>702.82878547842438</v>
       </c>
       <c r="I335" s="156"/>
       <c r="J335" s="156"/>
       <c r="K335" s="156"/>
       <c r="L335" s="156">
-        <v>703.48376916446273</v>
+        <v>702.82878547842438</v>
       </c>
       <c r="M335" s="156"/>
       <c r="N335" s="156"/>
@@ -18986,13 +18986,13 @@
       <c r="R335" s="154"/>
       <c r="S335" s="154"/>
       <c r="T335" s="156">
-        <v>327.11569501373793</v>
+        <v>326.13326556663884</v>
       </c>
       <c r="U335" s="156"/>
       <c r="V335" s="156"/>
       <c r="W335" s="156"/>
       <c r="X335" s="156">
-        <v>327.11569501373793</v>
+        <v>326.13326556663884</v>
       </c>
       <c r="Y335" s="156"/>
       <c r="Z335" s="156"/>
@@ -19350,13 +19350,13 @@
       <c r="F345" s="154"/>
       <c r="G345" s="154"/>
       <c r="H345" s="156">
-        <v>-169389.95229032714</v>
+        <v>-169455.09190599469</v>
       </c>
       <c r="I345" s="156"/>
       <c r="J345" s="156"/>
       <c r="K345" s="156"/>
       <c r="L345" s="156">
-        <v>-169389.95229032714</v>
+        <v>-169455.09190599469</v>
       </c>
       <c r="M345" s="156"/>
       <c r="N345" s="156"/>
@@ -19366,13 +19366,13 @@
       <c r="R345" s="154"/>
       <c r="S345" s="154"/>
       <c r="T345" s="156">
-        <v>-477739.58835035679</v>
+        <v>-478182.42126074142</v>
       </c>
       <c r="U345" s="156"/>
       <c r="V345" s="156"/>
       <c r="W345" s="156"/>
       <c r="X345" s="156">
-        <v>-477739.58835035679</v>
+        <v>-478182.42126074142</v>
       </c>
       <c r="Y345" s="156"/>
       <c r="Z345" s="156"/>
@@ -20350,13 +20350,13 @@
       <c r="F374" s="150"/>
       <c r="G374" s="150"/>
       <c r="H374" s="150">
-        <v>5.2941854316000008</v>
+        <v>5.2937840266</v>
       </c>
       <c r="I374" s="150"/>
       <c r="J374" s="150"/>
       <c r="K374" s="150"/>
       <c r="L374" s="150">
-        <v>5.2941854316000008</v>
+        <v>5.2937840266</v>
       </c>
       <c r="M374" s="150"/>
       <c r="N374" s="150"/>
@@ -20366,13 +20366,13 @@
       <c r="R374" s="150"/>
       <c r="S374" s="150"/>
       <c r="T374" s="150">
-        <v>5.4823057734999994</v>
+        <v>5.4818901052000006</v>
       </c>
       <c r="U374" s="150"/>
       <c r="V374" s="150"/>
       <c r="W374" s="150"/>
       <c r="X374" s="150">
-        <v>5.4823057734999994</v>
+        <v>5.4818901052000006</v>
       </c>
       <c r="Y374" s="150"/>
       <c r="Z374" s="150"/>
@@ -20388,13 +20388,13 @@
       <c r="F375" s="150"/>
       <c r="G375" s="150"/>
       <c r="H375" s="150">
-        <v>3.5481178823746955</v>
+        <v>3.5491897370937249</v>
       </c>
       <c r="I375" s="150"/>
       <c r="J375" s="150"/>
       <c r="K375" s="150"/>
       <c r="L375" s="150">
-        <v>3.5481178823746955</v>
+        <v>3.5491897370937249</v>
       </c>
       <c r="M375" s="150"/>
       <c r="N375" s="150"/>
@@ -20404,13 +20404,13 @@
       <c r="R375" s="150"/>
       <c r="S375" s="150"/>
       <c r="T375" s="150">
-        <v>4.02023236691701</v>
+        <v>4.0231181461064205</v>
       </c>
       <c r="U375" s="150"/>
       <c r="V375" s="150"/>
       <c r="W375" s="150"/>
       <c r="X375" s="150">
-        <v>4.02023236691701</v>
+        <v>4.0231181461064205</v>
       </c>
       <c r="Y375" s="150"/>
       <c r="Z375" s="150"/>
@@ -20464,13 +20464,13 @@
       <c r="F377" s="150"/>
       <c r="G377" s="150"/>
       <c r="H377" s="150">
-        <v>4.5443139732</v>
+        <v>4.5439694232</v>
       </c>
       <c r="I377" s="150"/>
       <c r="J377" s="150"/>
       <c r="K377" s="150"/>
       <c r="L377" s="150">
-        <v>4.5443139732</v>
+        <v>4.5439694232</v>
       </c>
       <c r="M377" s="150"/>
       <c r="N377" s="150"/>
@@ -20480,13 +20480,13 @@
       <c r="R377" s="150"/>
       <c r="S377" s="150"/>
       <c r="T377" s="150">
-        <v>4.7324343151</v>
+        <v>4.732075502</v>
       </c>
       <c r="U377" s="150"/>
       <c r="V377" s="150"/>
       <c r="W377" s="150"/>
       <c r="X377" s="150">
-        <v>4.7324343151</v>
+        <v>4.732075502</v>
       </c>
       <c r="Y377" s="150"/>
       <c r="Z377" s="150"/>
@@ -20502,13 +20502,13 @@
       <c r="F378" s="150"/>
       <c r="G378" s="150"/>
       <c r="H378" s="150">
-        <v>4.7555554448000006</v>
+        <v>4.7551948787</v>
       </c>
       <c r="I378" s="150"/>
       <c r="J378" s="150"/>
       <c r="K378" s="150"/>
       <c r="L378" s="150">
-        <v>4.7555554448000006</v>
+        <v>4.7551948787</v>
       </c>
       <c r="M378" s="150"/>
       <c r="N378" s="150"/>
@@ -20518,13 +20518,13 @@
       <c r="R378" s="150"/>
       <c r="S378" s="150"/>
       <c r="T378" s="150">
-        <v>4.9927766226</v>
+        <v>4.9923980701999993</v>
       </c>
       <c r="U378" s="150"/>
       <c r="V378" s="150"/>
       <c r="W378" s="150"/>
       <c r="X378" s="150">
-        <v>4.9927766226</v>
+        <v>4.9923980701999993</v>
       </c>
       <c r="Y378" s="150"/>
       <c r="Z378" s="150"/>
@@ -20578,13 +20578,13 @@
       <c r="F380" s="150"/>
       <c r="G380" s="150"/>
       <c r="H380" s="150">
-        <v>7.5374369718000018</v>
+        <v>6.5368228851000012</v>
       </c>
       <c r="I380" s="150"/>
       <c r="J380" s="150"/>
       <c r="K380" s="150"/>
       <c r="L380" s="150">
-        <v>7.5374369718000018</v>
+        <v>6.5368228851000012</v>
       </c>
       <c r="M380" s="150"/>
       <c r="N380" s="150"/>
@@ -20594,13 +20594,13 @@
       <c r="R380" s="150"/>
       <c r="S380" s="150"/>
       <c r="T380" s="150">
-        <v>7.8762292133</v>
+        <v>6.8755692834</v>
       </c>
       <c r="U380" s="150"/>
       <c r="V380" s="150"/>
       <c r="W380" s="150"/>
       <c r="X380" s="150">
-        <v>7.8762292133</v>
+        <v>6.8755692834</v>
       </c>
       <c r="Y380" s="150"/>
       <c r="Z380" s="150"/>
@@ -20616,13 +20616,13 @@
       <c r="F381" s="150"/>
       <c r="G381" s="150"/>
       <c r="H381" s="150">
-        <v>6.8853468952000005</v>
+        <v>6.9044070978000009</v>
       </c>
       <c r="I381" s="150"/>
       <c r="J381" s="150"/>
       <c r="K381" s="150"/>
       <c r="L381" s="150">
-        <v>6.8853468952000005</v>
+        <v>6.9044070978000009</v>
       </c>
       <c r="M381" s="150"/>
       <c r="N381" s="150"/>
@@ -20632,13 +20632,13 @@
       <c r="R381" s="150"/>
       <c r="S381" s="150"/>
       <c r="T381" s="150">
-        <v>7.019968540699999</v>
+        <v>7.0390105269999994</v>
       </c>
       <c r="U381" s="150"/>
       <c r="V381" s="150"/>
       <c r="W381" s="150"/>
       <c r="X381" s="150">
-        <v>7.019968540699999</v>
+        <v>7.0390105269999994</v>
       </c>
       <c r="Y381" s="150"/>
       <c r="Z381" s="150"/>
@@ -20654,13 +20654,13 @@
       <c r="F382" s="150"/>
       <c r="G382" s="150"/>
       <c r="H382" s="150">
-        <v>5.1150603518</v>
+        <v>4.8345842245999995</v>
       </c>
       <c r="I382" s="150"/>
       <c r="J382" s="150"/>
       <c r="K382" s="150"/>
       <c r="L382" s="150">
-        <v>5.1150603518</v>
+        <v>4.8345842245999995</v>
       </c>
       <c r="M382" s="150"/>
       <c r="N382" s="150"/>
@@ -20670,13 +20670,13 @@
       <c r="R382" s="150"/>
       <c r="S382" s="150"/>
       <c r="T382" s="150">
-        <v>5.352261432</v>
+        <v>5.0717584291</v>
       </c>
       <c r="U382" s="150"/>
       <c r="V382" s="150"/>
       <c r="W382" s="150"/>
       <c r="X382" s="150">
-        <v>5.352261432</v>
+        <v>5.0717584291</v>
       </c>
       <c r="Y382" s="150"/>
       <c r="Z382" s="150"/>
@@ -20692,13 +20692,13 @@
       <c r="F383" s="150"/>
       <c r="G383" s="150"/>
       <c r="H383" s="150">
-        <v>6.0356499396</v>
+        <v>5.7858083501000008</v>
       </c>
       <c r="I383" s="150"/>
       <c r="J383" s="150"/>
       <c r="K383" s="150"/>
       <c r="L383" s="150">
-        <v>6.0356499396</v>
+        <v>5.7858083501000008</v>
       </c>
       <c r="M383" s="150"/>
       <c r="N383" s="150"/>
@@ -20708,13 +20708,13 @@
       <c r="R383" s="150"/>
       <c r="S383" s="150"/>
       <c r="T383" s="150">
-        <v>6.3743191361</v>
+        <v>6.1244775467000006</v>
       </c>
       <c r="U383" s="150"/>
       <c r="V383" s="150"/>
       <c r="W383" s="150"/>
       <c r="X383" s="150">
-        <v>6.3743191361</v>
+        <v>6.1244775467000006</v>
       </c>
       <c r="Y383" s="150"/>
       <c r="Z383" s="150"/>
@@ -20730,13 +20730,13 @@
       <c r="F384" s="150"/>
       <c r="G384" s="150"/>
       <c r="H384" s="150">
-        <v>6.5377250033999994</v>
+        <v>6.285361922</v>
       </c>
       <c r="I384" s="150"/>
       <c r="J384" s="150"/>
       <c r="K384" s="150"/>
       <c r="L384" s="150">
-        <v>6.5377250033999994</v>
+        <v>6.285361922</v>
       </c>
       <c r="M384" s="150"/>
       <c r="N384" s="150"/>
@@ -20746,13 +20746,13 @@
       <c r="R384" s="150"/>
       <c r="S384" s="150"/>
       <c r="T384" s="150">
-        <v>6.876518150599999</v>
+        <v>6.6240241353</v>
       </c>
       <c r="U384" s="150"/>
       <c r="V384" s="150"/>
       <c r="W384" s="150"/>
       <c r="X384" s="150">
-        <v>6.876518150599999</v>
+        <v>6.6240241353</v>
       </c>
       <c r="Y384" s="150"/>
       <c r="Z384" s="150"/>
@@ -20768,13 +20768,13 @@
       <c r="F385" s="150"/>
       <c r="G385" s="150"/>
       <c r="H385" s="150">
-        <v>6.2877919738</v>
+        <v>6.0355254843</v>
       </c>
       <c r="I385" s="150"/>
       <c r="J385" s="150"/>
       <c r="K385" s="150"/>
       <c r="L385" s="150">
-        <v>6.2877919738</v>
+        <v>6.0355254843</v>
       </c>
       <c r="M385" s="150"/>
       <c r="N385" s="150"/>
@@ -20784,13 +20784,13 @@
       <c r="R385" s="150"/>
       <c r="S385" s="150"/>
       <c r="T385" s="150">
-        <v>6.6265851209000006</v>
+        <v>6.3741876976999992</v>
       </c>
       <c r="U385" s="150"/>
       <c r="V385" s="150"/>
       <c r="W385" s="150"/>
       <c r="X385" s="150">
-        <v>6.6265851209000006</v>
+        <v>6.3741876976999992</v>
       </c>
       <c r="Y385" s="150"/>
       <c r="Z385" s="150"/>
@@ -20806,13 +20806,13 @@
       <c r="F386" s="150"/>
       <c r="G386" s="150"/>
       <c r="H386" s="150">
-        <v>2.6205503873000002</v>
+        <v>2.7905503870999997</v>
       </c>
       <c r="I386" s="150"/>
       <c r="J386" s="150"/>
       <c r="K386" s="150"/>
       <c r="L386" s="150">
-        <v>2.6205503873000002</v>
+        <v>2.7905503870999997</v>
       </c>
       <c r="M386" s="150"/>
       <c r="N386" s="150"/>
@@ -20822,13 +20822,13 @@
       <c r="R386" s="150"/>
       <c r="S386" s="150"/>
       <c r="T386" s="150">
-        <v>2.9610669149</v>
+        <v>3.1310669150000003</v>
       </c>
       <c r="U386" s="150"/>
       <c r="V386" s="150"/>
       <c r="W386" s="150"/>
       <c r="X386" s="150">
-        <v>2.9610669149</v>
+        <v>3.1310669150000003</v>
       </c>
       <c r="Y386" s="150"/>
       <c r="Z386" s="150"/>
@@ -20844,13 +20844,13 @@
       <c r="F387" s="150"/>
       <c r="G387" s="150"/>
       <c r="H387" s="157">
-        <v>2.6303605244691752</v>
+        <v>2.7994215755940197</v>
       </c>
       <c r="I387" s="157"/>
       <c r="J387" s="157"/>
       <c r="K387" s="157"/>
       <c r="L387" s="157">
-        <v>2.6303605244691752</v>
+        <v>2.7994215755940197</v>
       </c>
       <c r="M387" s="157"/>
       <c r="N387" s="157"/>
@@ -20860,13 +20860,13 @@
       <c r="R387" s="150"/>
       <c r="S387" s="150"/>
       <c r="T387" s="157">
-        <v>2.9622796273461725</v>
+        <v>3.13215588785312</v>
       </c>
       <c r="U387" s="157"/>
       <c r="V387" s="157"/>
       <c r="W387" s="157"/>
       <c r="X387" s="157">
-        <v>2.9622796273461725</v>
+        <v>3.13215588785312</v>
       </c>
       <c r="Y387" s="157"/>
       <c r="Z387" s="157"/>
@@ -20882,13 +20882,13 @@
       <c r="F388" s="150"/>
       <c r="G388" s="150"/>
       <c r="H388" s="150">
-        <v>4.3748746194</v>
+        <v>4.3945379726</v>
       </c>
       <c r="I388" s="150"/>
       <c r="J388" s="150"/>
       <c r="K388" s="150"/>
       <c r="L388" s="150">
-        <v>4.3748746194</v>
+        <v>4.3945379726</v>
       </c>
       <c r="M388" s="150"/>
       <c r="N388" s="150"/>
@@ -20898,13 +20898,13 @@
       <c r="R388" s="150"/>
       <c r="S388" s="150"/>
       <c r="T388" s="150">
-        <v>4.582870358</v>
+        <v>4.6025179407999994</v>
       </c>
       <c r="U388" s="150"/>
       <c r="V388" s="150"/>
       <c r="W388" s="150"/>
       <c r="X388" s="150">
-        <v>4.582870358</v>
+        <v>4.6025179407999994</v>
       </c>
       <c r="Y388" s="150"/>
       <c r="Z388" s="150"/>
@@ -20920,13 +20920,13 @@
       <c r="F389" s="150"/>
       <c r="G389" s="150"/>
       <c r="H389" s="150">
-        <v>5.02808323001807</v>
+        <v>5.0076283949985534</v>
       </c>
       <c r="I389" s="150"/>
       <c r="J389" s="150"/>
       <c r="K389" s="150"/>
       <c r="L389" s="150">
-        <v>5.02808323001807</v>
+        <v>5.0076283949985534</v>
       </c>
       <c r="M389" s="150"/>
       <c r="N389" s="150"/>
@@ -20936,13 +20936,13 @@
       <c r="R389" s="150"/>
       <c r="S389" s="150"/>
       <c r="T389" s="150">
-        <v>5.412079045583611</v>
+        <v>5.3889794013544785</v>
       </c>
       <c r="U389" s="150"/>
       <c r="V389" s="150"/>
       <c r="W389" s="150"/>
       <c r="X389" s="150">
-        <v>5.412079045583611</v>
+        <v>5.3889794013544785</v>
       </c>
       <c r="Y389" s="150"/>
       <c r="Z389" s="150"/>
@@ -20958,13 +20958,13 @@
       <c r="F390" s="150"/>
       <c r="G390" s="150"/>
       <c r="H390" s="150">
-        <v>4.8593492846760471</v>
+        <v>4.7773581267749075</v>
       </c>
       <c r="I390" s="150"/>
       <c r="J390" s="150"/>
       <c r="K390" s="150"/>
       <c r="L390" s="150">
-        <v>4.8593492846760471</v>
+        <v>4.7773581267749075</v>
       </c>
       <c r="M390" s="150"/>
       <c r="N390" s="150"/>
@@ -20974,13 +20974,13 @@
       <c r="R390" s="150"/>
       <c r="S390" s="150"/>
       <c r="T390" s="150">
-        <v>5.0828291881544372</v>
+        <v>5.0114408865876259</v>
       </c>
       <c r="U390" s="150"/>
       <c r="V390" s="150"/>
       <c r="W390" s="150"/>
       <c r="X390" s="150">
-        <v>5.0828291881544372</v>
+        <v>5.0114408865876259</v>
       </c>
       <c r="Y390" s="150"/>
       <c r="Z390" s="150"/>
@@ -20996,13 +20996,13 @@
       <c r="F391" s="150"/>
       <c r="G391" s="150"/>
       <c r="H391" s="157">
-        <v>5.0121244400969864</v>
+        <v>4.9897028945719972</v>
       </c>
       <c r="I391" s="157"/>
       <c r="J391" s="157"/>
       <c r="K391" s="157"/>
       <c r="L391" s="157">
-        <v>5.0121244400969864</v>
+        <v>4.9897028945719972</v>
       </c>
       <c r="M391" s="157"/>
       <c r="N391" s="157"/>
@@ -21012,13 +21012,13 @@
       <c r="R391" s="150"/>
       <c r="S391" s="150"/>
       <c r="T391" s="157">
-        <v>5.3829150317562631</v>
+        <v>5.3588012115881645</v>
       </c>
       <c r="U391" s="157"/>
       <c r="V391" s="157"/>
       <c r="W391" s="157"/>
       <c r="X391" s="157">
-        <v>5.3829150317562631</v>
+        <v>5.3588012115881645</v>
       </c>
       <c r="Y391" s="157"/>
       <c r="Z391" s="157"/>
@@ -21034,13 +21034,13 @@
       <c r="F392" s="150"/>
       <c r="G392" s="150"/>
       <c r="H392" s="150">
-        <v>3.6882338587000008</v>
+        <v>3.6799980098</v>
       </c>
       <c r="I392" s="150"/>
       <c r="J392" s="150"/>
       <c r="K392" s="150"/>
       <c r="L392" s="150">
-        <v>3.6882338587000008</v>
+        <v>3.6799980098</v>
       </c>
       <c r="M392" s="150"/>
       <c r="N392" s="150"/>
@@ -21050,13 +21050,13 @@
       <c r="R392" s="150"/>
       <c r="S392" s="150"/>
       <c r="T392" s="150">
-        <v>3.7428572492</v>
+        <v>3.7344994260999993</v>
       </c>
       <c r="U392" s="150"/>
       <c r="V392" s="150"/>
       <c r="W392" s="150"/>
       <c r="X392" s="150">
-        <v>3.7428572492</v>
+        <v>3.7344994260999993</v>
       </c>
       <c r="Y392" s="150"/>
       <c r="Z392" s="150"/>
@@ -21072,13 +21072,13 @@
       <c r="F393" s="150"/>
       <c r="G393" s="150"/>
       <c r="H393" s="150">
-        <v>3.6882338587000008</v>
+        <v>3.6799980098</v>
       </c>
       <c r="I393" s="150"/>
       <c r="J393" s="150"/>
       <c r="K393" s="150"/>
       <c r="L393" s="150">
-        <v>3.6882338587000008</v>
+        <v>3.6799980098</v>
       </c>
       <c r="M393" s="150"/>
       <c r="N393" s="150"/>
@@ -21088,13 +21088,13 @@
       <c r="R393" s="150"/>
       <c r="S393" s="150"/>
       <c r="T393" s="150">
-        <v>3.7428572492</v>
+        <v>3.7344994260999993</v>
       </c>
       <c r="U393" s="150"/>
       <c r="V393" s="150"/>
       <c r="W393" s="150"/>
       <c r="X393" s="150">
-        <v>3.7428572492</v>
+        <v>3.7344994260999993</v>
       </c>
       <c r="Y393" s="150"/>
       <c r="Z393" s="150"/>
@@ -21148,13 +21148,13 @@
       <c r="F395" s="150"/>
       <c r="G395" s="150"/>
       <c r="H395" s="150">
-        <v>5.5378752276000007</v>
+        <v>5.2879475077999993</v>
       </c>
       <c r="I395" s="150"/>
       <c r="J395" s="150"/>
       <c r="K395" s="150"/>
       <c r="L395" s="150">
-        <v>5.5378752276000007</v>
+        <v>5.2879475077999993</v>
       </c>
       <c r="M395" s="150"/>
       <c r="N395" s="150"/>
@@ -21164,13 +21164,13 @@
       <c r="R395" s="150"/>
       <c r="S395" s="150"/>
       <c r="T395" s="150">
-        <v>5.876661177</v>
+        <v>5.6267334572</v>
       </c>
       <c r="U395" s="150"/>
       <c r="V395" s="150"/>
       <c r="W395" s="150"/>
       <c r="X395" s="150">
-        <v>5.876661177</v>
+        <v>5.6267334572</v>
       </c>
       <c r="Y395" s="150"/>
       <c r="Z395" s="150"/>
@@ -21186,13 +21186,13 @@
       <c r="F396" s="150"/>
       <c r="G396" s="150"/>
       <c r="H396" s="157">
-        <v>4.5124590883314655</v>
+        <v>4.5007623220579793</v>
       </c>
       <c r="I396" s="157"/>
       <c r="J396" s="157"/>
       <c r="K396" s="157"/>
       <c r="L396" s="157">
-        <v>4.5124590883314655</v>
+        <v>4.5007623220579793</v>
       </c>
       <c r="M396" s="157"/>
       <c r="N396" s="157"/>
@@ -21202,13 +21202,13 @@
       <c r="R396" s="150"/>
       <c r="S396" s="150"/>
       <c r="T396" s="157">
-        <v>4.4304186202696165</v>
+        <v>4.4193784817750315</v>
       </c>
       <c r="U396" s="157"/>
       <c r="V396" s="157"/>
       <c r="W396" s="157"/>
       <c r="X396" s="157">
-        <v>4.4304186202696165</v>
+        <v>4.4193784817750315</v>
       </c>
       <c r="Y396" s="157"/>
       <c r="Z396" s="157"/>
@@ -21376,13 +21376,13 @@
       <c r="F401" s="150"/>
       <c r="G401" s="150"/>
       <c r="H401" s="157">
-        <v>2.6652559711022783</v>
+        <v>2.8311805428705408</v>
       </c>
       <c r="I401" s="157"/>
       <c r="J401" s="157"/>
       <c r="K401" s="157"/>
       <c r="L401" s="157">
-        <v>2.6652559711022783</v>
+        <v>2.8311805428705408</v>
       </c>
       <c r="M401" s="157"/>
       <c r="N401" s="157"/>
@@ -21392,13 +21392,13 @@
       <c r="R401" s="150"/>
       <c r="S401" s="150"/>
       <c r="T401" s="157">
-        <v>2.9640556246665182</v>
+        <v>3.1337811203179409</v>
       </c>
       <c r="U401" s="157"/>
       <c r="V401" s="157"/>
       <c r="W401" s="157"/>
       <c r="X401" s="157">
-        <v>2.9640556246665182</v>
+        <v>3.1337811203179409</v>
       </c>
       <c r="Y401" s="157"/>
       <c r="Z401" s="157"/>
@@ -21680,13 +21680,13 @@
       <c r="F410" s="150"/>
       <c r="G410" s="150"/>
       <c r="H410" s="150">
-        <v>3.5582317535</v>
+        <v>3.4682317535</v>
       </c>
       <c r="I410" s="150"/>
       <c r="J410" s="150"/>
       <c r="K410" s="150"/>
       <c r="L410" s="150">
-        <v>3.5582317535</v>
+        <v>3.4682317535</v>
       </c>
       <c r="M410" s="150"/>
       <c r="N410" s="150"/>
@@ -21696,13 +21696,13 @@
       <c r="R410" s="150"/>
       <c r="S410" s="150"/>
       <c r="T410" s="150">
-        <v>3.7561515267</v>
+        <v>3.6661515267</v>
       </c>
       <c r="U410" s="150"/>
       <c r="V410" s="150"/>
       <c r="W410" s="150"/>
       <c r="X410" s="150">
-        <v>3.7561515267</v>
+        <v>3.6661515267</v>
       </c>
       <c r="Y410" s="150"/>
       <c r="Z410" s="150"/>
@@ -21718,13 +21718,13 @@
       <c r="F411" s="150"/>
       <c r="G411" s="150"/>
       <c r="H411" s="157">
-        <v>3.5582317535</v>
+        <v>3.4682317535</v>
       </c>
       <c r="I411" s="157"/>
       <c r="J411" s="157"/>
       <c r="K411" s="157"/>
       <c r="L411" s="157">
-        <v>3.5582317535</v>
+        <v>3.4682317535</v>
       </c>
       <c r="M411" s="157"/>
       <c r="N411" s="157"/>
@@ -21734,13 +21734,13 @@
       <c r="R411" s="150"/>
       <c r="S411" s="150"/>
       <c r="T411" s="157">
-        <v>3.7561515267</v>
+        <v>3.6661515267</v>
       </c>
       <c r="U411" s="157"/>
       <c r="V411" s="157"/>
       <c r="W411" s="157"/>
       <c r="X411" s="157">
-        <v>3.7561515267</v>
+        <v>3.6661515267</v>
       </c>
       <c r="Y411" s="157"/>
       <c r="Z411" s="157"/>
@@ -22641,13 +22641,13 @@
         <v>1040.497740402599</v>
       </c>
       <c r="E444" s="2">
-        <v>3.2220663299859797</v>
+        <v>2.1322638856197798</v>
       </c>
       <c r="F444" s="2">
-        <v>-82.2268426327254</v>
+        <v>-88.8234131551996</v>
       </c>
       <c r="G444" s="2">
-        <v>-135.1249491903028</v>
+        <v>-144.47176582677091</v>
       </c>
     </row>
     <row r="459" ht="14.25" customHeight="1">
@@ -22723,7 +22723,7 @@
       <c r="K461" s="128"/>
       <c r="L461" s="128"/>
       <c r="M461" s="128">
-        <v>10.771213417086065</v>
+        <v>9.68141097271987</v>
       </c>
       <c r="N461" s="128"/>
       <c r="O461" s="128"/>
@@ -22752,7 +22752,7 @@
       <c r="K462" s="128"/>
       <c r="L462" s="128"/>
       <c r="M462" s="128">
-        <v>14.68747645641171</v>
+        <v>14.63096488816355</v>
       </c>
       <c r="N462" s="128"/>
       <c r="O462" s="128"/>
@@ -22810,7 +22810,7 @@
       <c r="K464" s="128"/>
       <c r="L464" s="128"/>
       <c r="M464" s="128">
-        <v>-13.882999439569195</v>
+        <v>-14.916290315687229</v>
       </c>
       <c r="N464" s="128"/>
       <c r="O464" s="128"/>
@@ -22868,7 +22868,7 @@
       <c r="K466" s="128"/>
       <c r="L466" s="128"/>
       <c r="M466" s="128">
-        <v>3.3995240728756642</v>
+        <v>2.30972162850947</v>
       </c>
       <c r="N466" s="128"/>
       <c r="O466" s="128"/>
@@ -23040,7 +23040,7 @@
       <c r="K472" s="128"/>
       <c r="L472" s="128"/>
       <c r="M472" s="128">
-        <v>-2699.0333801010038</v>
+        <v>-2699.3603208343138</v>
       </c>
       <c r="N472" s="128"/>
       <c r="O472" s="128"/>
@@ -23069,7 +23069,7 @@
       <c r="K473" s="128"/>
       <c r="L473" s="128"/>
       <c r="M473" s="128">
-        <v>-6297.74455356901</v>
+        <v>-6298.5074152800689</v>
       </c>
       <c r="N473" s="128"/>
       <c r="O473" s="128"/>
@@ -23181,7 +23181,7 @@
       <c r="K477" s="128"/>
       <c r="L477" s="128"/>
       <c r="M477" s="128">
-        <v>-222.48046855892659</v>
+        <v>-243.39257631411772</v>
       </c>
       <c r="N477" s="128"/>
       <c r="O477" s="128"/>
@@ -23210,7 +23210,7 @@
       <c r="K478" s="128"/>
       <c r="L478" s="128"/>
       <c r="M478" s="128">
-        <v>64.015463830331029</v>
+        <v>63.701884169534345</v>
       </c>
       <c r="N478" s="128"/>
       <c r="O478" s="128"/>
@@ -23268,7 +23268,7 @@
       <c r="K480" s="128"/>
       <c r="L480" s="128"/>
       <c r="M480" s="128">
-        <v>-326.58931273080339</v>
+        <v>-347.18784082519784</v>
       </c>
       <c r="N480" s="128"/>
       <c r="O480" s="128"/>
@@ -23326,7 +23326,7 @@
       <c r="K482" s="128"/>
       <c r="L482" s="128"/>
       <c r="M482" s="128">
-        <v>-251.2661785077685</v>
+        <v>-272.17828626295966</v>
       </c>
       <c r="N482" s="128"/>
       <c r="O482" s="128"/>
@@ -23498,7 +23498,7 @@
       <c r="K488" s="128"/>
       <c r="L488" s="128"/>
       <c r="M488" s="128">
-        <v>-10875.350562863458</v>
+        <v>-10881.624195190016</v>
       </c>
       <c r="N488" s="128"/>
       <c r="O488" s="128"/>
@@ -23527,7 +23527,7 @@
       <c r="K489" s="128"/>
       <c r="L489" s="128"/>
       <c r="M489" s="128">
-        <v>-25375.817980014737</v>
+        <v>-25390.456455443364</v>
       </c>
       <c r="N489" s="128"/>
       <c r="O489" s="128"/>
@@ -27794,13 +27794,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>181.35223683614731</v>
+        <v>167.4957973099319</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>149.24216226396655</v>
+        <v>140.10453905162649</v>
       </c>
       <c r="G8" s="18">
         <v>47.649023686136495</v>
@@ -27816,7 +27816,7 @@
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="5">
-        <v>-3697.4091858139177</v>
+        <v>-3699.5277833734476</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -27827,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="5">
-        <v>135.78167572581373</v>
+        <v>125.39897780720831</v>
       </c>
       <c r="E9" s="18">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>111.53578190119008</v>
+        <v>104.7047841786391</v>
       </c>
       <c r="G9" s="18">
         <v>38.222108083011079</v>
@@ -27849,7 +27849,7 @@
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="5">
-        <v>-3685.8808411898331</v>
+        <v>-3687.9918467357975</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -27860,13 +27860,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="5">
-        <v>90.395984785004572</v>
+        <v>83.472951979665964</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>74.085158466229885</v>
+        <v>69.545156858661443</v>
       </c>
       <c r="G10" s="18">
         <v>26.243043637417397</v>
@@ -27882,7 +27882,7 @@
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="5">
-        <v>-3674.3994008944396</v>
+        <v>-3676.5032367122235</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -27893,13 +27893,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5">
-        <v>45.0632381515696</v>
+        <v>41.6202346699886</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>36.885063840415278</v>
+        <v>34.625708704115624</v>
       </c>
       <c r="G11" s="18">
         <v>12.687422636131775</v>
@@ -27915,7 +27915,7 @@
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="5">
-        <v>-3662.9412009695434</v>
+        <v>-3665.0487940721946</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -27948,7 +27948,7 @@
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="5">
-        <v>-3651.5508181889954</v>
+        <v>-3653.6572778495488</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -27959,13 +27959,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>-44.873327474867914</v>
+        <v>-41.453239395000281</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>-36.651197008441443</v>
+        <v>-34.409495805375805</v>
       </c>
       <c r="G13" s="18">
         <v>-6.3739235765473676</v>
@@ -27981,7 +27981,7 @@
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="5">
-        <v>-3640.1967116539522</v>
+        <v>-3642.2954665831867</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="5">
-        <v>-89.7383099908362</v>
+        <v>-82.899098243455455</v>
       </c>
       <c r="E14" s="18">
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>-73.143583956736023</v>
+        <v>-68.6699280659898</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="5">
@@ -28012,7 +28012,7 @@
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="5">
-        <v>-3628.8455221073441</v>
+        <v>-3630.9363890832233</v>
       </c>
     </row>
     <row r="15" hidden="1" ht="14.25" customHeight="1">
@@ -28038,13 +28038,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>-55.999277239214415</v>
+        <v>-51.731291331370706</v>
       </c>
       <c r="E16" s="18">
         <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>-55.986191773705372</v>
+        <v>-52.560478167570629</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="5">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="5">
-        <v>-3637.3808101627355</v>
+        <v>-3639.4775671530715</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -28069,13 +28069,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="5">
-        <v>136.82078869754557</v>
+        <v>126.35882858578974</v>
       </c>
       <c r="E17" s="18">
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>98.485041378788708</v>
+        <v>92.454372222859746</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="5">
@@ -28089,7 +28089,7 @@
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="5">
-        <v>-3686.1430694710316</v>
+        <v>-3688.2547230214768</v>
       </c>
     </row>
     <row r="18" hidden="1" ht="14.25" customHeight="1">
@@ -28159,10 +28159,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="49">
-        <v>-251.16854287819777</v>
+        <v>-272.08065063338881</v>
       </c>
       <c r="E22" s="49">
-        <v>-251.16854287819777</v>
+        <v>-272.08065063338881</v>
       </c>
       <c r="F22" s="49">
         <v>-36.360017458163455</v>
@@ -28174,7 +28174,7 @@
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
       <c r="K22" s="49">
-        <v>-222.66929363062556</v>
+        <v>-243.58140138581663</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -28185,10 +28185,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="49">
-        <v>-1294.4906961688982</v>
+        <v>-1380.8922636888804</v>
       </c>
       <c r="E23" s="49">
-        <v>-1294.4906961688982</v>
+        <v>-1380.8922636888804</v>
       </c>
       <c r="F23" s="49">
         <v>-72.72003491632691</v>
@@ -28200,7 +28200,7 @@
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
       <c r="K23" s="49">
-        <v>-1237.4921976737537</v>
+        <v>-1323.8937651937358</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -28211,10 +28211,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="49">
-        <v>-25375.817980014737</v>
+        <v>-25390.456455443364</v>
       </c>
       <c r="E24" s="49">
-        <v>-25375.817980014737</v>
+        <v>-25390.456455443364</v>
       </c>
       <c r="F24" s="49">
         <v>-36.360017458163455</v>
@@ -28229,10 +28229,10 @@
         <v>-12000</v>
       </c>
       <c r="J24" s="49">
-        <v>10875.350562863458</v>
+        <v>10881.624195190016</v>
       </c>
       <c r="K24" s="49">
-        <v>-222.66929363062343</v>
+        <v>-243.5814013858076</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -28243,10 +28243,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="49">
-        <v>-51306.14348731823</v>
+        <v>-51366.62458458222</v>
       </c>
       <c r="E25" s="49">
-        <v>-51306.14348731823</v>
+        <v>-51366.62458458222</v>
       </c>
       <c r="F25" s="49">
         <v>-72.72003491632691</v>
@@ -28261,10 +28261,10 @@
         <v>-24000</v>
       </c>
       <c r="J25" s="49">
-        <v>21988.347208850671</v>
+        <v>22014.267679106659</v>
       </c>
       <c r="K25" s="49">
-        <v>-1237.4921976737589</v>
+        <v>-1323.8937651937329</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -28394,31 +28394,31 @@
         <v>154</v>
       </c>
       <c r="C36" s="49">
-        <v>-25.774137270694322</v>
+        <v>-46.528244763383</v>
       </c>
       <c r="D36" s="49">
-        <v>-138.46086011861004</v>
+        <v>-159.29440717885584</v>
       </c>
       <c r="E36" s="49">
-        <v>-251.16854287819777</v>
+        <v>-272.08065063338881</v>
       </c>
       <c r="F36" s="49">
-        <v>-364.35322151722727</v>
+        <v>-385.32125591863712</v>
       </c>
       <c r="G36" s="49">
-        <v>-478.21482068309115</v>
+        <v>-499.19440148256018</v>
       </c>
       <c r="H36" s="49">
-        <v>-592.20939929432359</v>
+        <v>-613.26700533886014</v>
       </c>
       <c r="I36" s="49">
-        <v>-706.66831361656716</v>
+        <v>-727.80430573783372</v>
       </c>
       <c r="J36" s="49">
-        <v>-594.81932420428086</v>
+        <v>-615.87857358233407</v>
       </c>
       <c r="K36" s="50">
-        <v>45.0632381515696</v>
+        <v>41.6202346699886</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -28743,28 +28743,28 @@
         <v>6.9411861904031005</v>
       </c>
       <c r="H52" s="49">
-        <v>4.13022963004525</v>
+        <v>3.73429095724869</v>
       </c>
       <c r="I52" s="49">
-        <v>-0.30020240336228604</v>
+        <v>-0.994066174931921</v>
       </c>
       <c r="J52" s="49">
-        <v>-4.8638102479843</v>
+        <v>-5.85653296127849</v>
       </c>
       <c r="K52" s="49">
-        <v>-9.89828899702458</v>
+        <v>-11.1908948205122</v>
       </c>
       <c r="L52" s="49">
-        <v>-15.3645989699538</v>
+        <v>-16.9581885850546</v>
       </c>
       <c r="M52" s="49">
-        <v>-19.4849980872738</v>
+        <v>-21.380377047716703</v>
       </c>
       <c r="N52" s="49">
-        <v>-24.994548500483898</v>
+        <v>-27.1929815877307</v>
       </c>
       <c r="O52" s="49">
-        <v>-30.7206465334391</v>
+        <v>-33.223405008223494</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -28815,28 +28815,28 @@
         <v>3.9897807846865</v>
       </c>
       <c r="H54" s="49">
-        <v>1.8175012816945</v>
+        <v>1.42156260889794</v>
       </c>
       <c r="I54" s="49">
-        <v>-2.58521573639502</v>
+        <v>-3.27907950796466</v>
       </c>
       <c r="J54" s="49">
-        <v>-7.22736358354966</v>
+        <v>-8.2200862968438511</v>
       </c>
       <c r="K54" s="49">
-        <v>-12.2744448635864</v>
+        <v>-13.567050687074</v>
       </c>
       <c r="L54" s="49">
-        <v>-17.537008938019497</v>
+        <v>-19.1305985531203</v>
       </c>
       <c r="M54" s="49">
-        <v>-21.729808817943603</v>
+        <v>-23.625187778386497</v>
       </c>
       <c r="N54" s="49">
-        <v>-27.3495865457978</v>
+        <v>-29.5480196330447</v>
       </c>
       <c r="O54" s="49">
-        <v>-33.147447268983996</v>
+        <v>-35.650205743768396</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
@@ -28923,28 +28923,28 @@
         <v>-2996.0102192153104</v>
       </c>
       <c r="H57" s="49">
-        <v>-2998.18249871831</v>
+        <v>-2998.5784373911</v>
       </c>
       <c r="I57" s="49">
-        <v>-3002.58521573639</v>
+        <v>-3003.27907950796</v>
       </c>
       <c r="J57" s="49">
-        <v>-3007.22736358355</v>
+        <v>-3008.2200862968402</v>
       </c>
       <c r="K57" s="49">
-        <v>-3012.27444486359</v>
+        <v>-3013.56705068707</v>
       </c>
       <c r="L57" s="49">
-        <v>-3017.53700893802</v>
+        <v>-3019.1305985531203</v>
       </c>
       <c r="M57" s="49">
-        <v>-3021.72980881794</v>
+        <v>-3023.6251877783902</v>
       </c>
       <c r="N57" s="49">
-        <v>-3027.3495865458</v>
+        <v>-3029.54801963304</v>
       </c>
       <c r="O57" s="49">
-        <v>-3033.14744726898</v>
+        <v>-3035.65020574377</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -28959,28 +28959,28 @@
         <v>-898.803065764594</v>
       </c>
       <c r="H58" s="49">
-        <v>-899.454749615492</v>
+        <v>-899.57353121733092</v>
       </c>
       <c r="I58" s="49">
-        <v>-900.77556472091794</v>
+        <v>-900.98372385238906</v>
       </c>
       <c r="J58" s="49">
-        <v>-902.168209075065</v>
+        <v>-902.466025889053</v>
       </c>
       <c r="K58" s="49">
-        <v>-903.68233345907606</v>
+        <v>-904.07011520612207</v>
       </c>
       <c r="L58" s="49">
-        <v>-905.261102681406</v>
+        <v>-905.739179565936</v>
       </c>
       <c r="M58" s="49">
-        <v>-906.51894264538294</v>
+        <v>-907.087556333516</v>
       </c>
       <c r="N58" s="49">
-        <v>-908.204875963739</v>
+        <v>-908.864405889913</v>
       </c>
       <c r="O58" s="49">
-        <v>-909.944234180695</v>
+        <v>-910.69506172313</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -28995,28 +28995,28 @@
         <v>-2097.20715345072</v>
       </c>
       <c r="H59" s="49">
-        <v>-2098.72774910281</v>
+        <v>-2099.00490617377</v>
       </c>
       <c r="I59" s="49">
-        <v>-2101.80965101548</v>
+        <v>-2102.29535565558</v>
       </c>
       <c r="J59" s="49">
-        <v>-2105.0591545084903</v>
+        <v>-2105.75406040779</v>
       </c>
       <c r="K59" s="49">
-        <v>-2108.5921114045104</v>
+        <v>-2109.49693548095</v>
       </c>
       <c r="L59" s="49">
-        <v>-2112.27590625661</v>
+        <v>-2113.3914189871803</v>
       </c>
       <c r="M59" s="49">
-        <v>-2115.21086617256</v>
+        <v>-2116.53763144487</v>
       </c>
       <c r="N59" s="49">
-        <v>-2119.14471058206</v>
+        <v>-2120.68361374313</v>
       </c>
       <c r="O59" s="49">
-        <v>-2123.20321308829</v>
+        <v>-2124.9551440206396</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -29033,28 +29033,28 @@
         <v>-1583.60298678405</v>
       </c>
       <c r="H60" s="49">
-        <v>-3682.32643034079</v>
+        <v>-3682.60358740552</v>
       </c>
       <c r="I60" s="49">
-        <v>-5784.1319146734295</v>
+        <v>-5784.89477639047</v>
       </c>
       <c r="J60" s="49">
-        <v>-7889.18676363038</v>
+        <v>-7890.64453124516</v>
       </c>
       <c r="K60" s="49">
-        <v>-9997.7748472647</v>
+        <v>-10000.1374389461</v>
       </c>
       <c r="L60" s="49">
-        <v>-12110.0465868381</v>
+        <v>-12113.524691256202</v>
       </c>
       <c r="M60" s="49">
-        <v>-14225.253147461</v>
+        <v>-14230.05801715</v>
       </c>
       <c r="N60" s="49">
-        <v>-16344.393691371999</v>
+        <v>-16350.737464223299</v>
       </c>
       <c r="O60" s="49">
-        <v>-18467.5925989139</v>
+        <v>-18475.6883027018</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
@@ -36369,17 +36369,17 @@
       </c>
       <c r="C27" s="162"/>
       <c r="D27" s="162">
-        <v>-25874.0682855788</v>
+        <v>-25888.706761012403</v>
       </c>
       <c r="E27" s="162">
-        <v>-25874.0682855788</v>
+        <v>-25888.706761012403</v>
       </c>
       <c r="F27" s="162"/>
       <c r="G27" s="162">
-        <v>-51804.3429595209</v>
+        <v>-51864.8240567767</v>
       </c>
       <c r="H27" s="162">
-        <v>-51804.3429595209</v>
+        <v>-51864.8240567767</v>
       </c>
     </row>
     <row r="28">
@@ -36388,17 +36388,17 @@
       </c>
       <c r="C28" s="162"/>
       <c r="D28" s="176">
-        <v>-25102.968285578798</v>
+        <v>-25117.6067610124</v>
       </c>
       <c r="E28" s="176">
-        <v>-25102.968285578798</v>
+        <v>-25117.6067610124</v>
       </c>
       <c r="F28" s="162"/>
       <c r="G28" s="176">
-        <v>-51033.242959520896</v>
+        <v>-51093.7240567767</v>
       </c>
       <c r="H28" s="176">
-        <v>-51033.242959520896</v>
+        <v>-51093.7240567767</v>
       </c>
     </row>
     <row r="29">
@@ -36654,17 +36654,17 @@
       </c>
       <c r="C42" s="162"/>
       <c r="D42" s="176">
-        <v>-23942.1672855788</v>
+        <v>-23956.8057610124</v>
       </c>
       <c r="E42" s="176">
-        <v>-23942.1672855788</v>
+        <v>-23956.8057610124</v>
       </c>
       <c r="F42" s="162"/>
       <c r="G42" s="176">
-        <v>-49872.4419595209</v>
+        <v>-49932.9230567767</v>
       </c>
       <c r="H42" s="176">
-        <v>-49872.4419595209</v>
+        <v>-49932.9230567767</v>
       </c>
     </row>
     <row r="43"/>
@@ -37075,17 +37075,17 @@
       </c>
       <c r="C67" s="162"/>
       <c r="D67" s="176">
-        <v>-24862.1672855788</v>
+        <v>-24876.8057610124</v>
       </c>
       <c r="E67" s="176">
-        <v>-24862.1672855788</v>
+        <v>-24876.8057610124</v>
       </c>
       <c r="F67" s="162"/>
       <c r="G67" s="176">
-        <v>-50792.4419595209</v>
+        <v>-50852.9230567767</v>
       </c>
       <c r="H67" s="176">
-        <v>-50792.4419595209</v>
+        <v>-50852.9230567767</v>
       </c>
     </row>
     <row r="68">
@@ -37157,17 +37157,17 @@
       </c>
       <c r="C73" s="162"/>
       <c r="D73" s="162">
-        <v>2672.6408010795526</v>
+        <v>2672.6261665240622</v>
       </c>
       <c r="E73" s="162">
-        <v>2672.6408010795526</v>
+        <v>2672.6261665240622</v>
       </c>
       <c r="F73" s="162"/>
       <c r="G73" s="162">
-        <v>2619.0573221196864</v>
+        <v>2619.0016443716668</v>
       </c>
       <c r="H73" s="162">
-        <v>2619.0573221196864</v>
+        <v>2619.0016443716668</v>
       </c>
     </row>
     <row r="74">
@@ -37176,17 +37176,17 @@
       </c>
       <c r="C74" s="162"/>
       <c r="D74" s="162">
-        <v>17934.388095290244</v>
+        <v>17934.663468693048</v>
       </c>
       <c r="E74" s="162">
-        <v>17934.388095290244</v>
+        <v>17934.663468693048</v>
       </c>
       <c r="F74" s="162"/>
       <c r="G74" s="162">
-        <v>16054.244565860548</v>
+        <v>16055.835706278533</v>
       </c>
       <c r="H74" s="162">
-        <v>16054.244565860548</v>
+        <v>16055.835706278533</v>
       </c>
     </row>
     <row r="75">
@@ -37214,17 +37214,17 @@
       </c>
       <c r="C76" s="162"/>
       <c r="D76" s="162">
-        <v>885.03579728407772</v>
+        <v>885.03236373411</v>
       </c>
       <c r="E76" s="162">
-        <v>885.03579728407772</v>
+        <v>885.03236373411</v>
       </c>
       <c r="F76" s="162"/>
       <c r="G76" s="162">
-        <v>839.47590063297037</v>
+        <v>839.4597996312267</v>
       </c>
       <c r="H76" s="162">
-        <v>839.47590063297037</v>
+        <v>839.4597996312267</v>
       </c>
     </row>
     <row r="77">
@@ -37233,17 +37233,17 @@
       </c>
       <c r="C77" s="162"/>
       <c r="D77" s="162">
-        <v>11437.707423792186</v>
+        <v>11437.608663619703</v>
       </c>
       <c r="E77" s="162">
-        <v>11437.707423792186</v>
+        <v>11437.608663619703</v>
       </c>
       <c r="F77" s="162"/>
       <c r="G77" s="162">
-        <v>10812.787694924286</v>
+        <v>10812.407269733218</v>
       </c>
       <c r="H77" s="162">
-        <v>10812.787694924286</v>
+        <v>10812.407269733218</v>
       </c>
     </row>
     <row r="78">
@@ -37271,17 +37271,17 @@
       </c>
       <c r="C79" s="162"/>
       <c r="D79" s="162">
-        <v>600.77590817870077</v>
+        <v>600.03479119356723</v>
       </c>
       <c r="E79" s="162">
-        <v>600.77590817870077</v>
+        <v>600.03479119356723</v>
       </c>
       <c r="F79" s="162"/>
       <c r="G79" s="162">
-        <v>603.579629090174</v>
+        <v>601.23811838043594</v>
       </c>
       <c r="H79" s="162">
-        <v>603.579629090174</v>
+        <v>601.23811838043594</v>
       </c>
     </row>
     <row r="80">
@@ -37290,17 +37290,17 @@
       </c>
       <c r="C80" s="162"/>
       <c r="D80" s="162">
-        <v>606.369289560504</v>
+        <v>606.383554836861</v>
       </c>
       <c r="E80" s="162">
-        <v>606.369289560504</v>
+        <v>606.383554836861</v>
       </c>
       <c r="F80" s="162"/>
       <c r="G80" s="162">
-        <v>527.225994647936</v>
+        <v>527.27100750358989</v>
       </c>
       <c r="H80" s="162">
-        <v>527.225994647936</v>
+        <v>527.27100750358989</v>
       </c>
     </row>
     <row r="81">
@@ -37309,17 +37309,17 @@
       </c>
       <c r="C81" s="162"/>
       <c r="D81" s="162">
-        <v>4.4793467814617225</v>
+        <v>4.2216084440740218</v>
       </c>
       <c r="E81" s="162">
-        <v>4.4793467814617225</v>
+        <v>4.2216084440740218</v>
       </c>
       <c r="F81" s="162"/>
       <c r="G81" s="162">
-        <v>5.3310667080595406</v>
+        <v>5.05129976830432</v>
       </c>
       <c r="H81" s="162">
-        <v>5.3310667080595406</v>
+        <v>5.05129976830432</v>
       </c>
     </row>
     <row r="82">
@@ -37328,17 +37328,17 @@
       </c>
       <c r="C82" s="162"/>
       <c r="D82" s="162">
-        <v>1124.6883680013218</v>
+        <v>1078.6840923344262</v>
       </c>
       <c r="E82" s="162">
-        <v>1124.6883680013218</v>
+        <v>1078.6840923344262</v>
       </c>
       <c r="F82" s="162"/>
       <c r="G82" s="162">
-        <v>1240.8251383850904</v>
+        <v>1190.6293379376384</v>
       </c>
       <c r="H82" s="162">
-        <v>1240.8251383850904</v>
+        <v>1190.6293379376384</v>
       </c>
     </row>
     <row r="83">
@@ -37347,17 +37347,17 @@
       </c>
       <c r="C83" s="162"/>
       <c r="D83" s="162">
-        <v>611.28388416089729</v>
+        <v>588.18040317027794</v>
       </c>
       <c r="E83" s="162">
-        <v>611.28388416089729</v>
+        <v>588.18040317027794</v>
       </c>
       <c r="F83" s="162"/>
       <c r="G83" s="162">
-        <v>639.89713188277449</v>
+        <v>614.71761681289627</v>
       </c>
       <c r="H83" s="162">
-        <v>639.89713188277449</v>
+        <v>614.71761681289627</v>
       </c>
     </row>
     <row r="84">
@@ -37366,17 +37366,17 @@
       </c>
       <c r="C84" s="162"/>
       <c r="D84" s="162">
-        <v>626.74308508115064</v>
+        <v>603.61915376663353</v>
       </c>
       <c r="E84" s="162">
-        <v>626.74308508115064</v>
+        <v>603.61915376663353</v>
       </c>
       <c r="F84" s="162"/>
       <c r="G84" s="162">
-        <v>661.8711004985023</v>
+        <v>636.63166247155709</v>
       </c>
       <c r="H84" s="162">
-        <v>661.8711004985023</v>
+        <v>636.63166247155709</v>
       </c>
     </row>
     <row r="85">
@@ -37385,17 +37385,17 @@
       </c>
       <c r="C85" s="162"/>
       <c r="D85" s="162">
-        <v>-326589.3127308035</v>
+        <v>-347187.84082519775</v>
       </c>
       <c r="E85" s="162">
-        <v>-326589.3127308035</v>
+        <v>-347187.84082519775</v>
       </c>
       <c r="F85" s="162"/>
       <c r="G85" s="162">
-        <v>-1121778.6464575192</v>
+        <v>-1186924.289841173</v>
       </c>
       <c r="H85" s="162">
-        <v>-1121778.6464575192</v>
+        <v>-1186924.289841173</v>
       </c>
     </row>
     <row r="86">
@@ -37404,17 +37404,17 @@
       </c>
       <c r="C86" s="162"/>
       <c r="D86" s="176">
-        <v>-282479.62079255248</v>
+        <v>-303171.20661984023</v>
       </c>
       <c r="E86" s="176">
-        <v>-282479.62079255248</v>
+        <v>-303171.20661984023</v>
       </c>
       <c r="F86" s="162"/>
       <c r="G86" s="176">
-        <v>-1080394.9172867534</v>
+        <v>-1145642.6127522676</v>
       </c>
       <c r="H86" s="176">
-        <v>-1080394.9172867534</v>
+        <v>-1145642.6127522676</v>
       </c>
     </row>
     <row r="87">
@@ -37423,17 +37423,17 @@
       </c>
       <c r="C87" s="162"/>
       <c r="D87" s="162">
-        <v>384.04917404945593</v>
+        <v>385.96891343616392</v>
       </c>
       <c r="E87" s="162">
-        <v>384.04917404945593</v>
+        <v>385.96891343616392</v>
       </c>
       <c r="F87" s="162"/>
       <c r="G87" s="162">
-        <v>461.21718226163318</v>
+        <v>463.1204943992413</v>
       </c>
       <c r="H87" s="162">
-        <v>461.21718226163318</v>
+        <v>463.1204943992413</v>
       </c>
     </row>
     <row r="88">
@@ -37442,17 +37442,17 @@
       </c>
       <c r="C88" s="162"/>
       <c r="D88" s="162">
-        <v>21160.521789696897</v>
+        <v>20964.832047251744</v>
       </c>
       <c r="E88" s="162">
-        <v>21160.521789696897</v>
+        <v>20964.832047251744</v>
       </c>
       <c r="F88" s="162"/>
       <c r="G88" s="162">
-        <v>25876.50694475304</v>
+        <v>25663.767600997802</v>
       </c>
       <c r="H88" s="162">
-        <v>25876.50694475304</v>
+        <v>25663.767600997802</v>
       </c>
     </row>
     <row r="89">
@@ -37461,17 +37461,17 @@
       </c>
       <c r="C89" s="162"/>
       <c r="D89" s="162">
-        <v>954.79359263291315</v>
+        <v>928.98813936833869</v>
       </c>
       <c r="E89" s="162">
-        <v>954.79359263291315</v>
+        <v>928.98813936833869</v>
       </c>
       <c r="F89" s="162"/>
       <c r="G89" s="162">
-        <v>1103.9394911176648</v>
+        <v>1075.9252232246913</v>
       </c>
       <c r="H89" s="162">
-        <v>1103.9394911176648</v>
+        <v>1075.9252232246913</v>
       </c>
     </row>
     <row r="90">
@@ -37480,17 +37480,17 @@
       </c>
       <c r="C90" s="162"/>
       <c r="D90" s="176">
-        <v>22499.364556379267</v>
+        <v>22279.789100056223</v>
       </c>
       <c r="E90" s="176">
-        <v>22499.364556379267</v>
+        <v>22279.789100056223</v>
       </c>
       <c r="F90" s="162"/>
       <c r="G90" s="176">
-        <v>27441.663618132341</v>
+        <v>27202.813318621727</v>
       </c>
       <c r="H90" s="176">
-        <v>27441.663618132341</v>
+        <v>27202.813318621727</v>
       </c>
     </row>
     <row r="91">
@@ -37499,17 +37499,17 @@
       </c>
       <c r="C91" s="162"/>
       <c r="D91" s="162">
-        <v>581.52677759668813</v>
+        <v>581.46155529768055</v>
       </c>
       <c r="E91" s="162">
-        <v>581.52677759668813</v>
+        <v>581.46155529768055</v>
       </c>
       <c r="F91" s="162"/>
       <c r="G91" s="162">
-        <v>545.61324160948561</v>
+        <v>545.41400658701946</v>
       </c>
       <c r="H91" s="162">
-        <v>545.61324160948561</v>
+        <v>545.41400658701946</v>
       </c>
     </row>
     <row r="92">
@@ -37518,17 +37518,17 @@
       </c>
       <c r="C92" s="162"/>
       <c r="D92" s="162">
-        <v>380.56875470507964</v>
+        <v>380.49986262242305</v>
       </c>
       <c r="E92" s="162">
-        <v>380.56875470507964</v>
+        <v>380.49986262242305</v>
       </c>
       <c r="F92" s="162"/>
       <c r="G92" s="162">
-        <v>391.69390681992746</v>
+        <v>391.4841283089869</v>
       </c>
       <c r="H92" s="162">
-        <v>391.69390681992746</v>
+        <v>391.4841283089869</v>
       </c>
     </row>
     <row r="93">
@@ -37556,17 +37556,17 @@
       </c>
       <c r="C94" s="162"/>
       <c r="D94" s="162">
-        <v>701.08742656105119</v>
+        <v>700.27506936239729</v>
       </c>
       <c r="E94" s="162">
-        <v>701.08742656105119</v>
+        <v>700.27506936239729</v>
       </c>
       <c r="F94" s="162"/>
       <c r="G94" s="162">
-        <v>606.67175647631007</v>
+        <v>604.16677024366209</v>
       </c>
       <c r="H94" s="162">
-        <v>606.67175647631007</v>
+        <v>604.16677024366209</v>
       </c>
     </row>
     <row r="95">
@@ -37575,17 +37575,17 @@
       </c>
       <c r="C95" s="162"/>
       <c r="D95" s="176">
-        <v>15042.25477871671</v>
+        <v>15041.308307136402</v>
       </c>
       <c r="E95" s="176">
-        <v>15042.25477871671</v>
+        <v>15041.308307136402</v>
       </c>
       <c r="F95" s="162"/>
       <c r="G95" s="176">
-        <v>14760.15188947448</v>
+        <v>14757.237889708429</v>
       </c>
       <c r="H95" s="176">
-        <v>14760.15188947448</v>
+        <v>14757.237889708429</v>
       </c>
     </row>
     <row r="96">
@@ -37670,17 +37670,17 @@
       </c>
       <c r="C100" s="162"/>
       <c r="D100" s="176">
-        <v>-222480.46855892669</v>
+        <v>-243392.57631411761</v>
       </c>
       <c r="E100" s="176">
-        <v>-222480.46855892669</v>
+        <v>-243392.57631411761</v>
       </c>
       <c r="F100" s="162"/>
       <c r="G100" s="176">
-        <v>-1014441.8959056288</v>
+        <v>-1079931.3556704198</v>
       </c>
       <c r="H100" s="176">
-        <v>-1014441.8959056288</v>
+        <v>-1079931.3556704198</v>
       </c>
     </row>
     <row r="101"/>
@@ -38091,17 +38091,17 @@
       </c>
       <c r="C125" s="162"/>
       <c r="D125" s="176">
-        <v>-251168.54287819777</v>
+        <v>-272080.65063338884</v>
       </c>
       <c r="E125" s="176">
-        <v>-251168.54287819777</v>
+        <v>-272080.65063338884</v>
       </c>
       <c r="F125" s="162"/>
       <c r="G125" s="176">
-        <v>-1043322.1532907003</v>
+        <v>-1108811.6130554914</v>
       </c>
       <c r="H125" s="176">
-        <v>-1043322.1532907003</v>
+        <v>-1108811.6130554914</v>
       </c>
     </row>
     <row r="126">
@@ -38177,17 +38177,17 @@
       </c>
       <c r="C131" s="161"/>
       <c r="D131" s="161">
-        <v>5.63513145054747</v>
+        <v>5.6276957939250307</v>
       </c>
       <c r="E131" s="161">
-        <v>5.63513145054747</v>
+        <v>5.6276957939250307</v>
       </c>
       <c r="F131" s="161"/>
       <c r="G131" s="161">
-        <v>5.4167046124796654</v>
+        <v>5.3891382174537652</v>
       </c>
       <c r="H131" s="161">
-        <v>5.4167046124796654</v>
+        <v>5.3891382174537652</v>
       </c>
     </row>
     <row r="132">
@@ -38196,17 +38196,17 @@
       </c>
       <c r="C132" s="161"/>
       <c r="D132" s="161">
-        <v>5.3732064371568127</v>
+        <v>5.3724839372728637</v>
       </c>
       <c r="E132" s="161">
-        <v>5.3732064371568127</v>
+        <v>5.3724839372728637</v>
       </c>
       <c r="F132" s="161"/>
       <c r="G132" s="161">
-        <v>4.6564562351084886</v>
+        <v>4.6523863559318714</v>
       </c>
       <c r="H132" s="161">
-        <v>4.6564562351084886</v>
+        <v>4.6523863559318714</v>
       </c>
     </row>
     <row r="133">
@@ -38234,17 +38234,17 @@
       </c>
       <c r="C134" s="161"/>
       <c r="D134" s="161">
-        <v>5.6520936779420659</v>
+        <v>5.6459987555749374</v>
       </c>
       <c r="E134" s="161">
-        <v>5.6520936779420659</v>
+        <v>5.6459987555749374</v>
       </c>
       <c r="F134" s="161"/>
       <c r="G134" s="161">
-        <v>5.35911696057994</v>
+        <v>5.3314410339752953</v>
       </c>
       <c r="H134" s="161">
-        <v>5.35911696057994</v>
+        <v>5.3314410339752953</v>
       </c>
     </row>
     <row r="135">
@@ -38253,17 +38253,17 @@
       </c>
       <c r="C135" s="161"/>
       <c r="D135" s="161">
-        <v>5.5602670875302573</v>
+        <v>5.5476859896088468</v>
       </c>
       <c r="E135" s="161">
-        <v>5.5602670875302573</v>
+        <v>5.5476859896088468</v>
       </c>
       <c r="F135" s="161"/>
       <c r="G135" s="161">
-        <v>5.2395816631698846</v>
+        <v>5.1932724976030817</v>
       </c>
       <c r="H135" s="161">
-        <v>5.2395816631698846</v>
+        <v>5.1932724976030817</v>
       </c>
     </row>
     <row r="136">
@@ -38291,17 +38291,17 @@
       </c>
       <c r="C137" s="161"/>
       <c r="D137" s="161">
-        <v>5.5219643598741328</v>
+        <v>5.5133508290680764</v>
       </c>
       <c r="E137" s="161">
-        <v>5.5219643598741328</v>
+        <v>5.5133508290680764</v>
       </c>
       <c r="F137" s="161"/>
       <c r="G137" s="161">
-        <v>5.5525978566781182</v>
+        <v>5.5253841009366846</v>
       </c>
       <c r="H137" s="161">
-        <v>5.5525978566781182</v>
+        <v>5.5253841009366846</v>
       </c>
     </row>
     <row r="138">
@@ -38310,17 +38310,17 @@
       </c>
       <c r="C138" s="161"/>
       <c r="D138" s="161">
-        <v>5.5178616103713276</v>
+        <v>5.5168004897765774</v>
       </c>
       <c r="E138" s="161">
-        <v>5.5178616103713276</v>
+        <v>5.5168004897765774</v>
       </c>
       <c r="F138" s="161"/>
       <c r="G138" s="161">
-        <v>4.7368609187295263</v>
+        <v>4.7335079419236328</v>
       </c>
       <c r="H138" s="161">
-        <v>4.7368609187295263</v>
+        <v>4.7335079419236328</v>
       </c>
     </row>
     <row r="139">
@@ -38329,17 +38329,17 @@
       </c>
       <c r="C139" s="161"/>
       <c r="D139" s="161">
-        <v>4.19764127541242</v>
+        <v>3.8153017753899832</v>
       </c>
       <c r="E139" s="161">
-        <v>4.19764127541242</v>
+        <v>3.8153017753899832</v>
       </c>
       <c r="F139" s="161"/>
       <c r="G139" s="161">
-        <v>5.0237516104393336</v>
+        <v>4.6080561299214535</v>
       </c>
       <c r="H139" s="161">
-        <v>5.0237516104393336</v>
+        <v>4.6080561299214535</v>
       </c>
     </row>
     <row r="140">
@@ -38348,17 +38348,17 @@
       </c>
       <c r="C140" s="161"/>
       <c r="D140" s="161">
-        <v>4.8984580896562715</v>
+        <v>4.669581096355488</v>
       </c>
       <c r="E140" s="161">
-        <v>4.8984580896562715</v>
+        <v>4.669581096355488</v>
       </c>
       <c r="F140" s="161"/>
       <c r="G140" s="161">
-        <v>5.4128887466562574</v>
+        <v>5.16315839620377</v>
       </c>
       <c r="H140" s="161">
-        <v>5.4128887466562574</v>
+        <v>5.16315839620377</v>
       </c>
     </row>
     <row r="141">
@@ -38367,17 +38367,17 @@
       </c>
       <c r="C141" s="161"/>
       <c r="D141" s="161">
-        <v>5.8181694192067859</v>
+        <v>5.1621299545705517</v>
       </c>
       <c r="E141" s="161">
-        <v>5.8181694192067859</v>
+        <v>5.1621299545705517</v>
       </c>
       <c r="F141" s="161"/>
       <c r="G141" s="161">
-        <v>6.0775137672142518</v>
+        <v>5.3620771749070917</v>
       </c>
       <c r="H141" s="161">
-        <v>6.0775137672142518</v>
+        <v>5.3620771749070917</v>
       </c>
     </row>
     <row r="142">
@@ -38386,17 +38386,17 @@
       </c>
       <c r="C142" s="161"/>
       <c r="D142" s="161">
-        <v>5.972761428398953</v>
+        <v>5.3165174606077619</v>
       </c>
       <c r="E142" s="161">
-        <v>5.972761428398953</v>
+        <v>5.3165174606077619</v>
       </c>
       <c r="F142" s="161"/>
       <c r="G142" s="161">
-        <v>6.2972534532224413</v>
+        <v>5.5812176314295527</v>
       </c>
       <c r="H142" s="161">
-        <v>6.2972534532224413</v>
+        <v>5.5812176314295527</v>
       </c>
     </row>
     <row r="143">
@@ -38405,17 +38405,17 @@
       </c>
       <c r="C143" s="161"/>
       <c r="D143" s="161">
-        <v>2.3891921492000003</v>
+        <v>2.5450254823</v>
       </c>
       <c r="E143" s="161">
-        <v>2.3891921492000003</v>
+        <v>2.5450254823</v>
       </c>
       <c r="F143" s="161"/>
       <c r="G143" s="161">
-        <v>2.953317795</v>
+        <v>3.1233177951000006</v>
       </c>
       <c r="H143" s="161">
-        <v>2.953317795</v>
+        <v>3.1233177951000006</v>
       </c>
     </row>
     <row r="144">
@@ -38424,17 +38424,17 @@
       </c>
       <c r="C144" s="161"/>
       <c r="D144" s="177">
-        <v>2.5569661898518459</v>
+        <v>2.7324475444521483</v>
       </c>
       <c r="E144" s="177">
-        <v>2.5569661898518459</v>
+        <v>2.7324475444521483</v>
       </c>
       <c r="F144" s="161"/>
       <c r="G144" s="177">
-        <v>2.9074066039744473</v>
+        <v>3.0820332536977659</v>
       </c>
       <c r="H144" s="177">
-        <v>2.9074066039744473</v>
+        <v>3.0820332536977659</v>
       </c>
     </row>
     <row r="145">
@@ -38443,17 +38443,17 @@
       </c>
       <c r="C145" s="161"/>
       <c r="D145" s="161">
-        <v>3.6135629243638405</v>
+        <v>3.5491806760054314</v>
       </c>
       <c r="E145" s="161">
-        <v>3.6135629243638405</v>
+        <v>3.5491806760054314</v>
       </c>
       <c r="F145" s="161"/>
       <c r="G145" s="161">
-        <v>4.3603880878535444</v>
+        <v>4.2882625107066366</v>
       </c>
       <c r="H145" s="161">
-        <v>4.3603880878535444</v>
+        <v>4.2882625107066366</v>
       </c>
     </row>
     <row r="146">
@@ -38462,17 +38462,17 @@
       </c>
       <c r="C146" s="161"/>
       <c r="D146" s="161">
-        <v>4.3127532586925028</v>
+        <v>4.1877383127981256</v>
       </c>
       <c r="E146" s="161">
-        <v>4.3127532586925028</v>
+        <v>4.1877383127981256</v>
       </c>
       <c r="F146" s="161"/>
       <c r="G146" s="161">
-        <v>5.2988020292233182</v>
+        <v>5.1625795814870328</v>
       </c>
       <c r="H146" s="161">
-        <v>5.2988020292233182</v>
+        <v>5.1625795814870328</v>
       </c>
     </row>
     <row r="147">
@@ -38481,17 +38481,17 @@
       </c>
       <c r="C147" s="161"/>
       <c r="D147" s="161">
-        <v>4.5388513598053679</v>
+        <v>4.3058296684873909</v>
       </c>
       <c r="E147" s="161">
-        <v>4.5388513598053679</v>
+        <v>4.3058296684873909</v>
       </c>
       <c r="F147" s="161"/>
       <c r="G147" s="161">
-        <v>5.2632066153764088</v>
+        <v>5.0096868126281171</v>
       </c>
       <c r="H147" s="161">
-        <v>5.2632066153764088</v>
+        <v>5.0096868126281171</v>
       </c>
     </row>
     <row r="148">
@@ -38500,17 +38500,17 @@
       </c>
       <c r="C148" s="161"/>
       <c r="D148" s="177">
-        <v>4.3076741813919845</v>
+        <v>4.1795651112742211</v>
       </c>
       <c r="E148" s="177">
-        <v>4.3076741813919845</v>
+        <v>4.1795651112742211</v>
       </c>
       <c r="F148" s="161"/>
       <c r="G148" s="177">
-        <v>5.2784285643587658</v>
+        <v>5.1388104724506052</v>
       </c>
       <c r="H148" s="177">
-        <v>5.2784285643587658</v>
+        <v>5.1388104724506052</v>
       </c>
     </row>
     <row r="149">
@@ -38519,17 +38519,17 @@
       </c>
       <c r="C149" s="161"/>
       <c r="D149" s="161">
-        <v>5.7010692528258451</v>
+        <v>5.487725800441055</v>
       </c>
       <c r="E149" s="161">
-        <v>5.7010692528258451</v>
+        <v>5.487725800441055</v>
       </c>
       <c r="F149" s="161"/>
       <c r="G149" s="161">
-        <v>5.1926688407376487</v>
+        <v>4.54990283360867</v>
       </c>
       <c r="H149" s="161">
-        <v>5.1926688407376487</v>
+        <v>4.54990283360867</v>
       </c>
     </row>
     <row r="150">
@@ -38538,17 +38538,17 @@
       </c>
       <c r="C150" s="161"/>
       <c r="D150" s="161">
-        <v>3.6504172485813107</v>
+        <v>3.4273167433925766</v>
       </c>
       <c r="E150" s="161">
-        <v>3.6504172485813107</v>
+        <v>3.4273167433925766</v>
       </c>
       <c r="F150" s="161"/>
       <c r="G150" s="161">
-        <v>3.6051962605316987</v>
+        <v>2.9351069272015331</v>
       </c>
       <c r="H150" s="161">
-        <v>3.6051962605316987</v>
+        <v>2.9351069272015331</v>
       </c>
     </row>
     <row r="151">
@@ -38576,17 +38576,17 @@
       </c>
       <c r="C152" s="161"/>
       <c r="D152" s="161">
-        <v>6.99959726624446</v>
+        <v>6.9914736942579188</v>
       </c>
       <c r="E152" s="161">
-        <v>6.99959726624446</v>
+        <v>6.9914736942579188</v>
       </c>
       <c r="F152" s="161"/>
       <c r="G152" s="161">
-        <v>6.0319437876332955</v>
+        <v>6.0068939253068159</v>
       </c>
       <c r="H152" s="161">
-        <v>6.0319437876332955</v>
+        <v>6.0068939253068159</v>
       </c>
     </row>
     <row r="153">
@@ -38595,17 +38595,17 @@
       </c>
       <c r="C153" s="161"/>
       <c r="D153" s="177">
-        <v>6.2437127844090616</v>
+        <v>6.2251116797208015</v>
       </c>
       <c r="E153" s="177">
-        <v>6.2437127844090616</v>
+        <v>6.2251116797208015</v>
       </c>
       <c r="F153" s="161"/>
       <c r="G153" s="177">
-        <v>6.0947047991181025</v>
+        <v>6.0387261939507875</v>
       </c>
       <c r="H153" s="177">
-        <v>6.0947047991181025</v>
+        <v>6.0387261939507875</v>
       </c>
     </row>
     <row r="154">
@@ -38690,17 +38690,17 @@
       </c>
       <c r="C158" s="161"/>
       <c r="D158" s="177">
-        <v>1.4268157546836253</v>
+        <v>1.6778799469423642</v>
       </c>
       <c r="E158" s="177">
-        <v>1.4268157546836253</v>
+        <v>1.6778799469423642</v>
       </c>
       <c r="F158" s="161"/>
       <c r="G158" s="177">
-        <v>2.8161297113465693</v>
+        <v>2.9991875348780934</v>
       </c>
       <c r="H158" s="177">
-        <v>2.8161297113465693</v>
+        <v>2.9991875348780934</v>
       </c>
     </row>
     <row r="159"/>
@@ -39192,17 +39192,17 @@
       </c>
       <c r="C188" s="162"/>
       <c r="D188" s="162">
-        <v>95.530347352167325</v>
+        <v>95.534919252808379</v>
       </c>
       <c r="E188" s="162">
-        <v>95.530347352167325</v>
+        <v>95.534919252808379</v>
       </c>
       <c r="F188" s="162"/>
       <c r="G188" s="162">
-        <v>112.01318705964879</v>
+        <v>112.09603661978866</v>
       </c>
       <c r="H188" s="162">
-        <v>112.01318705964879</v>
+        <v>112.09603661978866</v>
       </c>
     </row>
     <row r="189">
@@ -39325,17 +39325,17 @@
       </c>
       <c r="C195" s="162"/>
       <c r="D195" s="162">
-        <v>0.11856986930266396</v>
+        <v>0.11749638838329624</v>
       </c>
       <c r="E195" s="162">
-        <v>0.11856986930266396</v>
+        <v>0.11749638838329624</v>
       </c>
       <c r="F195" s="162"/>
       <c r="G195" s="162">
-        <v>0.027683203515670073</v>
+        <v>0.02613885227825281</v>
       </c>
       <c r="H195" s="162">
-        <v>0.027683203515670073</v>
+        <v>0.02613885227825281</v>
       </c>
     </row>
     <row r="196">
@@ -39344,17 +39344,17 @@
       </c>
       <c r="C196" s="162"/>
       <c r="D196" s="162">
-        <v>21.621539623478512</v>
+        <v>21.638446280545189</v>
       </c>
       <c r="E196" s="162">
-        <v>21.621539623478512</v>
+        <v>21.638446280545189</v>
       </c>
       <c r="F196" s="162"/>
       <c r="G196" s="162">
-        <v>1.6978744691681382</v>
+        <v>1.7159300008925882</v>
       </c>
       <c r="H196" s="162">
-        <v>1.6978744691681382</v>
+        <v>1.7159300008925882</v>
       </c>
     </row>
     <row r="197">
@@ -39363,17 +39363,17 @@
       </c>
       <c r="C197" s="162"/>
       <c r="D197" s="162">
-        <v>14.956769885452113</v>
+        <v>14.966783104087609</v>
       </c>
       <c r="E197" s="162">
-        <v>14.956769885452113</v>
+        <v>14.966783104087609</v>
       </c>
       <c r="F197" s="162"/>
       <c r="G197" s="162">
-        <v>5.9518791506834745</v>
+        <v>5.9622083179571534</v>
       </c>
       <c r="H197" s="162">
-        <v>5.9518791506834745</v>
+        <v>5.9622083179571534</v>
       </c>
     </row>
     <row r="198">
@@ -39382,17 +39382,17 @@
       </c>
       <c r="C198" s="162"/>
       <c r="D198" s="162">
-        <v>14.950000679004999</v>
+        <v>14.960000517913581</v>
       </c>
       <c r="E198" s="162">
-        <v>14.950000679004999</v>
+        <v>14.960000517913581</v>
       </c>
       <c r="F198" s="162"/>
       <c r="G198" s="162">
-        <v>5.9431114505656915</v>
+        <v>5.9534446038101629</v>
       </c>
       <c r="H198" s="162">
-        <v>5.9431114505656915</v>
+        <v>5.9534446038101629</v>
       </c>
     </row>
     <row r="199">
@@ -39401,17 +39401,17 @@
       </c>
       <c r="C199" s="162"/>
       <c r="D199" s="162">
-        <v>-170410.74011140532</v>
+        <v>-170475.26516152121</v>
       </c>
       <c r="E199" s="162">
-        <v>-170410.74011140532</v>
+        <v>-170475.26516152121</v>
       </c>
       <c r="F199" s="162"/>
       <c r="G199" s="162">
-        <v>-478404.93582653924</v>
+        <v>-478846.90633053757</v>
       </c>
       <c r="H199" s="162">
-        <v>-478404.93582653924</v>
+        <v>-478846.90633053757</v>
       </c>
     </row>
     <row r="200">
@@ -39420,17 +39420,17 @@
       </c>
       <c r="C200" s="162"/>
       <c r="D200" s="176">
-        <v>-170110.3135807467</v>
+        <v>-170174.79821272849</v>
       </c>
       <c r="E200" s="176">
-        <v>-170110.3135807467</v>
+        <v>-170174.79821272849</v>
       </c>
       <c r="F200" s="162"/>
       <c r="G200" s="176">
-        <v>-478088.78191495046</v>
+        <v>-478530.63239588786</v>
       </c>
       <c r="H200" s="176">
-        <v>-478088.78191495046</v>
+        <v>-478530.63239588786</v>
       </c>
     </row>
     <row r="201">
@@ -39439,17 +39439,17 @@
       </c>
       <c r="C201" s="162"/>
       <c r="D201" s="162">
-        <v>13.071691234883344</v>
+        <v>13.231980465070762</v>
       </c>
       <c r="E201" s="162">
-        <v>13.071691234883344</v>
+        <v>13.231980465070762</v>
       </c>
       <c r="F201" s="162"/>
       <c r="G201" s="162">
-        <v>7.0808745100206218</v>
+        <v>7.2505576998979189</v>
       </c>
       <c r="H201" s="162">
-        <v>7.0808745100206218</v>
+        <v>7.2505576998979189</v>
       </c>
     </row>
     <row r="202">
@@ -39458,17 +39458,17 @@
       </c>
       <c r="C202" s="162"/>
       <c r="D202" s="162">
-        <v>663.24722744339283</v>
+        <v>662.53930261910409</v>
       </c>
       <c r="E202" s="162">
-        <v>663.24722744339283</v>
+        <v>662.53930261910409</v>
       </c>
       <c r="F202" s="162"/>
       <c r="G202" s="162">
-        <v>308.99634116347971</v>
+        <v>307.99866365024531</v>
       </c>
       <c r="H202" s="162">
-        <v>308.99634116347971</v>
+        <v>307.99866365024531</v>
       </c>
     </row>
     <row r="203">
@@ -39477,17 +39477,17 @@
       </c>
       <c r="C203" s="162"/>
       <c r="D203" s="162">
-        <v>27.164850486186491</v>
+        <v>27.057502394249724</v>
       </c>
       <c r="E203" s="162">
-        <v>27.164850486186491</v>
+        <v>27.057502394249724</v>
       </c>
       <c r="F203" s="162"/>
       <c r="G203" s="162">
-        <v>11.038479340237421</v>
+        <v>10.8840442164957</v>
       </c>
       <c r="H203" s="162">
-        <v>11.038479340237421</v>
+        <v>10.8840442164957</v>
       </c>
     </row>
     <row r="204">
@@ -39496,17 +39496,17 @@
       </c>
       <c r="C204" s="162"/>
       <c r="D204" s="176">
-        <v>703.48376916446273</v>
+        <v>702.82878547842438</v>
       </c>
       <c r="E204" s="176">
-        <v>703.48376916446273</v>
+        <v>702.82878547842438</v>
       </c>
       <c r="F204" s="162"/>
       <c r="G204" s="176">
-        <v>327.11569501373793</v>
+        <v>326.13326556663884</v>
       </c>
       <c r="H204" s="176">
-        <v>327.11569501373793</v>
+        <v>326.13326556663884</v>
       </c>
     </row>
     <row r="205">
@@ -39686,17 +39686,17 @@
       </c>
       <c r="C214" s="162"/>
       <c r="D214" s="176">
-        <v>-169389.95229032714</v>
+        <v>-169455.09190599469</v>
       </c>
       <c r="E214" s="176">
-        <v>-169389.95229032714</v>
+        <v>-169455.09190599469</v>
       </c>
       <c r="F214" s="162"/>
       <c r="G214" s="176">
-        <v>-477739.58835035679</v>
+        <v>-478182.42126074142</v>
       </c>
       <c r="H214" s="176">
-        <v>-477739.58835035679</v>
+        <v>-478182.42126074142</v>
       </c>
     </row>
     <row r="215"/>
@@ -40173,17 +40173,17 @@
       </c>
       <c r="C243" s="161"/>
       <c r="D243" s="161">
-        <v>5.2941854316000008</v>
+        <v>5.2937840266</v>
       </c>
       <c r="E243" s="161">
-        <v>5.2941854316000008</v>
+        <v>5.2937840266</v>
       </c>
       <c r="F243" s="161"/>
       <c r="G243" s="161">
-        <v>5.4823057734999994</v>
+        <v>5.4818901052000006</v>
       </c>
       <c r="H243" s="161">
-        <v>5.4823057734999994</v>
+        <v>5.4818901052000006</v>
       </c>
     </row>
     <row r="244">
@@ -40192,17 +40192,17 @@
       </c>
       <c r="C244" s="161"/>
       <c r="D244" s="161">
-        <v>3.5481178823746955</v>
+        <v>3.5491897370937249</v>
       </c>
       <c r="E244" s="161">
-        <v>3.5481178823746955</v>
+        <v>3.5491897370937249</v>
       </c>
       <c r="F244" s="161"/>
       <c r="G244" s="161">
-        <v>4.02023236691701</v>
+        <v>4.0231181461064205</v>
       </c>
       <c r="H244" s="161">
-        <v>4.02023236691701</v>
+        <v>4.0231181461064205</v>
       </c>
     </row>
     <row r="245">
@@ -40230,17 +40230,17 @@
       </c>
       <c r="C246" s="161"/>
       <c r="D246" s="161">
-        <v>4.5443139732</v>
+        <v>4.5439694232</v>
       </c>
       <c r="E246" s="161">
-        <v>4.5443139732</v>
+        <v>4.5439694232</v>
       </c>
       <c r="F246" s="161"/>
       <c r="G246" s="161">
-        <v>4.7324343151</v>
+        <v>4.732075502</v>
       </c>
       <c r="H246" s="161">
-        <v>4.7324343151</v>
+        <v>4.732075502</v>
       </c>
     </row>
     <row r="247">
@@ -40249,17 +40249,17 @@
       </c>
       <c r="C247" s="161"/>
       <c r="D247" s="161">
-        <v>4.7555554448000006</v>
+        <v>4.7551948787</v>
       </c>
       <c r="E247" s="161">
-        <v>4.7555554448000006</v>
+        <v>4.7551948787</v>
       </c>
       <c r="F247" s="161"/>
       <c r="G247" s="161">
-        <v>4.9927766226</v>
+        <v>4.9923980701999993</v>
       </c>
       <c r="H247" s="161">
-        <v>4.9927766226</v>
+        <v>4.9923980701999993</v>
       </c>
     </row>
     <row r="248">
@@ -40287,17 +40287,17 @@
       </c>
       <c r="C249" s="161"/>
       <c r="D249" s="161">
-        <v>7.5374369718000018</v>
+        <v>6.5368228851000012</v>
       </c>
       <c r="E249" s="161">
-        <v>7.5374369718000018</v>
+        <v>6.5368228851000012</v>
       </c>
       <c r="F249" s="161"/>
       <c r="G249" s="161">
-        <v>7.8762292133</v>
+        <v>6.8755692834</v>
       </c>
       <c r="H249" s="161">
-        <v>7.8762292133</v>
+        <v>6.8755692834</v>
       </c>
     </row>
     <row r="250">
@@ -40306,17 +40306,17 @@
       </c>
       <c r="C250" s="161"/>
       <c r="D250" s="161">
-        <v>6.8853468952000005</v>
+        <v>6.9044070978000009</v>
       </c>
       <c r="E250" s="161">
-        <v>6.8853468952000005</v>
+        <v>6.9044070978000009</v>
       </c>
       <c r="F250" s="161"/>
       <c r="G250" s="161">
-        <v>7.019968540699999</v>
+        <v>7.0390105269999994</v>
       </c>
       <c r="H250" s="161">
-        <v>7.019968540699999</v>
+        <v>7.0390105269999994</v>
       </c>
     </row>
     <row r="251">
@@ -40325,17 +40325,17 @@
       </c>
       <c r="C251" s="161"/>
       <c r="D251" s="161">
-        <v>5.1150603518</v>
+        <v>4.8345842245999995</v>
       </c>
       <c r="E251" s="161">
-        <v>5.1150603518</v>
+        <v>4.8345842245999995</v>
       </c>
       <c r="F251" s="161"/>
       <c r="G251" s="161">
-        <v>5.352261432</v>
+        <v>5.0717584291</v>
       </c>
       <c r="H251" s="161">
-        <v>5.352261432</v>
+        <v>5.0717584291</v>
       </c>
     </row>
     <row r="252">
@@ -40344,17 +40344,17 @@
       </c>
       <c r="C252" s="161"/>
       <c r="D252" s="161">
-        <v>6.0356499396</v>
+        <v>5.7858083501000008</v>
       </c>
       <c r="E252" s="161">
-        <v>6.0356499396</v>
+        <v>5.7858083501000008</v>
       </c>
       <c r="F252" s="161"/>
       <c r="G252" s="161">
-        <v>6.3743191361</v>
+        <v>6.1244775467000006</v>
       </c>
       <c r="H252" s="161">
-        <v>6.3743191361</v>
+        <v>6.1244775467000006</v>
       </c>
     </row>
     <row r="253">
@@ -40363,17 +40363,17 @@
       </c>
       <c r="C253" s="161"/>
       <c r="D253" s="161">
-        <v>6.5377250033999994</v>
+        <v>6.285361922</v>
       </c>
       <c r="E253" s="161">
-        <v>6.5377250033999994</v>
+        <v>6.285361922</v>
       </c>
       <c r="F253" s="161"/>
       <c r="G253" s="161">
-        <v>6.876518150599999</v>
+        <v>6.6240241353</v>
       </c>
       <c r="H253" s="161">
-        <v>6.876518150599999</v>
+        <v>6.6240241353</v>
       </c>
     </row>
     <row r="254">
@@ -40382,17 +40382,17 @@
       </c>
       <c r="C254" s="161"/>
       <c r="D254" s="161">
-        <v>6.2877919738</v>
+        <v>6.0355254843</v>
       </c>
       <c r="E254" s="161">
-        <v>6.2877919738</v>
+        <v>6.0355254843</v>
       </c>
       <c r="F254" s="161"/>
       <c r="G254" s="161">
-        <v>6.6265851209000006</v>
+        <v>6.3741876976999992</v>
       </c>
       <c r="H254" s="161">
-        <v>6.6265851209000006</v>
+        <v>6.3741876976999992</v>
       </c>
     </row>
     <row r="255">
@@ -40401,17 +40401,17 @@
       </c>
       <c r="C255" s="161"/>
       <c r="D255" s="161">
-        <v>2.6205503873000002</v>
+        <v>2.7905503870999997</v>
       </c>
       <c r="E255" s="161">
-        <v>2.6205503873000002</v>
+        <v>2.7905503870999997</v>
       </c>
       <c r="F255" s="161"/>
       <c r="G255" s="161">
-        <v>2.9610669149</v>
+        <v>3.1310669150000003</v>
       </c>
       <c r="H255" s="161">
-        <v>2.9610669149</v>
+        <v>3.1310669150000003</v>
       </c>
     </row>
     <row r="256">
@@ -40420,17 +40420,17 @@
       </c>
       <c r="C256" s="161"/>
       <c r="D256" s="177">
-        <v>2.6303605244691752</v>
+        <v>2.7994215755940197</v>
       </c>
       <c r="E256" s="177">
-        <v>2.6303605244691752</v>
+        <v>2.7994215755940197</v>
       </c>
       <c r="F256" s="161"/>
       <c r="G256" s="177">
-        <v>2.9622796273461725</v>
+        <v>3.13215588785312</v>
       </c>
       <c r="H256" s="177">
-        <v>2.9622796273461725</v>
+        <v>3.13215588785312</v>
       </c>
     </row>
     <row r="257">
@@ -40439,17 +40439,17 @@
       </c>
       <c r="C257" s="161"/>
       <c r="D257" s="161">
-        <v>4.3748746194</v>
+        <v>4.3945379726</v>
       </c>
       <c r="E257" s="161">
-        <v>4.3748746194</v>
+        <v>4.3945379726</v>
       </c>
       <c r="F257" s="161"/>
       <c r="G257" s="161">
-        <v>4.582870358</v>
+        <v>4.6025179407999994</v>
       </c>
       <c r="H257" s="161">
-        <v>4.582870358</v>
+        <v>4.6025179407999994</v>
       </c>
     </row>
     <row r="258">
@@ -40458,17 +40458,17 @@
       </c>
       <c r="C258" s="161"/>
       <c r="D258" s="161">
-        <v>5.02808323001807</v>
+        <v>5.0076283949985534</v>
       </c>
       <c r="E258" s="161">
-        <v>5.02808323001807</v>
+        <v>5.0076283949985534</v>
       </c>
       <c r="F258" s="161"/>
       <c r="G258" s="161">
-        <v>5.412079045583611</v>
+        <v>5.3889794013544785</v>
       </c>
       <c r="H258" s="161">
-        <v>5.412079045583611</v>
+        <v>5.3889794013544785</v>
       </c>
     </row>
     <row r="259">
@@ -40477,17 +40477,17 @@
       </c>
       <c r="C259" s="161"/>
       <c r="D259" s="161">
-        <v>4.8593492846760471</v>
+        <v>4.7773581267749075</v>
       </c>
       <c r="E259" s="161">
-        <v>4.8593492846760471</v>
+        <v>4.7773581267749075</v>
       </c>
       <c r="F259" s="161"/>
       <c r="G259" s="161">
-        <v>5.0828291881544372</v>
+        <v>5.0114408865876259</v>
       </c>
       <c r="H259" s="161">
-        <v>5.0828291881544372</v>
+        <v>5.0114408865876259</v>
       </c>
     </row>
     <row r="260">
@@ -40496,17 +40496,17 @@
       </c>
       <c r="C260" s="161"/>
       <c r="D260" s="177">
-        <v>5.0121244400969864</v>
+        <v>4.9897028945719972</v>
       </c>
       <c r="E260" s="177">
-        <v>5.0121244400969864</v>
+        <v>4.9897028945719972</v>
       </c>
       <c r="F260" s="161"/>
       <c r="G260" s="177">
-        <v>5.3829150317562631</v>
+        <v>5.3588012115881645</v>
       </c>
       <c r="H260" s="177">
-        <v>5.3829150317562631</v>
+        <v>5.3588012115881645</v>
       </c>
     </row>
     <row r="261">
@@ -40515,17 +40515,17 @@
       </c>
       <c r="C261" s="161"/>
       <c r="D261" s="161">
-        <v>3.6882338587000008</v>
+        <v>3.6799980098</v>
       </c>
       <c r="E261" s="161">
-        <v>3.6882338587000008</v>
+        <v>3.6799980098</v>
       </c>
       <c r="F261" s="161"/>
       <c r="G261" s="161">
-        <v>3.7428572492</v>
+        <v>3.7344994260999993</v>
       </c>
       <c r="H261" s="161">
-        <v>3.7428572492</v>
+        <v>3.7344994260999993</v>
       </c>
     </row>
     <row r="262">
@@ -40534,17 +40534,17 @@
       </c>
       <c r="C262" s="161"/>
       <c r="D262" s="161">
-        <v>3.6882338587000008</v>
+        <v>3.6799980098</v>
       </c>
       <c r="E262" s="161">
-        <v>3.6882338587000008</v>
+        <v>3.6799980098</v>
       </c>
       <c r="F262" s="161"/>
       <c r="G262" s="161">
-        <v>3.7428572492</v>
+        <v>3.7344994260999993</v>
       </c>
       <c r="H262" s="161">
-        <v>3.7428572492</v>
+        <v>3.7344994260999993</v>
       </c>
     </row>
     <row r="263">
@@ -40572,17 +40572,17 @@
       </c>
       <c r="C264" s="161"/>
       <c r="D264" s="161">
-        <v>5.5378752276000007</v>
+        <v>5.2879475077999993</v>
       </c>
       <c r="E264" s="161">
-        <v>5.5378752276000007</v>
+        <v>5.2879475077999993</v>
       </c>
       <c r="F264" s="161"/>
       <c r="G264" s="161">
-        <v>5.876661177</v>
+        <v>5.6267334572</v>
       </c>
       <c r="H264" s="161">
-        <v>5.876661177</v>
+        <v>5.6267334572</v>
       </c>
     </row>
     <row r="265">
@@ -40591,17 +40591,17 @@
       </c>
       <c r="C265" s="161"/>
       <c r="D265" s="177">
-        <v>4.5124590883314655</v>
+        <v>4.5007623220579793</v>
       </c>
       <c r="E265" s="177">
-        <v>4.5124590883314655</v>
+        <v>4.5007623220579793</v>
       </c>
       <c r="F265" s="161"/>
       <c r="G265" s="177">
-        <v>4.4304186202696165</v>
+        <v>4.4193784817750315</v>
       </c>
       <c r="H265" s="177">
-        <v>4.4304186202696165</v>
+        <v>4.4193784817750315</v>
       </c>
     </row>
     <row r="266">
@@ -40686,17 +40686,17 @@
       </c>
       <c r="C270" s="161"/>
       <c r="D270" s="177">
-        <v>2.6652559711022783</v>
+        <v>2.8311805428705408</v>
       </c>
       <c r="E270" s="177">
-        <v>2.6652559711022783</v>
+        <v>2.8311805428705408</v>
       </c>
       <c r="F270" s="161"/>
       <c r="G270" s="177">
-        <v>2.9640556246665182</v>
+        <v>3.1337811203179409</v>
       </c>
       <c r="H270" s="177">
-        <v>2.9640556246665182</v>
+        <v>3.1337811203179409</v>
       </c>
     </row>
     <row r="271"/>
@@ -40839,17 +40839,17 @@
       </c>
       <c r="C279" s="161"/>
       <c r="D279" s="161">
-        <v>3.5582317535</v>
+        <v>3.4682317535</v>
       </c>
       <c r="E279" s="161">
-        <v>3.5582317535</v>
+        <v>3.4682317535</v>
       </c>
       <c r="F279" s="161"/>
       <c r="G279" s="161">
-        <v>3.7561515267</v>
+        <v>3.6661515267</v>
       </c>
       <c r="H279" s="161">
-        <v>3.7561515267</v>
+        <v>3.6661515267</v>
       </c>
     </row>
     <row r="280">
@@ -40858,17 +40858,17 @@
       </c>
       <c r="C280" s="161"/>
       <c r="D280" s="177">
-        <v>3.5582317535</v>
+        <v>3.4682317535</v>
       </c>
       <c r="E280" s="177">
-        <v>3.5582317535</v>
+        <v>3.4682317535</v>
       </c>
       <c r="F280" s="161"/>
       <c r="G280" s="177">
-        <v>3.7561515267</v>
+        <v>3.6661515267</v>
       </c>
       <c r="H280" s="177">
-        <v>3.7561515267</v>
+        <v>3.6661515267</v>
       </c>
     </row>
     <row r="281">
@@ -41328,13 +41328,13 @@
         <v>1040.497740402599</v>
       </c>
       <c r="E313" s="59">
-        <v>3.2220663299859797</v>
+        <v>2.1322638856197798</v>
       </c>
       <c r="F313" s="59">
-        <v>-82.2268426327254</v>
+        <v>-88.8234131551996</v>
       </c>
       <c r="G313" s="59">
-        <v>-135.1249491903028</v>
+        <v>-144.47176582677091</v>
       </c>
       <c r="H313" s="59"/>
       <c r="I313" s="59"/>
@@ -41422,7 +41422,7 @@
       </c>
       <c r="C330" s="56"/>
       <c r="D330" s="56">
-        <v>10.771213417086065</v>
+        <v>9.68141097271987</v>
       </c>
       <c r="E330" s="57"/>
     </row>
@@ -41432,7 +41432,7 @@
       </c>
       <c r="C331" s="56"/>
       <c r="D331" s="56">
-        <v>14.68747645641171</v>
+        <v>14.63096488816355</v>
       </c>
       <c r="E331" s="57"/>
     </row>
@@ -41452,7 +41452,7 @@
       </c>
       <c r="C333" s="56"/>
       <c r="D333" s="56">
-        <v>-13.882999439569195</v>
+        <v>-14.916290315687229</v>
       </c>
       <c r="E333" s="57"/>
     </row>
@@ -41472,7 +41472,7 @@
       </c>
       <c r="C335" s="56"/>
       <c r="D335" s="56">
-        <v>3.3995240728756642</v>
+        <v>2.30972162850947</v>
       </c>
       <c r="E335" s="57"/>
     </row>
@@ -41530,7 +41530,7 @@
       </c>
       <c r="C341" s="56"/>
       <c r="D341" s="56">
-        <v>-2699.0333801010038</v>
+        <v>-2699.3603208343138</v>
       </c>
       <c r="E341" s="57"/>
     </row>
@@ -41540,7 +41540,7 @@
       </c>
       <c r="C342" s="56"/>
       <c r="D342" s="56">
-        <v>-6297.74455356901</v>
+        <v>-6298.5074152800689</v>
       </c>
       <c r="E342" s="57"/>
     </row>
@@ -41572,7 +41572,7 @@
       </c>
       <c r="C346" s="56"/>
       <c r="D346" s="56">
-        <v>-222.48046855892659</v>
+        <v>-243.39257631411772</v>
       </c>
       <c r="E346" s="57"/>
     </row>
@@ -41582,7 +41582,7 @@
       </c>
       <c r="C347" s="56"/>
       <c r="D347" s="56">
-        <v>64.015463830331029</v>
+        <v>63.701884169534345</v>
       </c>
       <c r="E347" s="57"/>
     </row>
@@ -41602,7 +41602,7 @@
       </c>
       <c r="C349" s="56"/>
       <c r="D349" s="56">
-        <v>-326.58931273080339</v>
+        <v>-347.18784082519784</v>
       </c>
       <c r="E349" s="57"/>
     </row>
@@ -41622,7 +41622,7 @@
       </c>
       <c r="C351" s="56"/>
       <c r="D351" s="56">
-        <v>-251.2661785077685</v>
+        <v>-272.17828626295966</v>
       </c>
       <c r="E351" s="57"/>
     </row>
@@ -41680,7 +41680,7 @@
       </c>
       <c r="C357" s="56"/>
       <c r="D357" s="56">
-        <v>-10875.350562863458</v>
+        <v>-10881.624195190016</v>
       </c>
       <c r="E357" s="57"/>
     </row>
@@ -41690,7 +41690,7 @@
       </c>
       <c r="C358" s="56"/>
       <c r="D358" s="56">
-        <v>-25375.817980014737</v>
+        <v>-25390.456455443364</v>
       </c>
       <c r="E358" s="57"/>
     </row>

--- a/lib/report/benchmark_report/web14/exl/201809/jsliu__bank_test_&_city_(HF)(201809)_Two_Cycles_Comparison.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201809/jsliu__bank_test_&_city_(HF)(201809)_Two_Cycles_Comparison.xlsx
@@ -314,7 +314,7 @@
     <t xml:space="preserve">Bank Name: jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 12/10/18 3:33:36PM</t>
+    <t>Printed on: 01/02/19 4:54:25AM</t>
   </si>
   <si>
     <t xml:space="preserve"> Rate Shock</t>
@@ -733,7 +733,7 @@
     </r>
   </si>
   <si>
-    <t>Printed on: 12/10/18 3:33:31PM</t>
+    <t>Printed on: 01/02/19 4:54:20AM</t>
   </si>
   <si>
     <t xml:space="preserve">Earning/
@@ -3192,7 +3192,7 @@
       <c r="F8" s="91"/>
       <c r="G8" s="91"/>
       <c r="H8" s="91">
-        <v>-8.6311401212908816</v>
+        <v>-8.6269534221129884</v>
       </c>
       <c r="I8" s="91"/>
       <c r="J8" s="91"/>
@@ -3204,7 +3204,7 @@
       <c r="N8" s="91"/>
       <c r="O8" s="91"/>
       <c r="P8" s="91">
-        <v>-17.764978617760146</v>
+        <v>-17.656874562677473</v>
       </c>
       <c r="Q8" s="91"/>
       <c r="R8" s="91"/>
@@ -3238,7 +3238,7 @@
       <c r="AL8" s="91"/>
       <c r="AM8" s="91"/>
       <c r="AN8" s="91">
-        <v>-72.951426814275564</v>
+        <v>-72.903926276310671</v>
       </c>
       <c r="AO8" s="91"/>
       <c r="AP8" s="91"/>
@@ -3256,7 +3256,7 @@
       <c r="F9" s="91"/>
       <c r="G9" s="91"/>
       <c r="H9" s="91">
-        <v>-6.4689369059414918</v>
+        <v>-6.4735960350192858</v>
       </c>
       <c r="I9" s="91"/>
       <c r="J9" s="91"/>
@@ -3268,7 +3268,7 @@
       <c r="N9" s="91"/>
       <c r="O9" s="91"/>
       <c r="P9" s="91">
-        <v>-13.240500325922669</v>
+        <v>-13.186821878925311</v>
       </c>
       <c r="Q9" s="91"/>
       <c r="R9" s="91"/>
@@ -3302,7 +3302,7 @@
       <c r="AL9" s="91"/>
       <c r="AM9" s="91"/>
       <c r="AN9" s="91">
-        <v>-72.7682169852009</v>
+        <v>-72.720354939145466</v>
       </c>
       <c r="AO9" s="91"/>
       <c r="AP9" s="91"/>
@@ -3320,7 +3320,7 @@
       <c r="F10" s="91"/>
       <c r="G10" s="91"/>
       <c r="H10" s="91">
-        <v>-4.2840028182611292</v>
+        <v>-4.29574325719122</v>
       </c>
       <c r="I10" s="91"/>
       <c r="J10" s="91"/>
@@ -3332,7 +3332,7 @@
       <c r="N10" s="91"/>
       <c r="O10" s="91"/>
       <c r="P10" s="91">
-        <v>-8.7102207167427572</v>
+        <v>-8.7043217041086152</v>
       </c>
       <c r="Q10" s="91"/>
       <c r="R10" s="91"/>
@@ -3366,7 +3366,7 @@
       <c r="AL10" s="91"/>
       <c r="AM10" s="91"/>
       <c r="AN10" s="91">
-        <v>-72.583083483950617</v>
+        <v>-72.534697774356857</v>
       </c>
       <c r="AO10" s="91"/>
       <c r="AP10" s="91"/>
@@ -3384,7 +3384,7 @@
       <c r="F11" s="91"/>
       <c r="G11" s="91"/>
       <c r="H11" s="91">
-        <v>-2.0919991239621765</v>
+        <v>-2.1062196627850351</v>
       </c>
       <c r="I11" s="91"/>
       <c r="J11" s="91"/>
@@ -3396,7 +3396,7 @@
       <c r="N11" s="91"/>
       <c r="O11" s="91"/>
       <c r="P11" s="91">
-        <v>-4.2465207679032613</v>
+        <v>-4.2714460331568063</v>
       </c>
       <c r="Q11" s="91"/>
       <c r="R11" s="91"/>
@@ -3430,7 +3430,7 @@
       <c r="AL11" s="91"/>
       <c r="AM11" s="91"/>
       <c r="AN11" s="91">
-        <v>-72.393016668051928</v>
+        <v>-72.343711383826275</v>
       </c>
       <c r="AO11" s="91"/>
       <c r="AP11" s="91"/>
@@ -3494,7 +3494,7 @@
       <c r="AL12" s="91"/>
       <c r="AM12" s="91"/>
       <c r="AN12" s="91">
-        <v>-72.208641147390935</v>
+        <v>-72.157044121120634</v>
       </c>
       <c r="AO12" s="91"/>
       <c r="AP12" s="91"/>
@@ -3512,7 +3512,7 @@
       <c r="F13" s="91"/>
       <c r="G13" s="91"/>
       <c r="H13" s="91">
-        <v>1.2989351245809175</v>
+        <v>1.3858401038153174</v>
       </c>
       <c r="I13" s="91"/>
       <c r="J13" s="91"/>
@@ -3524,7 +3524,7 @@
       <c r="N13" s="91"/>
       <c r="O13" s="91"/>
       <c r="P13" s="91">
-        <v>2.7783553354474604</v>
+        <v>3.0310909871903391</v>
       </c>
       <c r="Q13" s="91"/>
       <c r="R13" s="91"/>
@@ -3558,7 +3558,7 @@
       <c r="AL13" s="91"/>
       <c r="AM13" s="91"/>
       <c r="AN13" s="91">
-        <v>-72.073124630388122</v>
+        <v>-72.013448548802486</v>
       </c>
       <c r="AO13" s="91"/>
       <c r="AP13" s="91"/>
@@ -3576,7 +3576,7 @@
       <c r="F14" s="91"/>
       <c r="G14" s="91"/>
       <c r="H14" s="91">
-        <v>0.61033493125560134</v>
+        <v>0.7671568112931908</v>
       </c>
       <c r="I14" s="91"/>
       <c r="J14" s="91"/>
@@ -3588,7 +3588,7 @@
       <c r="N14" s="91"/>
       <c r="O14" s="91"/>
       <c r="P14" s="91">
-        <v>1.9217849246423044</v>
+        <v>2.3815044526243816</v>
       </c>
       <c r="Q14" s="91"/>
       <c r="R14" s="91"/>
@@ -3620,7 +3620,7 @@
       <c r="AL14" s="91"/>
       <c r="AM14" s="91"/>
       <c r="AN14" s="91">
-        <v>-72.128463333290711</v>
+        <v>-72.063181977142023</v>
       </c>
       <c r="AO14" s="91"/>
       <c r="AP14" s="91"/>
@@ -3684,7 +3684,7 @@
       <c r="F16" s="91"/>
       <c r="G16" s="91"/>
       <c r="H16" s="91">
-        <v>-3.5925121636298223</v>
+        <v>-3.3834989316650894</v>
       </c>
       <c r="I16" s="91"/>
       <c r="J16" s="91"/>
@@ -3696,7 +3696,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
       <c r="P16" s="91">
-        <v>-8.66475022212753</v>
+        <v>-8.0072478632304946</v>
       </c>
       <c r="Q16" s="91"/>
       <c r="R16" s="91"/>
@@ -3728,7 +3728,7 @@
       <c r="AL16" s="91"/>
       <c r="AM16" s="91"/>
       <c r="AN16" s="91">
-        <v>-72.484601148585256</v>
+        <v>-72.4170389073209</v>
       </c>
       <c r="AO16" s="91"/>
       <c r="AP16" s="91"/>
@@ -3746,7 +3746,7 @@
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
       <c r="H17" s="91">
-        <v>-9.5547618046842153</v>
+        <v>-9.5178605523644819</v>
       </c>
       <c r="I17" s="91"/>
       <c r="J17" s="91"/>
@@ -3758,7 +3758,7 @@
       <c r="N17" s="91"/>
       <c r="O17" s="91"/>
       <c r="P17" s="91">
-        <v>-19.069214820921424</v>
+        <v>-18.867998608132858</v>
       </c>
       <c r="Q17" s="91"/>
       <c r="R17" s="91"/>
@@ -3790,7 +3790,7 @@
       <c r="AL17" s="91"/>
       <c r="AM17" s="91"/>
       <c r="AN17" s="91">
-        <v>-73.029709045905577</v>
+        <v>-72.979896078454956</v>
       </c>
       <c r="AO17" s="91"/>
       <c r="AP17" s="91"/>
@@ -4006,13 +4006,13 @@
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96">
-        <v>3780.8870579766431</v>
+        <v>3803.9093776112454</v>
       </c>
       <c r="I23" s="96"/>
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
       <c r="L23" s="96">
-        <v>3780.8870579766431</v>
+        <v>3803.9093776112454</v>
       </c>
       <c r="M23" s="96"/>
       <c r="N23" s="96"/>
@@ -4046,7 +4046,7 @@
       <c r="AL23" s="96"/>
       <c r="AM23" s="96"/>
       <c r="AN23" s="96">
-        <v>-3260.9417294419518</v>
+        <v>-3237.9194098073494</v>
       </c>
       <c r="AO23" s="96"/>
       <c r="AP23" s="96"/>
@@ -4064,13 +4064,13 @@
       <c r="F24" s="96"/>
       <c r="G24" s="96"/>
       <c r="H24" s="96">
-        <v>6798.0379798651611</v>
+        <v>6898.0503384804852</v>
       </c>
       <c r="I24" s="96"/>
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
       <c r="L24" s="96">
-        <v>6798.0379798651611</v>
+        <v>6898.0503384804852</v>
       </c>
       <c r="M24" s="96"/>
       <c r="N24" s="96"/>
@@ -4104,7 +4104,7 @@
       <c r="AL24" s="96"/>
       <c r="AM24" s="96"/>
       <c r="AN24" s="96">
-        <v>-7285.6195949720295</v>
+        <v>-7185.6072363567046</v>
       </c>
       <c r="AO24" s="96"/>
       <c r="AP24" s="96"/>
@@ -4122,13 +4122,13 @@
       <c r="F25" s="96"/>
       <c r="G25" s="96"/>
       <c r="H25" s="96">
-        <v>-22553.379059416351</v>
+        <v>-22537.263435672132</v>
       </c>
       <c r="I25" s="96"/>
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
       <c r="L25" s="96">
-        <v>-22553.379059416351</v>
+        <v>-22537.263435672132</v>
       </c>
       <c r="M25" s="96"/>
       <c r="N25" s="96"/>
@@ -4162,13 +4162,13 @@
       <c r="AH25" s="96"/>
       <c r="AI25" s="96"/>
       <c r="AJ25" s="96">
-        <v>9665.7338826070081</v>
+        <v>9658.8271867166241</v>
       </c>
       <c r="AK25" s="96"/>
       <c r="AL25" s="96"/>
       <c r="AM25" s="96"/>
       <c r="AN25" s="96">
-        <v>-3260.9417294419522</v>
+        <v>-3237.919409807349</v>
       </c>
       <c r="AO25" s="96"/>
       <c r="AP25" s="96"/>
@@ -4186,13 +4186,13 @@
       <c r="F26" s="96"/>
       <c r="G26" s="96"/>
       <c r="H26" s="96">
-        <v>-45641.373414094392</v>
+        <v>-45571.364763063684</v>
       </c>
       <c r="I26" s="96"/>
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
       <c r="L26" s="96">
-        <v>-45641.373414094392</v>
+        <v>-45571.364763063684</v>
       </c>
       <c r="M26" s="96"/>
       <c r="N26" s="96"/>
@@ -4226,13 +4226,13 @@
       <c r="AH26" s="96"/>
       <c r="AI26" s="96"/>
       <c r="AJ26" s="96">
-        <v>19560.588606040448</v>
+        <v>19530.584898455851</v>
       </c>
       <c r="AK26" s="96"/>
       <c r="AL26" s="96"/>
       <c r="AM26" s="96"/>
       <c r="AN26" s="96">
-        <v>-7285.6195949720341</v>
+        <v>-7185.6072363567246</v>
       </c>
       <c r="AO26" s="96"/>
       <c r="AP26" s="96"/>
@@ -10006,55 +10006,55 @@
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="96">
-        <v>3803.9631324027969</v>
+        <v>3833.0913274970108</v>
       </c>
       <c r="E107" s="96"/>
       <c r="F107" s="96"/>
       <c r="G107" s="96"/>
       <c r="H107" s="96">
-        <v>3829.9983279934359</v>
+        <v>3856.6254792789737</v>
       </c>
       <c r="I107" s="96"/>
       <c r="J107" s="96"/>
       <c r="K107" s="96"/>
       <c r="L107" s="96">
-        <v>3780.8870579766431</v>
+        <v>3803.9093776112454</v>
       </c>
       <c r="M107" s="96"/>
       <c r="N107" s="96"/>
       <c r="O107" s="96"/>
       <c r="P107" s="96">
-        <v>3701.7909338457725</v>
+        <v>3723.7906903454736</v>
       </c>
       <c r="Q107" s="96"/>
       <c r="R107" s="96"/>
       <c r="S107" s="96"/>
       <c r="T107" s="96">
-        <v>3618.9137498576533</v>
+        <v>3640.5031970128457</v>
       </c>
       <c r="U107" s="96"/>
       <c r="V107" s="96"/>
       <c r="W107" s="96"/>
       <c r="X107" s="96">
-        <v>3536.3038597112263</v>
+        <v>3557.6596509664773</v>
       </c>
       <c r="Y107" s="96"/>
       <c r="Z107" s="96"/>
       <c r="AA107" s="96"/>
       <c r="AB107" s="96">
-        <v>3454.5533981749268</v>
+        <v>3475.7478873853352</v>
       </c>
       <c r="AC107" s="96"/>
       <c r="AD107" s="96"/>
       <c r="AE107" s="96"/>
       <c r="AF107" s="96">
-        <v>3419.6323054828422</v>
+        <v>3441.8585875118915</v>
       </c>
       <c r="AG107" s="96"/>
       <c r="AH107" s="96"/>
       <c r="AI107" s="96"/>
       <c r="AJ107" s="98">
-        <v>-2.0919991239621765</v>
+        <v>-2.1062196627850351</v>
       </c>
       <c r="AK107" s="98"/>
       <c r="AL107" s="98"/>
@@ -10748,42 +10748,42 @@
       <c r="Q123" s="112"/>
       <c r="R123" s="112"/>
       <c r="S123" s="112">
-        <v>410.616301963333</v>
+        <v>410.933875108505</v>
       </c>
       <c r="T123" s="112"/>
       <c r="U123" s="112"/>
       <c r="V123" s="112">
-        <v>409.02992632954</v>
+        <v>409.68297703094</v>
       </c>
       <c r="W123" s="112"/>
       <c r="X123" s="112"/>
       <c r="Y123" s="112">
-        <v>406.903250448813</v>
+        <v>407.894111776848</v>
       </c>
       <c r="Z123" s="112"/>
       <c r="AA123" s="112"/>
       <c r="AB123" s="112">
-        <v>404.553693802778</v>
+        <v>405.89012132961903</v>
       </c>
       <c r="AC123" s="112"/>
       <c r="AD123" s="112"/>
       <c r="AE123" s="112">
-        <v>401.903731368849</v>
+        <v>403.587823399888</v>
       </c>
       <c r="AF123" s="112"/>
       <c r="AG123" s="112"/>
       <c r="AH123" s="112">
-        <v>399.233893480499</v>
+        <v>401.277986847327</v>
       </c>
       <c r="AI123" s="112"/>
       <c r="AJ123" s="112"/>
       <c r="AK123" s="112">
-        <v>396.36040903250796</v>
+        <v>398.770497500453</v>
       </c>
       <c r="AL123" s="112"/>
       <c r="AM123" s="112"/>
       <c r="AN123" s="112">
-        <v>393.33956131992403</v>
+        <v>396.137351810117</v>
       </c>
       <c r="AO123" s="112"/>
       <c r="AP123" s="112"/>
@@ -10874,42 +10874,42 @@
       <c r="Q125" s="115"/>
       <c r="R125" s="115"/>
       <c r="S125" s="115">
-        <v>342.514714738371</v>
+        <v>342.832287883543</v>
       </c>
       <c r="T125" s="115"/>
       <c r="U125" s="115"/>
       <c r="V125" s="115">
-        <v>339.63540444893</v>
+        <v>340.28845515033</v>
       </c>
       <c r="W125" s="115"/>
       <c r="X125" s="115"/>
       <c r="Y125" s="115">
-        <v>332.962426949629</v>
+        <v>333.953288277664</v>
       </c>
       <c r="Z125" s="115"/>
       <c r="AA125" s="115"/>
       <c r="AB125" s="115">
-        <v>322.986827001037</v>
+        <v>324.32325452787705</v>
       </c>
       <c r="AC125" s="115"/>
       <c r="AD125" s="115"/>
       <c r="AE125" s="115">
-        <v>316.938809802916</v>
+        <v>318.62290183395504</v>
       </c>
       <c r="AF125" s="115"/>
       <c r="AG125" s="115"/>
       <c r="AH125" s="115">
-        <v>311.753113485592</v>
+        <v>313.79720685242</v>
       </c>
       <c r="AI125" s="115"/>
       <c r="AJ125" s="115"/>
       <c r="AK125" s="115">
-        <v>306.194781800311</v>
+        <v>308.604870268256</v>
       </c>
       <c r="AL125" s="115"/>
       <c r="AM125" s="115"/>
       <c r="AN125" s="115">
-        <v>300.353308451721</v>
+        <v>303.151098941914</v>
       </c>
       <c r="AO125" s="115"/>
       <c r="AP125" s="115"/>
@@ -11063,42 +11063,42 @@
       <c r="Q128" s="115"/>
       <c r="R128" s="115"/>
       <c r="S128" s="115">
-        <v>-2657.48528526163</v>
+        <v>-2657.16771211646</v>
       </c>
       <c r="T128" s="115"/>
       <c r="U128" s="115"/>
       <c r="V128" s="115">
-        <v>-2660.3645955510697</v>
+        <v>-2659.71154484967</v>
       </c>
       <c r="W128" s="115"/>
       <c r="X128" s="115"/>
       <c r="Y128" s="115">
-        <v>-2667.03757305037</v>
+        <v>-2666.0467117223398</v>
       </c>
       <c r="Z128" s="115"/>
       <c r="AA128" s="115"/>
       <c r="AB128" s="115">
-        <v>-2677.0131729989603</v>
+        <v>-2675.6767454721203</v>
       </c>
       <c r="AC128" s="115"/>
       <c r="AD128" s="115"/>
       <c r="AE128" s="115">
-        <v>-2683.06119019708</v>
+        <v>-2681.37709816604</v>
       </c>
       <c r="AF128" s="115"/>
       <c r="AG128" s="115"/>
       <c r="AH128" s="115">
-        <v>-2688.24688651441</v>
+        <v>-2686.2027931475805</v>
       </c>
       <c r="AI128" s="115"/>
       <c r="AJ128" s="115"/>
       <c r="AK128" s="115">
-        <v>-2693.80521819969</v>
+        <v>-2691.39512973174</v>
       </c>
       <c r="AL128" s="115"/>
       <c r="AM128" s="115"/>
       <c r="AN128" s="115">
-        <v>-2699.64669154828</v>
+        <v>-2696.8489010580897</v>
       </c>
       <c r="AO128" s="115"/>
       <c r="AP128" s="115"/>
@@ -11126,42 +11126,42 @@
       <c r="Q129" s="115"/>
       <c r="R129" s="115"/>
       <c r="S129" s="115">
-        <v>-797.245585578489</v>
+        <v>-797.150313634937</v>
       </c>
       <c r="T129" s="115"/>
       <c r="U129" s="115"/>
       <c r="V129" s="115">
-        <v>-798.10937866532106</v>
+        <v>-797.913463454901</v>
       </c>
       <c r="W129" s="115"/>
       <c r="X129" s="115"/>
       <c r="Y129" s="115">
-        <v>-800.111271915111</v>
+        <v>-799.81401351670092</v>
       </c>
       <c r="Z129" s="115"/>
       <c r="AA129" s="115"/>
       <c r="AB129" s="115">
-        <v>-803.103951899689</v>
+        <v>-802.703023641637</v>
       </c>
       <c r="AC129" s="115"/>
       <c r="AD129" s="115"/>
       <c r="AE129" s="115">
-        <v>-804.918357059125</v>
+        <v>-804.413129449813</v>
       </c>
       <c r="AF129" s="115"/>
       <c r="AG129" s="115"/>
       <c r="AH129" s="115">
-        <v>-806.474065954322</v>
+        <v>-805.860837944274</v>
       </c>
       <c r="AI129" s="115"/>
       <c r="AJ129" s="115"/>
       <c r="AK129" s="115">
-        <v>-808.141565459907</v>
+        <v>-807.418538919523</v>
       </c>
       <c r="AL129" s="115"/>
       <c r="AM129" s="115"/>
       <c r="AN129" s="115">
-        <v>-809.89400746448393</v>
+        <v>-809.054670317426</v>
       </c>
       <c r="AO129" s="115"/>
       <c r="AP129" s="115"/>
@@ -11189,42 +11189,42 @@
       <c r="Q130" s="115"/>
       <c r="R130" s="115"/>
       <c r="S130" s="115">
-        <v>-1860.23969968314</v>
+        <v>-1860.0173984815199</v>
       </c>
       <c r="T130" s="115"/>
       <c r="U130" s="115"/>
       <c r="V130" s="115">
-        <v>-1862.2552168857499</v>
+        <v>-1861.79808139477</v>
       </c>
       <c r="W130" s="115"/>
       <c r="X130" s="115"/>
       <c r="Y130" s="115">
-        <v>-1866.92630113526</v>
+        <v>-1866.23269820563</v>
       </c>
       <c r="Z130" s="115"/>
       <c r="AA130" s="115"/>
       <c r="AB130" s="115">
-        <v>-1873.90922109927</v>
+        <v>-1872.9737218304902</v>
       </c>
       <c r="AC130" s="115"/>
       <c r="AD130" s="115"/>
       <c r="AE130" s="115">
-        <v>-1878.14283313796</v>
+        <v>-1876.96396871623</v>
       </c>
       <c r="AF130" s="115"/>
       <c r="AG130" s="115"/>
       <c r="AH130" s="115">
-        <v>-1881.77282056009</v>
+        <v>-1880.34195520331</v>
       </c>
       <c r="AI130" s="115"/>
       <c r="AJ130" s="115"/>
       <c r="AK130" s="115">
-        <v>-1885.66365273978</v>
+        <v>-1883.97659081222</v>
       </c>
       <c r="AL130" s="115"/>
       <c r="AM130" s="115"/>
       <c r="AN130" s="115">
-        <v>-1889.7526840838</v>
+        <v>-1887.7942307406602</v>
       </c>
       <c r="AO130" s="115"/>
       <c r="AP130" s="115"/>
@@ -11254,42 +11254,42 @@
       <c r="Q131" s="115"/>
       <c r="R131" s="115"/>
       <c r="S131" s="115">
-        <v>23634.0324563564</v>
+        <v>23634.254757628103</v>
       </c>
       <c r="T131" s="115"/>
       <c r="U131" s="115"/>
       <c r="V131" s="115">
-        <v>21771.7772398644</v>
+        <v>21772.4566763043</v>
       </c>
       <c r="W131" s="115"/>
       <c r="X131" s="115"/>
       <c r="Y131" s="115">
-        <v>19904.8509389068</v>
+        <v>19906.2239785843</v>
       </c>
       <c r="Z131" s="115"/>
       <c r="AA131" s="115"/>
       <c r="AB131" s="115">
-        <v>18030.941721369603</v>
+        <v>18033.2502604021</v>
       </c>
       <c r="AC131" s="115"/>
       <c r="AD131" s="115"/>
       <c r="AE131" s="115">
-        <v>16152.798884920201</v>
+        <v>16156.286288307101</v>
       </c>
       <c r="AF131" s="115"/>
       <c r="AG131" s="115"/>
       <c r="AH131" s="115">
-        <v>14271.0260630603</v>
+        <v>14275.9443319062</v>
       </c>
       <c r="AI131" s="115"/>
       <c r="AJ131" s="115"/>
       <c r="AK131" s="115">
-        <v>12385.3624094474</v>
+        <v>12391.9677401339</v>
       </c>
       <c r="AL131" s="115"/>
       <c r="AM131" s="115"/>
       <c r="AN131" s="115">
-        <v>10495.609728616299</v>
+        <v>10504.1735122737</v>
       </c>
       <c r="AO131" s="115"/>
       <c r="AP131" s="115"/>
@@ -11408,13 +11408,13 @@
       <c r="F137" s="149"/>
       <c r="G137" s="149"/>
       <c r="H137" s="149">
-        <v>-827.379294686889</v>
+        <v>-826.38936542460192</v>
       </c>
       <c r="I137" s="149"/>
       <c r="J137" s="149"/>
       <c r="K137" s="149"/>
       <c r="L137" s="149">
-        <v>-827.379294686889</v>
+        <v>-826.38936542460192</v>
       </c>
       <c r="M137" s="149"/>
       <c r="N137" s="149"/>
@@ -11424,13 +11424,13 @@
       <c r="R137" s="149"/>
       <c r="S137" s="149"/>
       <c r="T137" s="149">
-        <v>-2245.5982347262398</v>
+        <v>-2241.29783543603</v>
       </c>
       <c r="U137" s="149"/>
       <c r="V137" s="149"/>
       <c r="W137" s="149"/>
       <c r="X137" s="149">
-        <v>-2245.5982347262398</v>
+        <v>-2241.29783543603</v>
       </c>
       <c r="Y137" s="149"/>
       <c r="Z137" s="149"/>
@@ -11446,13 +11446,13 @@
       <c r="F138" s="149"/>
       <c r="G138" s="149"/>
       <c r="H138" s="149">
-        <v>-12641.9997607534</v>
+        <v>-12626.874067401699</v>
       </c>
       <c r="I138" s="149"/>
       <c r="J138" s="149"/>
       <c r="K138" s="149"/>
       <c r="L138" s="149">
-        <v>-12641.9997607534</v>
+        <v>-12626.874067401699</v>
       </c>
       <c r="M138" s="149"/>
       <c r="N138" s="149"/>
@@ -11462,13 +11462,13 @@
       <c r="R138" s="149"/>
       <c r="S138" s="149"/>
       <c r="T138" s="149">
-        <v>-34311.7751779139</v>
+        <v>-34246.0669263935</v>
       </c>
       <c r="U138" s="149"/>
       <c r="V138" s="149"/>
       <c r="W138" s="149"/>
       <c r="X138" s="149">
-        <v>-34311.7751779139</v>
+        <v>-34246.0669263935</v>
       </c>
       <c r="Y138" s="149"/>
       <c r="Z138" s="149"/>
@@ -11484,13 +11484,13 @@
       <c r="F139" s="149"/>
       <c r="G139" s="149"/>
       <c r="H139" s="151">
-        <v>-13469.379055440299</v>
+        <v>-13453.2634328263</v>
       </c>
       <c r="I139" s="151"/>
       <c r="J139" s="151"/>
       <c r="K139" s="151"/>
       <c r="L139" s="151">
-        <v>-13469.379055440299</v>
+        <v>-13453.2634328263</v>
       </c>
       <c r="M139" s="151"/>
       <c r="N139" s="151"/>
@@ -11500,13 +11500,13 @@
       <c r="R139" s="149"/>
       <c r="S139" s="149"/>
       <c r="T139" s="151">
-        <v>-36557.3734126401</v>
+        <v>-36487.3647618295</v>
       </c>
       <c r="U139" s="151"/>
       <c r="V139" s="151"/>
       <c r="W139" s="151"/>
       <c r="X139" s="151">
-        <v>-36557.3734126401</v>
+        <v>-36487.3647618295</v>
       </c>
       <c r="Y139" s="151"/>
       <c r="Z139" s="151"/>
@@ -12434,13 +12434,13 @@
       <c r="F164" s="149"/>
       <c r="G164" s="149"/>
       <c r="H164" s="151">
-        <v>92031.620944559691</v>
+        <v>92047.7365671737</v>
       </c>
       <c r="I164" s="151"/>
       <c r="J164" s="151"/>
       <c r="K164" s="151"/>
       <c r="L164" s="151">
-        <v>92031.620944559691</v>
+        <v>92047.7365671737</v>
       </c>
       <c r="M164" s="151"/>
       <c r="N164" s="151"/>
@@ -12450,13 +12450,13 @@
       <c r="R164" s="149"/>
       <c r="S164" s="149"/>
       <c r="T164" s="151">
-        <v>68943.6265873598</v>
+        <v>69013.635238170507</v>
       </c>
       <c r="U164" s="151"/>
       <c r="V164" s="151"/>
       <c r="W164" s="151"/>
       <c r="X164" s="151">
-        <v>68943.6265873598</v>
+        <v>69013.635238170507</v>
       </c>
       <c r="Y164" s="151"/>
       <c r="Z164" s="151"/>
@@ -12814,13 +12814,13 @@
       <c r="F176" s="149"/>
       <c r="G176" s="149"/>
       <c r="H176" s="151">
-        <v>4802.62094455969</v>
+        <v>4818.7365671737</v>
       </c>
       <c r="I176" s="151"/>
       <c r="J176" s="151"/>
       <c r="K176" s="151"/>
       <c r="L176" s="151">
-        <v>4802.62094455969</v>
+        <v>4818.7365671737</v>
       </c>
       <c r="M176" s="151"/>
       <c r="N176" s="151"/>
@@ -12830,13 +12830,13 @@
       <c r="R176" s="149"/>
       <c r="S176" s="149"/>
       <c r="T176" s="151">
-        <v>-18285.3734126401</v>
+        <v>-18215.3647618295</v>
       </c>
       <c r="U176" s="151"/>
       <c r="V176" s="151"/>
       <c r="W176" s="151"/>
       <c r="X176" s="151">
-        <v>-18285.3734126401</v>
+        <v>-18215.3647618295</v>
       </c>
       <c r="Y176" s="151"/>
       <c r="Z176" s="151"/>
@@ -13050,13 +13050,13 @@
       <c r="F183" s="149"/>
       <c r="G183" s="149"/>
       <c r="H183" s="149">
-        <v>-49821.1659592107</v>
+        <v>-49700.48327225534</v>
       </c>
       <c r="I183" s="149"/>
       <c r="J183" s="149"/>
       <c r="K183" s="149"/>
       <c r="L183" s="149">
-        <v>-49821.1659592107</v>
+        <v>-49700.48327225534</v>
       </c>
       <c r="M183" s="149"/>
       <c r="N183" s="149"/>
@@ -13066,13 +13066,13 @@
       <c r="R183" s="149"/>
       <c r="S183" s="149"/>
       <c r="T183" s="149">
-        <v>-710562.06589180732</v>
+        <v>-709439.22634621675</v>
       </c>
       <c r="U183" s="149"/>
       <c r="V183" s="149"/>
       <c r="W183" s="149"/>
       <c r="X183" s="149">
-        <v>-710562.06589180732</v>
+        <v>-709439.22634621675</v>
       </c>
       <c r="Y183" s="149"/>
       <c r="Z183" s="149"/>
@@ -13088,13 +13088,13 @@
       <c r="F184" s="149"/>
       <c r="G184" s="149"/>
       <c r="H184" s="151">
-        <v>-49821.1659592107</v>
+        <v>-49700.48327225534</v>
       </c>
       <c r="I184" s="151"/>
       <c r="J184" s="151"/>
       <c r="K184" s="151"/>
       <c r="L184" s="151">
-        <v>-49821.1659592107</v>
+        <v>-49700.48327225534</v>
       </c>
       <c r="M184" s="151"/>
       <c r="N184" s="151"/>
@@ -13104,13 +13104,13 @@
       <c r="R184" s="149"/>
       <c r="S184" s="149"/>
       <c r="T184" s="151">
-        <v>-710562.06589180732</v>
+        <v>-709439.22634621675</v>
       </c>
       <c r="U184" s="151"/>
       <c r="V184" s="151"/>
       <c r="W184" s="151"/>
       <c r="X184" s="151">
-        <v>-710562.06589180732</v>
+        <v>-709439.22634621675</v>
       </c>
       <c r="Y184" s="151"/>
       <c r="Z184" s="151"/>
@@ -13126,13 +13126,13 @@
       <c r="F185" s="149"/>
       <c r="G185" s="149"/>
       <c r="H185" s="149">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="I185" s="149"/>
       <c r="J185" s="149"/>
       <c r="K185" s="149"/>
       <c r="L185" s="149">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="M185" s="149"/>
       <c r="N185" s="149"/>
@@ -13142,13 +13142,13 @@
       <c r="R185" s="149"/>
       <c r="S185" s="149"/>
       <c r="T185" s="149">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="U185" s="149"/>
       <c r="V185" s="149"/>
       <c r="W185" s="149"/>
       <c r="X185" s="149">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="Y185" s="149"/>
       <c r="Z185" s="149"/>
@@ -13164,13 +13164,13 @@
       <c r="F186" s="149"/>
       <c r="G186" s="149"/>
       <c r="H186" s="151">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="I186" s="151"/>
       <c r="J186" s="151"/>
       <c r="K186" s="151"/>
       <c r="L186" s="151">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="M186" s="151"/>
       <c r="N186" s="151"/>
@@ -13180,13 +13180,13 @@
       <c r="R186" s="149"/>
       <c r="S186" s="149"/>
       <c r="T186" s="151">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="U186" s="151"/>
       <c r="V186" s="151"/>
       <c r="W186" s="151"/>
       <c r="X186" s="151">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="Y186" s="151"/>
       <c r="Z186" s="151"/>
@@ -13202,13 +13202,13 @@
       <c r="F187" s="149"/>
       <c r="G187" s="149"/>
       <c r="H187" s="151">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="I187" s="151"/>
       <c r="J187" s="151"/>
       <c r="K187" s="151"/>
       <c r="L187" s="151">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="M187" s="151"/>
       <c r="N187" s="151"/>
@@ -13218,13 +13218,13 @@
       <c r="R187" s="149"/>
       <c r="S187" s="149"/>
       <c r="T187" s="151">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="U187" s="151"/>
       <c r="V187" s="151"/>
       <c r="W187" s="151"/>
       <c r="X187" s="151">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="Y187" s="151"/>
       <c r="Z187" s="151"/>
@@ -13278,13 +13278,13 @@
       <c r="F189" s="149"/>
       <c r="G189" s="149"/>
       <c r="H189" s="151">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="I189" s="151"/>
       <c r="J189" s="151"/>
       <c r="K189" s="151"/>
       <c r="L189" s="151">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="M189" s="151"/>
       <c r="N189" s="151"/>
@@ -13294,13 +13294,13 @@
       <c r="R189" s="149"/>
       <c r="S189" s="149"/>
       <c r="T189" s="151">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="U189" s="151"/>
       <c r="V189" s="151"/>
       <c r="W189" s="151"/>
       <c r="X189" s="151">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="Y189" s="151"/>
       <c r="Z189" s="151"/>
@@ -13316,13 +13316,13 @@
       <c r="F190" s="149"/>
       <c r="G190" s="149"/>
       <c r="H190" s="149">
-        <v>9962.9912951755414</v>
+        <v>9963.1873794182266</v>
       </c>
       <c r="I190" s="149"/>
       <c r="J190" s="149"/>
       <c r="K190" s="149"/>
       <c r="L190" s="149">
-        <v>9962.9912951755414</v>
+        <v>9963.1873794182266</v>
       </c>
       <c r="M190" s="149"/>
       <c r="N190" s="149"/>
@@ -13332,13 +13332,13 @@
       <c r="R190" s="149"/>
       <c r="S190" s="149"/>
       <c r="T190" s="149">
-        <v>13788.771693856648</v>
+        <v>13790.28571401318</v>
       </c>
       <c r="U190" s="149"/>
       <c r="V190" s="149"/>
       <c r="W190" s="149"/>
       <c r="X190" s="149">
-        <v>13788.771693856648</v>
+        <v>13790.28571401318</v>
       </c>
       <c r="Y190" s="149"/>
       <c r="Z190" s="149"/>
@@ -13354,13 +13354,13 @@
       <c r="F191" s="149"/>
       <c r="G191" s="149"/>
       <c r="H191" s="149">
-        <v>1535457.8268533712</v>
+        <v>1538520.6555068512</v>
       </c>
       <c r="I191" s="149"/>
       <c r="J191" s="149"/>
       <c r="K191" s="149"/>
       <c r="L191" s="149">
-        <v>1535457.8268533712</v>
+        <v>1538520.6555068512</v>
       </c>
       <c r="M191" s="149"/>
       <c r="N191" s="149"/>
@@ -13370,13 +13370,13 @@
       <c r="R191" s="149"/>
       <c r="S191" s="149"/>
       <c r="T191" s="149">
-        <v>1571475.2369651932</v>
+        <v>1584781.810750667</v>
       </c>
       <c r="U191" s="149"/>
       <c r="V191" s="149"/>
       <c r="W191" s="149"/>
       <c r="X191" s="149">
-        <v>1571475.2369651932</v>
+        <v>1584781.810750667</v>
       </c>
       <c r="Y191" s="149"/>
       <c r="Z191" s="149"/>
@@ -13392,13 +13392,13 @@
       <c r="F192" s="149"/>
       <c r="G192" s="149"/>
       <c r="H192" s="149">
-        <v>34328.441509283926</v>
+        <v>34329.117136337714</v>
       </c>
       <c r="I192" s="149"/>
       <c r="J192" s="149"/>
       <c r="K192" s="149"/>
       <c r="L192" s="149">
-        <v>34328.441509283926</v>
+        <v>34329.117136337714</v>
       </c>
       <c r="M192" s="149"/>
       <c r="N192" s="149"/>
@@ -13408,13 +13408,13 @@
       <c r="R192" s="149"/>
       <c r="S192" s="149"/>
       <c r="T192" s="149">
-        <v>47510.534592821634</v>
+        <v>47515.751294397342</v>
       </c>
       <c r="U192" s="149"/>
       <c r="V192" s="149"/>
       <c r="W192" s="149"/>
       <c r="X192" s="149">
-        <v>47510.534592821634</v>
+        <v>47515.751294397342</v>
       </c>
       <c r="Y192" s="149"/>
       <c r="Z192" s="149"/>
@@ -13430,13 +13430,13 @@
       <c r="F193" s="149"/>
       <c r="G193" s="149"/>
       <c r="H193" s="151">
-        <v>1569786.2683626541</v>
+        <v>1572849.7726431883</v>
       </c>
       <c r="I193" s="151"/>
       <c r="J193" s="151"/>
       <c r="K193" s="151"/>
       <c r="L193" s="151">
-        <v>1569786.2683626541</v>
+        <v>1572849.7726431883</v>
       </c>
       <c r="M193" s="151"/>
       <c r="N193" s="151"/>
@@ -13446,13 +13446,13 @@
       <c r="R193" s="149"/>
       <c r="S193" s="149"/>
       <c r="T193" s="151">
-        <v>1618985.7715580126</v>
+        <v>1632297.5620450641</v>
       </c>
       <c r="U193" s="151"/>
       <c r="V193" s="151"/>
       <c r="W193" s="151"/>
       <c r="X193" s="151">
-        <v>1618985.7715580126</v>
+        <v>1632297.5620450641</v>
       </c>
       <c r="Y193" s="151"/>
       <c r="Z193" s="151"/>
@@ -13468,13 +13468,13 @@
       <c r="F194" s="149"/>
       <c r="G194" s="149"/>
       <c r="H194" s="151">
-        <v>1579749.2596578312</v>
+        <v>1582812.9600226071</v>
       </c>
       <c r="I194" s="151"/>
       <c r="J194" s="151"/>
       <c r="K194" s="151"/>
       <c r="L194" s="151">
-        <v>1579749.2596578312</v>
+        <v>1582812.9600226071</v>
       </c>
       <c r="M194" s="151"/>
       <c r="N194" s="151"/>
@@ -13484,13 +13484,13 @@
       <c r="R194" s="149"/>
       <c r="S194" s="149"/>
       <c r="T194" s="151">
-        <v>1632774.5432518688</v>
+        <v>1646087.84775908</v>
       </c>
       <c r="U194" s="151"/>
       <c r="V194" s="151"/>
       <c r="W194" s="151"/>
       <c r="X194" s="151">
-        <v>1632774.5432518688</v>
+        <v>1646087.84775908</v>
       </c>
       <c r="Y194" s="151"/>
       <c r="Z194" s="151"/>
@@ -13506,13 +13506,13 @@
       <c r="F195" s="149"/>
       <c r="G195" s="149"/>
       <c r="H195" s="149">
-        <v>1841927.6310833944</v>
+        <v>1853704.716068713</v>
       </c>
       <c r="I195" s="149"/>
       <c r="J195" s="149"/>
       <c r="K195" s="149"/>
       <c r="L195" s="149">
-        <v>1841927.6310833944</v>
+        <v>1853704.716068713</v>
       </c>
       <c r="M195" s="149"/>
       <c r="N195" s="149"/>
@@ -13522,13 +13522,13 @@
       <c r="R195" s="149"/>
       <c r="S195" s="149"/>
       <c r="T195" s="149">
-        <v>1942008.2233706312</v>
+        <v>1979036.8196263993</v>
       </c>
       <c r="U195" s="149"/>
       <c r="V195" s="149"/>
       <c r="W195" s="149"/>
       <c r="X195" s="149">
-        <v>1942008.2233706312</v>
+        <v>1979036.8196263993</v>
       </c>
       <c r="Y195" s="149"/>
       <c r="Z195" s="149"/>
@@ -13544,13 +13544,13 @@
       <c r="F196" s="149"/>
       <c r="G196" s="149"/>
       <c r="H196" s="149">
-        <v>649806.15536564367</v>
+        <v>653960.94526432431</v>
       </c>
       <c r="I196" s="149"/>
       <c r="J196" s="149"/>
       <c r="K196" s="149"/>
       <c r="L196" s="149">
-        <v>649806.15536564367</v>
+        <v>653960.94526432431</v>
       </c>
       <c r="M196" s="149"/>
       <c r="N196" s="149"/>
@@ -13560,13 +13560,13 @@
       <c r="R196" s="149"/>
       <c r="S196" s="149"/>
       <c r="T196" s="149">
-        <v>685113.18035589042</v>
+        <v>698176.3481837135</v>
       </c>
       <c r="U196" s="149"/>
       <c r="V196" s="149"/>
       <c r="W196" s="149"/>
       <c r="X196" s="149">
-        <v>685113.18035589042</v>
+        <v>698176.3481837135</v>
       </c>
       <c r="Y196" s="149"/>
       <c r="Z196" s="149"/>
@@ -13582,13 +13582,13 @@
       <c r="F197" s="149"/>
       <c r="G197" s="149"/>
       <c r="H197" s="149">
-        <v>624657.16904729477</v>
+        <v>628651.15906211047</v>
       </c>
       <c r="I197" s="149"/>
       <c r="J197" s="149"/>
       <c r="K197" s="149"/>
       <c r="L197" s="149">
-        <v>624657.16904729477</v>
+        <v>628651.15906211047</v>
       </c>
       <c r="M197" s="149"/>
       <c r="N197" s="149"/>
@@ -13598,13 +13598,13 @@
       <c r="R197" s="149"/>
       <c r="S197" s="149"/>
       <c r="T197" s="149">
-        <v>658597.73131463514</v>
+        <v>671155.32463187</v>
       </c>
       <c r="U197" s="149"/>
       <c r="V197" s="149"/>
       <c r="W197" s="149"/>
       <c r="X197" s="149">
-        <v>658597.73131463514</v>
+        <v>671155.32463187</v>
       </c>
       <c r="Y197" s="149"/>
       <c r="Z197" s="149"/>
@@ -13620,13 +13620,13 @@
       <c r="F198" s="149"/>
       <c r="G198" s="149"/>
       <c r="H198" s="151">
-        <v>1274463.3244129403</v>
+        <v>1282612.104326434</v>
       </c>
       <c r="I198" s="151"/>
       <c r="J198" s="151"/>
       <c r="K198" s="151"/>
       <c r="L198" s="151">
-        <v>1274463.3244129403</v>
+        <v>1282612.104326434</v>
       </c>
       <c r="M198" s="151"/>
       <c r="N198" s="151"/>
@@ -13636,13 +13636,13 @@
       <c r="R198" s="149"/>
       <c r="S198" s="149"/>
       <c r="T198" s="151">
-        <v>1343710.9116705251</v>
+        <v>1369331.6728155841</v>
       </c>
       <c r="U198" s="151"/>
       <c r="V198" s="151"/>
       <c r="W198" s="151"/>
       <c r="X198" s="151">
-        <v>1343710.9116705251</v>
+        <v>1369331.6728155841</v>
       </c>
       <c r="Y198" s="151"/>
       <c r="Z198" s="151"/>
@@ -13658,13 +13658,13 @@
       <c r="F199" s="149"/>
       <c r="G199" s="149"/>
       <c r="H199" s="151">
-        <v>4696140.2151541617</v>
+        <v>4719129.7804177552</v>
       </c>
       <c r="I199" s="151"/>
       <c r="J199" s="151"/>
       <c r="K199" s="151"/>
       <c r="L199" s="151">
-        <v>4696140.2151541617</v>
+        <v>4719129.7804177552</v>
       </c>
       <c r="M199" s="151"/>
       <c r="N199" s="151"/>
@@ -13674,13 +13674,13 @@
       <c r="R199" s="149"/>
       <c r="S199" s="149"/>
       <c r="T199" s="151">
-        <v>4918493.6782930242</v>
+        <v>4994456.3402010612</v>
       </c>
       <c r="U199" s="151"/>
       <c r="V199" s="151"/>
       <c r="W199" s="151"/>
       <c r="X199" s="151">
-        <v>4918493.6782930242</v>
+        <v>4994456.3402010612</v>
       </c>
       <c r="Y199" s="151"/>
       <c r="Z199" s="151"/>
@@ -13696,13 +13696,13 @@
       <c r="F200" s="149"/>
       <c r="G200" s="149"/>
       <c r="H200" s="149">
-        <v>1327.516395288804</v>
+        <v>1327.7383585992448</v>
       </c>
       <c r="I200" s="149"/>
       <c r="J200" s="149"/>
       <c r="K200" s="149"/>
       <c r="L200" s="149">
-        <v>1327.516395288804</v>
+        <v>1327.7383585992448</v>
       </c>
       <c r="M200" s="149"/>
       <c r="N200" s="149"/>
@@ -13712,13 +13712,13 @@
       <c r="R200" s="149"/>
       <c r="S200" s="149"/>
       <c r="T200" s="149">
-        <v>1315.9217230849411</v>
+        <v>1316.622532671094</v>
       </c>
       <c r="U200" s="149"/>
       <c r="V200" s="149"/>
       <c r="W200" s="149"/>
       <c r="X200" s="149">
-        <v>1315.9217230849411</v>
+        <v>1316.622532671094</v>
       </c>
       <c r="Y200" s="149"/>
       <c r="Z200" s="149"/>
@@ -13734,13 +13734,13 @@
       <c r="F201" s="149"/>
       <c r="G201" s="149"/>
       <c r="H201" s="149">
-        <v>392.49344523728223</v>
+        <v>392.49344523696863</v>
       </c>
       <c r="I201" s="149"/>
       <c r="J201" s="149"/>
       <c r="K201" s="149"/>
       <c r="L201" s="149">
-        <v>392.49344523728223</v>
+        <v>392.49344523696863</v>
       </c>
       <c r="M201" s="149"/>
       <c r="N201" s="149"/>
@@ -13750,13 +13750,13 @@
       <c r="R201" s="149"/>
       <c r="S201" s="149"/>
       <c r="T201" s="149">
-        <v>1154.4580270464098</v>
+        <v>1154.4580270418669</v>
       </c>
       <c r="U201" s="149"/>
       <c r="V201" s="149"/>
       <c r="W201" s="149"/>
       <c r="X201" s="149">
-        <v>1154.4580270464098</v>
+        <v>1154.4580270418669</v>
       </c>
       <c r="Y201" s="149"/>
       <c r="Z201" s="149"/>
@@ -13772,13 +13772,13 @@
       <c r="F202" s="149"/>
       <c r="G202" s="149"/>
       <c r="H202" s="151">
-        <v>4695849.7812772514</v>
+        <v>4718751.4182251794</v>
       </c>
       <c r="I202" s="151"/>
       <c r="J202" s="151"/>
       <c r="K202" s="151"/>
       <c r="L202" s="151">
-        <v>4695849.7812772514</v>
+        <v>4718751.4182251794</v>
       </c>
       <c r="M202" s="151"/>
       <c r="N202" s="151"/>
@@ -13788,13 +13788,13 @@
       <c r="R202" s="149"/>
       <c r="S202" s="149"/>
       <c r="T202" s="151">
-        <v>4918770.0719610294</v>
+        <v>4994637.2713817321</v>
       </c>
       <c r="U202" s="151"/>
       <c r="V202" s="151"/>
       <c r="W202" s="151"/>
       <c r="X202" s="151">
-        <v>4918770.0719610294</v>
+        <v>4994637.2713817321</v>
       </c>
       <c r="Y202" s="151"/>
       <c r="Z202" s="151"/>
@@ -14038,13 +14038,13 @@
       <c r="F209" s="149"/>
       <c r="G209" s="149"/>
       <c r="H209" s="151">
-        <v>4790709.9634354506</v>
+        <v>4813732.283070337</v>
       </c>
       <c r="I209" s="151"/>
       <c r="J209" s="151"/>
       <c r="K209" s="151"/>
       <c r="L209" s="151">
-        <v>4790709.9634354506</v>
+        <v>4813732.283070337</v>
       </c>
       <c r="M209" s="151"/>
       <c r="N209" s="151"/>
@@ -14054,13 +14054,13 @@
       <c r="R209" s="149"/>
       <c r="S209" s="149"/>
       <c r="T209" s="151">
-        <v>4355264.01093931</v>
+        <v>4432254.0499055684</v>
       </c>
       <c r="U209" s="151"/>
       <c r="V209" s="151"/>
       <c r="W209" s="151"/>
       <c r="X209" s="151">
-        <v>4355264.01093931</v>
+        <v>4432254.0499055684</v>
       </c>
       <c r="Y209" s="151"/>
       <c r="Z209" s="151"/>
@@ -14076,13 +14076,13 @@
       <c r="F211" s="149"/>
       <c r="G211" s="149"/>
       <c r="H211" s="149">
-        <v>288287.9280493905</v>
+        <v>288287.92804911366</v>
       </c>
       <c r="I211" s="149"/>
       <c r="J211" s="149"/>
       <c r="K211" s="149"/>
       <c r="L211" s="149">
-        <v>288287.9280493905</v>
+        <v>288287.92804911366</v>
       </c>
       <c r="M211" s="149"/>
       <c r="N211" s="149"/>
@@ -14092,13 +14092,13 @@
       <c r="R211" s="149"/>
       <c r="S211" s="149"/>
       <c r="T211" s="149">
-        <v>352707.92446133535</v>
+        <v>352707.924446398</v>
       </c>
       <c r="U211" s="149"/>
       <c r="V211" s="149"/>
       <c r="W211" s="149"/>
       <c r="X211" s="149">
-        <v>352707.92446133535</v>
+        <v>352707.924446398</v>
       </c>
       <c r="Y211" s="149"/>
       <c r="Z211" s="149"/>
@@ -14114,13 +14114,13 @@
       <c r="F212" s="149"/>
       <c r="G212" s="149"/>
       <c r="H212" s="149">
-        <v>671243.72642544622</v>
+        <v>671243.726426006</v>
       </c>
       <c r="I212" s="149"/>
       <c r="J212" s="149"/>
       <c r="K212" s="149"/>
       <c r="L212" s="149">
-        <v>671243.72642544622</v>
+        <v>671243.726426006</v>
       </c>
       <c r="M212" s="149"/>
       <c r="N212" s="149"/>
@@ -14130,13 +14130,13 @@
       <c r="R212" s="149"/>
       <c r="S212" s="149"/>
       <c r="T212" s="149">
-        <v>874613.462704365</v>
+        <v>874613.46270484012</v>
       </c>
       <c r="U212" s="149"/>
       <c r="V212" s="149"/>
       <c r="W212" s="149"/>
       <c r="X212" s="149">
-        <v>874613.462704365</v>
+        <v>874613.46270484012</v>
       </c>
       <c r="Y212" s="149"/>
       <c r="Z212" s="149"/>
@@ -14266,13 +14266,13 @@
       <c r="F216" s="149"/>
       <c r="G216" s="149"/>
       <c r="H216" s="151">
-        <v>1009822.9054588074</v>
+        <v>1009822.9054590898</v>
       </c>
       <c r="I216" s="151"/>
       <c r="J216" s="151"/>
       <c r="K216" s="151"/>
       <c r="L216" s="151">
-        <v>1009822.9054588074</v>
+        <v>1009822.9054590898</v>
       </c>
       <c r="M216" s="151"/>
       <c r="N216" s="151"/>
@@ -14282,13 +14282,13 @@
       <c r="R216" s="149"/>
       <c r="S216" s="149"/>
       <c r="T216" s="151">
-        <v>1338113.0890507908</v>
+        <v>1338113.0890363308</v>
       </c>
       <c r="U216" s="151"/>
       <c r="V216" s="151"/>
       <c r="W216" s="151"/>
       <c r="X216" s="151">
-        <v>1338113.0890507908</v>
+        <v>1338113.0890363308</v>
       </c>
       <c r="Y216" s="151"/>
       <c r="Z216" s="151"/>
@@ -14380,13 +14380,13 @@
       <c r="F219" s="149"/>
       <c r="G219" s="149"/>
       <c r="H219" s="151">
-        <v>1009822.9054588074</v>
+        <v>1009822.9054590898</v>
       </c>
       <c r="I219" s="151"/>
       <c r="J219" s="151"/>
       <c r="K219" s="151"/>
       <c r="L219" s="151">
-        <v>1009822.9054588074</v>
+        <v>1009822.9054590898</v>
       </c>
       <c r="M219" s="151"/>
       <c r="N219" s="151"/>
@@ -14396,13 +14396,13 @@
       <c r="R219" s="149"/>
       <c r="S219" s="149"/>
       <c r="T219" s="151">
-        <v>1338113.0890507908</v>
+        <v>1338113.0890363308</v>
       </c>
       <c r="U219" s="151"/>
       <c r="V219" s="151"/>
       <c r="W219" s="151"/>
       <c r="X219" s="151">
-        <v>1338113.0890507908</v>
+        <v>1338113.0890363308</v>
       </c>
       <c r="Y219" s="151"/>
       <c r="Z219" s="151"/>
@@ -14418,13 +14418,13 @@
       <c r="F221" s="149"/>
       <c r="G221" s="149"/>
       <c r="H221" s="151">
-        <v>3780887.0579766431</v>
+        <v>3803909.3776112455</v>
       </c>
       <c r="I221" s="151"/>
       <c r="J221" s="151"/>
       <c r="K221" s="151"/>
       <c r="L221" s="151">
-        <v>3780887.0579766431</v>
+        <v>3803909.3776112455</v>
       </c>
       <c r="M221" s="151"/>
       <c r="N221" s="151"/>
@@ -14434,13 +14434,13 @@
       <c r="R221" s="149"/>
       <c r="S221" s="149"/>
       <c r="T221" s="151">
-        <v>3017150.9218885181</v>
+        <v>3094140.9608692387</v>
       </c>
       <c r="U221" s="151"/>
       <c r="V221" s="151"/>
       <c r="W221" s="151"/>
       <c r="X221" s="151">
-        <v>3017150.9218885181</v>
+        <v>3094140.9608692387</v>
       </c>
       <c r="Y221" s="151"/>
       <c r="Z221" s="151"/>
@@ -14734,13 +14734,13 @@
       <c r="F230" s="152"/>
       <c r="G230" s="152"/>
       <c r="H230" s="152">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="I230" s="152"/>
       <c r="J230" s="152"/>
       <c r="K230" s="152"/>
       <c r="L230" s="152">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="M230" s="152"/>
       <c r="N230" s="152"/>
@@ -14750,13 +14750,13 @@
       <c r="R230" s="152"/>
       <c r="S230" s="152"/>
       <c r="T230" s="152">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
       <c r="U230" s="152"/>
       <c r="V230" s="152"/>
       <c r="W230" s="152"/>
       <c r="X230" s="152">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
       <c r="Y230" s="152"/>
       <c r="Z230" s="152"/>
@@ -14772,13 +14772,13 @@
       <c r="F231" s="152"/>
       <c r="G231" s="152"/>
       <c r="H231" s="153">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="I231" s="153"/>
       <c r="J231" s="153"/>
       <c r="K231" s="153"/>
       <c r="L231" s="153">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="M231" s="153"/>
       <c r="N231" s="153"/>
@@ -14788,13 +14788,13 @@
       <c r="R231" s="152"/>
       <c r="S231" s="152"/>
       <c r="T231" s="153">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
       <c r="U231" s="153"/>
       <c r="V231" s="153"/>
       <c r="W231" s="153"/>
       <c r="X231" s="153">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
       <c r="Y231" s="153"/>
       <c r="Z231" s="153"/>
@@ -14810,13 +14810,13 @@
       <c r="F232" s="152"/>
       <c r="G232" s="152"/>
       <c r="H232" s="153">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="I232" s="153"/>
       <c r="J232" s="153"/>
       <c r="K232" s="153"/>
       <c r="L232" s="153">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="M232" s="153"/>
       <c r="N232" s="153"/>
@@ -14826,13 +14826,13 @@
       <c r="R232" s="152"/>
       <c r="S232" s="152"/>
       <c r="T232" s="153">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
       <c r="U232" s="153"/>
       <c r="V232" s="153"/>
       <c r="W232" s="153"/>
       <c r="X232" s="153">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
       <c r="Y232" s="153"/>
       <c r="Z232" s="153"/>
@@ -14886,13 +14886,13 @@
       <c r="F234" s="152"/>
       <c r="G234" s="152"/>
       <c r="H234" s="153">
-        <v>3.2420715850596378</v>
+        <v>3.2420715850596475</v>
       </c>
       <c r="I234" s="153"/>
       <c r="J234" s="153"/>
       <c r="K234" s="153"/>
       <c r="L234" s="153">
-        <v>3.2420715850596378</v>
+        <v>3.2420715850596475</v>
       </c>
       <c r="M234" s="153"/>
       <c r="N234" s="153"/>
@@ -14902,13 +14902,13 @@
       <c r="R234" s="152"/>
       <c r="S234" s="152"/>
       <c r="T234" s="153">
-        <v>3.2759898526999627</v>
+        <v>3.2759898526991371</v>
       </c>
       <c r="U234" s="153"/>
       <c r="V234" s="153"/>
       <c r="W234" s="153"/>
       <c r="X234" s="153">
-        <v>3.2759898526999627</v>
+        <v>3.2759898526991371</v>
       </c>
       <c r="Y234" s="153"/>
       <c r="Z234" s="153"/>
@@ -14924,13 +14924,13 @@
       <c r="F235" s="152"/>
       <c r="G235" s="152"/>
       <c r="H235" s="152">
-        <v>4.377072662264367</v>
+        <v>4.3771742603159556</v>
       </c>
       <c r="I235" s="152"/>
       <c r="J235" s="152"/>
       <c r="K235" s="152"/>
       <c r="L235" s="152">
-        <v>4.377072662264367</v>
+        <v>4.3771742603159556</v>
       </c>
       <c r="M235" s="152"/>
       <c r="N235" s="152"/>
@@ -14940,13 +14940,13 @@
       <c r="R235" s="152"/>
       <c r="S235" s="152"/>
       <c r="T235" s="152">
-        <v>6.359342298906987</v>
+        <v>6.3601267653032556</v>
       </c>
       <c r="U235" s="152"/>
       <c r="V235" s="152"/>
       <c r="W235" s="152"/>
       <c r="X235" s="152">
-        <v>6.359342298906987</v>
+        <v>6.3601267653032556</v>
       </c>
       <c r="Y235" s="152"/>
       <c r="Z235" s="152"/>
@@ -14962,13 +14962,13 @@
       <c r="F236" s="152"/>
       <c r="G236" s="152"/>
       <c r="H236" s="152">
-        <v>4.2703286420225544</v>
+        <v>4.2793208285469406</v>
       </c>
       <c r="I236" s="152"/>
       <c r="J236" s="152"/>
       <c r="K236" s="152"/>
       <c r="L236" s="152">
-        <v>4.2703286420225544</v>
+        <v>4.2793208285469406</v>
       </c>
       <c r="M236" s="152"/>
       <c r="N236" s="152"/>
@@ -14978,13 +14978,13 @@
       <c r="R236" s="152"/>
       <c r="S236" s="152"/>
       <c r="T236" s="152">
-        <v>4.3760724842740357</v>
+        <v>4.415139375400428</v>
       </c>
       <c r="U236" s="152"/>
       <c r="V236" s="152"/>
       <c r="W236" s="152"/>
       <c r="X236" s="152">
-        <v>4.3760724842740357</v>
+        <v>4.415139375400428</v>
       </c>
       <c r="Y236" s="152"/>
       <c r="Z236" s="152"/>
@@ -15000,13 +15000,13 @@
       <c r="F237" s="152"/>
       <c r="G237" s="152"/>
       <c r="H237" s="152">
-        <v>4.37707266226438</v>
+        <v>4.377174260315968</v>
       </c>
       <c r="I237" s="152"/>
       <c r="J237" s="152"/>
       <c r="K237" s="152"/>
       <c r="L237" s="152">
-        <v>4.37707266226438</v>
+        <v>4.377174260315968</v>
       </c>
       <c r="M237" s="152"/>
       <c r="N237" s="152"/>
@@ -15016,13 +15016,13 @@
       <c r="R237" s="152"/>
       <c r="S237" s="152"/>
       <c r="T237" s="152">
-        <v>6.3593422989072</v>
+        <v>6.3601267653034688</v>
       </c>
       <c r="U237" s="152"/>
       <c r="V237" s="152"/>
       <c r="W237" s="152"/>
       <c r="X237" s="152">
-        <v>6.3593422989072</v>
+        <v>6.3601267653034688</v>
       </c>
       <c r="Y237" s="152"/>
       <c r="Z237" s="152"/>
@@ -15038,13 +15038,13 @@
       <c r="F238" s="152"/>
       <c r="G238" s="152"/>
       <c r="H238" s="153">
-        <v>4.272372781095898</v>
+        <v>4.2811947135934894</v>
       </c>
       <c r="I238" s="153"/>
       <c r="J238" s="153"/>
       <c r="K238" s="153"/>
       <c r="L238" s="153">
-        <v>4.272372781095898</v>
+        <v>4.2811947135934894</v>
       </c>
       <c r="M238" s="153"/>
       <c r="N238" s="153"/>
@@ -15054,13 +15054,13 @@
       <c r="R238" s="152"/>
       <c r="S238" s="152"/>
       <c r="T238" s="153">
-        <v>4.414051935599586</v>
+        <v>4.4523857214893976</v>
       </c>
       <c r="U238" s="153"/>
       <c r="V238" s="153"/>
       <c r="W238" s="153"/>
       <c r="X238" s="153">
-        <v>4.414051935599586</v>
+        <v>4.4523857214893976</v>
       </c>
       <c r="Y238" s="153"/>
       <c r="Z238" s="153"/>
@@ -15076,13 +15076,13 @@
       <c r="F239" s="152"/>
       <c r="G239" s="152"/>
       <c r="H239" s="153">
-        <v>4.2729514653957184</v>
+        <v>4.2817251999338026</v>
       </c>
       <c r="I239" s="153"/>
       <c r="J239" s="153"/>
       <c r="K239" s="153"/>
       <c r="L239" s="153">
-        <v>4.2729514653957184</v>
+        <v>4.2817251999338026</v>
       </c>
       <c r="M239" s="153"/>
       <c r="N239" s="153"/>
@@ -15092,13 +15092,13 @@
       <c r="R239" s="152"/>
       <c r="S239" s="152"/>
       <c r="T239" s="153">
-        <v>4.4248037051267293</v>
+        <v>4.4629299530382989</v>
       </c>
       <c r="U239" s="153"/>
       <c r="V239" s="153"/>
       <c r="W239" s="153"/>
       <c r="X239" s="153">
-        <v>4.4248037051267293</v>
+        <v>4.4629299530382989</v>
       </c>
       <c r="Y239" s="153"/>
       <c r="Z239" s="153"/>
@@ -15114,13 +15114,13 @@
       <c r="F240" s="152"/>
       <c r="G240" s="152"/>
       <c r="H240" s="152">
-        <v>4.1999816827814263</v>
+        <v>4.2316976362026937</v>
       </c>
       <c r="I240" s="152"/>
       <c r="J240" s="152"/>
       <c r="K240" s="152"/>
       <c r="L240" s="152">
-        <v>4.1999816827814263</v>
+        <v>4.2316976362026937</v>
       </c>
       <c r="M240" s="152"/>
       <c r="N240" s="152"/>
@@ -15130,13 +15130,13 @@
       <c r="R240" s="152"/>
       <c r="S240" s="152"/>
       <c r="T240" s="152">
-        <v>4.4695009575144917</v>
+        <v>4.569219795896351</v>
       </c>
       <c r="U240" s="152"/>
       <c r="V240" s="152"/>
       <c r="W240" s="152"/>
       <c r="X240" s="152">
-        <v>4.4695009575144917</v>
+        <v>4.569219795896351</v>
       </c>
       <c r="Y240" s="152"/>
       <c r="Z240" s="152"/>
@@ -15152,13 +15152,13 @@
       <c r="F241" s="152"/>
       <c r="G241" s="152"/>
       <c r="H241" s="152">
-        <v>4.1999816827814209</v>
+        <v>4.2316976362026884</v>
       </c>
       <c r="I241" s="152"/>
       <c r="J241" s="152"/>
       <c r="K241" s="152"/>
       <c r="L241" s="152">
-        <v>4.1999816827814209</v>
+        <v>4.2316976362026884</v>
       </c>
       <c r="M241" s="152"/>
       <c r="N241" s="152"/>
@@ -15168,13 +15168,13 @@
       <c r="R241" s="152"/>
       <c r="S241" s="152"/>
       <c r="T241" s="152">
-        <v>4.4695009575144971</v>
+        <v>4.5692197958963572</v>
       </c>
       <c r="U241" s="152"/>
       <c r="V241" s="152"/>
       <c r="W241" s="152"/>
       <c r="X241" s="152">
-        <v>4.4695009575144971</v>
+        <v>4.5692197958963572</v>
       </c>
       <c r="Y241" s="152"/>
       <c r="Z241" s="152"/>
@@ -15190,13 +15190,13 @@
       <c r="F242" s="152"/>
       <c r="G242" s="152"/>
       <c r="H242" s="152">
-        <v>4.1999816827814307</v>
+        <v>4.2316976362027008</v>
       </c>
       <c r="I242" s="152"/>
       <c r="J242" s="152"/>
       <c r="K242" s="152"/>
       <c r="L242" s="152">
-        <v>4.1999816827814307</v>
+        <v>4.2316976362027008</v>
       </c>
       <c r="M242" s="152"/>
       <c r="N242" s="152"/>
@@ -15206,13 +15206,13 @@
       <c r="R242" s="152"/>
       <c r="S242" s="152"/>
       <c r="T242" s="152">
-        <v>4.4695009575144917</v>
+        <v>4.5692197958963519</v>
       </c>
       <c r="U242" s="152"/>
       <c r="V242" s="152"/>
       <c r="W242" s="152"/>
       <c r="X242" s="152">
-        <v>4.4695009575144917</v>
+        <v>4.5692197958963519</v>
       </c>
       <c r="Y242" s="152"/>
       <c r="Z242" s="152"/>
@@ -15228,13 +15228,13 @@
       <c r="F243" s="152"/>
       <c r="G243" s="152"/>
       <c r="H243" s="153">
-        <v>4.1999816827814263</v>
+        <v>4.2316976362026955</v>
       </c>
       <c r="I243" s="153"/>
       <c r="J243" s="153"/>
       <c r="K243" s="153"/>
       <c r="L243" s="153">
-        <v>4.1999816827814263</v>
+        <v>4.2316976362026955</v>
       </c>
       <c r="M243" s="153"/>
       <c r="N243" s="153"/>
@@ -15244,13 +15244,13 @@
       <c r="R243" s="152"/>
       <c r="S243" s="152"/>
       <c r="T243" s="153">
-        <v>4.4695009575144935</v>
+        <v>4.5692197958963545</v>
       </c>
       <c r="U243" s="153"/>
       <c r="V243" s="153"/>
       <c r="W243" s="153"/>
       <c r="X243" s="153">
-        <v>4.4695009575144935</v>
+        <v>4.5692197958963545</v>
       </c>
       <c r="Y243" s="153"/>
       <c r="Z243" s="153"/>
@@ -15266,13 +15266,13 @@
       <c r="F244" s="152"/>
       <c r="G244" s="152"/>
       <c r="H244" s="153">
-        <v>4.2260498380743643</v>
+        <v>4.2495697779790182</v>
       </c>
       <c r="I244" s="153"/>
       <c r="J244" s="153"/>
       <c r="K244" s="153"/>
       <c r="L244" s="153">
-        <v>4.2260498380743643</v>
+        <v>4.2495697779790182</v>
       </c>
       <c r="M244" s="153"/>
       <c r="N244" s="153"/>
@@ -15282,13 +15282,13 @@
       <c r="R244" s="152"/>
       <c r="S244" s="152"/>
       <c r="T244" s="153">
-        <v>4.4535330475842834</v>
+        <v>4.5312481858624842</v>
       </c>
       <c r="U244" s="153"/>
       <c r="V244" s="153"/>
       <c r="W244" s="153"/>
       <c r="X244" s="153">
-        <v>4.4535330475842834</v>
+        <v>4.5312481858624842</v>
       </c>
       <c r="Y244" s="153"/>
       <c r="Z244" s="153"/>
@@ -15304,13 +15304,13 @@
       <c r="F245" s="152"/>
       <c r="G245" s="152"/>
       <c r="H245" s="152">
-        <v>9.1353147132838632</v>
+        <v>9.1369001655013022</v>
       </c>
       <c r="I245" s="152"/>
       <c r="J245" s="152"/>
       <c r="K245" s="152"/>
       <c r="L245" s="152">
-        <v>9.1353147132838632</v>
+        <v>9.1369001655013022</v>
       </c>
       <c r="M245" s="152"/>
       <c r="N245" s="152"/>
@@ -15320,13 +15320,13 @@
       <c r="R245" s="152"/>
       <c r="S245" s="152"/>
       <c r="T245" s="152">
-        <v>9.0524956261136911</v>
+        <v>9.0575014088718842</v>
       </c>
       <c r="U245" s="152"/>
       <c r="V245" s="152"/>
       <c r="W245" s="152"/>
       <c r="X245" s="152">
-        <v>9.0524956261136911</v>
+        <v>9.0575014088718842</v>
       </c>
       <c r="Y245" s="152"/>
       <c r="Z245" s="152"/>
@@ -15342,13 +15342,13 @@
       <c r="F246" s="152"/>
       <c r="G246" s="152"/>
       <c r="H246" s="152">
-        <v>-0.37748990281625489</v>
+        <v>-0.37748990281721134</v>
       </c>
       <c r="I246" s="152"/>
       <c r="J246" s="152"/>
       <c r="K246" s="152"/>
       <c r="L246" s="152">
-        <v>-0.37748990281625489</v>
+        <v>-0.37748990281721134</v>
       </c>
       <c r="M246" s="152"/>
       <c r="N246" s="152"/>
@@ -15358,13 +15358,13 @@
       <c r="R246" s="152"/>
       <c r="S246" s="152"/>
       <c r="T246" s="152">
-        <v>2.5357082063395113</v>
+        <v>2.5357082063256144</v>
       </c>
       <c r="U246" s="152"/>
       <c r="V246" s="152"/>
       <c r="W246" s="152"/>
       <c r="X246" s="152">
-        <v>2.5357082063395113</v>
+        <v>2.5357082063256144</v>
       </c>
       <c r="Y246" s="152"/>
       <c r="Z246" s="152"/>
@@ -15380,13 +15380,13 @@
       <c r="F247" s="152"/>
       <c r="G247" s="152"/>
       <c r="H247" s="153">
-        <v>4.2258914826117291</v>
+        <v>4.2493243424892917</v>
       </c>
       <c r="I247" s="153"/>
       <c r="J247" s="153"/>
       <c r="K247" s="153"/>
       <c r="L247" s="153">
-        <v>4.2258914826117291</v>
+        <v>4.2493243424892917</v>
       </c>
       <c r="M247" s="153"/>
       <c r="N247" s="153"/>
@@ -15396,13 +15396,13 @@
       <c r="R247" s="152"/>
       <c r="S247" s="152"/>
       <c r="T247" s="153">
-        <v>4.4538729295055628</v>
+        <v>4.5314999330997443</v>
       </c>
       <c r="U247" s="153"/>
       <c r="V247" s="153"/>
       <c r="W247" s="153"/>
       <c r="X247" s="153">
-        <v>4.4538729295055628</v>
+        <v>4.5314999330997443</v>
       </c>
       <c r="Y247" s="153"/>
       <c r="Z247" s="153"/>
@@ -15646,13 +15646,13 @@
       <c r="F254" s="152"/>
       <c r="G254" s="152"/>
       <c r="H254" s="153">
-        <v>4.050896563395578</v>
+        <v>4.0737731418235432</v>
       </c>
       <c r="I254" s="153"/>
       <c r="J254" s="153"/>
       <c r="K254" s="153"/>
       <c r="L254" s="153">
-        <v>4.050896563395578</v>
+        <v>4.0737731418235432</v>
       </c>
       <c r="M254" s="153"/>
       <c r="N254" s="153"/>
@@ -15662,13 +15662,13 @@
       <c r="R254" s="152"/>
       <c r="S254" s="152"/>
       <c r="T254" s="153">
-        <v>4.65126233683444</v>
+        <v>4.7455622924262038</v>
       </c>
       <c r="U254" s="153"/>
       <c r="V254" s="153"/>
       <c r="W254" s="153"/>
       <c r="X254" s="153">
-        <v>4.65126233683444</v>
+        <v>4.7455622924262038</v>
       </c>
       <c r="Y254" s="153"/>
       <c r="Z254" s="153"/>
@@ -15684,13 +15684,13 @@
       <c r="F256" s="152"/>
       <c r="G256" s="152"/>
       <c r="H256" s="152">
-        <v>1.9950721664317666</v>
+        <v>1.9950721664298508</v>
       </c>
       <c r="I256" s="152"/>
       <c r="J256" s="152"/>
       <c r="K256" s="152"/>
       <c r="L256" s="152">
-        <v>1.9950721664317666</v>
+        <v>1.9950721664298508</v>
       </c>
       <c r="M256" s="152"/>
       <c r="N256" s="152"/>
@@ -15700,13 +15700,13 @@
       <c r="R256" s="152"/>
       <c r="S256" s="152"/>
       <c r="T256" s="152">
-        <v>2.4408852903898608</v>
+        <v>2.4408852902864893</v>
       </c>
       <c r="U256" s="152"/>
       <c r="V256" s="152"/>
       <c r="W256" s="152"/>
       <c r="X256" s="152">
-        <v>2.4408852903898608</v>
+        <v>2.4408852902864893</v>
       </c>
       <c r="Y256" s="152"/>
       <c r="Z256" s="152"/>
@@ -15722,13 +15722,13 @@
       <c r="F257" s="152"/>
       <c r="G257" s="152"/>
       <c r="H257" s="152">
-        <v>1.687093086750564</v>
+        <v>1.6870930867519709</v>
       </c>
       <c r="I257" s="152"/>
       <c r="J257" s="152"/>
       <c r="K257" s="152"/>
       <c r="L257" s="152">
-        <v>1.687093086750564</v>
+        <v>1.6870930867519709</v>
       </c>
       <c r="M257" s="152"/>
       <c r="N257" s="152"/>
@@ -15738,13 +15738,13 @@
       <c r="R257" s="152"/>
       <c r="S257" s="152"/>
       <c r="T257" s="152">
-        <v>2.1982392809318756</v>
+        <v>2.1982392809330693</v>
       </c>
       <c r="U257" s="152"/>
       <c r="V257" s="152"/>
       <c r="W257" s="152"/>
       <c r="X257" s="152">
-        <v>2.1982392809318756</v>
+        <v>2.1982392809330693</v>
       </c>
       <c r="Y257" s="152"/>
       <c r="Z257" s="152"/>
@@ -15874,13 +15874,13 @@
       <c r="F261" s="152"/>
       <c r="G261" s="152"/>
       <c r="H261" s="153">
-        <v>1.1682086317517018</v>
+        <v>1.1682086317520293</v>
       </c>
       <c r="I261" s="153"/>
       <c r="J261" s="153"/>
       <c r="K261" s="153"/>
       <c r="L261" s="153">
-        <v>1.1682086317517018</v>
+        <v>1.1682086317520293</v>
       </c>
       <c r="M261" s="153"/>
       <c r="N261" s="153"/>
@@ -15890,13 +15890,13 @@
       <c r="R261" s="152"/>
       <c r="S261" s="152"/>
       <c r="T261" s="153">
-        <v>1.5479895063172924</v>
+        <v>1.5479895063005609</v>
       </c>
       <c r="U261" s="153"/>
       <c r="V261" s="153"/>
       <c r="W261" s="153"/>
       <c r="X261" s="153">
-        <v>1.5479895063172924</v>
+        <v>1.5479895063005609</v>
       </c>
       <c r="Y261" s="153"/>
       <c r="Z261" s="153"/>
@@ -15988,13 +15988,13 @@
       <c r="F264" s="152"/>
       <c r="G264" s="152"/>
       <c r="H264" s="153">
-        <v>1.1576687861362704</v>
+        <v>1.1576687861365946</v>
       </c>
       <c r="I264" s="153"/>
       <c r="J264" s="153"/>
       <c r="K264" s="153"/>
       <c r="L264" s="153">
-        <v>1.1576687861362704</v>
+        <v>1.1576687861365946</v>
       </c>
       <c r="M264" s="153"/>
       <c r="N264" s="153"/>
@@ -16004,13 +16004,13 @@
       <c r="R264" s="152"/>
       <c r="S264" s="152"/>
       <c r="T264" s="153">
-        <v>1.5340231907402284</v>
+        <v>1.5340231907236468</v>
       </c>
       <c r="U264" s="153"/>
       <c r="V264" s="153"/>
       <c r="W264" s="153"/>
       <c r="X264" s="153">
-        <v>1.5340231907402284</v>
+        <v>1.5340231907236468</v>
       </c>
       <c r="Y264" s="153"/>
       <c r="Z264" s="153"/>
@@ -16186,13 +16186,13 @@
       <c r="F270" s="149"/>
       <c r="G270" s="149"/>
       <c r="H270" s="149">
-        <v>-2273.6765898710396</v>
+        <v>-2269.4756236549583</v>
       </c>
       <c r="I270" s="149"/>
       <c r="J270" s="149"/>
       <c r="K270" s="149"/>
       <c r="L270" s="149">
-        <v>-2273.6765898710396</v>
+        <v>-2269.4756236549583</v>
       </c>
       <c r="M270" s="149"/>
       <c r="N270" s="149"/>
@@ -16202,13 +16202,13 @@
       <c r="R270" s="149"/>
       <c r="S270" s="149"/>
       <c r="T270" s="149">
-        <v>-19113.1884112777</v>
+        <v>-19082.03392944167</v>
       </c>
       <c r="U270" s="149"/>
       <c r="V270" s="149"/>
       <c r="W270" s="149"/>
       <c r="X270" s="149">
-        <v>-19113.1884112777</v>
+        <v>-19082.03392944167</v>
       </c>
       <c r="Y270" s="149"/>
       <c r="Z270" s="149"/>
@@ -16224,13 +16224,13 @@
       <c r="F271" s="149"/>
       <c r="G271" s="149"/>
       <c r="H271" s="149">
-        <v>-34740.800367814431</v>
+        <v>-34676.611410899917</v>
       </c>
       <c r="I271" s="149"/>
       <c r="J271" s="149"/>
       <c r="K271" s="149"/>
       <c r="L271" s="149">
-        <v>-34740.800367814431</v>
+        <v>-34676.611410899917</v>
       </c>
       <c r="M271" s="149"/>
       <c r="N271" s="149"/>
@@ -16240,13 +16240,13 @@
       <c r="R271" s="149"/>
       <c r="S271" s="149"/>
       <c r="T271" s="149">
-        <v>-292041.2981981248</v>
+        <v>-291565.27111544739</v>
       </c>
       <c r="U271" s="149"/>
       <c r="V271" s="149"/>
       <c r="W271" s="149"/>
       <c r="X271" s="149">
-        <v>-292041.2981981248</v>
+        <v>-291565.27111544739</v>
       </c>
       <c r="Y271" s="149"/>
       <c r="Z271" s="149"/>
@@ -16262,13 +16262,13 @@
       <c r="F272" s="149"/>
       <c r="G272" s="149"/>
       <c r="H272" s="151">
-        <v>-37014.476957685547</v>
+        <v>-36946.087034554941</v>
       </c>
       <c r="I272" s="151"/>
       <c r="J272" s="151"/>
       <c r="K272" s="151"/>
       <c r="L272" s="151">
-        <v>-37014.476957685547</v>
+        <v>-36946.087034554941</v>
       </c>
       <c r="M272" s="151"/>
       <c r="N272" s="151"/>
@@ -16278,13 +16278,13 @@
       <c r="R272" s="149"/>
       <c r="S272" s="149"/>
       <c r="T272" s="151">
-        <v>-311154.4866094024</v>
+        <v>-310647.305044889</v>
       </c>
       <c r="U272" s="151"/>
       <c r="V272" s="151"/>
       <c r="W272" s="151"/>
       <c r="X272" s="151">
-        <v>-311154.4866094024</v>
+        <v>-310647.305044889</v>
       </c>
       <c r="Y272" s="151"/>
       <c r="Z272" s="151"/>
@@ -16300,13 +16300,13 @@
       <c r="F273" s="149"/>
       <c r="G273" s="149"/>
       <c r="H273" s="149">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="I273" s="149"/>
       <c r="J273" s="149"/>
       <c r="K273" s="149"/>
       <c r="L273" s="149">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="M273" s="149"/>
       <c r="N273" s="149"/>
@@ -16316,13 +16316,13 @@
       <c r="R273" s="149"/>
       <c r="S273" s="149"/>
       <c r="T273" s="149">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="U273" s="149"/>
       <c r="V273" s="149"/>
       <c r="W273" s="149"/>
       <c r="X273" s="149">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="Y273" s="149"/>
       <c r="Z273" s="149"/>
@@ -16338,13 +16338,13 @@
       <c r="F274" s="149"/>
       <c r="G274" s="149"/>
       <c r="H274" s="151">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="I274" s="151"/>
       <c r="J274" s="151"/>
       <c r="K274" s="151"/>
       <c r="L274" s="151">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="M274" s="151"/>
       <c r="N274" s="151"/>
@@ -16354,13 +16354,13 @@
       <c r="R274" s="149"/>
       <c r="S274" s="149"/>
       <c r="T274" s="151">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="U274" s="151"/>
       <c r="V274" s="151"/>
       <c r="W274" s="151"/>
       <c r="X274" s="151">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="Y274" s="151"/>
       <c r="Z274" s="151"/>
@@ -16376,13 +16376,13 @@
       <c r="F275" s="149"/>
       <c r="G275" s="149"/>
       <c r="H275" s="151">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="I275" s="151"/>
       <c r="J275" s="151"/>
       <c r="K275" s="151"/>
       <c r="L275" s="151">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="M275" s="151"/>
       <c r="N275" s="151"/>
@@ -16392,13 +16392,13 @@
       <c r="R275" s="149"/>
       <c r="S275" s="149"/>
       <c r="T275" s="151">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="U275" s="151"/>
       <c r="V275" s="151"/>
       <c r="W275" s="151"/>
       <c r="X275" s="151">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="Y275" s="151"/>
       <c r="Z275" s="151"/>
@@ -16452,13 +16452,13 @@
       <c r="F277" s="149"/>
       <c r="G277" s="149"/>
       <c r="H277" s="151">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="I277" s="151"/>
       <c r="J277" s="151"/>
       <c r="K277" s="151"/>
       <c r="L277" s="151">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="M277" s="151"/>
       <c r="N277" s="151"/>
@@ -16468,13 +16468,13 @@
       <c r="R277" s="149"/>
       <c r="S277" s="149"/>
       <c r="T277" s="151">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="U277" s="151"/>
       <c r="V277" s="151"/>
       <c r="W277" s="151"/>
       <c r="X277" s="151">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="Y277" s="151"/>
       <c r="Z277" s="151"/>
@@ -16490,13 +16490,13 @@
       <c r="F278" s="149"/>
       <c r="G278" s="149"/>
       <c r="H278" s="149">
-        <v>72.175244891257222</v>
+        <v>72.175175812822218</v>
       </c>
       <c r="I278" s="149"/>
       <c r="J278" s="149"/>
       <c r="K278" s="149"/>
       <c r="L278" s="149">
-        <v>72.175244891257222</v>
+        <v>72.175175812822218</v>
       </c>
       <c r="M278" s="149"/>
       <c r="N278" s="149"/>
@@ -16506,13 +16506,13 @@
       <c r="R278" s="149"/>
       <c r="S278" s="149"/>
       <c r="T278" s="149">
-        <v>70.318670301611</v>
+        <v>70.318134305485287</v>
       </c>
       <c r="U278" s="149"/>
       <c r="V278" s="149"/>
       <c r="W278" s="149"/>
       <c r="X278" s="149">
-        <v>70.318670301611</v>
+        <v>70.318134305485287</v>
       </c>
       <c r="Y278" s="149"/>
       <c r="Z278" s="149"/>
@@ -16528,13 +16528,13 @@
       <c r="F279" s="149"/>
       <c r="G279" s="149"/>
       <c r="H279" s="149">
-        <v>5182.8680781256362</v>
+        <v>5285.1385726169592</v>
       </c>
       <c r="I279" s="149"/>
       <c r="J279" s="149"/>
       <c r="K279" s="149"/>
       <c r="L279" s="149">
-        <v>5182.8680781256362</v>
+        <v>5285.1385726169592</v>
       </c>
       <c r="M279" s="149"/>
       <c r="N279" s="149"/>
@@ -16544,13 +16544,13 @@
       <c r="R279" s="149"/>
       <c r="S279" s="149"/>
       <c r="T279" s="149">
-        <v>6730.85401323258</v>
+        <v>7092.8016216104606</v>
       </c>
       <c r="U279" s="149"/>
       <c r="V279" s="149"/>
       <c r="W279" s="149"/>
       <c r="X279" s="149">
-        <v>6730.85401323258</v>
+        <v>7092.8016216104606</v>
       </c>
       <c r="Y279" s="149"/>
       <c r="Z279" s="149"/>
@@ -16566,13 +16566,13 @@
       <c r="F280" s="149"/>
       <c r="G280" s="149"/>
       <c r="H280" s="149">
-        <v>248.68672462531572</v>
+        <v>248.68648660894633</v>
       </c>
       <c r="I280" s="149"/>
       <c r="J280" s="149"/>
       <c r="K280" s="149"/>
       <c r="L280" s="149">
-        <v>248.68672462531572</v>
+        <v>248.68648660894633</v>
       </c>
       <c r="M280" s="149"/>
       <c r="N280" s="149"/>
@@ -16582,13 +16582,13 @@
       <c r="R280" s="149"/>
       <c r="S280" s="149"/>
       <c r="T280" s="149">
-        <v>242.289718914877</v>
+        <v>242.28787208884859</v>
       </c>
       <c r="U280" s="149"/>
       <c r="V280" s="149"/>
       <c r="W280" s="149"/>
       <c r="X280" s="149">
-        <v>242.289718914877</v>
+        <v>242.28787208884859</v>
       </c>
       <c r="Y280" s="149"/>
       <c r="Z280" s="149"/>
@@ -16604,13 +16604,13 @@
       <c r="F281" s="149"/>
       <c r="G281" s="149"/>
       <c r="H281" s="151">
-        <v>5431.5548027509521</v>
+        <v>5533.8250592259092</v>
       </c>
       <c r="I281" s="151"/>
       <c r="J281" s="151"/>
       <c r="K281" s="151"/>
       <c r="L281" s="151">
-        <v>5431.5548027509521</v>
+        <v>5533.8250592259092</v>
       </c>
       <c r="M281" s="151"/>
       <c r="N281" s="151"/>
@@ -16620,13 +16620,13 @@
       <c r="R281" s="149"/>
       <c r="S281" s="149"/>
       <c r="T281" s="151">
-        <v>6973.1437321474577</v>
+        <v>7335.0894936993109</v>
       </c>
       <c r="U281" s="151"/>
       <c r="V281" s="151"/>
       <c r="W281" s="151"/>
       <c r="X281" s="151">
-        <v>6973.1437321474577</v>
+        <v>7335.0894936993109</v>
       </c>
       <c r="Y281" s="151"/>
       <c r="Z281" s="151"/>
@@ -16642,13 +16642,13 @@
       <c r="F282" s="149"/>
       <c r="G282" s="149"/>
       <c r="H282" s="151">
-        <v>5503.7300476422088</v>
+        <v>5606.00023503873</v>
       </c>
       <c r="I282" s="151"/>
       <c r="J282" s="151"/>
       <c r="K282" s="151"/>
       <c r="L282" s="151">
-        <v>5503.7300476422088</v>
+        <v>5606.00023503873</v>
       </c>
       <c r="M282" s="151"/>
       <c r="N282" s="151"/>
@@ -16658,13 +16658,13 @@
       <c r="R282" s="149"/>
       <c r="S282" s="149"/>
       <c r="T282" s="151">
-        <v>7043.4624024490713</v>
+        <v>7405.4076280047966</v>
       </c>
       <c r="U282" s="151"/>
       <c r="V282" s="151"/>
       <c r="W282" s="151"/>
       <c r="X282" s="151">
-        <v>7043.4624024490713</v>
+        <v>7405.4076280047966</v>
       </c>
       <c r="Y282" s="151"/>
       <c r="Z282" s="151"/>
@@ -16680,13 +16680,13 @@
       <c r="F283" s="149"/>
       <c r="G283" s="149"/>
       <c r="H283" s="149">
-        <v>13210.962425781259</v>
+        <v>13206.725466417158</v>
       </c>
       <c r="I283" s="149"/>
       <c r="J283" s="149"/>
       <c r="K283" s="149"/>
       <c r="L283" s="149">
-        <v>13210.962425781259</v>
+        <v>13206.725466417158</v>
       </c>
       <c r="M283" s="149"/>
       <c r="N283" s="149"/>
@@ -16696,13 +16696,13 @@
       <c r="R283" s="149"/>
       <c r="S283" s="149"/>
       <c r="T283" s="149">
-        <v>13913.140206721191</v>
+        <v>13899.724181218628</v>
       </c>
       <c r="U283" s="149"/>
       <c r="V283" s="149"/>
       <c r="W283" s="149"/>
       <c r="X283" s="149">
-        <v>13913.140206721191</v>
+        <v>13899.724181218628</v>
       </c>
       <c r="Y283" s="149"/>
       <c r="Z283" s="149"/>
@@ -16718,13 +16718,13 @@
       <c r="F284" s="149"/>
       <c r="G284" s="149"/>
       <c r="H284" s="149">
-        <v>4660.6416873868275</v>
+        <v>4659.1469477301926</v>
       </c>
       <c r="I284" s="149"/>
       <c r="J284" s="149"/>
       <c r="K284" s="149"/>
       <c r="L284" s="149">
-        <v>4660.6416873868275</v>
+        <v>4659.1469477301926</v>
       </c>
       <c r="M284" s="149"/>
       <c r="N284" s="149"/>
@@ -16734,13 +16734,13 @@
       <c r="R284" s="149"/>
       <c r="S284" s="149"/>
       <c r="T284" s="149">
-        <v>4908.3601300203836</v>
+        <v>4903.6271449644228</v>
       </c>
       <c r="U284" s="149"/>
       <c r="V284" s="149"/>
       <c r="W284" s="149"/>
       <c r="X284" s="149">
-        <v>4908.3601300203836</v>
+        <v>4903.6271449644228</v>
       </c>
       <c r="Y284" s="149"/>
       <c r="Z284" s="149"/>
@@ -16756,13 +16756,13 @@
       <c r="F285" s="149"/>
       <c r="G285" s="149"/>
       <c r="H285" s="149">
-        <v>4480.26418085971</v>
+        <v>4478.8272910508576</v>
       </c>
       <c r="I285" s="149"/>
       <c r="J285" s="149"/>
       <c r="K285" s="149"/>
       <c r="L285" s="149">
-        <v>4480.26418085971</v>
+        <v>4478.8272910508576</v>
       </c>
       <c r="M285" s="149"/>
       <c r="N285" s="149"/>
@@ -16772,13 +16772,13 @@
       <c r="R285" s="149"/>
       <c r="S285" s="149"/>
       <c r="T285" s="149">
-        <v>4718.39535246922</v>
+        <v>4713.845544773817</v>
       </c>
       <c r="U285" s="149"/>
       <c r="V285" s="149"/>
       <c r="W285" s="149"/>
       <c r="X285" s="149">
-        <v>4718.39535246922</v>
+        <v>4713.845544773817</v>
       </c>
       <c r="Y285" s="149"/>
       <c r="Z285" s="149"/>
@@ -16794,13 +16794,13 @@
       <c r="F286" s="149"/>
       <c r="G286" s="149"/>
       <c r="H286" s="151">
-        <v>9140.9058682465366</v>
+        <v>9137.9742387810529</v>
       </c>
       <c r="I286" s="151"/>
       <c r="J286" s="151"/>
       <c r="K286" s="151"/>
       <c r="L286" s="151">
-        <v>9140.9058682465366</v>
+        <v>9137.9742387810529</v>
       </c>
       <c r="M286" s="151"/>
       <c r="N286" s="151"/>
@@ -16810,13 +16810,13 @@
       <c r="R286" s="149"/>
       <c r="S286" s="149"/>
       <c r="T286" s="151">
-        <v>9626.7554824896033</v>
+        <v>9617.4726897382388</v>
       </c>
       <c r="U286" s="151"/>
       <c r="V286" s="151"/>
       <c r="W286" s="151"/>
       <c r="X286" s="151">
-        <v>9626.7554824896033</v>
+        <v>9617.4726897382388</v>
       </c>
       <c r="Y286" s="151"/>
       <c r="Z286" s="151"/>
@@ -16832,13 +16832,13 @@
       <c r="F287" s="149"/>
       <c r="G287" s="149"/>
       <c r="H287" s="151">
-        <v>27855.598341670015</v>
+        <v>27950.699940236937</v>
       </c>
       <c r="I287" s="151"/>
       <c r="J287" s="151"/>
       <c r="K287" s="151"/>
       <c r="L287" s="151">
-        <v>27855.598341670015</v>
+        <v>27950.699940236937</v>
       </c>
       <c r="M287" s="151"/>
       <c r="N287" s="151"/>
@@ -16848,13 +16848,13 @@
       <c r="R287" s="149"/>
       <c r="S287" s="149"/>
       <c r="T287" s="151">
-        <v>30583.358091659873</v>
+        <v>30922.604498961675</v>
       </c>
       <c r="U287" s="151"/>
       <c r="V287" s="151"/>
       <c r="W287" s="151"/>
       <c r="X287" s="151">
-        <v>30583.358091659873</v>
+        <v>30922.604498961675</v>
       </c>
       <c r="Y287" s="151"/>
       <c r="Z287" s="151"/>
@@ -16870,13 +16870,13 @@
       <c r="F288" s="149"/>
       <c r="G288" s="149"/>
       <c r="H288" s="149">
-        <v>0.24286167714745169</v>
+        <v>0.2428616771484631</v>
       </c>
       <c r="I288" s="149"/>
       <c r="J288" s="149"/>
       <c r="K288" s="149"/>
       <c r="L288" s="149">
-        <v>0.24286167714745169</v>
+        <v>0.2428616771484631</v>
       </c>
       <c r="M288" s="149"/>
       <c r="N288" s="149"/>
@@ -16886,13 +16886,13 @@
       <c r="R288" s="149"/>
       <c r="S288" s="149"/>
       <c r="T288" s="149">
-        <v>0.24286167714412302</v>
+        <v>0.24286167714696788</v>
       </c>
       <c r="U288" s="149"/>
       <c r="V288" s="149"/>
       <c r="W288" s="149"/>
       <c r="X288" s="149">
-        <v>0.24286167714412302</v>
+        <v>0.24286167714696788</v>
       </c>
       <c r="Y288" s="149"/>
       <c r="Z288" s="149"/>
@@ -16908,13 +16908,13 @@
       <c r="F289" s="149"/>
       <c r="G289" s="149"/>
       <c r="H289" s="149">
-        <v>10.617564856231164</v>
+        <v>10.617564856255454</v>
       </c>
       <c r="I289" s="149"/>
       <c r="J289" s="149"/>
       <c r="K289" s="149"/>
       <c r="L289" s="149">
-        <v>10.617564856231164</v>
+        <v>10.617564856255454</v>
       </c>
       <c r="M289" s="149"/>
       <c r="N289" s="149"/>
@@ -16924,13 +16924,13 @@
       <c r="R289" s="149"/>
       <c r="S289" s="149"/>
       <c r="T289" s="149">
-        <v>16.289886695041261</v>
+        <v>16.289886694887574</v>
       </c>
       <c r="U289" s="149"/>
       <c r="V289" s="149"/>
       <c r="W289" s="149"/>
       <c r="X289" s="149">
-        <v>16.289886695041261</v>
+        <v>16.289886694887574</v>
       </c>
       <c r="Y289" s="149"/>
       <c r="Z289" s="149"/>
@@ -16946,13 +16946,13 @@
       <c r="F290" s="149"/>
       <c r="G290" s="149"/>
       <c r="H290" s="151">
-        <v>27817.695488644797</v>
+        <v>27912.797087211791</v>
       </c>
       <c r="I290" s="151"/>
       <c r="J290" s="151"/>
       <c r="K290" s="151"/>
       <c r="L290" s="151">
-        <v>27817.695488644797</v>
+        <v>27912.797087211791</v>
       </c>
       <c r="M290" s="151"/>
       <c r="N290" s="151"/>
@@ -16962,13 +16962,13 @@
       <c r="R290" s="149"/>
       <c r="S290" s="149"/>
       <c r="T290" s="151">
-        <v>30599.058171424615</v>
+        <v>30938.304578726231</v>
       </c>
       <c r="U290" s="151"/>
       <c r="V290" s="151"/>
       <c r="W290" s="151"/>
       <c r="X290" s="151">
-        <v>30599.058171424615</v>
+        <v>30938.304578726231</v>
       </c>
       <c r="Y290" s="151"/>
       <c r="Z290" s="151"/>
@@ -17212,13 +17212,13 @@
       <c r="F297" s="149"/>
       <c r="G297" s="149"/>
       <c r="H297" s="151">
-        <v>-8764.7007597152369</v>
+        <v>-8601.2092380233189</v>
       </c>
       <c r="I297" s="151"/>
       <c r="J297" s="151"/>
       <c r="K297" s="151"/>
       <c r="L297" s="151">
-        <v>-8764.7007597152369</v>
+        <v>-8601.2092380233189</v>
       </c>
       <c r="M297" s="151"/>
       <c r="N297" s="151"/>
@@ -17228,13 +17228,13 @@
       <c r="R297" s="149"/>
       <c r="S297" s="149"/>
       <c r="T297" s="151">
-        <v>-280039.14770868514</v>
+        <v>-279192.71973686875</v>
       </c>
       <c r="U297" s="151"/>
       <c r="V297" s="151"/>
       <c r="W297" s="151"/>
       <c r="X297" s="151">
-        <v>-280039.14770868514</v>
+        <v>-279192.71973686875</v>
       </c>
       <c r="Y297" s="151"/>
       <c r="Z297" s="151"/>
@@ -17250,13 +17250,13 @@
       <c r="F299" s="149"/>
       <c r="G299" s="149"/>
       <c r="H299" s="149">
-        <v>18771.942818497359</v>
+        <v>18771.942818052183</v>
       </c>
       <c r="I299" s="149"/>
       <c r="J299" s="149"/>
       <c r="K299" s="149"/>
       <c r="L299" s="149">
-        <v>18771.942818497359</v>
+        <v>18771.942818052183</v>
       </c>
       <c r="M299" s="149"/>
       <c r="N299" s="149"/>
@@ -17266,13 +17266,13 @@
       <c r="R299" s="149"/>
       <c r="S299" s="149"/>
       <c r="T299" s="149">
-        <v>10045.728250079776</v>
+        <v>10045.728250007678</v>
       </c>
       <c r="U299" s="149"/>
       <c r="V299" s="149"/>
       <c r="W299" s="149"/>
       <c r="X299" s="149">
-        <v>10045.728250079776</v>
+        <v>10045.728250007678</v>
       </c>
       <c r="Y299" s="149"/>
       <c r="Z299" s="149"/>
@@ -17288,13 +17288,13 @@
       <c r="F300" s="149"/>
       <c r="G300" s="149"/>
       <c r="H300" s="149">
-        <v>28650.1940415528</v>
+        <v>28650.194040805931</v>
       </c>
       <c r="I300" s="149"/>
       <c r="J300" s="149"/>
       <c r="K300" s="149"/>
       <c r="L300" s="149">
-        <v>28650.1940415528</v>
+        <v>28650.194040805931</v>
       </c>
       <c r="M300" s="149"/>
       <c r="N300" s="149"/>
@@ -17304,13 +17304,13 @@
       <c r="R300" s="149"/>
       <c r="S300" s="149"/>
       <c r="T300" s="149">
-        <v>34873.586870381514</v>
+        <v>34873.586868294609</v>
       </c>
       <c r="U300" s="149"/>
       <c r="V300" s="149"/>
       <c r="W300" s="149"/>
       <c r="X300" s="149">
-        <v>34873.586870381514</v>
+        <v>34873.586868294609</v>
       </c>
       <c r="Y300" s="149"/>
       <c r="Z300" s="149"/>
@@ -17440,13 +17440,13 @@
       <c r="F304" s="149"/>
       <c r="G304" s="149"/>
       <c r="H304" s="151">
-        <v>59113.605010072679</v>
+        <v>59113.605008880622</v>
       </c>
       <c r="I304" s="151"/>
       <c r="J304" s="151"/>
       <c r="K304" s="151"/>
       <c r="L304" s="151">
-        <v>59113.605010072679</v>
+        <v>59113.605008880622</v>
       </c>
       <c r="M304" s="151"/>
       <c r="N304" s="151"/>
@@ -17456,13 +17456,13 @@
       <c r="R304" s="149"/>
       <c r="S304" s="149"/>
       <c r="T304" s="151">
-        <v>55989.30522369848</v>
+        <v>55989.305221539486</v>
       </c>
       <c r="U304" s="151"/>
       <c r="V304" s="151"/>
       <c r="W304" s="151"/>
       <c r="X304" s="151">
-        <v>55989.30522369848</v>
+        <v>55989.305221539486</v>
       </c>
       <c r="Y304" s="151"/>
       <c r="Z304" s="151"/>
@@ -17554,13 +17554,13 @@
       <c r="F307" s="149"/>
       <c r="G307" s="149"/>
       <c r="H307" s="151">
-        <v>59113.605010072679</v>
+        <v>59113.605008880622</v>
       </c>
       <c r="I307" s="151"/>
       <c r="J307" s="151"/>
       <c r="K307" s="151"/>
       <c r="L307" s="151">
-        <v>59113.605010072679</v>
+        <v>59113.605008880622</v>
       </c>
       <c r="M307" s="151"/>
       <c r="N307" s="151"/>
@@ -17570,13 +17570,13 @@
       <c r="R307" s="149"/>
       <c r="S307" s="149"/>
       <c r="T307" s="151">
-        <v>55989.30522369848</v>
+        <v>55989.305221539486</v>
       </c>
       <c r="U307" s="151"/>
       <c r="V307" s="151"/>
       <c r="W307" s="151"/>
       <c r="X307" s="151">
-        <v>55989.30522369848</v>
+        <v>55989.305221539486</v>
       </c>
       <c r="Y307" s="151"/>
       <c r="Z307" s="151"/>
@@ -17870,13 +17870,13 @@
       <c r="F316" s="152"/>
       <c r="G316" s="152"/>
       <c r="H316" s="152">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="I316" s="152"/>
       <c r="J316" s="152"/>
       <c r="K316" s="152"/>
       <c r="L316" s="152">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="M316" s="152"/>
       <c r="N316" s="152"/>
@@ -17886,13 +17886,13 @@
       <c r="R316" s="152"/>
       <c r="S316" s="152"/>
       <c r="T316" s="152">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="U316" s="152"/>
       <c r="V316" s="152"/>
       <c r="W316" s="152"/>
       <c r="X316" s="152">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="Y316" s="152"/>
       <c r="Z316" s="152"/>
@@ -17908,13 +17908,13 @@
       <c r="F317" s="152"/>
       <c r="G317" s="152"/>
       <c r="H317" s="153">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="I317" s="153"/>
       <c r="J317" s="153"/>
       <c r="K317" s="153"/>
       <c r="L317" s="153">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="M317" s="153"/>
       <c r="N317" s="153"/>
@@ -17924,13 +17924,13 @@
       <c r="R317" s="152"/>
       <c r="S317" s="152"/>
       <c r="T317" s="153">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="U317" s="153"/>
       <c r="V317" s="153"/>
       <c r="W317" s="153"/>
       <c r="X317" s="153">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="Y317" s="153"/>
       <c r="Z317" s="153"/>
@@ -17946,13 +17946,13 @@
       <c r="F318" s="152"/>
       <c r="G318" s="152"/>
       <c r="H318" s="153">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="I318" s="153"/>
       <c r="J318" s="153"/>
       <c r="K318" s="153"/>
       <c r="L318" s="153">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="M318" s="153"/>
       <c r="N318" s="153"/>
@@ -17962,13 +17962,13 @@
       <c r="R318" s="152"/>
       <c r="S318" s="152"/>
       <c r="T318" s="153">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="U318" s="153"/>
       <c r="V318" s="153"/>
       <c r="W318" s="153"/>
       <c r="X318" s="153">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="Y318" s="153"/>
       <c r="Z318" s="153"/>
@@ -18022,13 +18022,13 @@
       <c r="F320" s="152"/>
       <c r="G320" s="152"/>
       <c r="H320" s="153">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="I320" s="153"/>
       <c r="J320" s="153"/>
       <c r="K320" s="153"/>
       <c r="L320" s="153">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="M320" s="153"/>
       <c r="N320" s="153"/>
@@ -18038,13 +18038,13 @@
       <c r="R320" s="152"/>
       <c r="S320" s="152"/>
       <c r="T320" s="153">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="U320" s="153"/>
       <c r="V320" s="153"/>
       <c r="W320" s="153"/>
       <c r="X320" s="153">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="Y320" s="153"/>
       <c r="Z320" s="153"/>
@@ -18060,13 +18060,13 @@
       <c r="F321" s="152"/>
       <c r="G321" s="152"/>
       <c r="H321" s="152">
-        <v>5.5908948681</v>
+        <v>5.5921644927999994</v>
       </c>
       <c r="I321" s="152"/>
       <c r="J321" s="152"/>
       <c r="K321" s="152"/>
       <c r="L321" s="152">
-        <v>5.5908948681</v>
+        <v>5.5921644927999994</v>
       </c>
       <c r="M321" s="152"/>
       <c r="N321" s="152"/>
@@ -18076,13 +18076,13 @@
       <c r="R321" s="152"/>
       <c r="S321" s="152"/>
       <c r="T321" s="152">
-        <v>5.6408968852999992</v>
+        <v>5.6440829510000006</v>
       </c>
       <c r="U321" s="152"/>
       <c r="V321" s="152"/>
       <c r="W321" s="152"/>
       <c r="X321" s="152">
-        <v>5.6408968852999992</v>
+        <v>5.6440829510000006</v>
       </c>
       <c r="Y321" s="152"/>
       <c r="Z321" s="152"/>
@@ -18098,13 +18098,13 @@
       <c r="F322" s="152"/>
       <c r="G322" s="152"/>
       <c r="H322" s="152">
-        <v>5.1334921171</v>
+        <v>5.3308493738000005</v>
       </c>
       <c r="I322" s="152"/>
       <c r="J322" s="152"/>
       <c r="K322" s="152"/>
       <c r="L322" s="152">
-        <v>5.1334921171</v>
+        <v>5.3308493738000005</v>
       </c>
       <c r="M322" s="152"/>
       <c r="N322" s="152"/>
@@ -18114,13 +18114,13 @@
       <c r="R322" s="152"/>
       <c r="S322" s="152"/>
       <c r="T322" s="152">
-        <v>5.1756291344</v>
+        <v>5.3676365093</v>
       </c>
       <c r="U322" s="152"/>
       <c r="V322" s="152"/>
       <c r="W322" s="152"/>
       <c r="X322" s="152">
-        <v>5.1756291344</v>
+        <v>5.3676365093</v>
       </c>
       <c r="Y322" s="152"/>
       <c r="Z322" s="152"/>
@@ -18136,13 +18136,13 @@
       <c r="F323" s="152"/>
       <c r="G323" s="152"/>
       <c r="H323" s="152">
-        <v>5.5908948681</v>
+        <v>5.5921644927999994</v>
       </c>
       <c r="I323" s="152"/>
       <c r="J323" s="152"/>
       <c r="K323" s="152"/>
       <c r="L323" s="152">
-        <v>5.5908948681</v>
+        <v>5.5921644927999994</v>
       </c>
       <c r="M323" s="152"/>
       <c r="N323" s="152"/>
@@ -18152,13 +18152,13 @@
       <c r="R323" s="152"/>
       <c r="S323" s="152"/>
       <c r="T323" s="152">
-        <v>5.6408968852999992</v>
+        <v>5.6440829510000006</v>
       </c>
       <c r="U323" s="152"/>
       <c r="V323" s="152"/>
       <c r="W323" s="152"/>
       <c r="X323" s="152">
-        <v>5.6408968852999992</v>
+        <v>5.6440829510000006</v>
       </c>
       <c r="Y323" s="152"/>
       <c r="Z323" s="152"/>
@@ -18174,13 +18174,13 @@
       <c r="F324" s="152"/>
       <c r="G324" s="152"/>
       <c r="H324" s="153">
-        <v>5.16082141585487</v>
+        <v>5.34614349168663</v>
       </c>
       <c r="I324" s="153"/>
       <c r="J324" s="153"/>
       <c r="K324" s="153"/>
       <c r="L324" s="153">
-        <v>5.16082141585487</v>
+        <v>5.34614349168663</v>
       </c>
       <c r="M324" s="153"/>
       <c r="N324" s="153"/>
@@ -18190,13 +18190,13 @@
       <c r="R324" s="152"/>
       <c r="S324" s="152"/>
       <c r="T324" s="153">
-        <v>5.1921723135417013</v>
+        <v>5.3770028442889561</v>
       </c>
       <c r="U324" s="153"/>
       <c r="V324" s="153"/>
       <c r="W324" s="153"/>
       <c r="X324" s="153">
-        <v>5.1921723135417013</v>
+        <v>5.3770028442889561</v>
       </c>
       <c r="Y324" s="153"/>
       <c r="Z324" s="153"/>
@@ -18212,13 +18212,13 @@
       <c r="F325" s="152"/>
       <c r="G325" s="152"/>
       <c r="H325" s="153">
-        <v>5.16797427542894</v>
+        <v>5.3501514983127256</v>
       </c>
       <c r="I325" s="153"/>
       <c r="J325" s="153"/>
       <c r="K325" s="153"/>
       <c r="L325" s="153">
-        <v>5.16797427542894</v>
+        <v>5.3501514983127256</v>
       </c>
       <c r="M325" s="153"/>
       <c r="N325" s="153"/>
@@ -18228,13 +18228,13 @@
       <c r="R325" s="152"/>
       <c r="S325" s="152"/>
       <c r="T325" s="153">
-        <v>5.1967508513708367</v>
+        <v>5.3796007412211111</v>
       </c>
       <c r="U325" s="153"/>
       <c r="V325" s="153"/>
       <c r="W325" s="153"/>
       <c r="X325" s="153">
-        <v>5.1967508513708367</v>
+        <v>5.3796007412211111</v>
       </c>
       <c r="Y325" s="153"/>
       <c r="Z325" s="153"/>
@@ -18250,13 +18250,13 @@
       <c r="F326" s="152"/>
       <c r="G326" s="152"/>
       <c r="H326" s="152">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="I326" s="152"/>
       <c r="J326" s="152"/>
       <c r="K326" s="152"/>
       <c r="L326" s="152">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="M326" s="152"/>
       <c r="N326" s="152"/>
@@ -18266,13 +18266,13 @@
       <c r="R326" s="152"/>
       <c r="S326" s="152"/>
       <c r="T326" s="152">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="U326" s="152"/>
       <c r="V326" s="152"/>
       <c r="W326" s="152"/>
       <c r="X326" s="152">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="Y326" s="152"/>
       <c r="Z326" s="152"/>
@@ -18288,13 +18288,13 @@
       <c r="F327" s="152"/>
       <c r="G327" s="152"/>
       <c r="H327" s="152">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="I327" s="152"/>
       <c r="J327" s="152"/>
       <c r="K327" s="152"/>
       <c r="L327" s="152">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="M327" s="152"/>
       <c r="N327" s="152"/>
@@ -18304,13 +18304,13 @@
       <c r="R327" s="152"/>
       <c r="S327" s="152"/>
       <c r="T327" s="152">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="U327" s="152"/>
       <c r="V327" s="152"/>
       <c r="W327" s="152"/>
       <c r="X327" s="152">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="Y327" s="152"/>
       <c r="Z327" s="152"/>
@@ -18326,13 +18326,13 @@
       <c r="F328" s="152"/>
       <c r="G328" s="152"/>
       <c r="H328" s="152">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="I328" s="152"/>
       <c r="J328" s="152"/>
       <c r="K328" s="152"/>
       <c r="L328" s="152">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="M328" s="152"/>
       <c r="N328" s="152"/>
@@ -18342,13 +18342,13 @@
       <c r="R328" s="152"/>
       <c r="S328" s="152"/>
       <c r="T328" s="152">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="U328" s="152"/>
       <c r="V328" s="152"/>
       <c r="W328" s="152"/>
       <c r="X328" s="152">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="Y328" s="152"/>
       <c r="Z328" s="152"/>
@@ -18364,13 +18364,13 @@
       <c r="F329" s="152"/>
       <c r="G329" s="152"/>
       <c r="H329" s="153">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="I329" s="153"/>
       <c r="J329" s="153"/>
       <c r="K329" s="153"/>
       <c r="L329" s="153">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="M329" s="153"/>
       <c r="N329" s="153"/>
@@ -18380,13 +18380,13 @@
       <c r="R329" s="152"/>
       <c r="S329" s="152"/>
       <c r="T329" s="153">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="U329" s="153"/>
       <c r="V329" s="153"/>
       <c r="W329" s="153"/>
       <c r="X329" s="153">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="Y329" s="153"/>
       <c r="Z329" s="153"/>
@@ -18402,13 +18402,13 @@
       <c r="F330" s="152"/>
       <c r="G330" s="152"/>
       <c r="H330" s="153">
-        <v>5.5284706945771207</v>
+        <v>5.7250801654877606</v>
       </c>
       <c r="I330" s="153"/>
       <c r="J330" s="153"/>
       <c r="K330" s="153"/>
       <c r="L330" s="153">
-        <v>5.5284706945771207</v>
+        <v>5.7250801654877606</v>
       </c>
       <c r="M330" s="153"/>
       <c r="N330" s="153"/>
@@ -18418,13 +18418,13 @@
       <c r="R330" s="152"/>
       <c r="S330" s="152"/>
       <c r="T330" s="153">
-        <v>5.5445384445261006</v>
+        <v>5.7372156455781349</v>
       </c>
       <c r="U330" s="153"/>
       <c r="V330" s="153"/>
       <c r="W330" s="153"/>
       <c r="X330" s="153">
-        <v>5.5445384445261006</v>
+        <v>5.7372156455781349</v>
       </c>
       <c r="Y330" s="153"/>
       <c r="Z330" s="153"/>
@@ -18440,13 +18440,13 @@
       <c r="F331" s="152"/>
       <c r="G331" s="152"/>
       <c r="H331" s="152">
-        <v>4.6364517962</v>
+        <v>4.8368060143</v>
       </c>
       <c r="I331" s="152"/>
       <c r="J331" s="152"/>
       <c r="K331" s="152"/>
       <c r="L331" s="152">
-        <v>4.6364517962</v>
+        <v>4.8368060143</v>
       </c>
       <c r="M331" s="152"/>
       <c r="N331" s="152"/>
@@ -18456,13 +18456,13 @@
       <c r="R331" s="152"/>
       <c r="S331" s="152"/>
       <c r="T331" s="152">
-        <v>4.6960443337</v>
+        <v>4.8963490113</v>
       </c>
       <c r="U331" s="152"/>
       <c r="V331" s="152"/>
       <c r="W331" s="152"/>
       <c r="X331" s="152">
-        <v>4.6960443337</v>
+        <v>4.8963490113</v>
       </c>
       <c r="Y331" s="152"/>
       <c r="Z331" s="152"/>
@@ -18516,13 +18516,13 @@
       <c r="F333" s="152"/>
       <c r="G333" s="152"/>
       <c r="H333" s="153">
-        <v>5.5285935015715042</v>
+        <v>5.7251271674719462</v>
       </c>
       <c r="I333" s="153"/>
       <c r="J333" s="153"/>
       <c r="K333" s="153"/>
       <c r="L333" s="153">
-        <v>5.5285935015715042</v>
+        <v>5.7251271674719462</v>
       </c>
       <c r="M333" s="153"/>
       <c r="N333" s="153"/>
@@ -18532,13 +18532,13 @@
       <c r="R333" s="152"/>
       <c r="S333" s="152"/>
       <c r="T333" s="153">
-        <v>5.5474943556539</v>
+        <v>5.7400380871374033</v>
       </c>
       <c r="U333" s="153"/>
       <c r="V333" s="153"/>
       <c r="W333" s="153"/>
       <c r="X333" s="153">
-        <v>5.5474943556539</v>
+        <v>5.7400380871374033</v>
       </c>
       <c r="Y333" s="153"/>
       <c r="Z333" s="153"/>
@@ -18782,13 +18782,13 @@
       <c r="F340" s="152"/>
       <c r="G340" s="152"/>
       <c r="H340" s="153">
-        <v>3.6820759809975008</v>
+        <v>3.7551305346844308</v>
       </c>
       <c r="I340" s="153"/>
       <c r="J340" s="153"/>
       <c r="K340" s="153"/>
       <c r="L340" s="153">
-        <v>3.6820759809975008</v>
+        <v>3.7551305346844308</v>
       </c>
       <c r="M340" s="153"/>
       <c r="N340" s="153"/>
@@ -18798,13 +18798,13 @@
       <c r="R340" s="152"/>
       <c r="S340" s="152"/>
       <c r="T340" s="153">
-        <v>3.188680343141939</v>
+        <v>3.2097872409490176</v>
       </c>
       <c r="U340" s="153"/>
       <c r="V340" s="153"/>
       <c r="W340" s="153"/>
       <c r="X340" s="153">
-        <v>3.188680343141939</v>
+        <v>3.2097872409490176</v>
       </c>
       <c r="Y340" s="153"/>
       <c r="Z340" s="153"/>
@@ -18820,13 +18820,13 @@
       <c r="F342" s="152"/>
       <c r="G342" s="152"/>
       <c r="H342" s="152">
-        <v>1.5611176497724877</v>
+        <v>1.5611176497719035</v>
       </c>
       <c r="I342" s="152"/>
       <c r="J342" s="152"/>
       <c r="K342" s="152"/>
       <c r="L342" s="152">
-        <v>1.5611176497724877</v>
+        <v>1.5611176497719035</v>
       </c>
       <c r="M342" s="152"/>
       <c r="N342" s="152"/>
@@ -18836,13 +18836,13 @@
       <c r="R342" s="152"/>
       <c r="S342" s="152"/>
       <c r="T342" s="152">
-        <v>1.8434659032856857</v>
+        <v>1.8434659020120492</v>
       </c>
       <c r="U342" s="152"/>
       <c r="V342" s="152"/>
       <c r="W342" s="152"/>
       <c r="X342" s="152">
-        <v>1.8434659032856857</v>
+        <v>1.8434659020120492</v>
       </c>
       <c r="Y342" s="152"/>
       <c r="Z342" s="152"/>
@@ -18858,13 +18858,13 @@
       <c r="F343" s="152"/>
       <c r="G343" s="152"/>
       <c r="H343" s="152">
-        <v>2.0056161978318503</v>
+        <v>2.0056161978336129</v>
       </c>
       <c r="I343" s="152"/>
       <c r="J343" s="152"/>
       <c r="K343" s="152"/>
       <c r="L343" s="152">
-        <v>2.0056161978318503</v>
+        <v>2.0056161978336129</v>
       </c>
       <c r="M343" s="152"/>
       <c r="N343" s="152"/>
@@ -18874,13 +18874,13 @@
       <c r="R343" s="152"/>
       <c r="S343" s="152"/>
       <c r="T343" s="152">
-        <v>2.5444292065352294</v>
+        <v>2.5444292065340179</v>
       </c>
       <c r="U343" s="152"/>
       <c r="V343" s="152"/>
       <c r="W343" s="152"/>
       <c r="X343" s="152">
-        <v>2.5444292065352294</v>
+        <v>2.5444292065340179</v>
       </c>
       <c r="Y343" s="152"/>
       <c r="Z343" s="152"/>
@@ -19010,13 +19010,13 @@
       <c r="F347" s="152"/>
       <c r="G347" s="152"/>
       <c r="H347" s="153">
-        <v>1.6465587325654443</v>
+        <v>1.6465587325397502</v>
       </c>
       <c r="I347" s="153"/>
       <c r="J347" s="153"/>
       <c r="K347" s="153"/>
       <c r="L347" s="153">
-        <v>1.6465587325654443</v>
+        <v>1.6465587325397502</v>
       </c>
       <c r="M347" s="153"/>
       <c r="N347" s="153"/>
@@ -19026,13 +19026,13 @@
       <c r="R347" s="152"/>
       <c r="S347" s="152"/>
       <c r="T347" s="153">
-        <v>2.0931180041220263</v>
+        <v>2.0931180041048614</v>
       </c>
       <c r="U347" s="153"/>
       <c r="V347" s="153"/>
       <c r="W347" s="153"/>
       <c r="X347" s="153">
-        <v>2.0931180041220263</v>
+        <v>2.0931180041048614</v>
       </c>
       <c r="Y347" s="153"/>
       <c r="Z347" s="153"/>
@@ -19124,13 +19124,13 @@
       <c r="F350" s="152"/>
       <c r="G350" s="152"/>
       <c r="H350" s="153">
-        <v>1.6465587325654443</v>
+        <v>1.6465587325397502</v>
       </c>
       <c r="I350" s="153"/>
       <c r="J350" s="153"/>
       <c r="K350" s="153"/>
       <c r="L350" s="153">
-        <v>1.6465587325654443</v>
+        <v>1.6465587325397502</v>
       </c>
       <c r="M350" s="153"/>
       <c r="N350" s="153"/>
@@ -19140,13 +19140,13 @@
       <c r="R350" s="152"/>
       <c r="S350" s="152"/>
       <c r="T350" s="153">
-        <v>2.0931180041220263</v>
+        <v>2.0931180041048614</v>
       </c>
       <c r="U350" s="153"/>
       <c r="V350" s="153"/>
       <c r="W350" s="153"/>
       <c r="X350" s="153">
-        <v>2.0931180041220263</v>
+        <v>2.0931180041048614</v>
       </c>
       <c r="Y350" s="153"/>
       <c r="Z350" s="153"/>
@@ -19322,13 +19322,13 @@
       <c r="F356" s="149"/>
       <c r="G356" s="149"/>
       <c r="H356" s="149">
-        <v>1.515241057005313</v>
+        <v>1.515241057008432</v>
       </c>
       <c r="I356" s="149"/>
       <c r="J356" s="149"/>
       <c r="K356" s="149"/>
       <c r="L356" s="149">
-        <v>1.515241057005313</v>
+        <v>1.515241057008432</v>
       </c>
       <c r="M356" s="149"/>
       <c r="N356" s="149"/>
@@ -19338,13 +19338,13 @@
       <c r="R356" s="149"/>
       <c r="S356" s="149"/>
       <c r="T356" s="149">
-        <v>1.5152410569661592</v>
+        <v>1.5152410569779202</v>
       </c>
       <c r="U356" s="149"/>
       <c r="V356" s="149"/>
       <c r="W356" s="149"/>
       <c r="X356" s="149">
-        <v>1.5152410569661592</v>
+        <v>1.5152410569779202</v>
       </c>
       <c r="Y356" s="149"/>
       <c r="Z356" s="149"/>
@@ -19360,13 +19360,13 @@
       <c r="F357" s="149"/>
       <c r="G357" s="149"/>
       <c r="H357" s="149">
-        <v>80.941188094069034</v>
+        <v>80.9411880954774</v>
       </c>
       <c r="I357" s="149"/>
       <c r="J357" s="149"/>
       <c r="K357" s="149"/>
       <c r="L357" s="149">
-        <v>80.941188094069034</v>
+        <v>80.9411880954774</v>
       </c>
       <c r="M357" s="149"/>
       <c r="N357" s="149"/>
@@ -19376,13 +19376,13 @@
       <c r="R357" s="149"/>
       <c r="S357" s="149"/>
       <c r="T357" s="149">
-        <v>80.941188096611938</v>
+        <v>80.94118809552748</v>
       </c>
       <c r="U357" s="149"/>
       <c r="V357" s="149"/>
       <c r="W357" s="149"/>
       <c r="X357" s="149">
-        <v>80.941188096611938</v>
+        <v>80.94118809552748</v>
       </c>
       <c r="Y357" s="149"/>
       <c r="Z357" s="149"/>
@@ -19398,13 +19398,13 @@
       <c r="F358" s="149"/>
       <c r="G358" s="149"/>
       <c r="H358" s="149">
-        <v>5.2209083052257785</v>
+        <v>5.2209083052365273</v>
       </c>
       <c r="I358" s="149"/>
       <c r="J358" s="149"/>
       <c r="K358" s="149"/>
       <c r="L358" s="149">
-        <v>5.2209083052257785</v>
+        <v>5.2209083052365273</v>
       </c>
       <c r="M358" s="149"/>
       <c r="N358" s="149"/>
@@ -19414,13 +19414,13 @@
       <c r="R358" s="149"/>
       <c r="S358" s="149"/>
       <c r="T358" s="149">
-        <v>5.22090830508876</v>
+        <v>5.2209083051292859</v>
       </c>
       <c r="U358" s="149"/>
       <c r="V358" s="149"/>
       <c r="W358" s="149"/>
       <c r="X358" s="149">
-        <v>5.22090830508876</v>
+        <v>5.2209083051292859</v>
       </c>
       <c r="Y358" s="149"/>
       <c r="Z358" s="149"/>
@@ -19436,13 +19436,13 @@
       <c r="F359" s="149"/>
       <c r="G359" s="149"/>
       <c r="H359" s="151">
-        <v>86.1620963992948</v>
+        <v>86.162096400713921</v>
       </c>
       <c r="I359" s="151"/>
       <c r="J359" s="151"/>
       <c r="K359" s="151"/>
       <c r="L359" s="151">
-        <v>86.1620963992948</v>
+        <v>86.162096400713921</v>
       </c>
       <c r="M359" s="151"/>
       <c r="N359" s="151"/>
@@ -19452,13 +19452,13 @@
       <c r="R359" s="149"/>
       <c r="S359" s="149"/>
       <c r="T359" s="151">
-        <v>86.162096401700708</v>
+        <v>86.162096400656765</v>
       </c>
       <c r="U359" s="151"/>
       <c r="V359" s="151"/>
       <c r="W359" s="151"/>
       <c r="X359" s="151">
-        <v>86.162096401700708</v>
+        <v>86.162096400656765</v>
       </c>
       <c r="Y359" s="151"/>
       <c r="Z359" s="151"/>
@@ -19474,13 +19474,13 @@
       <c r="F360" s="149"/>
       <c r="G360" s="149"/>
       <c r="H360" s="151">
-        <v>87.6773374563001</v>
+        <v>87.677337457722359</v>
       </c>
       <c r="I360" s="151"/>
       <c r="J360" s="151"/>
       <c r="K360" s="151"/>
       <c r="L360" s="151">
-        <v>87.6773374563001</v>
+        <v>87.677337457722359</v>
       </c>
       <c r="M360" s="151"/>
       <c r="N360" s="151"/>
@@ -19490,13 +19490,13 @@
       <c r="R360" s="149"/>
       <c r="S360" s="149"/>
       <c r="T360" s="151">
-        <v>87.677337458666869</v>
+        <v>87.6773374576347</v>
       </c>
       <c r="U360" s="151"/>
       <c r="V360" s="151"/>
       <c r="W360" s="151"/>
       <c r="X360" s="151">
-        <v>87.677337458666869</v>
+        <v>87.6773374576347</v>
       </c>
       <c r="Y360" s="151"/>
       <c r="Z360" s="151"/>
@@ -19512,13 +19512,13 @@
       <c r="F361" s="149"/>
       <c r="G361" s="149"/>
       <c r="H361" s="149">
-        <v>282.34843281616747</v>
+        <v>282.3484328175677</v>
       </c>
       <c r="I361" s="149"/>
       <c r="J361" s="149"/>
       <c r="K361" s="149"/>
       <c r="L361" s="149">
-        <v>282.34843281616747</v>
+        <v>282.3484328175677</v>
       </c>
       <c r="M361" s="149"/>
       <c r="N361" s="149"/>
@@ -19528,13 +19528,13 @@
       <c r="R361" s="149"/>
       <c r="S361" s="149"/>
       <c r="T361" s="149">
-        <v>282.3484328167745</v>
+        <v>282.34843281620584</v>
       </c>
       <c r="U361" s="149"/>
       <c r="V361" s="149"/>
       <c r="W361" s="149"/>
       <c r="X361" s="149">
-        <v>282.3484328167745</v>
+        <v>282.34843281620584</v>
       </c>
       <c r="Y361" s="149"/>
       <c r="Z361" s="149"/>
@@ -19550,13 +19550,13 @@
       <c r="F362" s="149"/>
       <c r="G362" s="149"/>
       <c r="H362" s="149">
-        <v>99.608554921277715</v>
+        <v>99.608554921771784</v>
       </c>
       <c r="I362" s="149"/>
       <c r="J362" s="149"/>
       <c r="K362" s="149"/>
       <c r="L362" s="149">
-        <v>99.608554921277715</v>
+        <v>99.608554921771784</v>
       </c>
       <c r="M362" s="149"/>
       <c r="N362" s="149"/>
@@ -19566,13 +19566,13 @@
       <c r="R362" s="149"/>
       <c r="S362" s="149"/>
       <c r="T362" s="149">
-        <v>99.608554921491475</v>
+        <v>99.608554921290818</v>
       </c>
       <c r="U362" s="149"/>
       <c r="V362" s="149"/>
       <c r="W362" s="149"/>
       <c r="X362" s="149">
-        <v>99.608554921491475</v>
+        <v>99.608554921290818</v>
       </c>
       <c r="Y362" s="149"/>
       <c r="Z362" s="149"/>
@@ -19588,13 +19588,13 @@
       <c r="F363" s="149"/>
       <c r="G363" s="149"/>
       <c r="H363" s="149">
-        <v>95.7534757346292</v>
+        <v>95.753475735104146</v>
       </c>
       <c r="I363" s="149"/>
       <c r="J363" s="149"/>
       <c r="K363" s="149"/>
       <c r="L363" s="149">
-        <v>95.7534757346292</v>
+        <v>95.753475735104146</v>
       </c>
       <c r="M363" s="149"/>
       <c r="N363" s="149"/>
@@ -19604,13 +19604,13 @@
       <c r="R363" s="149"/>
       <c r="S363" s="149"/>
       <c r="T363" s="149">
-        <v>95.753475734835376</v>
+        <v>95.753475734642521</v>
       </c>
       <c r="U363" s="149"/>
       <c r="V363" s="149"/>
       <c r="W363" s="149"/>
       <c r="X363" s="149">
-        <v>95.753475734835376</v>
+        <v>95.753475734642521</v>
       </c>
       <c r="Y363" s="149"/>
       <c r="Z363" s="149"/>
@@ -19626,13 +19626,13 @@
       <c r="F364" s="149"/>
       <c r="G364" s="149"/>
       <c r="H364" s="151">
-        <v>195.362030655907</v>
+        <v>195.3620306568761</v>
       </c>
       <c r="I364" s="151"/>
       <c r="J364" s="151"/>
       <c r="K364" s="151"/>
       <c r="L364" s="151">
-        <v>195.362030655907</v>
+        <v>195.3620306568761</v>
       </c>
       <c r="M364" s="151"/>
       <c r="N364" s="151"/>
@@ -19642,13 +19642,13 @@
       <c r="R364" s="149"/>
       <c r="S364" s="149"/>
       <c r="T364" s="151">
-        <v>195.3620306563268</v>
+        <v>195.36203065593332</v>
       </c>
       <c r="U364" s="151"/>
       <c r="V364" s="151"/>
       <c r="W364" s="151"/>
       <c r="X364" s="151">
-        <v>195.3620306563268</v>
+        <v>195.36203065593332</v>
       </c>
       <c r="Y364" s="151"/>
       <c r="Z364" s="151"/>
@@ -19664,13 +19664,13 @@
       <c r="F365" s="149"/>
       <c r="G365" s="149"/>
       <c r="H365" s="151">
-        <v>565.38780092837453</v>
+        <v>565.38780093216621</v>
       </c>
       <c r="I365" s="151"/>
       <c r="J365" s="151"/>
       <c r="K365" s="151"/>
       <c r="L365" s="151">
-        <v>565.38780092837453</v>
+        <v>565.38780093216621</v>
       </c>
       <c r="M365" s="151"/>
       <c r="N365" s="151"/>
@@ -19680,13 +19680,13 @@
       <c r="R365" s="149"/>
       <c r="S365" s="149"/>
       <c r="T365" s="151">
-        <v>565.38780093176831</v>
+        <v>565.3878009297739</v>
       </c>
       <c r="U365" s="151"/>
       <c r="V365" s="151"/>
       <c r="W365" s="151"/>
       <c r="X365" s="151">
-        <v>565.38780093176831</v>
+        <v>565.3878009297739</v>
       </c>
       <c r="Y365" s="151"/>
       <c r="Z365" s="151"/>
@@ -19702,13 +19702,13 @@
       <c r="F366" s="149"/>
       <c r="G366" s="149"/>
       <c r="H366" s="149">
-        <v>0.048572335429063904</v>
+        <v>0.048572335429063855</v>
       </c>
       <c r="I366" s="149"/>
       <c r="J366" s="149"/>
       <c r="K366" s="149"/>
       <c r="L366" s="149">
-        <v>0.048572335429063904</v>
+        <v>0.048572335429063855</v>
       </c>
       <c r="M366" s="149"/>
       <c r="N366" s="149"/>
@@ -19718,13 +19718,13 @@
       <c r="R366" s="149"/>
       <c r="S366" s="149"/>
       <c r="T366" s="149">
-        <v>0.048572335429024095</v>
+        <v>0.048572335429030652</v>
       </c>
       <c r="U366" s="149"/>
       <c r="V366" s="149"/>
       <c r="W366" s="149"/>
       <c r="X366" s="149">
-        <v>0.048572335429024095</v>
+        <v>0.048572335429030652</v>
       </c>
       <c r="Y366" s="149"/>
       <c r="Z366" s="149"/>
@@ -19740,13 +19740,13 @@
       <c r="F367" s="149"/>
       <c r="G367" s="149"/>
       <c r="H367" s="149">
-        <v>0.47554122385685804</v>
+        <v>0.4755412238567549</v>
       </c>
       <c r="I367" s="149"/>
       <c r="J367" s="149"/>
       <c r="K367" s="149"/>
       <c r="L367" s="149">
-        <v>0.47554122385685804</v>
+        <v>0.4755412238567549</v>
       </c>
       <c r="M367" s="149"/>
       <c r="N367" s="149"/>
@@ -19756,13 +19756,13 @@
       <c r="R367" s="149"/>
       <c r="S367" s="149"/>
       <c r="T367" s="149">
-        <v>0.5966022216517165</v>
+        <v>0.59660222165023247</v>
       </c>
       <c r="U367" s="149"/>
       <c r="V367" s="149"/>
       <c r="W367" s="149"/>
       <c r="X367" s="149">
-        <v>0.5966022216517165</v>
+        <v>0.59660222165023247</v>
       </c>
       <c r="Y367" s="149"/>
       <c r="Z367" s="149"/>
@@ -19778,13 +19778,13 @@
       <c r="F368" s="149"/>
       <c r="G368" s="149"/>
       <c r="H368" s="151">
-        <v>565.75925857633</v>
+        <v>565.7592585801217</v>
       </c>
       <c r="I368" s="151"/>
       <c r="J368" s="151"/>
       <c r="K368" s="151"/>
       <c r="L368" s="151">
-        <v>565.75925857633</v>
+        <v>565.7592585801217</v>
       </c>
       <c r="M368" s="151"/>
       <c r="N368" s="151"/>
@@ -19794,13 +19794,13 @@
       <c r="R368" s="149"/>
       <c r="S368" s="149"/>
       <c r="T368" s="151">
-        <v>565.86644176735558</v>
+        <v>565.86644176535958</v>
       </c>
       <c r="U368" s="151"/>
       <c r="V368" s="151"/>
       <c r="W368" s="151"/>
       <c r="X368" s="151">
-        <v>565.86644176735558</v>
+        <v>565.86644176535958</v>
       </c>
       <c r="Y368" s="151"/>
       <c r="Z368" s="151"/>
@@ -19976,13 +19976,13 @@
       <c r="F374" s="149"/>
       <c r="G374" s="149"/>
       <c r="H374" s="149">
-        <v>3.44557340511505</v>
+        <v>3.44557746392739</v>
       </c>
       <c r="I374" s="149"/>
       <c r="J374" s="149"/>
       <c r="K374" s="149"/>
       <c r="L374" s="149">
-        <v>3.44557340511505</v>
+        <v>3.44557746392739</v>
       </c>
       <c r="M374" s="149"/>
       <c r="N374" s="149"/>
@@ -19992,13 +19992,13 @@
       <c r="R374" s="149"/>
       <c r="S374" s="149"/>
       <c r="T374" s="149">
-        <v>3.49557772959973</v>
+        <v>3.4955846197625</v>
       </c>
       <c r="U374" s="149"/>
       <c r="V374" s="149"/>
       <c r="W374" s="149"/>
       <c r="X374" s="149">
-        <v>3.49557772959973</v>
+        <v>3.4955846197625</v>
       </c>
       <c r="Y374" s="149"/>
       <c r="Z374" s="149"/>
@@ -20014,13 +20014,13 @@
       <c r="F375" s="149"/>
       <c r="G375" s="149"/>
       <c r="H375" s="149">
-        <v>356.150882826974</v>
+        <v>351.677007252455</v>
       </c>
       <c r="I375" s="149"/>
       <c r="J375" s="149"/>
       <c r="K375" s="149"/>
       <c r="L375" s="149">
-        <v>356.150882826974</v>
+        <v>351.677007252455</v>
       </c>
       <c r="M375" s="149"/>
       <c r="N375" s="149"/>
@@ -20030,13 +20030,13 @@
       <c r="R375" s="149"/>
       <c r="S375" s="149"/>
       <c r="T375" s="149">
-        <v>337.697637083954</v>
+        <v>328.982529568443</v>
       </c>
       <c r="U375" s="149"/>
       <c r="V375" s="149"/>
       <c r="W375" s="149"/>
       <c r="X375" s="149">
-        <v>337.697637083954</v>
+        <v>328.982529568443</v>
       </c>
       <c r="Y375" s="149"/>
       <c r="Z375" s="149"/>
@@ -20052,13 +20052,13 @@
       <c r="F376" s="149"/>
       <c r="G376" s="149"/>
       <c r="H376" s="149">
-        <v>11.872053442495</v>
+        <v>11.872067427522001</v>
       </c>
       <c r="I376" s="149"/>
       <c r="J376" s="149"/>
       <c r="K376" s="149"/>
       <c r="L376" s="149">
-        <v>11.872053442495</v>
+        <v>11.872067427522001</v>
       </c>
       <c r="M376" s="149"/>
       <c r="N376" s="149"/>
@@ -20068,13 +20068,13 @@
       <c r="R376" s="149"/>
       <c r="S376" s="149"/>
       <c r="T376" s="149">
-        <v>12.0443481356672</v>
+        <v>12.0443718763835</v>
       </c>
       <c r="U376" s="149"/>
       <c r="V376" s="149"/>
       <c r="W376" s="149"/>
       <c r="X376" s="149">
-        <v>12.0443481356672</v>
+        <v>12.0443718763835</v>
       </c>
       <c r="Y376" s="149"/>
       <c r="Z376" s="149"/>
@@ -20090,13 +20090,13 @@
       <c r="F377" s="149"/>
       <c r="G377" s="149"/>
       <c r="H377" s="151">
-        <v>368.02293626946897</v>
+        <v>363.549074679977</v>
       </c>
       <c r="I377" s="151"/>
       <c r="J377" s="151"/>
       <c r="K377" s="151"/>
       <c r="L377" s="151">
-        <v>368.02293626946897</v>
+        <v>363.549074679977</v>
       </c>
       <c r="M377" s="151"/>
       <c r="N377" s="151"/>
@@ -20106,13 +20106,13 @@
       <c r="R377" s="149"/>
       <c r="S377" s="149"/>
       <c r="T377" s="151">
-        <v>349.741985219621</v>
+        <v>341.026901444827</v>
       </c>
       <c r="U377" s="151"/>
       <c r="V377" s="151"/>
       <c r="W377" s="151"/>
       <c r="X377" s="151">
-        <v>349.741985219621</v>
+        <v>341.026901444827</v>
       </c>
       <c r="Y377" s="151"/>
       <c r="Z377" s="151"/>
@@ -20128,13 +20128,13 @@
       <c r="F378" s="149"/>
       <c r="G378" s="149"/>
       <c r="H378" s="151">
-        <v>371.468509674584</v>
+        <v>366.994652143905</v>
       </c>
       <c r="I378" s="151"/>
       <c r="J378" s="151"/>
       <c r="K378" s="151"/>
       <c r="L378" s="151">
-        <v>371.468509674584</v>
+        <v>366.994652143905</v>
       </c>
       <c r="M378" s="151"/>
       <c r="N378" s="151"/>
@@ -20144,13 +20144,13 @@
       <c r="R378" s="149"/>
       <c r="S378" s="149"/>
       <c r="T378" s="151">
-        <v>353.237562949221</v>
+        <v>344.522486064589</v>
       </c>
       <c r="U378" s="151"/>
       <c r="V378" s="151"/>
       <c r="W378" s="151"/>
       <c r="X378" s="151">
-        <v>353.237562949221</v>
+        <v>344.522486064589</v>
       </c>
       <c r="Y378" s="151"/>
       <c r="Z378" s="151"/>
@@ -20166,13 +20166,13 @@
       <c r="F379" s="149"/>
       <c r="G379" s="149"/>
       <c r="H379" s="149">
-        <v>738.56829540043</v>
+        <v>740.41688391381092</v>
       </c>
       <c r="I379" s="149"/>
       <c r="J379" s="149"/>
       <c r="K379" s="149"/>
       <c r="L379" s="149">
-        <v>738.56829540043</v>
+        <v>740.41688391381092</v>
       </c>
       <c r="M379" s="149"/>
       <c r="N379" s="149"/>
@@ -20182,13 +20182,13 @@
       <c r="R379" s="149"/>
       <c r="S379" s="149"/>
       <c r="T379" s="149">
-        <v>1133.47349350678</v>
+        <v>1137.04022853958</v>
       </c>
       <c r="U379" s="149"/>
       <c r="V379" s="149"/>
       <c r="W379" s="149"/>
       <c r="X379" s="149">
-        <v>1133.47349350678</v>
+        <v>1137.04022853958</v>
       </c>
       <c r="Y379" s="149"/>
       <c r="Z379" s="149"/>
@@ -20204,13 +20204,13 @@
       <c r="F380" s="149"/>
       <c r="G380" s="149"/>
       <c r="H380" s="149">
-        <v>260.5565041808</v>
+        <v>261.208660201733</v>
       </c>
       <c r="I380" s="149"/>
       <c r="J380" s="149"/>
       <c r="K380" s="149"/>
       <c r="L380" s="149">
-        <v>260.5565041808</v>
+        <v>261.208660201733</v>
       </c>
       <c r="M380" s="149"/>
       <c r="N380" s="149"/>
@@ -20220,13 +20220,13 @@
       <c r="R380" s="149"/>
       <c r="S380" s="149"/>
       <c r="T380" s="149">
-        <v>399.873502408607</v>
+        <v>401.131796350107</v>
       </c>
       <c r="U380" s="149"/>
       <c r="V380" s="149"/>
       <c r="W380" s="149"/>
       <c r="X380" s="149">
-        <v>399.873502408607</v>
+        <v>401.131796350107</v>
       </c>
       <c r="Y380" s="149"/>
       <c r="Z380" s="149"/>
@@ -20242,13 +20242,13 @@
       <c r="F381" s="149"/>
       <c r="G381" s="149"/>
       <c r="H381" s="149">
-        <v>250.472370774719</v>
+        <v>251.099286864154</v>
       </c>
       <c r="I381" s="149"/>
       <c r="J381" s="149"/>
       <c r="K381" s="149"/>
       <c r="L381" s="149">
-        <v>250.472370774719</v>
+        <v>251.099286864154</v>
       </c>
       <c r="M381" s="149"/>
       <c r="N381" s="149"/>
@@ -20258,13 +20258,13 @@
       <c r="R381" s="149"/>
       <c r="S381" s="149"/>
       <c r="T381" s="149">
-        <v>384.397482124549</v>
+        <v>385.607077208923</v>
       </c>
       <c r="U381" s="149"/>
       <c r="V381" s="149"/>
       <c r="W381" s="149"/>
       <c r="X381" s="149">
-        <v>384.397482124549</v>
+        <v>385.607077208923</v>
       </c>
       <c r="Y381" s="149"/>
       <c r="Z381" s="149"/>
@@ -20280,13 +20280,13 @@
       <c r="F382" s="149"/>
       <c r="G382" s="149"/>
       <c r="H382" s="151">
-        <v>511.028874955519</v>
+        <v>512.307947065887</v>
       </c>
       <c r="I382" s="151"/>
       <c r="J382" s="151"/>
       <c r="K382" s="151"/>
       <c r="L382" s="151">
-        <v>511.028874955519</v>
+        <v>512.307947065887</v>
       </c>
       <c r="M382" s="151"/>
       <c r="N382" s="151"/>
@@ -20296,13 +20296,13 @@
       <c r="R382" s="149"/>
       <c r="S382" s="149"/>
       <c r="T382" s="151">
-        <v>784.270984533156</v>
+        <v>786.738873559029</v>
       </c>
       <c r="U382" s="151"/>
       <c r="V382" s="151"/>
       <c r="W382" s="151"/>
       <c r="X382" s="151">
-        <v>784.270984533156</v>
+        <v>786.738873559029</v>
       </c>
       <c r="Y382" s="151"/>
       <c r="Z382" s="151"/>
@@ -20318,13 +20318,13 @@
       <c r="F383" s="149"/>
       <c r="G383" s="149"/>
       <c r="H383" s="151">
-        <v>1621.06568003053</v>
+        <v>1619.7194831236</v>
       </c>
       <c r="I383" s="151"/>
       <c r="J383" s="151"/>
       <c r="K383" s="151"/>
       <c r="L383" s="151">
-        <v>1621.06568003053</v>
+        <v>1619.7194831236</v>
       </c>
       <c r="M383" s="151"/>
       <c r="N383" s="151"/>
@@ -20334,13 +20334,13 @@
       <c r="R383" s="149"/>
       <c r="S383" s="149"/>
       <c r="T383" s="151">
-        <v>2270.98204098916</v>
+        <v>2268.3015881632</v>
       </c>
       <c r="U383" s="151"/>
       <c r="V383" s="151"/>
       <c r="W383" s="151"/>
       <c r="X383" s="151">
-        <v>2270.98204098916</v>
+        <v>2268.3015881632</v>
       </c>
       <c r="Y383" s="151"/>
       <c r="Z383" s="151"/>
@@ -20356,13 +20356,13 @@
       <c r="F384" s="149"/>
       <c r="G384" s="149"/>
       <c r="H384" s="149">
-        <v>0.13463386105782899</v>
+        <v>0.134633861058046</v>
       </c>
       <c r="I384" s="149"/>
       <c r="J384" s="149"/>
       <c r="K384" s="149"/>
       <c r="L384" s="149">
-        <v>0.13463386105782899</v>
+        <v>0.134633861058046</v>
       </c>
       <c r="M384" s="149"/>
       <c r="N384" s="149"/>
@@ -20372,13 +20372,13 @@
       <c r="R384" s="149"/>
       <c r="S384" s="149"/>
       <c r="T384" s="149">
-        <v>0.0946301072104775</v>
+        <v>0.0946301072109373</v>
       </c>
       <c r="U384" s="149"/>
       <c r="V384" s="149"/>
       <c r="W384" s="149"/>
       <c r="X384" s="149">
-        <v>0.0946301072104775</v>
+        <v>0.0946301072109373</v>
       </c>
       <c r="Y384" s="149"/>
       <c r="Z384" s="149"/>
@@ -20394,13 +20394,13 @@
       <c r="F385" s="149"/>
       <c r="G385" s="149"/>
       <c r="H385" s="149">
-        <v>0.5483475209896389</v>
+        <v>0.548347520990484</v>
       </c>
       <c r="I385" s="149"/>
       <c r="J385" s="149"/>
       <c r="K385" s="149"/>
       <c r="L385" s="149">
-        <v>0.5483475209896389</v>
+        <v>0.548347520990484</v>
       </c>
       <c r="M385" s="149"/>
       <c r="N385" s="149"/>
@@ -20410,13 +20410,13 @@
       <c r="R385" s="149"/>
       <c r="S385" s="149"/>
       <c r="T385" s="149">
-        <v>0.483897870212885</v>
+        <v>0.483897870209529</v>
       </c>
       <c r="U385" s="149"/>
       <c r="V385" s="149"/>
       <c r="W385" s="149"/>
       <c r="X385" s="149">
-        <v>0.483897870212885</v>
+        <v>0.483897870209529</v>
       </c>
       <c r="Y385" s="149"/>
       <c r="Z385" s="149"/>
@@ -20432,13 +20432,13 @@
       <c r="F386" s="149"/>
       <c r="G386" s="149"/>
       <c r="H386" s="151">
-        <v>1621.27602673006</v>
+        <v>1619.9298298231302</v>
       </c>
       <c r="I386" s="151"/>
       <c r="J386" s="151"/>
       <c r="K386" s="151"/>
       <c r="L386" s="151">
-        <v>1621.27602673006</v>
+        <v>1619.9298298231302</v>
       </c>
       <c r="M386" s="151"/>
       <c r="N386" s="151"/>
@@ -20448,13 +20448,13 @@
       <c r="R386" s="149"/>
       <c r="S386" s="149"/>
       <c r="T386" s="151">
-        <v>2271.22812314435</v>
+        <v>2268.54767031838</v>
       </c>
       <c r="U386" s="151"/>
       <c r="V386" s="151"/>
       <c r="W386" s="151"/>
       <c r="X386" s="151">
-        <v>2271.22812314435</v>
+        <v>2268.54767031838</v>
       </c>
       <c r="Y386" s="151"/>
       <c r="Z386" s="151"/>
@@ -20579,13 +20579,13 @@
         <v>1040.497740402599</v>
       </c>
       <c r="E396" s="2">
-        <v>1022.5389139848801</v>
+        <v>1023.5095378314519</v>
       </c>
       <c r="F396" s="2">
-        <v>918.301203737624</v>
+        <v>925.55317606259007</v>
       </c>
       <c r="G396" s="2">
-        <v>867.15887650055708</v>
+        <v>877.947219077708</v>
       </c>
     </row>
     <row r="411" ht="14.25" customHeight="1">
@@ -20661,7 +20661,7 @@
       <c r="K413" s="128"/>
       <c r="L413" s="128"/>
       <c r="M413" s="128">
-        <v>1227.7653938957787</v>
+        <v>1228.7360177423511</v>
       </c>
       <c r="N413" s="128"/>
       <c r="O413" s="128"/>
@@ -20690,7 +20690,7 @@
       <c r="K414" s="128"/>
       <c r="L414" s="128"/>
       <c r="M414" s="128">
-        <v>1156.0284186813492</v>
+        <v>1156.998606706602</v>
       </c>
       <c r="N414" s="128"/>
       <c r="O414" s="128"/>
@@ -20748,7 +20748,7 @@
       <c r="K416" s="128"/>
       <c r="L416" s="128"/>
       <c r="M416" s="128">
-        <v>35.724285950973147</v>
+        <v>35.724721772292718</v>
       </c>
       <c r="N416" s="128"/>
       <c r="O416" s="128"/>
@@ -20806,7 +20806,7 @@
       <c r="K418" s="128"/>
       <c r="L418" s="128"/>
       <c r="M418" s="128">
-        <v>1022.5389139848799</v>
+        <v>1023.5095378314522</v>
       </c>
       <c r="N418" s="128"/>
       <c r="O418" s="128"/>
@@ -20978,7 +20978,7 @@
       <c r="K424" s="128"/>
       <c r="L424" s="128"/>
       <c r="M424" s="128">
-        <v>-2393.2383258045361</v>
+        <v>-2392.9471386505638</v>
       </c>
       <c r="N424" s="128"/>
       <c r="O424" s="128"/>
@@ -21007,7 +21007,7 @@
       <c r="K425" s="128"/>
       <c r="L425" s="128"/>
       <c r="M425" s="128">
-        <v>-5584.22276021058</v>
+        <v>-5583.54332351798</v>
       </c>
       <c r="N425" s="128"/>
       <c r="O425" s="128"/>
@@ -21119,7 +21119,7 @@
       <c r="K429" s="128"/>
       <c r="L429" s="128"/>
       <c r="M429" s="128">
-        <v>4790.7099634354508</v>
+        <v>4813.732283070337</v>
       </c>
       <c r="N429" s="128"/>
       <c r="O429" s="128"/>
@@ -21148,7 +21148,7 @@
       <c r="K430" s="128"/>
       <c r="L430" s="128"/>
       <c r="M430" s="128">
-        <v>4695.8497812772512</v>
+        <v>4718.7514182251789</v>
       </c>
       <c r="N430" s="128"/>
       <c r="O430" s="128"/>
@@ -21177,7 +21177,7 @@
       <c r="K431" s="128"/>
       <c r="L431" s="128"/>
       <c r="M431" s="128">
-        <v>144.68134811741078</v>
+        <v>144.6813481174112</v>
       </c>
       <c r="N431" s="128"/>
       <c r="O431" s="128"/>
@@ -21206,7 +21206,7 @@
       <c r="K432" s="128"/>
       <c r="L432" s="128"/>
       <c r="M432" s="128">
-        <v>-49.8211659592111</v>
+        <v>-49.700483272253138</v>
       </c>
       <c r="N432" s="128"/>
       <c r="O432" s="128"/>
@@ -21235,7 +21235,7 @@
       <c r="K433" s="128"/>
       <c r="L433" s="128"/>
       <c r="M433" s="128">
-        <v>1009.8229054588073</v>
+        <v>1009.8229054590898</v>
       </c>
       <c r="N433" s="128"/>
       <c r="O433" s="128"/>
@@ -21264,7 +21264,7 @@
       <c r="K434" s="128"/>
       <c r="L434" s="128"/>
       <c r="M434" s="128">
-        <v>3780.8870579766435</v>
+        <v>3803.9093776112472</v>
       </c>
       <c r="N434" s="128"/>
       <c r="O434" s="128"/>
@@ -21436,7 +21436,7 @@
       <c r="K440" s="128"/>
       <c r="L440" s="128"/>
       <c r="M440" s="128">
-        <v>-9665.7338826070081</v>
+        <v>-9658.8271867166241</v>
       </c>
       <c r="N440" s="128"/>
       <c r="O440" s="128"/>
@@ -21465,7 +21465,7 @@
       <c r="K441" s="128"/>
       <c r="L441" s="128"/>
       <c r="M441" s="128">
-        <v>-22553.379059416351</v>
+        <v>-22537.263435672132</v>
       </c>
       <c r="N441" s="128"/>
       <c r="O441" s="128"/>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>-8.6311401212908816</v>
+        <v>-8.6269534221129884</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>-17.764978617760146</v>
+        <v>-17.656874562677473</v>
       </c>
       <c r="G8" s="18">
         <v>47.649023686136495</v>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="5">
-        <v>-72.951426814275564</v>
+        <v>-72.903926276310671</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="5">
-        <v>-6.4689369059414918</v>
+        <v>-6.4735960350192858</v>
       </c>
       <c r="E9" s="18">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>-13.240500325922669</v>
+        <v>-13.186821878925311</v>
       </c>
       <c r="G9" s="18">
         <v>38.222108083011079</v>
@@ -25376,7 +25376,7 @@
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="5">
-        <v>-72.7682169852009</v>
+        <v>-72.720354939145466</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -25387,13 +25387,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="5">
-        <v>-4.2840028182611292</v>
+        <v>-4.29574325719122</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>-8.7102207167427572</v>
+        <v>-8.7043217041086152</v>
       </c>
       <c r="G10" s="18">
         <v>26.243043637417397</v>
@@ -25409,7 +25409,7 @@
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="5">
-        <v>-72.583083483950617</v>
+        <v>-72.534697774356857</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -25420,13 +25420,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5">
-        <v>-2.0919991239621765</v>
+        <v>-2.1062196627850351</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>-4.2465207679032613</v>
+        <v>-4.2714460331568063</v>
       </c>
       <c r="G11" s="18">
         <v>12.687422636131775</v>
@@ -25442,7 +25442,7 @@
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="5">
-        <v>-72.393016668051928</v>
+        <v>-72.343711383826275</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="5">
-        <v>-72.208641147390935</v>
+        <v>-72.157044121120634</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -25486,13 +25486,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>1.2989351245809175</v>
+        <v>1.3858401038153174</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>2.7783553354474604</v>
+        <v>3.0310909871903391</v>
       </c>
       <c r="G13" s="18">
         <v>-6.3739235765473676</v>
@@ -25508,7 +25508,7 @@
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="5">
-        <v>-72.073124630388122</v>
+        <v>-72.013448548802486</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -25519,13 +25519,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="5">
-        <v>0.61033493125560134</v>
+        <v>0.7671568112931908</v>
       </c>
       <c r="E14" s="18">
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>1.9217849246423044</v>
+        <v>2.3815044526243816</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="5">
@@ -25539,7 +25539,7 @@
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="5">
-        <v>-72.128463333290711</v>
+        <v>-72.063181977142023</v>
       </c>
     </row>
     <row r="15" hidden="1" ht="14.25" customHeight="1">
@@ -25565,13 +25565,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>-3.5925121636298223</v>
+        <v>-3.3834989316650894</v>
       </c>
       <c r="E16" s="18">
         <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>-8.66475022212753</v>
+        <v>-8.0072478632304946</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="5">
@@ -25585,7 +25585,7 @@
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="5">
-        <v>-72.484601148585256</v>
+        <v>-72.4170389073209</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="5">
-        <v>-9.5547618046842153</v>
+        <v>-9.5178605523644819</v>
       </c>
       <c r="E17" s="18">
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>-19.069214820921424</v>
+        <v>-18.867998608132858</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="5">
@@ -25616,7 +25616,7 @@
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="5">
-        <v>-73.029709045905577</v>
+        <v>-72.979896078454956</v>
       </c>
     </row>
     <row r="18" hidden="1" ht="14.25" customHeight="1">
@@ -25686,10 +25686,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="49">
-        <v>3780.8870579766431</v>
+        <v>3803.9093776112454</v>
       </c>
       <c r="E22" s="49">
-        <v>3780.8870579766431</v>
+        <v>3803.9093776112454</v>
       </c>
       <c r="F22" s="49">
         <v>3855.2365487790562</v>
@@ -25701,7 +25701,7 @@
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
       <c r="K22" s="49">
-        <v>-3260.9417294419518</v>
+        <v>-3237.9194098073494</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -25712,10 +25712,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="49">
-        <v>6798.0379798651611</v>
+        <v>6898.0503384804852</v>
       </c>
       <c r="E23" s="49">
-        <v>6798.0379798651611</v>
+        <v>6898.0503384804852</v>
       </c>
       <c r="F23" s="49">
         <v>7710.4730975581124</v>
@@ -25727,7 +25727,7 @@
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
       <c r="K23" s="49">
-        <v>-7285.6195949720295</v>
+        <v>-7185.6072363567046</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -25738,10 +25738,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="49">
-        <v>-22553.379059416351</v>
+        <v>-22537.263435672132</v>
       </c>
       <c r="E24" s="49">
-        <v>-22553.379059416351</v>
+        <v>-22537.263435672132</v>
       </c>
       <c r="F24" s="49">
         <v>3855.2365487790562</v>
@@ -25756,10 +25756,10 @@
         <v>-12000</v>
       </c>
       <c r="J24" s="49">
-        <v>9665.7338826070081</v>
+        <v>9658.8271867166241</v>
       </c>
       <c r="K24" s="49">
-        <v>-3260.9417294419522</v>
+        <v>-3237.919409807349</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -25770,10 +25770,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="49">
-        <v>-45641.373414094392</v>
+        <v>-45571.364763063684</v>
       </c>
       <c r="E25" s="49">
-        <v>-45641.373414094392</v>
+        <v>-45571.364763063684</v>
       </c>
       <c r="F25" s="49">
         <v>7710.4730975581124</v>
@@ -25788,10 +25788,10 @@
         <v>-24000</v>
       </c>
       <c r="J25" s="49">
-        <v>19560.588606040448</v>
+        <v>19530.584898455851</v>
       </c>
       <c r="K25" s="49">
-        <v>-7285.6195949720341</v>
+        <v>-7185.6072363567246</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -25921,31 +25921,31 @@
         <v>139</v>
       </c>
       <c r="C36" s="49">
-        <v>3803.9631324027969</v>
+        <v>3833.0913274970108</v>
       </c>
       <c r="D36" s="49">
-        <v>3829.9983279934359</v>
+        <v>3856.6254792789737</v>
       </c>
       <c r="E36" s="49">
-        <v>3780.8870579766431</v>
+        <v>3803.9093776112454</v>
       </c>
       <c r="F36" s="49">
-        <v>3701.7909338457725</v>
+        <v>3723.7906903454736</v>
       </c>
       <c r="G36" s="49">
-        <v>3618.9137498576533</v>
+        <v>3640.5031970128457</v>
       </c>
       <c r="H36" s="49">
-        <v>3536.3038597112263</v>
+        <v>3557.6596509664773</v>
       </c>
       <c r="I36" s="49">
-        <v>3454.5533981749268</v>
+        <v>3475.7478873853352</v>
       </c>
       <c r="J36" s="49">
-        <v>3419.6323054828422</v>
+        <v>3441.8585875118915</v>
       </c>
       <c r="K36" s="50">
-        <v>-2.0919991239621765</v>
+        <v>-2.1062196627850351</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -26270,28 +26270,28 @@
         <v>408.11916560290604</v>
       </c>
       <c r="H52" s="49">
-        <v>410.616301963333</v>
+        <v>410.933875108505</v>
       </c>
       <c r="I52" s="49">
-        <v>409.02992632954</v>
+        <v>409.68297703094</v>
       </c>
       <c r="J52" s="49">
-        <v>406.903250448813</v>
+        <v>407.894111776848</v>
       </c>
       <c r="K52" s="49">
-        <v>404.553693802778</v>
+        <v>405.89012132961903</v>
       </c>
       <c r="L52" s="49">
-        <v>401.903731368849</v>
+        <v>403.587823399888</v>
       </c>
       <c r="M52" s="49">
-        <v>399.233893480499</v>
+        <v>401.277986847327</v>
       </c>
       <c r="N52" s="49">
-        <v>396.36040903250796</v>
+        <v>398.770497500453</v>
       </c>
       <c r="O52" s="49">
-        <v>393.33956131992403</v>
+        <v>396.137351810117</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -26342,28 +26342,28 @@
         <v>340.388794797579</v>
       </c>
       <c r="H54" s="49">
-        <v>342.514714738371</v>
+        <v>342.832287883543</v>
       </c>
       <c r="I54" s="49">
-        <v>339.63540444893</v>
+        <v>340.28845515033</v>
       </c>
       <c r="J54" s="49">
-        <v>332.962426949629</v>
+        <v>333.953288277664</v>
       </c>
       <c r="K54" s="49">
-        <v>322.986827001037</v>
+        <v>324.32325452787705</v>
       </c>
       <c r="L54" s="49">
-        <v>316.938809802916</v>
+        <v>318.62290183395504</v>
       </c>
       <c r="M54" s="49">
-        <v>311.753113485592</v>
+        <v>313.79720685242</v>
       </c>
       <c r="N54" s="49">
-        <v>306.194781800311</v>
+        <v>308.604870268256</v>
       </c>
       <c r="O54" s="49">
-        <v>300.353308451721</v>
+        <v>303.151098941914</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
@@ -26450,28 +26450,28 @@
         <v>-2659.6112052024196</v>
       </c>
       <c r="H57" s="49">
-        <v>-2657.48528526163</v>
+        <v>-2657.16771211646</v>
       </c>
       <c r="I57" s="49">
-        <v>-2660.3645955510697</v>
+        <v>-2659.71154484967</v>
       </c>
       <c r="J57" s="49">
-        <v>-2667.03757305037</v>
+        <v>-2666.0467117223398</v>
       </c>
       <c r="K57" s="49">
-        <v>-2677.0131729989603</v>
+        <v>-2675.6767454721203</v>
       </c>
       <c r="L57" s="49">
-        <v>-2683.06119019708</v>
+        <v>-2681.37709816604</v>
       </c>
       <c r="M57" s="49">
-        <v>-2688.24688651441</v>
+        <v>-2686.2027931475805</v>
       </c>
       <c r="N57" s="49">
-        <v>-2693.80521819969</v>
+        <v>-2691.39512973174</v>
       </c>
       <c r="O57" s="49">
-        <v>-2699.64669154828</v>
+        <v>-2696.8489010580897</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -26486,28 +26486,28 @@
         <v>-797.88336156072592</v>
       </c>
       <c r="H58" s="49">
-        <v>-797.245585578489</v>
+        <v>-797.150313634937</v>
       </c>
       <c r="I58" s="49">
-        <v>-798.10937866532106</v>
+        <v>-797.913463454901</v>
       </c>
       <c r="J58" s="49">
-        <v>-800.111271915111</v>
+        <v>-799.81401351670092</v>
       </c>
       <c r="K58" s="49">
-        <v>-803.103951899689</v>
+        <v>-802.703023641637</v>
       </c>
       <c r="L58" s="49">
-        <v>-804.918357059125</v>
+        <v>-804.413129449813</v>
       </c>
       <c r="M58" s="49">
-        <v>-806.474065954322</v>
+        <v>-805.860837944274</v>
       </c>
       <c r="N58" s="49">
-        <v>-808.141565459907</v>
+        <v>-807.418538919523</v>
       </c>
       <c r="O58" s="49">
-        <v>-809.89400746448393</v>
+        <v>-809.054670317426</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -26522,28 +26522,28 @@
         <v>-1861.72784364169</v>
       </c>
       <c r="H59" s="49">
-        <v>-1860.23969968314</v>
+        <v>-1860.0173984815199</v>
       </c>
       <c r="I59" s="49">
-        <v>-1862.2552168857499</v>
+        <v>-1861.79808139477</v>
       </c>
       <c r="J59" s="49">
-        <v>-1866.92630113526</v>
+        <v>-1866.23269820563</v>
       </c>
       <c r="K59" s="49">
-        <v>-1873.90922109927</v>
+        <v>-1872.9737218304902</v>
       </c>
       <c r="L59" s="49">
-        <v>-1878.14283313796</v>
+        <v>-1876.96396871623</v>
       </c>
       <c r="M59" s="49">
-        <v>-1881.77282056009</v>
+        <v>-1880.34195520331</v>
       </c>
       <c r="N59" s="49">
-        <v>-1885.66365273978</v>
+        <v>-1883.97659081222</v>
       </c>
       <c r="O59" s="49">
-        <v>-1889.7526840838</v>
+        <v>-1887.7942307406602</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -26560,28 +26560,28 @@
         <v>25494.2721563581</v>
       </c>
       <c r="H60" s="49">
-        <v>23634.0324563564</v>
+        <v>23634.254757628103</v>
       </c>
       <c r="I60" s="49">
-        <v>21771.7772398644</v>
+        <v>21772.4566763043</v>
       </c>
       <c r="J60" s="49">
-        <v>19904.8509389068</v>
+        <v>19906.2239785843</v>
       </c>
       <c r="K60" s="49">
-        <v>18030.941721369603</v>
+        <v>18033.2502604021</v>
       </c>
       <c r="L60" s="49">
-        <v>16152.798884920201</v>
+        <v>16156.286288307101</v>
       </c>
       <c r="M60" s="49">
-        <v>14271.0260630603</v>
+        <v>14275.9443319062</v>
       </c>
       <c r="N60" s="49">
-        <v>12385.3624094474</v>
+        <v>12391.9677401339</v>
       </c>
       <c r="O60" s="49">
-        <v>10495.609728616299</v>
+        <v>10504.1735122737</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
@@ -26645,10 +26645,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="49">
-        <v>4790.7099634354508</v>
+        <v>4813.732283070337</v>
       </c>
       <c r="G65" s="49">
-        <v>5127.7991684538483</v>
+        <v>5148.9936576708706</v>
       </c>
       <c r="H65" s="49">
         <f>G65-F65</f>
@@ -26678,10 +26678,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="49">
-        <v>1009.8229054588073</v>
+        <v>1009.8229054590898</v>
       </c>
       <c r="G66" s="49">
-        <v>1673.2457702789204</v>
+        <v>1673.2457702855395</v>
       </c>
       <c r="H66" s="49">
         <f>G66-F66</f>
@@ -26751,10 +26751,10 @@
         <f>IF(OR(C68="",D68=""),"",D68-C68)</f>
       </c>
       <c r="F68" s="49">
-        <v>-49.8211659592107</v>
+        <v>-49.70048327225534</v>
       </c>
       <c r="G68" s="49">
-        <v>-125.31830790272217</v>
+        <v>-125.05588513786651</v>
       </c>
       <c r="H68" s="49">
         <f>IF(OR(F68="",G68=""),"",G68-F68)</f>
@@ -26779,10 +26779,10 @@
         <f ref="E69:E78" t="shared" si="13">IF(OR(C69="",D69=""),"",D69-C69)</f>
       </c>
       <c r="F69" s="49">
-        <v>4695.8497812772512</v>
+        <v>4718.75141822518</v>
       </c>
       <c r="G69" s="49">
-        <v>5105.793371873765</v>
+        <v>5126.7254384442977</v>
       </c>
       <c r="H69" s="49">
         <f ref="H69:H78" t="shared" si="14">IF(OR(F69="",G69=""),"",G69-F69)</f>
@@ -26807,10 +26807,10 @@
         <f t="shared" si="13"/>
       </c>
       <c r="F70" s="49">
-        <v>144.68134811741078</v>
+        <v>144.6813481174112</v>
       </c>
       <c r="G70" s="49">
-        <v>147.3241044828043</v>
+        <v>147.3241043644409</v>
       </c>
       <c r="H70" s="49">
         <f t="shared" si="14"/>
@@ -26863,10 +26863,10 @@
         <f t="shared" si="13"/>
       </c>
       <c r="F72" s="49">
-        <v>959.531654474837</v>
+        <v>959.53165447511981</v>
       </c>
       <c r="G72" s="49">
-        <v>1584.0370615478066</v>
+        <v>1584.0370615544259</v>
       </c>
       <c r="H72" s="49">
         <f t="shared" si="14"/>
@@ -27114,10 +27114,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="49">
-        <v>4790.7099634354508</v>
+        <v>4813.732283070337</v>
       </c>
       <c r="G82" s="49">
-        <v>5045.1470726642283</v>
+        <v>5066.5028639209631</v>
       </c>
       <c r="H82" s="49">
         <f>G82-F82</f>
@@ -27147,10 +27147,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="49">
-        <v>1009.8229054588073</v>
+        <v>1009.8229054590898</v>
       </c>
       <c r="G83" s="49">
-        <v>1508.8432129530015</v>
+        <v>1508.8432129544854</v>
       </c>
       <c r="H83" s="49">
         <f>G83-F83</f>
@@ -27220,10 +27220,10 @@
         <f>IF(OR(C85="",D85=""),"",D85-C85)</f>
       </c>
       <c r="F85" s="49">
-        <v>-49.8211659592107</v>
+        <v>-49.70048327225534</v>
       </c>
       <c r="G85" s="49">
-        <v>-106.17947921212812</v>
+        <v>-105.95259819998347</v>
       </c>
       <c r="H85" s="49">
         <f>IF(OR(F85="",G85=""),"",G85-F85)</f>
@@ -27248,10 +27248,10 @@
         <f ref="E86:E95" t="shared" si="21">IF(OR(C86="",D86=""),"",D86-C86)</f>
       </c>
       <c r="F86" s="49">
-        <v>4695.8497812772512</v>
+        <v>4718.75141822518</v>
       </c>
       <c r="G86" s="49">
-        <v>5004.564624190768</v>
+        <v>5025.6935343973582</v>
       </c>
       <c r="H86" s="49">
         <f ref="H86:H95" t="shared" si="22">IF(OR(F86="",G86=""),"",G86-F86)</f>
@@ -27276,10 +27276,10 @@
         <f t="shared" si="21"/>
       </c>
       <c r="F87" s="49">
-        <v>144.68134811741078</v>
+        <v>144.6813481174112</v>
       </c>
       <c r="G87" s="49">
-        <v>146.76192768558738</v>
+        <v>146.7619277235861</v>
       </c>
       <c r="H87" s="49">
         <f t="shared" si="22"/>
@@ -27332,10 +27332,10 @@
         <f t="shared" si="21"/>
       </c>
       <c r="F89" s="49">
-        <v>959.531654474837</v>
+        <v>959.53165447511981</v>
       </c>
       <c r="G89" s="49">
-        <v>1429.3209521480649</v>
+        <v>1429.320952149548</v>
       </c>
       <c r="H89" s="49">
         <f t="shared" si="22"/>
@@ -27583,10 +27583,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="49">
-        <v>4790.7099634354508</v>
+        <v>4813.732283070337</v>
       </c>
       <c r="G99" s="49">
-        <v>4961.7305091358658</v>
+        <v>4983.3199562831605</v>
       </c>
       <c r="H99" s="49">
         <f>G99-F99</f>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="49">
-        <v>1009.8229054588073</v>
+        <v>1009.8229054590898</v>
       </c>
       <c r="G100" s="49">
-        <v>1342.8167592782127</v>
+        <v>1342.8167592703137</v>
       </c>
       <c r="H100" s="49">
         <f>G100-F100</f>
@@ -27689,10 +27689,10 @@
         <f>IF(OR(C102="",D102=""),"",D102-C102)</f>
       </c>
       <c r="F102" s="49">
-        <v>-49.8211659592107</v>
+        <v>-49.70048327225534</v>
       </c>
       <c r="G102" s="49">
-        <v>-87.237926608627632</v>
+        <v>-87.046789698243117</v>
       </c>
       <c r="H102" s="49">
         <f>IF(OR(F102="",G102=""),"",G102-F102)</f>
@@ -27717,10 +27717,10 @@
         <f ref="E103:E112" t="shared" si="29">IF(OR(C103="",D103=""),"",D103-C103)</f>
       </c>
       <c r="F103" s="49">
-        <v>4695.8497812772512</v>
+        <v>4718.75141822518</v>
       </c>
       <c r="G103" s="49">
-        <v>4902.796974078914</v>
+        <v>4924.1952843188747</v>
       </c>
       <c r="H103" s="49">
         <f ref="H103:H112" t="shared" si="30">IF(OR(F103="",G103=""),"",G103-F103)</f>
@@ -27745,10 +27745,10 @@
         <f t="shared" si="29"/>
       </c>
       <c r="F104" s="49">
-        <v>144.68134811741078</v>
+        <v>144.6813481174112</v>
       </c>
       <c r="G104" s="49">
-        <v>146.17146166557939</v>
+        <v>146.1714616625288</v>
       </c>
       <c r="H104" s="49">
         <f t="shared" si="30"/>
@@ -27801,10 +27801,10 @@
         <f t="shared" si="29"/>
       </c>
       <c r="F106" s="49">
-        <v>959.531654474837</v>
+        <v>959.53165447511981</v>
       </c>
       <c r="G106" s="49">
-        <v>1273.0094134866749</v>
+        <v>1273.009413478776</v>
       </c>
       <c r="H106" s="49">
         <f t="shared" si="30"/>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="49">
-        <v>4790.7099634354508</v>
+        <v>4813.732283070337</v>
       </c>
       <c r="G116" s="49">
-        <v>4877.4712431829194</v>
+        <v>4899.4709996822612</v>
       </c>
       <c r="H116" s="49">
         <f>G116-F116</f>
@@ -28085,10 +28085,10 @@
         <v>0</v>
       </c>
       <c r="F117" s="49">
-        <v>1009.8229054588073</v>
+        <v>1009.8229054590898</v>
       </c>
       <c r="G117" s="49">
-        <v>1175.680309337147</v>
+        <v>1175.6803093367898</v>
       </c>
       <c r="H117" s="49">
         <f>G117-F117</f>
@@ -28158,10 +28158,10 @@
         <f>IF(OR(C119="",D119=""),"",D119-C119)</f>
       </c>
       <c r="F119" s="49">
-        <v>-49.8211659592107</v>
+        <v>-49.70048327225534</v>
       </c>
       <c r="G119" s="49">
-        <v>-68.326147218392961</v>
+        <v>-68.170719897936763</v>
       </c>
       <c r="H119" s="49">
         <f>IF(OR(F119="",G119=""),"",G119-F119)</f>
@@ -28186,10 +28186,10 @@
         <f ref="E120:E129" t="shared" si="37">IF(OR(C120="",D120=""),"",D120-C120)</f>
       </c>
       <c r="F120" s="49">
-        <v>4695.8497812772512</v>
+        <v>4718.75141822518</v>
       </c>
       <c r="G120" s="49">
-        <v>4800.277869257573</v>
+        <v>4822.1221984399517</v>
       </c>
       <c r="H120" s="49">
         <f ref="H120:H129" t="shared" si="38">IF(OR(F120="",G120=""),"",G120-F120)</f>
@@ -28214,10 +28214,10 @@
         <f t="shared" si="37"/>
       </c>
       <c r="F121" s="49">
-        <v>144.68134811741078</v>
+        <v>144.6813481174112</v>
       </c>
       <c r="G121" s="49">
-        <v>145.5195211437387</v>
+        <v>145.519521140247</v>
       </c>
       <c r="H121" s="49">
         <f t="shared" si="38"/>
@@ -28270,10 +28270,10 @@
         <f t="shared" si="37"/>
       </c>
       <c r="F123" s="49">
-        <v>959.531654474837</v>
+        <v>959.53165447511981</v>
       </c>
       <c r="G123" s="49">
-        <v>1115.6165608580495</v>
+        <v>1115.6165608576914</v>
       </c>
       <c r="H123" s="49">
         <f t="shared" si="38"/>
@@ -28521,10 +28521,10 @@
         <v>0</v>
       </c>
       <c r="F133" s="49">
-        <v>4790.7099634354508</v>
+        <v>4813.732283070337</v>
       </c>
       <c r="G133" s="49">
-        <v>4688.3873227686845</v>
+        <v>4715.0144740542864</v>
       </c>
       <c r="H133" s="49">
         <f>G133-F133</f>
@@ -28554,10 +28554,10 @@
         <v>0</v>
       </c>
       <c r="F134" s="49">
-        <v>1009.8229054588073</v>
+        <v>1009.8229054590898</v>
       </c>
       <c r="G134" s="49">
-        <v>858.38899477524876</v>
+        <v>858.3889947753122</v>
       </c>
       <c r="H134" s="49">
         <f>G134-F134</f>
@@ -28627,10 +28627,10 @@
         <f>IF(OR(C136="",D136=""),"",D136-C136)</f>
       </c>
       <c r="F136" s="49">
-        <v>-49.8211659592107</v>
+        <v>-49.70048327225534</v>
       </c>
       <c r="G136" s="49">
-        <v>-31.730217344677921</v>
+        <v>-31.640864786951322</v>
       </c>
       <c r="H136" s="49">
         <f>IF(OR(F136="",G136=""),"",G136-F136)</f>
@@ -28655,10 +28655,10 @@
         <f ref="E137:E146" t="shared" si="45">IF(OR(C137="",D137=""),"",D137-C137)</f>
       </c>
       <c r="F137" s="49">
-        <v>4695.8497812772512</v>
+        <v>4718.75141822518</v>
       </c>
       <c r="G137" s="49">
-        <v>4577.4617746120139</v>
+        <v>4603.9995733398819</v>
       </c>
       <c r="H137" s="49">
         <f ref="H137:H146" t="shared" si="46">IF(OR(F137="",G137=""),"",G137-F137)</f>
@@ -28683,10 +28683,10 @@
         <f t="shared" si="45"/>
       </c>
       <c r="F138" s="49">
-        <v>144.68134811741078</v>
+        <v>144.6813481174112</v>
       </c>
       <c r="G138" s="49">
-        <v>142.65576550134958</v>
+        <v>142.65576550135441</v>
       </c>
       <c r="H138" s="49">
         <f t="shared" si="46"/>
@@ -28739,10 +28739,10 @@
         <f t="shared" si="45"/>
       </c>
       <c r="F140" s="49">
-        <v>959.531654474837</v>
+        <v>959.53165447511981</v>
       </c>
       <c r="G140" s="49">
-        <v>817.89936207103972</v>
+        <v>817.899362071103</v>
       </c>
       <c r="H140" s="49">
         <f t="shared" si="46"/>
@@ -28990,10 +28990,10 @@
         <v>0</v>
       </c>
       <c r="F150" s="49">
-        <v>4790.7099634354508</v>
+        <v>4813.732283070337</v>
       </c>
       <c r="G150" s="49">
-        <v>4553.5809167957314</v>
+        <v>4582.7091118909511</v>
       </c>
       <c r="H150" s="49">
         <f>G150-F150</f>
@@ -29023,10 +29023,10 @@
         <v>0</v>
       </c>
       <c r="F151" s="49">
-        <v>1009.8229054588073</v>
+        <v>1009.8229054590898</v>
       </c>
       <c r="G151" s="49">
-        <v>749.61778439293585</v>
+        <v>749.61778439394016</v>
       </c>
       <c r="H151" s="49">
         <f>G151-F151</f>
@@ -29096,10 +29096,10 @@
         <f>IF(OR(C153="",D153=""),"",D153-C153)</f>
       </c>
       <c r="F153" s="49">
-        <v>-49.8211659592107</v>
+        <v>-49.70048327225534</v>
       </c>
       <c r="G153" s="49">
-        <v>-13.867846251468324</v>
+        <v>-13.819501497386259</v>
       </c>
       <c r="H153" s="49">
         <f>IF(OR(F153="",G153=""),"",G153-F153)</f>
@@ -29124,10 +29124,10 @@
         <f ref="E154:E163" t="shared" si="53">IF(OR(C154="",D154=""),"",D154-C154)</f>
       </c>
       <c r="F154" s="49">
-        <v>4695.8497812772512</v>
+        <v>4718.75141822518</v>
       </c>
       <c r="G154" s="49">
-        <v>4431.4333656625613</v>
+        <v>4460.5132160037065</v>
       </c>
       <c r="H154" s="49">
         <f ref="H154:H163" t="shared" si="54">IF(OR(F154="",G154=""),"",G154-F154)</f>
@@ -29152,10 +29152,10 @@
         <f t="shared" si="53"/>
       </c>
       <c r="F155" s="49">
-        <v>144.68134811741078</v>
+        <v>144.6813481174112</v>
       </c>
       <c r="G155" s="49">
-        <v>136.01539738463873</v>
+        <v>136.015397384631</v>
       </c>
       <c r="H155" s="49">
         <f t="shared" si="54"/>
@@ -29208,10 +29208,10 @@
         <f t="shared" si="53"/>
       </c>
       <c r="F157" s="49">
-        <v>959.531654474837</v>
+        <v>959.53165447511981</v>
       </c>
       <c r="G157" s="49">
-        <v>718.95911412072019</v>
+        <v>718.95911412172472</v>
       </c>
       <c r="H157" s="49">
         <f t="shared" si="54"/>
@@ -33311,17 +33311,17 @@
       </c>
       <c r="C14" s="158"/>
       <c r="D14" s="158">
-        <v>-827.379294686889</v>
+        <v>-826.38936542460192</v>
       </c>
       <c r="E14" s="158">
-        <v>-827.379294686889</v>
+        <v>-826.38936542460192</v>
       </c>
       <c r="F14" s="158"/>
       <c r="G14" s="158">
-        <v>-2245.5982347262398</v>
+        <v>-2241.29783543603</v>
       </c>
       <c r="H14" s="158">
-        <v>-2245.5982347262398</v>
+        <v>-2241.29783543603</v>
       </c>
     </row>
     <row r="15">
@@ -33330,17 +33330,17 @@
       </c>
       <c r="C15" s="158"/>
       <c r="D15" s="158">
-        <v>-12641.9997607534</v>
+        <v>-12626.874067401699</v>
       </c>
       <c r="E15" s="158">
-        <v>-12641.9997607534</v>
+        <v>-12626.874067401699</v>
       </c>
       <c r="F15" s="158"/>
       <c r="G15" s="158">
-        <v>-34311.7751779139</v>
+        <v>-34246.0669263935</v>
       </c>
       <c r="H15" s="158">
-        <v>-34311.7751779139</v>
+        <v>-34246.0669263935</v>
       </c>
     </row>
     <row r="16">
@@ -33349,17 +33349,17 @@
       </c>
       <c r="C16" s="158"/>
       <c r="D16" s="170">
-        <v>-13469.379055440299</v>
+        <v>-13453.2634328263</v>
       </c>
       <c r="E16" s="170">
-        <v>-13469.379055440299</v>
+        <v>-13453.2634328263</v>
       </c>
       <c r="F16" s="158"/>
       <c r="G16" s="170">
-        <v>-36557.3734126401</v>
+        <v>-36487.3647618295</v>
       </c>
       <c r="H16" s="170">
-        <v>-36557.3734126401</v>
+        <v>-36487.3647618295</v>
       </c>
     </row>
     <row r="17">
@@ -33824,17 +33824,17 @@
       </c>
       <c r="C41" s="158"/>
       <c r="D41" s="170">
-        <v>92031.620944559691</v>
+        <v>92047.7365671737</v>
       </c>
       <c r="E41" s="170">
-        <v>92031.620944559691</v>
+        <v>92047.7365671737</v>
       </c>
       <c r="F41" s="158"/>
       <c r="G41" s="170">
-        <v>68943.6265873598</v>
+        <v>69013.635238170507</v>
       </c>
       <c r="H41" s="170">
-        <v>68943.6265873598</v>
+        <v>69013.635238170507</v>
       </c>
     </row>
     <row r="42"/>
@@ -34016,17 +34016,17 @@
       </c>
       <c r="C53" s="158"/>
       <c r="D53" s="170">
-        <v>4802.62094455969</v>
+        <v>4818.7365671737</v>
       </c>
       <c r="E53" s="170">
-        <v>4802.62094455969</v>
+        <v>4818.7365671737</v>
       </c>
       <c r="F53" s="158"/>
       <c r="G53" s="170">
-        <v>-18285.3734126401</v>
+        <v>-18215.3647618295</v>
       </c>
       <c r="H53" s="170">
-        <v>-18285.3734126401</v>
+        <v>-18215.3647618295</v>
       </c>
     </row>
     <row r="54">
@@ -34117,17 +34117,17 @@
       </c>
       <c r="C60" s="158"/>
       <c r="D60" s="158">
-        <v>-49821.1659592107</v>
+        <v>-49700.48327225534</v>
       </c>
       <c r="E60" s="158">
-        <v>-49821.1659592107</v>
+        <v>-49700.48327225534</v>
       </c>
       <c r="F60" s="158"/>
       <c r="G60" s="158">
-        <v>-710562.06589180732</v>
+        <v>-709439.22634621675</v>
       </c>
       <c r="H60" s="158">
-        <v>-710562.06589180732</v>
+        <v>-709439.22634621675</v>
       </c>
     </row>
     <row r="61">
@@ -34136,17 +34136,17 @@
       </c>
       <c r="C61" s="158"/>
       <c r="D61" s="170">
-        <v>-49821.1659592107</v>
+        <v>-49700.48327225534</v>
       </c>
       <c r="E61" s="170">
-        <v>-49821.1659592107</v>
+        <v>-49700.48327225534</v>
       </c>
       <c r="F61" s="158"/>
       <c r="G61" s="170">
-        <v>-710562.06589180732</v>
+        <v>-709439.22634621675</v>
       </c>
       <c r="H61" s="170">
-        <v>-710562.06589180732</v>
+        <v>-709439.22634621675</v>
       </c>
     </row>
     <row r="62">
@@ -34155,17 +34155,17 @@
       </c>
       <c r="C62" s="158"/>
       <c r="D62" s="158">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="E62" s="158">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="F62" s="158"/>
       <c r="G62" s="158">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="H62" s="158">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
     </row>
     <row r="63">
@@ -34174,17 +34174,17 @@
       </c>
       <c r="C63" s="158"/>
       <c r="D63" s="170">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="E63" s="170">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="F63" s="158"/>
       <c r="G63" s="170">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="H63" s="170">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
     </row>
     <row r="64">
@@ -34193,17 +34193,17 @@
       </c>
       <c r="C64" s="158"/>
       <c r="D64" s="170">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="E64" s="170">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="F64" s="158"/>
       <c r="G64" s="170">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="H64" s="170">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
     </row>
     <row r="65">
@@ -34231,17 +34231,17 @@
       </c>
       <c r="C66" s="158"/>
       <c r="D66" s="170">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="E66" s="170">
-        <v>144681.34811741079</v>
+        <v>144681.3481174112</v>
       </c>
       <c r="F66" s="158"/>
       <c r="G66" s="170">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
       <c r="H66" s="170">
-        <v>147056.004870091</v>
+        <v>147056.0048700521</v>
       </c>
     </row>
     <row r="67">
@@ -34250,17 +34250,17 @@
       </c>
       <c r="C67" s="158"/>
       <c r="D67" s="158">
-        <v>9962.9912951755414</v>
+        <v>9963.1873794182266</v>
       </c>
       <c r="E67" s="158">
-        <v>9962.9912951755414</v>
+        <v>9963.1873794182266</v>
       </c>
       <c r="F67" s="158"/>
       <c r="G67" s="158">
-        <v>13788.771693856648</v>
+        <v>13790.28571401318</v>
       </c>
       <c r="H67" s="158">
-        <v>13788.771693856648</v>
+        <v>13790.28571401318</v>
       </c>
     </row>
     <row r="68">
@@ -34269,17 +34269,17 @@
       </c>
       <c r="C68" s="158"/>
       <c r="D68" s="158">
-        <v>1535457.8268533712</v>
+        <v>1538520.6555068512</v>
       </c>
       <c r="E68" s="158">
-        <v>1535457.8268533712</v>
+        <v>1538520.6555068512</v>
       </c>
       <c r="F68" s="158"/>
       <c r="G68" s="158">
-        <v>1571475.2369651932</v>
+        <v>1584781.810750667</v>
       </c>
       <c r="H68" s="158">
-        <v>1571475.2369651932</v>
+        <v>1584781.810750667</v>
       </c>
     </row>
     <row r="69">
@@ -34288,17 +34288,17 @@
       </c>
       <c r="C69" s="158"/>
       <c r="D69" s="158">
-        <v>34328.441509283926</v>
+        <v>34329.117136337714</v>
       </c>
       <c r="E69" s="158">
-        <v>34328.441509283926</v>
+        <v>34329.117136337714</v>
       </c>
       <c r="F69" s="158"/>
       <c r="G69" s="158">
-        <v>47510.534592821634</v>
+        <v>47515.751294397342</v>
       </c>
       <c r="H69" s="158">
-        <v>47510.534592821634</v>
+        <v>47515.751294397342</v>
       </c>
     </row>
     <row r="70">
@@ -34307,17 +34307,17 @@
       </c>
       <c r="C70" s="158"/>
       <c r="D70" s="170">
-        <v>1569786.2683626541</v>
+        <v>1572849.7726431883</v>
       </c>
       <c r="E70" s="170">
-        <v>1569786.2683626541</v>
+        <v>1572849.7726431883</v>
       </c>
       <c r="F70" s="158"/>
       <c r="G70" s="170">
-        <v>1618985.7715580126</v>
+        <v>1632297.5620450641</v>
       </c>
       <c r="H70" s="170">
-        <v>1618985.7715580126</v>
+        <v>1632297.5620450641</v>
       </c>
     </row>
     <row r="71">
@@ -34326,17 +34326,17 @@
       </c>
       <c r="C71" s="158"/>
       <c r="D71" s="170">
-        <v>1579749.2596578312</v>
+        <v>1582812.9600226071</v>
       </c>
       <c r="E71" s="170">
-        <v>1579749.2596578312</v>
+        <v>1582812.9600226071</v>
       </c>
       <c r="F71" s="158"/>
       <c r="G71" s="170">
-        <v>1632774.5432518688</v>
+        <v>1646087.84775908</v>
       </c>
       <c r="H71" s="170">
-        <v>1632774.5432518688</v>
+        <v>1646087.84775908</v>
       </c>
     </row>
     <row r="72">
@@ -34345,17 +34345,17 @@
       </c>
       <c r="C72" s="158"/>
       <c r="D72" s="158">
-        <v>1841927.6310833944</v>
+        <v>1853704.716068713</v>
       </c>
       <c r="E72" s="158">
-        <v>1841927.6310833944</v>
+        <v>1853704.716068713</v>
       </c>
       <c r="F72" s="158"/>
       <c r="G72" s="158">
-        <v>1942008.2233706312</v>
+        <v>1979036.8196263993</v>
       </c>
       <c r="H72" s="158">
-        <v>1942008.2233706312</v>
+        <v>1979036.8196263993</v>
       </c>
     </row>
     <row r="73">
@@ -34364,17 +34364,17 @@
       </c>
       <c r="C73" s="158"/>
       <c r="D73" s="158">
-        <v>649806.15536564367</v>
+        <v>653960.94526432431</v>
       </c>
       <c r="E73" s="158">
-        <v>649806.15536564367</v>
+        <v>653960.94526432431</v>
       </c>
       <c r="F73" s="158"/>
       <c r="G73" s="158">
-        <v>685113.18035589042</v>
+        <v>698176.3481837135</v>
       </c>
       <c r="H73" s="158">
-        <v>685113.18035589042</v>
+        <v>698176.3481837135</v>
       </c>
     </row>
     <row r="74">
@@ -34383,17 +34383,17 @@
       </c>
       <c r="C74" s="158"/>
       <c r="D74" s="158">
-        <v>624657.16904729477</v>
+        <v>628651.15906211047</v>
       </c>
       <c r="E74" s="158">
-        <v>624657.16904729477</v>
+        <v>628651.15906211047</v>
       </c>
       <c r="F74" s="158"/>
       <c r="G74" s="158">
-        <v>658597.73131463514</v>
+        <v>671155.32463187</v>
       </c>
       <c r="H74" s="158">
-        <v>658597.73131463514</v>
+        <v>671155.32463187</v>
       </c>
     </row>
     <row r="75">
@@ -34402,17 +34402,17 @@
       </c>
       <c r="C75" s="158"/>
       <c r="D75" s="170">
-        <v>1274463.3244129403</v>
+        <v>1282612.104326434</v>
       </c>
       <c r="E75" s="170">
-        <v>1274463.3244129403</v>
+        <v>1282612.104326434</v>
       </c>
       <c r="F75" s="158"/>
       <c r="G75" s="170">
-        <v>1343710.9116705251</v>
+        <v>1369331.6728155841</v>
       </c>
       <c r="H75" s="170">
-        <v>1343710.9116705251</v>
+        <v>1369331.6728155841</v>
       </c>
     </row>
     <row r="76">
@@ -34421,17 +34421,17 @@
       </c>
       <c r="C76" s="158"/>
       <c r="D76" s="170">
-        <v>4696140.2151541617</v>
+        <v>4719129.7804177552</v>
       </c>
       <c r="E76" s="170">
-        <v>4696140.2151541617</v>
+        <v>4719129.7804177552</v>
       </c>
       <c r="F76" s="158"/>
       <c r="G76" s="170">
-        <v>4918493.6782930242</v>
+        <v>4994456.3402010612</v>
       </c>
       <c r="H76" s="170">
-        <v>4918493.6782930242</v>
+        <v>4994456.3402010612</v>
       </c>
     </row>
     <row r="77">
@@ -34440,17 +34440,17 @@
       </c>
       <c r="C77" s="158"/>
       <c r="D77" s="158">
-        <v>1327.516395288804</v>
+        <v>1327.7383585992448</v>
       </c>
       <c r="E77" s="158">
-        <v>1327.516395288804</v>
+        <v>1327.7383585992448</v>
       </c>
       <c r="F77" s="158"/>
       <c r="G77" s="158">
-        <v>1315.9217230849411</v>
+        <v>1316.622532671094</v>
       </c>
       <c r="H77" s="158">
-        <v>1315.9217230849411</v>
+        <v>1316.622532671094</v>
       </c>
     </row>
     <row r="78">
@@ -34459,17 +34459,17 @@
       </c>
       <c r="C78" s="158"/>
       <c r="D78" s="158">
-        <v>392.49344523728223</v>
+        <v>392.49344523696863</v>
       </c>
       <c r="E78" s="158">
-        <v>392.49344523728223</v>
+        <v>392.49344523696863</v>
       </c>
       <c r="F78" s="158"/>
       <c r="G78" s="158">
-        <v>1154.4580270464098</v>
+        <v>1154.4580270418669</v>
       </c>
       <c r="H78" s="158">
-        <v>1154.4580270464098</v>
+        <v>1154.4580270418669</v>
       </c>
     </row>
     <row r="79">
@@ -34478,17 +34478,17 @@
       </c>
       <c r="C79" s="158"/>
       <c r="D79" s="170">
-        <v>4695849.7812772514</v>
+        <v>4718751.4182251794</v>
       </c>
       <c r="E79" s="170">
-        <v>4695849.7812772514</v>
+        <v>4718751.4182251794</v>
       </c>
       <c r="F79" s="158"/>
       <c r="G79" s="170">
-        <v>4918770.0719610294</v>
+        <v>4994637.2713817321</v>
       </c>
       <c r="H79" s="170">
-        <v>4918770.0719610294</v>
+        <v>4994637.2713817321</v>
       </c>
     </row>
     <row r="80">
@@ -34611,17 +34611,17 @@
       </c>
       <c r="C86" s="158"/>
       <c r="D86" s="170">
-        <v>4790709.9634354506</v>
+        <v>4813732.283070337</v>
       </c>
       <c r="E86" s="170">
-        <v>4790709.9634354506</v>
+        <v>4813732.283070337</v>
       </c>
       <c r="F86" s="158"/>
       <c r="G86" s="170">
-        <v>4355264.01093931</v>
+        <v>4432254.0499055684</v>
       </c>
       <c r="H86" s="170">
-        <v>4355264.01093931</v>
+        <v>4432254.0499055684</v>
       </c>
     </row>
     <row r="87"/>
@@ -34631,17 +34631,17 @@
       </c>
       <c r="C88" s="158"/>
       <c r="D88" s="158">
-        <v>288287.9280493905</v>
+        <v>288287.92804911366</v>
       </c>
       <c r="E88" s="158">
-        <v>288287.9280493905</v>
+        <v>288287.92804911366</v>
       </c>
       <c r="F88" s="158"/>
       <c r="G88" s="158">
-        <v>352707.92446133535</v>
+        <v>352707.924446398</v>
       </c>
       <c r="H88" s="158">
-        <v>352707.92446133535</v>
+        <v>352707.924446398</v>
       </c>
     </row>
     <row r="89">
@@ -34650,17 +34650,17 @@
       </c>
       <c r="C89" s="158"/>
       <c r="D89" s="158">
-        <v>671243.72642544622</v>
+        <v>671243.726426006</v>
       </c>
       <c r="E89" s="158">
-        <v>671243.72642544622</v>
+        <v>671243.726426006</v>
       </c>
       <c r="F89" s="158"/>
       <c r="G89" s="158">
-        <v>874613.462704365</v>
+        <v>874613.46270484012</v>
       </c>
       <c r="H89" s="158">
-        <v>874613.462704365</v>
+        <v>874613.46270484012</v>
       </c>
     </row>
     <row r="90">
@@ -34726,17 +34726,17 @@
       </c>
       <c r="C93" s="158"/>
       <c r="D93" s="170">
-        <v>1009822.9054588074</v>
+        <v>1009822.9054590898</v>
       </c>
       <c r="E93" s="170">
-        <v>1009822.9054588074</v>
+        <v>1009822.9054590898</v>
       </c>
       <c r="F93" s="158"/>
       <c r="G93" s="170">
-        <v>1338113.0890507908</v>
+        <v>1338113.0890363308</v>
       </c>
       <c r="H93" s="170">
-        <v>1338113.0890507908</v>
+        <v>1338113.0890363308</v>
       </c>
     </row>
     <row r="94">
@@ -34783,17 +34783,17 @@
       </c>
       <c r="C96" s="158"/>
       <c r="D96" s="170">
-        <v>1009822.9054588074</v>
+        <v>1009822.9054590898</v>
       </c>
       <c r="E96" s="170">
-        <v>1009822.9054588074</v>
+        <v>1009822.9054590898</v>
       </c>
       <c r="F96" s="158"/>
       <c r="G96" s="170">
-        <v>1338113.0890507908</v>
+        <v>1338113.0890363308</v>
       </c>
       <c r="H96" s="170">
-        <v>1338113.0890507908</v>
+        <v>1338113.0890363308</v>
       </c>
     </row>
     <row r="97"/>
@@ -34803,17 +34803,17 @@
       </c>
       <c r="C98" s="158"/>
       <c r="D98" s="170">
-        <v>3780887.0579766431</v>
+        <v>3803909.3776112455</v>
       </c>
       <c r="E98" s="170">
-        <v>3780887.0579766431</v>
+        <v>3803909.3776112455</v>
       </c>
       <c r="F98" s="158"/>
       <c r="G98" s="170">
-        <v>3017150.9218885181</v>
+        <v>3094140.9608692387</v>
       </c>
       <c r="H98" s="170">
-        <v>3017150.9218885181</v>
+        <v>3094140.9608692387</v>
       </c>
     </row>
     <row r="99">
@@ -34946,17 +34946,17 @@
       </c>
       <c r="C107" s="157"/>
       <c r="D107" s="157">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="E107" s="157">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="F107" s="157"/>
       <c r="G107" s="157">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
       <c r="H107" s="157">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
     </row>
     <row r="108">
@@ -34965,17 +34965,17 @@
       </c>
       <c r="C108" s="157"/>
       <c r="D108" s="171">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="E108" s="171">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="F108" s="157"/>
       <c r="G108" s="171">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
       <c r="H108" s="171">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
     </row>
     <row r="109">
@@ -34984,17 +34984,17 @@
       </c>
       <c r="C109" s="157"/>
       <c r="D109" s="171">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="E109" s="171">
-        <v>3.2467577882661787</v>
+        <v>3.2467577882661876</v>
       </c>
       <c r="F109" s="157"/>
       <c r="G109" s="171">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
       <c r="H109" s="171">
-        <v>3.2807250825520953</v>
+        <v>3.2807250825512657</v>
       </c>
     </row>
     <row r="110">
@@ -35022,17 +35022,17 @@
       </c>
       <c r="C111" s="157"/>
       <c r="D111" s="171">
-        <v>3.2420715850596378</v>
+        <v>3.2420715850596475</v>
       </c>
       <c r="E111" s="171">
-        <v>3.2420715850596378</v>
+        <v>3.2420715850596475</v>
       </c>
       <c r="F111" s="157"/>
       <c r="G111" s="171">
-        <v>3.2759898526999627</v>
+        <v>3.2759898526991371</v>
       </c>
       <c r="H111" s="171">
-        <v>3.2759898526999627</v>
+        <v>3.2759898526991371</v>
       </c>
     </row>
     <row r="112">
@@ -35041,17 +35041,17 @@
       </c>
       <c r="C112" s="157"/>
       <c r="D112" s="157">
-        <v>4.377072662264367</v>
+        <v>4.3771742603159556</v>
       </c>
       <c r="E112" s="157">
-        <v>4.377072662264367</v>
+        <v>4.3771742603159556</v>
       </c>
       <c r="F112" s="157"/>
       <c r="G112" s="157">
-        <v>6.359342298906987</v>
+        <v>6.3601267653032556</v>
       </c>
       <c r="H112" s="157">
-        <v>6.359342298906987</v>
+        <v>6.3601267653032556</v>
       </c>
     </row>
     <row r="113">
@@ -35060,17 +35060,17 @@
       </c>
       <c r="C113" s="157"/>
       <c r="D113" s="157">
-        <v>4.2703286420225544</v>
+        <v>4.2793208285469406</v>
       </c>
       <c r="E113" s="157">
-        <v>4.2703286420225544</v>
+        <v>4.2793208285469406</v>
       </c>
       <c r="F113" s="157"/>
       <c r="G113" s="157">
-        <v>4.3760724842740357</v>
+        <v>4.415139375400428</v>
       </c>
       <c r="H113" s="157">
-        <v>4.3760724842740357</v>
+        <v>4.415139375400428</v>
       </c>
     </row>
     <row r="114">
@@ -35079,17 +35079,17 @@
       </c>
       <c r="C114" s="157"/>
       <c r="D114" s="157">
-        <v>4.37707266226438</v>
+        <v>4.377174260315968</v>
       </c>
       <c r="E114" s="157">
-        <v>4.37707266226438</v>
+        <v>4.377174260315968</v>
       </c>
       <c r="F114" s="157"/>
       <c r="G114" s="157">
-        <v>6.3593422989072</v>
+        <v>6.3601267653034688</v>
       </c>
       <c r="H114" s="157">
-        <v>6.3593422989072</v>
+        <v>6.3601267653034688</v>
       </c>
     </row>
     <row r="115">
@@ -35098,17 +35098,17 @@
       </c>
       <c r="C115" s="157"/>
       <c r="D115" s="171">
-        <v>4.272372781095898</v>
+        <v>4.2811947135934894</v>
       </c>
       <c r="E115" s="171">
-        <v>4.272372781095898</v>
+        <v>4.2811947135934894</v>
       </c>
       <c r="F115" s="157"/>
       <c r="G115" s="171">
-        <v>4.414051935599586</v>
+        <v>4.4523857214893976</v>
       </c>
       <c r="H115" s="171">
-        <v>4.414051935599586</v>
+        <v>4.4523857214893976</v>
       </c>
     </row>
     <row r="116">
@@ -35117,17 +35117,17 @@
       </c>
       <c r="C116" s="157"/>
       <c r="D116" s="171">
-        <v>4.2729514653957184</v>
+        <v>4.2817251999338026</v>
       </c>
       <c r="E116" s="171">
-        <v>4.2729514653957184</v>
+        <v>4.2817251999338026</v>
       </c>
       <c r="F116" s="157"/>
       <c r="G116" s="171">
-        <v>4.4248037051267293</v>
+        <v>4.4629299530382989</v>
       </c>
       <c r="H116" s="171">
-        <v>4.4248037051267293</v>
+        <v>4.4629299530382989</v>
       </c>
     </row>
     <row r="117">
@@ -35136,17 +35136,17 @@
       </c>
       <c r="C117" s="157"/>
       <c r="D117" s="157">
-        <v>4.1999816827814263</v>
+        <v>4.2316976362026937</v>
       </c>
       <c r="E117" s="157">
-        <v>4.1999816827814263</v>
+        <v>4.2316976362026937</v>
       </c>
       <c r="F117" s="157"/>
       <c r="G117" s="157">
-        <v>4.4695009575144917</v>
+        <v>4.569219795896351</v>
       </c>
       <c r="H117" s="157">
-        <v>4.4695009575144917</v>
+        <v>4.569219795896351</v>
       </c>
     </row>
     <row r="118">
@@ -35155,17 +35155,17 @@
       </c>
       <c r="C118" s="157"/>
       <c r="D118" s="157">
-        <v>4.1999816827814209</v>
+        <v>4.2316976362026884</v>
       </c>
       <c r="E118" s="157">
-        <v>4.1999816827814209</v>
+        <v>4.2316976362026884</v>
       </c>
       <c r="F118" s="157"/>
       <c r="G118" s="157">
-        <v>4.4695009575144971</v>
+        <v>4.5692197958963572</v>
       </c>
       <c r="H118" s="157">
-        <v>4.4695009575144971</v>
+        <v>4.5692197958963572</v>
       </c>
     </row>
     <row r="119">
@@ -35174,17 +35174,17 @@
       </c>
       <c r="C119" s="157"/>
       <c r="D119" s="157">
-        <v>4.1999816827814307</v>
+        <v>4.2316976362027008</v>
       </c>
       <c r="E119" s="157">
-        <v>4.1999816827814307</v>
+        <v>4.2316976362027008</v>
       </c>
       <c r="F119" s="157"/>
       <c r="G119" s="157">
-        <v>4.4695009575144917</v>
+        <v>4.5692197958963519</v>
       </c>
       <c r="H119" s="157">
-        <v>4.4695009575144917</v>
+        <v>4.5692197958963519</v>
       </c>
     </row>
     <row r="120">
@@ -35193,17 +35193,17 @@
       </c>
       <c r="C120" s="157"/>
       <c r="D120" s="171">
-        <v>4.1999816827814263</v>
+        <v>4.2316976362026955</v>
       </c>
       <c r="E120" s="171">
-        <v>4.1999816827814263</v>
+        <v>4.2316976362026955</v>
       </c>
       <c r="F120" s="157"/>
       <c r="G120" s="171">
-        <v>4.4695009575144935</v>
+        <v>4.5692197958963545</v>
       </c>
       <c r="H120" s="171">
-        <v>4.4695009575144935</v>
+        <v>4.5692197958963545</v>
       </c>
     </row>
     <row r="121">
@@ -35212,17 +35212,17 @@
       </c>
       <c r="C121" s="157"/>
       <c r="D121" s="171">
-        <v>4.2260498380743643</v>
+        <v>4.2495697779790182</v>
       </c>
       <c r="E121" s="171">
-        <v>4.2260498380743643</v>
+        <v>4.2495697779790182</v>
       </c>
       <c r="F121" s="157"/>
       <c r="G121" s="171">
-        <v>4.4535330475842834</v>
+        <v>4.5312481858624842</v>
       </c>
       <c r="H121" s="171">
-        <v>4.4535330475842834</v>
+        <v>4.5312481858624842</v>
       </c>
     </row>
     <row r="122">
@@ -35231,17 +35231,17 @@
       </c>
       <c r="C122" s="157"/>
       <c r="D122" s="157">
-        <v>9.1353147132838632</v>
+        <v>9.1369001655013022</v>
       </c>
       <c r="E122" s="157">
-        <v>9.1353147132838632</v>
+        <v>9.1369001655013022</v>
       </c>
       <c r="F122" s="157"/>
       <c r="G122" s="157">
-        <v>9.0524956261136911</v>
+        <v>9.0575014088718842</v>
       </c>
       <c r="H122" s="157">
-        <v>9.0524956261136911</v>
+        <v>9.0575014088718842</v>
       </c>
     </row>
     <row r="123">
@@ -35250,17 +35250,17 @@
       </c>
       <c r="C123" s="157"/>
       <c r="D123" s="157">
-        <v>-0.37748990281625489</v>
+        <v>-0.37748990281721134</v>
       </c>
       <c r="E123" s="157">
-        <v>-0.37748990281625489</v>
+        <v>-0.37748990281721134</v>
       </c>
       <c r="F123" s="157"/>
       <c r="G123" s="157">
-        <v>2.5357082063395113</v>
+        <v>2.5357082063256144</v>
       </c>
       <c r="H123" s="157">
-        <v>2.5357082063395113</v>
+        <v>2.5357082063256144</v>
       </c>
     </row>
     <row r="124">
@@ -35269,17 +35269,17 @@
       </c>
       <c r="C124" s="157"/>
       <c r="D124" s="171">
-        <v>4.2258914826117291</v>
+        <v>4.2493243424892917</v>
       </c>
       <c r="E124" s="171">
-        <v>4.2258914826117291</v>
+        <v>4.2493243424892917</v>
       </c>
       <c r="F124" s="157"/>
       <c r="G124" s="171">
-        <v>4.4538729295055628</v>
+        <v>4.5314999330997443</v>
       </c>
       <c r="H124" s="171">
-        <v>4.4538729295055628</v>
+        <v>4.5314999330997443</v>
       </c>
     </row>
     <row r="125">
@@ -35402,17 +35402,17 @@
       </c>
       <c r="C131" s="157"/>
       <c r="D131" s="171">
-        <v>4.050896563395578</v>
+        <v>4.0737731418235432</v>
       </c>
       <c r="E131" s="171">
-        <v>4.050896563395578</v>
+        <v>4.0737731418235432</v>
       </c>
       <c r="F131" s="157"/>
       <c r="G131" s="171">
-        <v>4.65126233683444</v>
+        <v>4.7455622924262038</v>
       </c>
       <c r="H131" s="171">
-        <v>4.65126233683444</v>
+        <v>4.7455622924262038</v>
       </c>
     </row>
     <row r="132"/>
@@ -35422,17 +35422,17 @@
       </c>
       <c r="C133" s="157"/>
       <c r="D133" s="157">
-        <v>1.9950721664317666</v>
+        <v>1.9950721664298508</v>
       </c>
       <c r="E133" s="157">
-        <v>1.9950721664317666</v>
+        <v>1.9950721664298508</v>
       </c>
       <c r="F133" s="157"/>
       <c r="G133" s="157">
-        <v>2.4408852903898608</v>
+        <v>2.4408852902864893</v>
       </c>
       <c r="H133" s="157">
-        <v>2.4408852903898608</v>
+        <v>2.4408852902864893</v>
       </c>
     </row>
     <row r="134">
@@ -35441,17 +35441,17 @@
       </c>
       <c r="C134" s="157"/>
       <c r="D134" s="157">
-        <v>1.687093086750564</v>
+        <v>1.6870930867519709</v>
       </c>
       <c r="E134" s="157">
-        <v>1.687093086750564</v>
+        <v>1.6870930867519709</v>
       </c>
       <c r="F134" s="157"/>
       <c r="G134" s="157">
-        <v>2.1982392809318756</v>
+        <v>2.1982392809330693</v>
       </c>
       <c r="H134" s="157">
-        <v>2.1982392809318756</v>
+        <v>2.1982392809330693</v>
       </c>
     </row>
     <row r="135">
@@ -35517,17 +35517,17 @@
       </c>
       <c r="C138" s="157"/>
       <c r="D138" s="171">
-        <v>1.1682086317517018</v>
+        <v>1.1682086317520293</v>
       </c>
       <c r="E138" s="171">
-        <v>1.1682086317517018</v>
+        <v>1.1682086317520293</v>
       </c>
       <c r="F138" s="157"/>
       <c r="G138" s="171">
-        <v>1.5479895063172924</v>
+        <v>1.5479895063005609</v>
       </c>
       <c r="H138" s="171">
-        <v>1.5479895063172924</v>
+        <v>1.5479895063005609</v>
       </c>
     </row>
     <row r="139">
@@ -35574,17 +35574,17 @@
       </c>
       <c r="C141" s="157"/>
       <c r="D141" s="171">
-        <v>1.1576687861362704</v>
+        <v>1.1576687861365946</v>
       </c>
       <c r="E141" s="171">
-        <v>1.1576687861362704</v>
+        <v>1.1576687861365946</v>
       </c>
       <c r="F141" s="157"/>
       <c r="G141" s="171">
-        <v>1.5340231907402284</v>
+        <v>1.5340231907236468</v>
       </c>
       <c r="H141" s="171">
-        <v>1.5340231907402284</v>
+        <v>1.5340231907236468</v>
       </c>
     </row>
     <row r="142">
@@ -35656,17 +35656,17 @@
       </c>
       <c r="C147" s="158"/>
       <c r="D147" s="158">
-        <v>-2273.6765898710396</v>
+        <v>-2269.4756236549583</v>
       </c>
       <c r="E147" s="158">
-        <v>-2273.6765898710396</v>
+        <v>-2269.4756236549583</v>
       </c>
       <c r="F147" s="158"/>
       <c r="G147" s="158">
-        <v>-19113.1884112777</v>
+        <v>-19082.03392944167</v>
       </c>
       <c r="H147" s="158">
-        <v>-19113.1884112777</v>
+        <v>-19082.03392944167</v>
       </c>
     </row>
     <row r="148">
@@ -35675,17 +35675,17 @@
       </c>
       <c r="C148" s="158"/>
       <c r="D148" s="158">
-        <v>-34740.800367814431</v>
+        <v>-34676.611410899917</v>
       </c>
       <c r="E148" s="158">
-        <v>-34740.800367814431</v>
+        <v>-34676.611410899917</v>
       </c>
       <c r="F148" s="158"/>
       <c r="G148" s="158">
-        <v>-292041.2981981248</v>
+        <v>-291565.27111544739</v>
       </c>
       <c r="H148" s="158">
-        <v>-292041.2981981248</v>
+        <v>-291565.27111544739</v>
       </c>
     </row>
     <row r="149">
@@ -35694,17 +35694,17 @@
       </c>
       <c r="C149" s="158"/>
       <c r="D149" s="170">
-        <v>-37014.476957685547</v>
+        <v>-36946.087034554941</v>
       </c>
       <c r="E149" s="170">
-        <v>-37014.476957685547</v>
+        <v>-36946.087034554941</v>
       </c>
       <c r="F149" s="158"/>
       <c r="G149" s="170">
-        <v>-311154.4866094024</v>
+        <v>-310647.305044889</v>
       </c>
       <c r="H149" s="170">
-        <v>-311154.4866094024</v>
+        <v>-310647.305044889</v>
       </c>
     </row>
     <row r="150">
@@ -35713,17 +35713,17 @@
       </c>
       <c r="C150" s="158"/>
       <c r="D150" s="158">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="E150" s="158">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="F150" s="158"/>
       <c r="G150" s="158">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="H150" s="158">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
     </row>
     <row r="151">
@@ -35732,17 +35732,17 @@
       </c>
       <c r="C151" s="158"/>
       <c r="D151" s="170">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="E151" s="170">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="F151" s="158"/>
       <c r="G151" s="170">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="H151" s="170">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
     </row>
     <row r="152">
@@ -35751,17 +35751,17 @@
       </c>
       <c r="C152" s="158"/>
       <c r="D152" s="170">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="E152" s="170">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="F152" s="158"/>
       <c r="G152" s="170">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="H152" s="170">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
     </row>
     <row r="153">
@@ -35789,17 +35789,17 @@
       </c>
       <c r="C154" s="158"/>
       <c r="D154" s="170">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="E154" s="170">
-        <v>432.08070932545883</v>
+        <v>432.08070931983349</v>
       </c>
       <c r="F154" s="158"/>
       <c r="G154" s="170">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
       <c r="H154" s="170">
-        <v>516.28072929273822</v>
+        <v>516.28072929410246</v>
       </c>
     </row>
     <row r="155">
@@ -35808,17 +35808,17 @@
       </c>
       <c r="C155" s="158"/>
       <c r="D155" s="158">
-        <v>72.175244891257222</v>
+        <v>72.175175812822218</v>
       </c>
       <c r="E155" s="158">
-        <v>72.175244891257222</v>
+        <v>72.175175812822218</v>
       </c>
       <c r="F155" s="158"/>
       <c r="G155" s="158">
-        <v>70.318670301611</v>
+        <v>70.318134305485287</v>
       </c>
       <c r="H155" s="158">
-        <v>70.318670301611</v>
+        <v>70.318134305485287</v>
       </c>
     </row>
     <row r="156">
@@ -35827,17 +35827,17 @@
       </c>
       <c r="C156" s="158"/>
       <c r="D156" s="158">
-        <v>5182.8680781256362</v>
+        <v>5285.1385726169592</v>
       </c>
       <c r="E156" s="158">
-        <v>5182.8680781256362</v>
+        <v>5285.1385726169592</v>
       </c>
       <c r="F156" s="158"/>
       <c r="G156" s="158">
-        <v>6730.85401323258</v>
+        <v>7092.8016216104606</v>
       </c>
       <c r="H156" s="158">
-        <v>6730.85401323258</v>
+        <v>7092.8016216104606</v>
       </c>
     </row>
     <row r="157">
@@ -35846,17 +35846,17 @@
       </c>
       <c r="C157" s="158"/>
       <c r="D157" s="158">
-        <v>248.68672462531572</v>
+        <v>248.68648660894633</v>
       </c>
       <c r="E157" s="158">
-        <v>248.68672462531572</v>
+        <v>248.68648660894633</v>
       </c>
       <c r="F157" s="158"/>
       <c r="G157" s="158">
-        <v>242.289718914877</v>
+        <v>242.28787208884859</v>
       </c>
       <c r="H157" s="158">
-        <v>242.289718914877</v>
+        <v>242.28787208884859</v>
       </c>
     </row>
     <row r="158">
@@ -35865,17 +35865,17 @@
       </c>
       <c r="C158" s="158"/>
       <c r="D158" s="170">
-        <v>5431.5548027509521</v>
+        <v>5533.8250592259092</v>
       </c>
       <c r="E158" s="170">
-        <v>5431.5548027509521</v>
+        <v>5533.8250592259092</v>
       </c>
       <c r="F158" s="158"/>
       <c r="G158" s="170">
-        <v>6973.1437321474577</v>
+        <v>7335.0894936993109</v>
       </c>
       <c r="H158" s="170">
-        <v>6973.1437321474577</v>
+        <v>7335.0894936993109</v>
       </c>
     </row>
     <row r="159">
@@ -35884,17 +35884,17 @@
       </c>
       <c r="C159" s="158"/>
       <c r="D159" s="170">
-        <v>5503.7300476422088</v>
+        <v>5606.00023503873</v>
       </c>
       <c r="E159" s="170">
-        <v>5503.7300476422088</v>
+        <v>5606.00023503873</v>
       </c>
       <c r="F159" s="158"/>
       <c r="G159" s="170">
-        <v>7043.4624024490713</v>
+        <v>7405.4076280047966</v>
       </c>
       <c r="H159" s="170">
-        <v>7043.4624024490713</v>
+        <v>7405.4076280047966</v>
       </c>
     </row>
     <row r="160">
@@ -35903,17 +35903,17 @@
       </c>
       <c r="C160" s="158"/>
       <c r="D160" s="158">
-        <v>13210.962425781259</v>
+        <v>13206.725466417158</v>
       </c>
       <c r="E160" s="158">
-        <v>13210.962425781259</v>
+        <v>13206.725466417158</v>
       </c>
       <c r="F160" s="158"/>
       <c r="G160" s="158">
-        <v>13913.140206721191</v>
+        <v>13899.724181218628</v>
       </c>
       <c r="H160" s="158">
-        <v>13913.140206721191</v>
+        <v>13899.724181218628</v>
       </c>
     </row>
     <row r="161">
@@ -35922,17 +35922,17 @@
       </c>
       <c r="C161" s="158"/>
       <c r="D161" s="158">
-        <v>4660.6416873868275</v>
+        <v>4659.1469477301926</v>
       </c>
       <c r="E161" s="158">
-        <v>4660.6416873868275</v>
+        <v>4659.1469477301926</v>
       </c>
       <c r="F161" s="158"/>
       <c r="G161" s="158">
-        <v>4908.3601300203836</v>
+        <v>4903.6271449644228</v>
       </c>
       <c r="H161" s="158">
-        <v>4908.3601300203836</v>
+        <v>4903.6271449644228</v>
       </c>
     </row>
     <row r="162">
@@ -35941,17 +35941,17 @@
       </c>
       <c r="C162" s="158"/>
       <c r="D162" s="158">
-        <v>4480.26418085971</v>
+        <v>4478.8272910508576</v>
       </c>
       <c r="E162" s="158">
-        <v>4480.26418085971</v>
+        <v>4478.8272910508576</v>
       </c>
       <c r="F162" s="158"/>
       <c r="G162" s="158">
-        <v>4718.39535246922</v>
+        <v>4713.845544773817</v>
       </c>
       <c r="H162" s="158">
-        <v>4718.39535246922</v>
+        <v>4713.845544773817</v>
       </c>
     </row>
     <row r="163">
@@ -35960,17 +35960,17 @@
       </c>
       <c r="C163" s="158"/>
       <c r="D163" s="170">
-        <v>9140.9058682465366</v>
+        <v>9137.9742387810529</v>
       </c>
       <c r="E163" s="170">
-        <v>9140.9058682465366</v>
+        <v>9137.9742387810529</v>
       </c>
       <c r="F163" s="158"/>
       <c r="G163" s="170">
-        <v>9626.7554824896033</v>
+        <v>9617.4726897382388</v>
       </c>
       <c r="H163" s="170">
-        <v>9626.7554824896033</v>
+        <v>9617.4726897382388</v>
       </c>
     </row>
     <row r="164">
@@ -35979,17 +35979,17 @@
       </c>
       <c r="C164" s="158"/>
       <c r="D164" s="170">
-        <v>27855.598341670015</v>
+        <v>27950.699940236937</v>
       </c>
       <c r="E164" s="170">
-        <v>27855.598341670015</v>
+        <v>27950.699940236937</v>
       </c>
       <c r="F164" s="158"/>
       <c r="G164" s="170">
-        <v>30583.358091659873</v>
+        <v>30922.604498961675</v>
       </c>
       <c r="H164" s="170">
-        <v>30583.358091659873</v>
+        <v>30922.604498961675</v>
       </c>
     </row>
     <row r="165">
@@ -35998,17 +35998,17 @@
       </c>
       <c r="C165" s="158"/>
       <c r="D165" s="158">
-        <v>0.24286167714745169</v>
+        <v>0.2428616771484631</v>
       </c>
       <c r="E165" s="158">
-        <v>0.24286167714745169</v>
+        <v>0.2428616771484631</v>
       </c>
       <c r="F165" s="158"/>
       <c r="G165" s="158">
-        <v>0.24286167714412302</v>
+        <v>0.24286167714696788</v>
       </c>
       <c r="H165" s="158">
-        <v>0.24286167714412302</v>
+        <v>0.24286167714696788</v>
       </c>
     </row>
     <row r="166">
@@ -36017,17 +36017,17 @@
       </c>
       <c r="C166" s="158"/>
       <c r="D166" s="158">
-        <v>10.617564856231164</v>
+        <v>10.617564856255454</v>
       </c>
       <c r="E166" s="158">
-        <v>10.617564856231164</v>
+        <v>10.617564856255454</v>
       </c>
       <c r="F166" s="158"/>
       <c r="G166" s="158">
-        <v>16.289886695041261</v>
+        <v>16.289886694887574</v>
       </c>
       <c r="H166" s="158">
-        <v>16.289886695041261</v>
+        <v>16.289886694887574</v>
       </c>
     </row>
     <row r="167">
@@ -36036,17 +36036,17 @@
       </c>
       <c r="C167" s="158"/>
       <c r="D167" s="170">
-        <v>27817.695488644797</v>
+        <v>27912.797087211791</v>
       </c>
       <c r="E167" s="170">
-        <v>27817.695488644797</v>
+        <v>27912.797087211791</v>
       </c>
       <c r="F167" s="158"/>
       <c r="G167" s="170">
-        <v>30599.058171424615</v>
+        <v>30938.304578726231</v>
       </c>
       <c r="H167" s="170">
-        <v>30599.058171424615</v>
+        <v>30938.304578726231</v>
       </c>
     </row>
     <row r="168">
@@ -36169,17 +36169,17 @@
       </c>
       <c r="C174" s="158"/>
       <c r="D174" s="170">
-        <v>-8764.7007597152369</v>
+        <v>-8601.2092380233189</v>
       </c>
       <c r="E174" s="170">
-        <v>-8764.7007597152369</v>
+        <v>-8601.2092380233189</v>
       </c>
       <c r="F174" s="158"/>
       <c r="G174" s="170">
-        <v>-280039.14770868514</v>
+        <v>-279192.71973686875</v>
       </c>
       <c r="H174" s="170">
-        <v>-280039.14770868514</v>
+        <v>-279192.71973686875</v>
       </c>
     </row>
     <row r="175"/>
@@ -36189,17 +36189,17 @@
       </c>
       <c r="C176" s="158"/>
       <c r="D176" s="158">
-        <v>18771.942818497359</v>
+        <v>18771.942818052183</v>
       </c>
       <c r="E176" s="158">
-        <v>18771.942818497359</v>
+        <v>18771.942818052183</v>
       </c>
       <c r="F176" s="158"/>
       <c r="G176" s="158">
-        <v>10045.728250079776</v>
+        <v>10045.728250007678</v>
       </c>
       <c r="H176" s="158">
-        <v>10045.728250079776</v>
+        <v>10045.728250007678</v>
       </c>
     </row>
     <row r="177">
@@ -36208,17 +36208,17 @@
       </c>
       <c r="C177" s="158"/>
       <c r="D177" s="158">
-        <v>28650.1940415528</v>
+        <v>28650.194040805931</v>
       </c>
       <c r="E177" s="158">
-        <v>28650.1940415528</v>
+        <v>28650.194040805931</v>
       </c>
       <c r="F177" s="158"/>
       <c r="G177" s="158">
-        <v>34873.586870381514</v>
+        <v>34873.586868294609</v>
       </c>
       <c r="H177" s="158">
-        <v>34873.586870381514</v>
+        <v>34873.586868294609</v>
       </c>
     </row>
     <row r="178">
@@ -36284,17 +36284,17 @@
       </c>
       <c r="C181" s="158"/>
       <c r="D181" s="170">
-        <v>59113.605010072679</v>
+        <v>59113.605008880622</v>
       </c>
       <c r="E181" s="170">
-        <v>59113.605010072679</v>
+        <v>59113.605008880622</v>
       </c>
       <c r="F181" s="158"/>
       <c r="G181" s="170">
-        <v>55989.30522369848</v>
+        <v>55989.305221539486</v>
       </c>
       <c r="H181" s="170">
-        <v>55989.30522369848</v>
+        <v>55989.305221539486</v>
       </c>
     </row>
     <row r="182">
@@ -36341,17 +36341,17 @@
       </c>
       <c r="C184" s="158"/>
       <c r="D184" s="170">
-        <v>59113.605010072679</v>
+        <v>59113.605008880622</v>
       </c>
       <c r="E184" s="170">
-        <v>59113.605010072679</v>
+        <v>59113.605008880622</v>
       </c>
       <c r="F184" s="158"/>
       <c r="G184" s="170">
-        <v>55989.30522369848</v>
+        <v>55989.305221539486</v>
       </c>
       <c r="H184" s="170">
-        <v>55989.30522369848</v>
+        <v>55989.305221539486</v>
       </c>
     </row>
     <row r="185">
@@ -36484,17 +36484,17 @@
       </c>
       <c r="C193" s="157"/>
       <c r="D193" s="157">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="E193" s="157">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="F193" s="157"/>
       <c r="G193" s="157">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="H193" s="157">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
     </row>
     <row r="194">
@@ -36503,17 +36503,17 @@
       </c>
       <c r="C194" s="157"/>
       <c r="D194" s="171">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="E194" s="171">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="F194" s="157"/>
       <c r="G194" s="171">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="H194" s="171">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
     </row>
     <row r="195">
@@ -36522,17 +36522,17 @@
       </c>
       <c r="C195" s="157"/>
       <c r="D195" s="171">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="E195" s="171">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="F195" s="157"/>
       <c r="G195" s="171">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="H195" s="171">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
     </row>
     <row r="196">
@@ -36560,17 +36560,17 @@
       </c>
       <c r="C197" s="157"/>
       <c r="D197" s="171">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="E197" s="171">
-        <v>3.9230756194793273</v>
+        <v>3.9230756194793237</v>
       </c>
       <c r="F197" s="157"/>
       <c r="G197" s="171">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
       <c r="H197" s="171">
-        <v>3.9374076311301605</v>
+        <v>3.9374076311301422</v>
       </c>
     </row>
     <row r="198">
@@ -36579,17 +36579,17 @@
       </c>
       <c r="C198" s="157"/>
       <c r="D198" s="157">
-        <v>5.5908948681</v>
+        <v>5.5921644927999994</v>
       </c>
       <c r="E198" s="157">
-        <v>5.5908948681</v>
+        <v>5.5921644927999994</v>
       </c>
       <c r="F198" s="157"/>
       <c r="G198" s="157">
-        <v>5.6408968852999992</v>
+        <v>5.6440829510000006</v>
       </c>
       <c r="H198" s="157">
-        <v>5.6408968852999992</v>
+        <v>5.6440829510000006</v>
       </c>
     </row>
     <row r="199">
@@ -36598,17 +36598,17 @@
       </c>
       <c r="C199" s="157"/>
       <c r="D199" s="157">
-        <v>5.1334921171</v>
+        <v>5.3308493738000005</v>
       </c>
       <c r="E199" s="157">
-        <v>5.1334921171</v>
+        <v>5.3308493738000005</v>
       </c>
       <c r="F199" s="157"/>
       <c r="G199" s="157">
-        <v>5.1756291344</v>
+        <v>5.3676365093</v>
       </c>
       <c r="H199" s="157">
-        <v>5.1756291344</v>
+        <v>5.3676365093</v>
       </c>
     </row>
     <row r="200">
@@ -36617,17 +36617,17 @@
       </c>
       <c r="C200" s="157"/>
       <c r="D200" s="157">
-        <v>5.5908948681</v>
+        <v>5.5921644927999994</v>
       </c>
       <c r="E200" s="157">
-        <v>5.5908948681</v>
+        <v>5.5921644927999994</v>
       </c>
       <c r="F200" s="157"/>
       <c r="G200" s="157">
-        <v>5.6408968852999992</v>
+        <v>5.6440829510000006</v>
       </c>
       <c r="H200" s="157">
-        <v>5.6408968852999992</v>
+        <v>5.6440829510000006</v>
       </c>
     </row>
     <row r="201">
@@ -36636,17 +36636,17 @@
       </c>
       <c r="C201" s="157"/>
       <c r="D201" s="171">
-        <v>5.16082141585487</v>
+        <v>5.34614349168663</v>
       </c>
       <c r="E201" s="171">
-        <v>5.16082141585487</v>
+        <v>5.34614349168663</v>
       </c>
       <c r="F201" s="157"/>
       <c r="G201" s="171">
-        <v>5.1921723135417013</v>
+        <v>5.3770028442889561</v>
       </c>
       <c r="H201" s="171">
-        <v>5.1921723135417013</v>
+        <v>5.3770028442889561</v>
       </c>
     </row>
     <row r="202">
@@ -36655,17 +36655,17 @@
       </c>
       <c r="C202" s="157"/>
       <c r="D202" s="171">
-        <v>5.16797427542894</v>
+        <v>5.3501514983127256</v>
       </c>
       <c r="E202" s="171">
-        <v>5.16797427542894</v>
+        <v>5.3501514983127256</v>
       </c>
       <c r="F202" s="157"/>
       <c r="G202" s="171">
-        <v>5.1967508513708367</v>
+        <v>5.3796007412211111</v>
       </c>
       <c r="H202" s="171">
-        <v>5.1967508513708367</v>
+        <v>5.3796007412211111</v>
       </c>
     </row>
     <row r="203">
@@ -36674,17 +36674,17 @@
       </c>
       <c r="C203" s="157"/>
       <c r="D203" s="157">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="E203" s="157">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="F203" s="157"/>
       <c r="G203" s="157">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="H203" s="157">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
     </row>
     <row r="204">
@@ -36693,17 +36693,17 @@
       </c>
       <c r="C204" s="157"/>
       <c r="D204" s="157">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="E204" s="157">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="F204" s="157"/>
       <c r="G204" s="157">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="H204" s="157">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
     </row>
     <row r="205">
@@ -36712,17 +36712,17 @@
       </c>
       <c r="C205" s="157"/>
       <c r="D205" s="157">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="E205" s="157">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="F205" s="157"/>
       <c r="G205" s="157">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="H205" s="157">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
     </row>
     <row r="206">
@@ -36731,17 +36731,17 @@
       </c>
       <c r="C206" s="157"/>
       <c r="D206" s="171">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="E206" s="171">
-        <v>5.6140933242000015</v>
+        <v>5.8149325158</v>
       </c>
       <c r="F206" s="157"/>
       <c r="G206" s="171">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
       <c r="H206" s="171">
-        <v>5.6481175139</v>
+        <v>5.8491994614999987</v>
       </c>
     </row>
     <row r="207">
@@ -36750,17 +36750,17 @@
       </c>
       <c r="C207" s="157"/>
       <c r="D207" s="171">
-        <v>5.5284706945771207</v>
+        <v>5.7250801654877606</v>
       </c>
       <c r="E207" s="171">
-        <v>5.5284706945771207</v>
+        <v>5.7250801654877606</v>
       </c>
       <c r="F207" s="157"/>
       <c r="G207" s="171">
-        <v>5.5445384445261006</v>
+        <v>5.7372156455781349</v>
       </c>
       <c r="H207" s="171">
-        <v>5.5445384445261006</v>
+        <v>5.7372156455781349</v>
       </c>
     </row>
     <row r="208">
@@ -36769,17 +36769,17 @@
       </c>
       <c r="C208" s="157"/>
       <c r="D208" s="157">
-        <v>4.6364517962</v>
+        <v>4.8368060143</v>
       </c>
       <c r="E208" s="157">
-        <v>4.6364517962</v>
+        <v>4.8368060143</v>
       </c>
       <c r="F208" s="157"/>
       <c r="G208" s="157">
-        <v>4.6960443337</v>
+        <v>4.8963490113</v>
       </c>
       <c r="H208" s="157">
-        <v>4.6960443337</v>
+        <v>4.8963490113</v>
       </c>
     </row>
     <row r="209">
@@ -36807,17 +36807,17 @@
       </c>
       <c r="C210" s="157"/>
       <c r="D210" s="171">
-        <v>5.5285935015715042</v>
+        <v>5.7251271674719462</v>
       </c>
       <c r="E210" s="171">
-        <v>5.5285935015715042</v>
+        <v>5.7251271674719462</v>
       </c>
       <c r="F210" s="157"/>
       <c r="G210" s="171">
-        <v>5.5474943556539</v>
+        <v>5.7400380871374033</v>
       </c>
       <c r="H210" s="171">
-        <v>5.5474943556539</v>
+        <v>5.7400380871374033</v>
       </c>
     </row>
     <row r="211">
@@ -36940,17 +36940,17 @@
       </c>
       <c r="C217" s="157"/>
       <c r="D217" s="171">
-        <v>3.6820759809975008</v>
+        <v>3.7551305346844308</v>
       </c>
       <c r="E217" s="171">
-        <v>3.6820759809975008</v>
+        <v>3.7551305346844308</v>
       </c>
       <c r="F217" s="157"/>
       <c r="G217" s="171">
-        <v>3.188680343141939</v>
+        <v>3.2097872409490176</v>
       </c>
       <c r="H217" s="171">
-        <v>3.188680343141939</v>
+        <v>3.2097872409490176</v>
       </c>
     </row>
     <row r="218"/>
@@ -36960,17 +36960,17 @@
       </c>
       <c r="C219" s="157"/>
       <c r="D219" s="157">
-        <v>1.5611176497724877</v>
+        <v>1.5611176497719035</v>
       </c>
       <c r="E219" s="157">
-        <v>1.5611176497724877</v>
+        <v>1.5611176497719035</v>
       </c>
       <c r="F219" s="157"/>
       <c r="G219" s="157">
-        <v>1.8434659032856857</v>
+        <v>1.8434659020120492</v>
       </c>
       <c r="H219" s="157">
-        <v>1.8434659032856857</v>
+        <v>1.8434659020120492</v>
       </c>
     </row>
     <row r="220">
@@ -36979,17 +36979,17 @@
       </c>
       <c r="C220" s="157"/>
       <c r="D220" s="157">
-        <v>2.0056161978318503</v>
+        <v>2.0056161978336129</v>
       </c>
       <c r="E220" s="157">
-        <v>2.0056161978318503</v>
+        <v>2.0056161978336129</v>
       </c>
       <c r="F220" s="157"/>
       <c r="G220" s="157">
-        <v>2.5444292065352294</v>
+        <v>2.5444292065340179</v>
       </c>
       <c r="H220" s="157">
-        <v>2.5444292065352294</v>
+        <v>2.5444292065340179</v>
       </c>
     </row>
     <row r="221">
@@ -37055,17 +37055,17 @@
       </c>
       <c r="C224" s="157"/>
       <c r="D224" s="171">
-        <v>1.6465587325654443</v>
+        <v>1.6465587325397502</v>
       </c>
       <c r="E224" s="171">
-        <v>1.6465587325654443</v>
+        <v>1.6465587325397502</v>
       </c>
       <c r="F224" s="157"/>
       <c r="G224" s="171">
-        <v>2.0931180041220263</v>
+        <v>2.0931180041048614</v>
       </c>
       <c r="H224" s="171">
-        <v>2.0931180041220263</v>
+        <v>2.0931180041048614</v>
       </c>
     </row>
     <row r="225">
@@ -37112,17 +37112,17 @@
       </c>
       <c r="C227" s="157"/>
       <c r="D227" s="171">
-        <v>1.6465587325654443</v>
+        <v>1.6465587325397502</v>
       </c>
       <c r="E227" s="171">
-        <v>1.6465587325654443</v>
+        <v>1.6465587325397502</v>
       </c>
       <c r="F227" s="157"/>
       <c r="G227" s="171">
-        <v>2.0931180041220263</v>
+        <v>2.0931180041048614</v>
       </c>
       <c r="H227" s="171">
-        <v>2.0931180041220263</v>
+        <v>2.0931180041048614</v>
       </c>
     </row>
     <row r="228">
@@ -37194,17 +37194,17 @@
       </c>
       <c r="C233" s="158"/>
       <c r="D233" s="158">
-        <v>1.515241057005313</v>
+        <v>1.515241057008432</v>
       </c>
       <c r="E233" s="158">
-        <v>1.515241057005313</v>
+        <v>1.515241057008432</v>
       </c>
       <c r="F233" s="158"/>
       <c r="G233" s="158">
-        <v>1.5152410569661592</v>
+        <v>1.5152410569779202</v>
       </c>
       <c r="H233" s="158">
-        <v>1.5152410569661592</v>
+        <v>1.5152410569779202</v>
       </c>
     </row>
     <row r="234">
@@ -37213,17 +37213,17 @@
       </c>
       <c r="C234" s="158"/>
       <c r="D234" s="158">
-        <v>80.941188094069034</v>
+        <v>80.9411880954774</v>
       </c>
       <c r="E234" s="158">
-        <v>80.941188094069034</v>
+        <v>80.9411880954774</v>
       </c>
       <c r="F234" s="158"/>
       <c r="G234" s="158">
-        <v>80.941188096611938</v>
+        <v>80.94118809552748</v>
       </c>
       <c r="H234" s="158">
-        <v>80.941188096611938</v>
+        <v>80.94118809552748</v>
       </c>
     </row>
     <row r="235">
@@ -37232,17 +37232,17 @@
       </c>
       <c r="C235" s="158"/>
       <c r="D235" s="158">
-        <v>5.2209083052257785</v>
+        <v>5.2209083052365273</v>
       </c>
       <c r="E235" s="158">
-        <v>5.2209083052257785</v>
+        <v>5.2209083052365273</v>
       </c>
       <c r="F235" s="158"/>
       <c r="G235" s="158">
-        <v>5.22090830508876</v>
+        <v>5.2209083051292859</v>
       </c>
       <c r="H235" s="158">
-        <v>5.22090830508876</v>
+        <v>5.2209083051292859</v>
       </c>
     </row>
     <row r="236">
@@ -37251,17 +37251,17 @@
       </c>
       <c r="C236" s="158"/>
       <c r="D236" s="170">
-        <v>86.1620963992948</v>
+        <v>86.162096400713921</v>
       </c>
       <c r="E236" s="170">
-        <v>86.1620963992948</v>
+        <v>86.162096400713921</v>
       </c>
       <c r="F236" s="158"/>
       <c r="G236" s="170">
-        <v>86.162096401700708</v>
+        <v>86.162096400656765</v>
       </c>
       <c r="H236" s="170">
-        <v>86.162096401700708</v>
+        <v>86.162096400656765</v>
       </c>
     </row>
     <row r="237">
@@ -37270,17 +37270,17 @@
       </c>
       <c r="C237" s="158"/>
       <c r="D237" s="170">
-        <v>87.6773374563001</v>
+        <v>87.677337457722359</v>
       </c>
       <c r="E237" s="170">
-        <v>87.6773374563001</v>
+        <v>87.677337457722359</v>
       </c>
       <c r="F237" s="158"/>
       <c r="G237" s="170">
-        <v>87.677337458666869</v>
+        <v>87.6773374576347</v>
       </c>
       <c r="H237" s="170">
-        <v>87.677337458666869</v>
+        <v>87.6773374576347</v>
       </c>
     </row>
     <row r="238">
@@ -37289,17 +37289,17 @@
       </c>
       <c r="C238" s="158"/>
       <c r="D238" s="158">
-        <v>282.34843281616747</v>
+        <v>282.3484328175677</v>
       </c>
       <c r="E238" s="158">
-        <v>282.34843281616747</v>
+        <v>282.3484328175677</v>
       </c>
       <c r="F238" s="158"/>
       <c r="G238" s="158">
-        <v>282.3484328167745</v>
+        <v>282.34843281620584</v>
       </c>
       <c r="H238" s="158">
-        <v>282.3484328167745</v>
+        <v>282.34843281620584</v>
       </c>
     </row>
     <row r="239">
@@ -37308,17 +37308,17 @@
       </c>
       <c r="C239" s="158"/>
       <c r="D239" s="158">
-        <v>99.608554921277715</v>
+        <v>99.608554921771784</v>
       </c>
       <c r="E239" s="158">
-        <v>99.608554921277715</v>
+        <v>99.608554921771784</v>
       </c>
       <c r="F239" s="158"/>
       <c r="G239" s="158">
-        <v>99.608554921491475</v>
+        <v>99.608554921290818</v>
       </c>
       <c r="H239" s="158">
-        <v>99.608554921491475</v>
+        <v>99.608554921290818</v>
       </c>
     </row>
     <row r="240">
@@ -37327,17 +37327,17 @@
       </c>
       <c r="C240" s="158"/>
       <c r="D240" s="158">
-        <v>95.7534757346292</v>
+        <v>95.753475735104146</v>
       </c>
       <c r="E240" s="158">
-        <v>95.7534757346292</v>
+        <v>95.753475735104146</v>
       </c>
       <c r="F240" s="158"/>
       <c r="G240" s="158">
-        <v>95.753475734835376</v>
+        <v>95.753475734642521</v>
       </c>
       <c r="H240" s="158">
-        <v>95.753475734835376</v>
+        <v>95.753475734642521</v>
       </c>
     </row>
     <row r="241">
@@ -37346,17 +37346,17 @@
       </c>
       <c r="C241" s="158"/>
       <c r="D241" s="170">
-        <v>195.362030655907</v>
+        <v>195.3620306568761</v>
       </c>
       <c r="E241" s="170">
-        <v>195.362030655907</v>
+        <v>195.3620306568761</v>
       </c>
       <c r="F241" s="158"/>
       <c r="G241" s="170">
-        <v>195.3620306563268</v>
+        <v>195.36203065593332</v>
       </c>
       <c r="H241" s="170">
-        <v>195.3620306563268</v>
+        <v>195.36203065593332</v>
       </c>
     </row>
     <row r="242">
@@ -37365,17 +37365,17 @@
       </c>
       <c r="C242" s="158"/>
       <c r="D242" s="170">
-        <v>565.38780092837453</v>
+        <v>565.38780093216621</v>
       </c>
       <c r="E242" s="170">
-        <v>565.38780092837453</v>
+        <v>565.38780093216621</v>
       </c>
       <c r="F242" s="158"/>
       <c r="G242" s="170">
-        <v>565.38780093176831</v>
+        <v>565.3878009297739</v>
       </c>
       <c r="H242" s="170">
-        <v>565.38780093176831</v>
+        <v>565.3878009297739</v>
       </c>
     </row>
     <row r="243">
@@ -37384,17 +37384,17 @@
       </c>
       <c r="C243" s="158"/>
       <c r="D243" s="158">
-        <v>0.048572335429063904</v>
+        <v>0.048572335429063855</v>
       </c>
       <c r="E243" s="158">
-        <v>0.048572335429063904</v>
+        <v>0.048572335429063855</v>
       </c>
       <c r="F243" s="158"/>
       <c r="G243" s="158">
-        <v>0.048572335429024095</v>
+        <v>0.048572335429030652</v>
       </c>
       <c r="H243" s="158">
-        <v>0.048572335429024095</v>
+        <v>0.048572335429030652</v>
       </c>
     </row>
     <row r="244">
@@ -37403,17 +37403,17 @@
       </c>
       <c r="C244" s="158"/>
       <c r="D244" s="158">
-        <v>0.47554122385685804</v>
+        <v>0.4755412238567549</v>
       </c>
       <c r="E244" s="158">
-        <v>0.47554122385685804</v>
+        <v>0.4755412238567549</v>
       </c>
       <c r="F244" s="158"/>
       <c r="G244" s="158">
-        <v>0.5966022216517165</v>
+        <v>0.59660222165023247</v>
       </c>
       <c r="H244" s="158">
-        <v>0.5966022216517165</v>
+        <v>0.59660222165023247</v>
       </c>
     </row>
     <row r="245">
@@ -37422,17 +37422,17 @@
       </c>
       <c r="C245" s="158"/>
       <c r="D245" s="170">
-        <v>565.75925857633</v>
+        <v>565.7592585801217</v>
       </c>
       <c r="E245" s="170">
-        <v>565.75925857633</v>
+        <v>565.7592585801217</v>
       </c>
       <c r="F245" s="158"/>
       <c r="G245" s="170">
-        <v>565.86644176735558</v>
+        <v>565.86644176535958</v>
       </c>
       <c r="H245" s="170">
-        <v>565.86644176735558</v>
+        <v>565.86644176535958</v>
       </c>
     </row>
     <row r="246">
@@ -37504,17 +37504,17 @@
       </c>
       <c r="C251" s="158"/>
       <c r="D251" s="158">
-        <v>3.44557340511505</v>
+        <v>3.44557746392739</v>
       </c>
       <c r="E251" s="158">
-        <v>3.44557340511505</v>
+        <v>3.44557746392739</v>
       </c>
       <c r="F251" s="158"/>
       <c r="G251" s="158">
-        <v>3.49557772959973</v>
+        <v>3.4955846197625</v>
       </c>
       <c r="H251" s="158">
-        <v>3.49557772959973</v>
+        <v>3.4955846197625</v>
       </c>
     </row>
     <row r="252">
@@ -37523,17 +37523,17 @@
       </c>
       <c r="C252" s="158"/>
       <c r="D252" s="158">
-        <v>356.150882826974</v>
+        <v>351.677007252455</v>
       </c>
       <c r="E252" s="158">
-        <v>356.150882826974</v>
+        <v>351.677007252455</v>
       </c>
       <c r="F252" s="158"/>
       <c r="G252" s="158">
-        <v>337.697637083954</v>
+        <v>328.982529568443</v>
       </c>
       <c r="H252" s="158">
-        <v>337.697637083954</v>
+        <v>328.982529568443</v>
       </c>
     </row>
     <row r="253">
@@ -37542,17 +37542,17 @@
       </c>
       <c r="C253" s="158"/>
       <c r="D253" s="158">
-        <v>11.872053442495</v>
+        <v>11.872067427522001</v>
       </c>
       <c r="E253" s="158">
-        <v>11.872053442495</v>
+        <v>11.872067427522001</v>
       </c>
       <c r="F253" s="158"/>
       <c r="G253" s="158">
-        <v>12.0443481356672</v>
+        <v>12.0443718763835</v>
       </c>
       <c r="H253" s="158">
-        <v>12.0443481356672</v>
+        <v>12.0443718763835</v>
       </c>
     </row>
     <row r="254">
@@ -37561,17 +37561,17 @@
       </c>
       <c r="C254" s="158"/>
       <c r="D254" s="170">
-        <v>368.02293626946897</v>
+        <v>363.549074679977</v>
       </c>
       <c r="E254" s="170">
-        <v>368.02293626946897</v>
+        <v>363.549074679977</v>
       </c>
       <c r="F254" s="158"/>
       <c r="G254" s="170">
-        <v>349.741985219621</v>
+        <v>341.026901444827</v>
       </c>
       <c r="H254" s="170">
-        <v>349.741985219621</v>
+        <v>341.026901444827</v>
       </c>
     </row>
     <row r="255">
@@ -37580,17 +37580,17 @@
       </c>
       <c r="C255" s="158"/>
       <c r="D255" s="170">
-        <v>371.468509674584</v>
+        <v>366.994652143905</v>
       </c>
       <c r="E255" s="170">
-        <v>371.468509674584</v>
+        <v>366.994652143905</v>
       </c>
       <c r="F255" s="158"/>
       <c r="G255" s="170">
-        <v>353.237562949221</v>
+        <v>344.522486064589</v>
       </c>
       <c r="H255" s="170">
-        <v>353.237562949221</v>
+        <v>344.522486064589</v>
       </c>
     </row>
     <row r="256">
@@ -37599,17 +37599,17 @@
       </c>
       <c r="C256" s="158"/>
       <c r="D256" s="158">
-        <v>738.56829540043</v>
+        <v>740.41688391381092</v>
       </c>
       <c r="E256" s="158">
-        <v>738.56829540043</v>
+        <v>740.41688391381092</v>
       </c>
       <c r="F256" s="158"/>
       <c r="G256" s="158">
-        <v>1133.47349350678</v>
+        <v>1137.04022853958</v>
       </c>
       <c r="H256" s="158">
-        <v>1133.47349350678</v>
+        <v>1137.04022853958</v>
       </c>
     </row>
     <row r="257">
@@ -37618,17 +37618,17 @@
       </c>
       <c r="C257" s="158"/>
       <c r="D257" s="158">
-        <v>260.5565041808</v>
+        <v>261.208660201733</v>
       </c>
       <c r="E257" s="158">
-        <v>260.5565041808</v>
+        <v>261.208660201733</v>
       </c>
       <c r="F257" s="158"/>
       <c r="G257" s="158">
-        <v>399.873502408607</v>
+        <v>401.131796350107</v>
       </c>
       <c r="H257" s="158">
-        <v>399.873502408607</v>
+        <v>401.131796350107</v>
       </c>
     </row>
     <row r="258">
@@ -37637,17 +37637,17 @@
       </c>
       <c r="C258" s="158"/>
       <c r="D258" s="158">
-        <v>250.472370774719</v>
+        <v>251.099286864154</v>
       </c>
       <c r="E258" s="158">
-        <v>250.472370774719</v>
+        <v>251.099286864154</v>
       </c>
       <c r="F258" s="158"/>
       <c r="G258" s="158">
-        <v>384.397482124549</v>
+        <v>385.607077208923</v>
       </c>
       <c r="H258" s="158">
-        <v>384.397482124549</v>
+        <v>385.607077208923</v>
       </c>
     </row>
     <row r="259">
@@ -37656,17 +37656,17 @@
       </c>
       <c r="C259" s="158"/>
       <c r="D259" s="170">
-        <v>511.028874955519</v>
+        <v>512.307947065887</v>
       </c>
       <c r="E259" s="170">
-        <v>511.028874955519</v>
+        <v>512.307947065887</v>
       </c>
       <c r="F259" s="158"/>
       <c r="G259" s="170">
-        <v>784.270984533156</v>
+        <v>786.738873559029</v>
       </c>
       <c r="H259" s="170">
-        <v>784.270984533156</v>
+        <v>786.738873559029</v>
       </c>
     </row>
     <row r="260">
@@ -37675,17 +37675,17 @@
       </c>
       <c r="C260" s="158"/>
       <c r="D260" s="170">
-        <v>1621.06568003053</v>
+        <v>1619.7194831236</v>
       </c>
       <c r="E260" s="170">
-        <v>1621.06568003053</v>
+        <v>1619.7194831236</v>
       </c>
       <c r="F260" s="158"/>
       <c r="G260" s="170">
-        <v>2270.98204098916</v>
+        <v>2268.3015881632</v>
       </c>
       <c r="H260" s="170">
-        <v>2270.98204098916</v>
+        <v>2268.3015881632</v>
       </c>
     </row>
     <row r="261">
@@ -37694,17 +37694,17 @@
       </c>
       <c r="C261" s="158"/>
       <c r="D261" s="158">
-        <v>0.13463386105782899</v>
+        <v>0.134633861058046</v>
       </c>
       <c r="E261" s="158">
-        <v>0.13463386105782899</v>
+        <v>0.134633861058046</v>
       </c>
       <c r="F261" s="158"/>
       <c r="G261" s="158">
-        <v>0.0946301072104775</v>
+        <v>0.0946301072109373</v>
       </c>
       <c r="H261" s="158">
-        <v>0.0946301072104775</v>
+        <v>0.0946301072109373</v>
       </c>
     </row>
     <row r="262">
@@ -37713,17 +37713,17 @@
       </c>
       <c r="C262" s="158"/>
       <c r="D262" s="158">
-        <v>0.5483475209896389</v>
+        <v>0.548347520990484</v>
       </c>
       <c r="E262" s="158">
-        <v>0.5483475209896389</v>
+        <v>0.548347520990484</v>
       </c>
       <c r="F262" s="158"/>
       <c r="G262" s="158">
-        <v>0.483897870212885</v>
+        <v>0.483897870209529</v>
       </c>
       <c r="H262" s="158">
-        <v>0.483897870212885</v>
+        <v>0.483897870209529</v>
       </c>
     </row>
     <row r="263">
@@ -37732,17 +37732,17 @@
       </c>
       <c r="C263" s="158"/>
       <c r="D263" s="170">
-        <v>1621.27602673006</v>
+        <v>1619.9298298231302</v>
       </c>
       <c r="E263" s="170">
-        <v>1621.27602673006</v>
+        <v>1619.9298298231302</v>
       </c>
       <c r="F263" s="158"/>
       <c r="G263" s="170">
-        <v>2271.22812314435</v>
+        <v>2268.54767031838</v>
       </c>
       <c r="H263" s="170">
-        <v>2271.22812314435</v>
+        <v>2268.54767031838</v>
       </c>
     </row>
     <row r="264">
@@ -37847,13 +37847,13 @@
         <v>1040.497740402599</v>
       </c>
       <c r="E273" s="59">
-        <v>1022.5389139848801</v>
+        <v>1023.5095378314519</v>
       </c>
       <c r="F273" s="59">
-        <v>918.301203737624</v>
+        <v>925.55317606259007</v>
       </c>
       <c r="G273" s="59">
-        <v>867.15887650055708</v>
+        <v>877.947219077708</v>
       </c>
       <c r="H273" s="59"/>
       <c r="I273" s="59"/>
@@ -37941,7 +37941,7 @@
       </c>
       <c r="C290" s="56"/>
       <c r="D290" s="56">
-        <v>1227.7653938957787</v>
+        <v>1228.7360177423511</v>
       </c>
       <c r="E290" s="57"/>
     </row>
@@ -37951,7 +37951,7 @@
       </c>
       <c r="C291" s="56"/>
       <c r="D291" s="56">
-        <v>1156.0284186813492</v>
+        <v>1156.998606706602</v>
       </c>
       <c r="E291" s="57"/>
     </row>
@@ -37971,7 +37971,7 @@
       </c>
       <c r="C293" s="56"/>
       <c r="D293" s="56">
-        <v>35.724285950973147</v>
+        <v>35.724721772292718</v>
       </c>
       <c r="E293" s="57"/>
     </row>
@@ -37991,7 +37991,7 @@
       </c>
       <c r="C295" s="56"/>
       <c r="D295" s="56">
-        <v>1022.5389139848799</v>
+        <v>1023.5095378314522</v>
       </c>
       <c r="E295" s="57"/>
     </row>
@@ -38049,7 +38049,7 @@
       </c>
       <c r="C301" s="56"/>
       <c r="D301" s="56">
-        <v>-2393.2383258045361</v>
+        <v>-2392.9471386505638</v>
       </c>
       <c r="E301" s="57"/>
     </row>
@@ -38059,7 +38059,7 @@
       </c>
       <c r="C302" s="56"/>
       <c r="D302" s="56">
-        <v>-5584.22276021058</v>
+        <v>-5583.54332351798</v>
       </c>
       <c r="E302" s="57"/>
     </row>
@@ -38091,7 +38091,7 @@
       </c>
       <c r="C306" s="56"/>
       <c r="D306" s="56">
-        <v>4790.7099634354508</v>
+        <v>4813.732283070337</v>
       </c>
       <c r="E306" s="57"/>
     </row>
@@ -38101,7 +38101,7 @@
       </c>
       <c r="C307" s="56"/>
       <c r="D307" s="56">
-        <v>4695.8497812772512</v>
+        <v>4718.7514182251789</v>
       </c>
       <c r="E307" s="57"/>
     </row>
@@ -38111,7 +38111,7 @@
       </c>
       <c r="C308" s="56"/>
       <c r="D308" s="56">
-        <v>144.68134811741078</v>
+        <v>144.6813481174112</v>
       </c>
       <c r="E308" s="57"/>
     </row>
@@ -38121,7 +38121,7 @@
       </c>
       <c r="C309" s="56"/>
       <c r="D309" s="56">
-        <v>-49.8211659592111</v>
+        <v>-49.700483272253138</v>
       </c>
       <c r="E309" s="57"/>
     </row>
@@ -38131,7 +38131,7 @@
       </c>
       <c r="C310" s="56"/>
       <c r="D310" s="56">
-        <v>1009.8229054588073</v>
+        <v>1009.8229054590898</v>
       </c>
       <c r="E310" s="57"/>
     </row>
@@ -38141,7 +38141,7 @@
       </c>
       <c r="C311" s="56"/>
       <c r="D311" s="56">
-        <v>3780.8870579766435</v>
+        <v>3803.9093776112472</v>
       </c>
       <c r="E311" s="57"/>
     </row>
@@ -38199,7 +38199,7 @@
       </c>
       <c r="C317" s="56"/>
       <c r="D317" s="56">
-        <v>-9665.7338826070081</v>
+        <v>-9658.8271867166241</v>
       </c>
       <c r="E317" s="57"/>
     </row>
@@ -38209,7 +38209,7 @@
       </c>
       <c r="C318" s="56"/>
       <c r="D318" s="56">
-        <v>-22553.379059416351</v>
+        <v>-22537.263435672132</v>
       </c>
       <c r="E318" s="57"/>
     </row>
